--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEDB739-6E5D-46AB-A3E7-5E8C5740794A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE07212-4AE6-4AE9-9B6D-2D68874884AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,9 +590,8 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="3.3984375" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="4.19921875" customWidth="1"/>
+    <col min="5" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="10" width="4.5" customWidth="1"/>
     <col min="11" max="11" width="3.3984375" customWidth="1"/>
@@ -606,8 +605,8 @@
     <col min="31" max="31" width="5.69921875" customWidth="1"/>
     <col min="32" max="32" width="8.5" customWidth="1"/>
     <col min="33" max="33" width="14.59765625" customWidth="1"/>
-    <col min="34" max="34" width="4.5" customWidth="1"/>
-    <col min="35" max="36" width="3.5" customWidth="1"/>
+    <col min="34" max="35" width="4.5" customWidth="1"/>
+    <col min="36" max="36" width="4.796875" customWidth="1"/>
     <col min="37" max="37" width="6.09765625" customWidth="1"/>
     <col min="38" max="38" width="5.69921875" customWidth="1"/>
     <col min="39" max="39" width="11.5" customWidth="1"/>
@@ -797,32 +796,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG2" s="4" t="e">
-        <f t="shared" ref="AG2:AG42" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
+        <f>MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK42" si="6">SUM(AH2:AJ2)</f>
+        <f t="shared" ref="AK2:AK42" si="5">SUM(AH2:AJ2)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="1">
         <v>3</v>
       </c>
       <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM42" si="7">(AK2/AL2)*100</f>
+        <f t="shared" ref="AM2:AM42" si="6">(AK2/AL2)*100</f>
         <v>0</v>
       </c>
       <c r="AN2" s="4">
-        <f t="shared" ref="AN2:AN42" si="8">MAX(IF(AM2&gt;=20,2,0),IF(AM2&gt;=40,3,0),IF(AM2&gt;=60,4,0),IF(AM2&gt;=80,5,0))</f>
+        <f t="shared" ref="AN2:AN42" si="7">MAX(IF(AM2&gt;=20,2,0),IF(AM2&gt;=40,3,0),IF(AM2&gt;=60,4,0),IF(AM2&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AO2" s="8">
         <v>0</v>
       </c>
       <c r="AP2" s="4" t="e">
-        <f t="shared" ref="AP2:AP42" si="9">(AG2+AN2+AO2)/3</f>
+        <f>(AG2+AN2+AO2)/3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ2" s="5"/>
@@ -878,32 +877,32 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AG2:AG42" si="8">MAX(IF(AF3*100&gt;=20,2,0),IF(AF3*100&gt;=40,3,0),IF(AF3*100&gt;=60,4,0),IF(AF3*100&gt;=80,5,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL3" s="1">
         <v>3</v>
       </c>
       <c r="AM3" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN3" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AO3" s="8">
         <v>0</v>
       </c>
       <c r="AP3" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AP2:AP42" si="9">(AG3+AN3+AO3)/3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" s="5"/>
@@ -959,25 +958,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG4" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL4" s="1">
         <v>3</v>
       </c>
       <c r="AM4" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO4" s="8">
@@ -995,7 +994,9 @@
         <v>44</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1013,7 +1014,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1029,7 +1030,7 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE5" s="1">
         <f t="shared" si="3"/>
@@ -1040,25 +1041,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG5" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL5" s="1">
         <v>3</v>
       </c>
       <c r="AM5" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO5" s="8">
@@ -1121,25 +1122,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG6" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>3</v>
       </c>
       <c r="AM6" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO6" s="8">
@@ -1202,25 +1203,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG7" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>3</v>
       </c>
       <c r="AM7" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO7" s="8">
@@ -1283,25 +1284,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG8" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL8" s="1">
         <v>3</v>
       </c>
       <c r="AM8" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO8" s="8">
@@ -1364,25 +1365,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG9" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL9" s="1">
         <v>3</v>
       </c>
       <c r="AM9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO9" s="8">
@@ -1400,7 +1401,9 @@
         <v>49</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1418,7 +1421,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1434,7 +1437,7 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
         <f t="shared" si="3"/>
@@ -1445,25 +1448,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG10" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL10" s="1">
         <v>3</v>
       </c>
       <c r="AM10" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO10" s="8">
@@ -1526,25 +1529,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG11" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL11" s="1">
         <v>3</v>
       </c>
       <c r="AM11" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO11" s="8">
@@ -1607,25 +1610,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG12" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL12" s="1">
         <v>3</v>
       </c>
       <c r="AM12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO12" s="8">
@@ -1688,25 +1691,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG13" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL13" s="1">
         <v>3</v>
       </c>
       <c r="AM13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO13" s="8">
@@ -1724,7 +1727,9 @@
         <v>53</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1742,7 +1747,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1758,7 +1763,7 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="1">
         <f t="shared" si="3"/>
@@ -1769,25 +1774,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG14" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL14" s="1">
         <v>3</v>
       </c>
       <c r="AM14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO14" s="8">
@@ -1850,25 +1855,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG15" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL15" s="1">
         <v>3</v>
       </c>
       <c r="AM15" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN15" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO15" s="8">
@@ -1931,25 +1936,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG16" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL16" s="1">
         <v>3</v>
       </c>
       <c r="AM16" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO16" s="8">
@@ -2012,25 +2017,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG17" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL17" s="1">
         <v>3</v>
       </c>
       <c r="AM17" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN17" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO17" s="8">
@@ -2093,25 +2098,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG18" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL18" s="1">
         <v>3</v>
       </c>
       <c r="AM18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO18" s="8">
@@ -2174,25 +2179,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG19" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL19" s="1">
         <v>3</v>
       </c>
       <c r="AM19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO19" s="8">
@@ -2210,7 +2215,9 @@
         <v>59</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2228,7 +2235,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2244,7 +2251,7 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="1">
         <f t="shared" si="3"/>
@@ -2255,25 +2262,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG20" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL20" s="1">
         <v>3</v>
       </c>
       <c r="AM20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO20" s="8">
@@ -2291,7 +2298,9 @@
         <v>60</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2309,7 +2318,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="3"/>
@@ -2336,25 +2345,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG21" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL21" s="1">
         <v>3</v>
       </c>
       <c r="AM21" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO21" s="8">
@@ -2417,25 +2426,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG22" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL22" s="1">
         <v>3</v>
       </c>
       <c r="AM22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO22" s="8">
@@ -2498,25 +2507,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL23" s="1">
         <v>3</v>
       </c>
       <c r="AM23" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN23" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO23" s="8">
@@ -2579,25 +2588,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG24" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>3</v>
       </c>
       <c r="AM24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN24" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO24" s="8">
@@ -2615,7 +2624,9 @@
         <v>64</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2633,7 +2644,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2649,7 +2660,7 @@
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="1">
         <f t="shared" si="3"/>
@@ -2660,25 +2671,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG25" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL25" s="1">
         <v>3</v>
       </c>
       <c r="AM25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO25" s="8">
@@ -2696,7 +2707,9 @@
         <v>65</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2714,7 +2727,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2730,7 +2743,7 @@
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1">
         <f t="shared" si="3"/>
@@ -2741,25 +2754,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG26" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
         <v>3</v>
       </c>
       <c r="AM26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO26" s="8">
@@ -2822,25 +2835,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG27" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL27" s="1">
         <v>3</v>
       </c>
       <c r="AM27" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO27" s="8">
@@ -2858,7 +2871,9 @@
         <v>67</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2876,7 +2891,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2892,7 +2907,7 @@
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
         <f t="shared" si="3"/>
@@ -2903,25 +2918,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG28" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL28" s="1">
         <v>3</v>
       </c>
       <c r="AM28" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO28" s="8">
@@ -2984,25 +2999,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG29" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>3</v>
       </c>
       <c r="AM29" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO29" s="8">
@@ -3065,25 +3080,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG30" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL30" s="1">
         <v>3</v>
       </c>
       <c r="AM30" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO30" s="8">
@@ -3144,25 +3159,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG31" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>3</v>
       </c>
       <c r="AM31" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO31" s="8">
@@ -3223,25 +3238,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG32" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL32" s="1">
         <v>3</v>
       </c>
       <c r="AM32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO32" s="8">
@@ -3302,25 +3317,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG33" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL33" s="1">
         <v>3</v>
       </c>
       <c r="AM33" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO33" s="8">
@@ -3381,25 +3396,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG34" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL34" s="1">
         <v>3</v>
       </c>
       <c r="AM34" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO34" s="8">
@@ -3460,25 +3475,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG35" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL35" s="1">
         <v>3</v>
       </c>
       <c r="AM35" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO35" s="8">
@@ -3539,25 +3554,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG36" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL36" s="1">
         <v>3</v>
       </c>
       <c r="AM36" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO36" s="8">
@@ -3618,25 +3633,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG37" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>3</v>
       </c>
       <c r="AM37" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO37" s="8">
@@ -3697,25 +3712,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG38" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL38" s="1">
         <v>3</v>
       </c>
       <c r="AM38" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN38" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO38" s="8">
@@ -3776,25 +3791,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG39" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL39" s="1">
         <v>3</v>
       </c>
       <c r="AM39" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN39" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO39" s="8">
@@ -3855,25 +3870,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG40" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL40" s="1">
         <v>3</v>
       </c>
       <c r="AM40" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN40" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO40" s="8">
@@ -3934,25 +3949,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG41" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL41" s="1">
         <v>3</v>
       </c>
       <c r="AM41" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN41" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN41" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO41" s="8">
@@ -4015,25 +4030,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG42" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL42" s="10">
         <v>3</v>
       </c>
       <c r="AM42" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="4">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO42" s="8">

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE07212-4AE6-4AE9-9B6D-2D68874884AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2B4BE-2F45-4AB2-BECB-AF7B8CD406C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:AQ237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AG3" s="4" t="e">
-        <f t="shared" ref="AG2:AG42" si="8">MAX(IF(AF3*100&gt;=20,2,0),IF(AF3*100&gt;=40,3,0),IF(AF3*100&gt;=60,4,0),IF(AF3*100&gt;=80,5,0))</f>
+        <f t="shared" ref="AG3:AG42" si="8">MAX(IF(AF3*100&gt;=20,2,0),IF(AF3*100&gt;=40,3,0),IF(AF3*100&gt;=60,4,0),IF(AF3*100&gt;=80,5,0))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AH3" s="1"/>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="4" t="e">
-        <f t="shared" ref="AP2:AP42" si="9">(AG3+AN3+AO3)/3</f>
+        <f t="shared" ref="AP3:AP42" si="9">(AG3+AN3+AO3)/3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ3" s="5"/>
@@ -1810,7 +1810,9 @@
         <v>54</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1828,7 +1830,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1844,7 +1846,7 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="3"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D627D2-E04C-4292-BF2F-CA041993B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF0AA73-BB3D-475B-8DC1-AB7063A55720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -800,15 +800,15 @@
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="AP2" s="4">
         <f t="shared" ref="AP2:AP34" si="9">(AG2+AN2+AO2)/3</f>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="5"/>
     </row>
@@ -883,15 +883,15 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -966,15 +966,15 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="AP4" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="5"/>
     </row>
@@ -1049,15 +1049,15 @@
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="5"/>
     </row>
@@ -1132,15 +1132,15 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
@@ -1215,15 +1215,15 @@
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="AP7" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="5"/>
     </row>
@@ -1298,15 +1298,15 @@
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AP8" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="5"/>
     </row>
@@ -1381,15 +1381,15 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1464,15 +1464,15 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="AP10" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="5"/>
     </row>
@@ -1547,15 +1547,15 @@
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="AP11" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="5"/>
     </row>
@@ -1630,15 +1630,15 @@
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="5"/>
     </row>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="AP13" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="5"/>
     </row>
@@ -1759,7 +1759,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1776,7 +1778,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1792,11 +1794,11 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
@@ -1879,15 +1881,15 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -1912,7 +1914,7 @@
       </c>
       <c r="AP15" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="5"/>
     </row>
@@ -1962,15 +1964,15 @@
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -1995,7 +1997,7 @@
       </c>
       <c r="AP16" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="5"/>
     </row>
@@ -2045,15 +2047,15 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -2078,7 +2080,7 @@
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="5"/>
     </row>
@@ -2091,7 +2093,9 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2108,7 +2112,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2124,11 +2128,11 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
@@ -2211,15 +2215,15 @@
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2244,7 +2248,7 @@
       </c>
       <c r="AP19" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="5"/>
     </row>
@@ -2296,11 +2300,11 @@
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2379,15 +2383,15 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -2412,7 +2416,7 @@
       </c>
       <c r="AP21" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
@@ -2425,7 +2429,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2442,7 +2448,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2458,11 +2464,11 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
@@ -2545,15 +2551,15 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2578,7 +2584,7 @@
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="5"/>
     </row>
@@ -2628,15 +2634,15 @@
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
@@ -2661,7 +2667,7 @@
       </c>
       <c r="AP24" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="5"/>
     </row>
@@ -2711,15 +2717,15 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -2744,7 +2750,7 @@
       </c>
       <c r="AP25" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="5"/>
     </row>
@@ -2796,11 +2802,11 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -2881,11 +2887,11 @@
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -2966,11 +2972,11 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3049,15 +3055,15 @@
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3082,7 +3088,7 @@
       </c>
       <c r="AP29" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="5"/>
     </row>
@@ -3132,15 +3138,15 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3165,7 +3171,7 @@
       </c>
       <c r="AP30" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3215,15 +3221,15 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -3248,7 +3254,7 @@
       </c>
       <c r="AP31" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="5"/>
     </row>
@@ -3298,15 +3304,15 @@
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
@@ -3331,7 +3337,7 @@
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="5"/>
     </row>
@@ -3383,11 +3389,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3466,15 +3472,15 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -3499,7 +3505,7 @@
       </c>
       <c r="AP34" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="5"/>
     </row>
@@ -3512,7 +3518,9 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3529,7 +3537,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -3545,11 +3553,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF0AA73-BB3D-475B-8DC1-AB7063A55720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE48A69-B067-4144-8BC8-D95C498866E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,9 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -780,7 +782,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -796,19 +798,19 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -833,7 +835,7 @@
       </c>
       <c r="AP2" s="4">
         <f t="shared" ref="AP2:AP34" si="9">(AG2+AN2+AO2)/3</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ2" s="5"/>
     </row>
@@ -846,7 +848,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -863,7 +867,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -879,19 +883,19 @@
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -916,7 +920,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -929,7 +933,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -946,7 +952,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -962,19 +968,19 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -999,7 +1005,7 @@
       </c>
       <c r="AP4" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ4" s="5"/>
     </row>
@@ -1012,7 +1018,9 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1029,7 +1037,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1045,19 +1053,19 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1082,7 +1090,7 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ5" s="5"/>
     </row>
@@ -1095,7 +1103,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1112,7 +1122,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1128,19 +1138,19 @@
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1165,7 +1175,7 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
@@ -1178,7 +1188,9 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1195,7 +1207,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1211,19 +1223,19 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -1248,7 +1260,7 @@
       </c>
       <c r="AP7" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ7" s="5"/>
     </row>
@@ -1261,7 +1273,9 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1278,7 +1292,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1294,19 +1308,19 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1331,7 +1345,7 @@
       </c>
       <c r="AP8" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ8" s="5"/>
     </row>
@@ -1344,7 +1358,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1361,7 +1377,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1377,19 +1393,19 @@
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1414,7 +1430,7 @@
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1427,8 +1443,12 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1444,7 +1464,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1460,19 +1480,19 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -1497,7 +1517,7 @@
       </c>
       <c r="AP10" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ10" s="5"/>
     </row>
@@ -1510,7 +1530,9 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1527,7 +1549,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1543,19 +1565,19 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -1580,7 +1602,7 @@
       </c>
       <c r="AP11" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ11" s="5"/>
     </row>
@@ -1593,7 +1615,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1610,7 +1634,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1626,19 +1650,19 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -1663,7 +1687,7 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ12" s="5"/>
     </row>
@@ -1676,7 +1700,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1693,7 +1719,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1709,19 +1735,19 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -1746,7 +1772,7 @@
       </c>
       <c r="AP13" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ13" s="5"/>
     </row>
@@ -1798,11 +1824,11 @@
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1844,7 +1870,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1861,7 +1889,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1877,19 +1905,19 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -1914,7 +1942,7 @@
       </c>
       <c r="AP15" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ15" s="5"/>
     </row>
@@ -1927,7 +1955,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1944,7 +1974,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1960,19 +1990,19 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -1997,7 +2027,7 @@
       </c>
       <c r="AP16" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ16" s="5"/>
     </row>
@@ -2010,7 +2040,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2027,7 +2059,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2043,19 +2075,19 @@
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -2080,7 +2112,7 @@
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ17" s="5"/>
     </row>
@@ -2132,11 +2164,11 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2178,7 +2210,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2195,7 +2229,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2211,19 +2245,19 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2248,7 +2282,7 @@
       </c>
       <c r="AP19" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ19" s="5"/>
     </row>
@@ -2264,7 +2298,9 @@
       <c r="E20" s="1">
         <v>1.5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2280,7 +2316,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2296,15 +2332,15 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2346,7 +2382,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2363,7 +2401,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2379,19 +2417,19 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -2416,7 +2454,7 @@
       </c>
       <c r="AP21" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
@@ -2468,11 +2506,11 @@
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2514,7 +2552,9 @@
       <c r="D23" s="9">
         <v>1</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2531,7 +2571,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -2547,19 +2587,19 @@
       </c>
       <c r="AD23" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2584,7 +2624,7 @@
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ23" s="5"/>
     </row>
@@ -2634,11 +2674,11 @@
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -2680,7 +2720,9 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2697,7 +2739,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2713,19 +2755,19 @@
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -2750,7 +2792,7 @@
       </c>
       <c r="AP25" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ25" s="5"/>
     </row>
@@ -2802,11 +2844,11 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -2851,7 +2893,9 @@
       <c r="E27" s="1">
         <v>1.5</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2867,7 +2911,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2883,15 +2927,15 @@
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -2936,7 +2980,9 @@
       <c r="E28" s="1">
         <v>1.5</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2952,7 +2998,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2968,15 +3014,15 @@
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3018,7 +3064,9 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3035,7 +3083,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -3051,19 +3099,19 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3088,7 +3136,7 @@
       </c>
       <c r="AP29" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ29" s="5"/>
     </row>
@@ -3101,7 +3149,9 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3118,7 +3168,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -3134,19 +3184,19 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3171,7 +3221,7 @@
       </c>
       <c r="AP30" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3184,8 +3234,12 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3201,7 +3255,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -3217,19 +3271,19 @@
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -3254,7 +3308,7 @@
       </c>
       <c r="AP31" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ31" s="5"/>
     </row>
@@ -3267,7 +3321,9 @@
       <c r="D32" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -3284,7 +3340,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3300,19 +3356,19 @@
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
@@ -3337,7 +3393,7 @@
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ32" s="5"/>
     </row>
@@ -3389,11 +3445,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3435,7 +3491,9 @@
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3452,7 +3510,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -3468,19 +3526,19 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -3505,7 +3563,7 @@
       </c>
       <c r="AP34" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ34" s="5"/>
     </row>
@@ -3519,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3537,9 +3595,11 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>2.5</v>
-      </c>
-      <c r="U35" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -3549,15 +3609,15 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE48A69-B067-4144-8BC8-D95C498866E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87D7FB-7639-46E3-9B1D-7E9E546A3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,9 @@
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
         <v>2</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -794,11 +796,11 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <f t="shared" ref="AC2:AC34" si="1">SUM(U2:AB2)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
@@ -806,7 +808,7 @@
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.90909090909090906</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -869,7 +871,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -954,7 +958,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -1039,7 +1045,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -1049,11 +1057,11 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
@@ -1061,7 +1069,7 @@
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1124,7 +1132,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -1209,7 +1219,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -1294,7 +1306,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -1379,7 +1393,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1">
+        <v>0.2</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1389,11 +1405,11 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
@@ -1401,7 +1417,7 @@
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1466,7 +1482,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1476,11 +1494,11 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
@@ -1488,7 +1506,7 @@
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.8181818181818181</v>
+        <v>1.8636363636363633</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1551,7 +1569,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1636,7 +1656,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1721,7 +1743,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1806,7 +1830,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="9">
+        <v>0.2</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1816,11 +1842,11 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
@@ -1828,7 +1854,7 @@
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1891,7 +1917,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1976,7 +2004,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -2061,7 +2091,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -2071,11 +2103,11 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
@@ -2083,7 +2115,7 @@
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2146,7 +2178,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -2231,7 +2265,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -2241,11 +2277,11 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
@@ -2253,7 +2289,7 @@
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2318,7 +2354,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -2328,11 +2366,11 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
@@ -2340,7 +2378,7 @@
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.8181818181818181</v>
+        <v>1.8636363636363633</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2403,7 +2441,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U21" s="1"/>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -2488,7 +2528,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U22" s="1"/>
+      <c r="U22" s="1">
+        <v>0.1</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -2498,11 +2540,11 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
@@ -2510,7 +2552,7 @@
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2573,7 +2615,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -2656,7 +2700,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U24" s="1"/>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -2741,7 +2787,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -2751,11 +2799,11 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
@@ -2763,7 +2811,7 @@
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -2826,7 +2874,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U26" s="1"/>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -2913,7 +2963,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U27" s="1"/>
+      <c r="U27" s="9">
+        <v>0.2</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -2923,11 +2975,11 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
@@ -2935,7 +2987,7 @@
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.8181818181818181</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3000,7 +3052,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U28" s="1"/>
+      <c r="U28" s="9">
+        <v>0.2</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -3010,11 +3064,11 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
@@ -3022,7 +3076,7 @@
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>1.8181818181818181</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3085,7 +3139,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U29" s="1"/>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -3170,7 +3226,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U30" s="1"/>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -3257,7 +3315,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="U31" s="1"/>
+      <c r="U31" s="9">
+        <v>0.2</v>
+      </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -3267,11 +3327,11 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
@@ -3279,7 +3339,7 @@
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.8181818181818181</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3342,7 +3402,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U32" s="9"/>
+      <c r="U32" s="9">
+        <v>0.1</v>
+      </c>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
@@ -3352,11 +3414,11 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
@@ -3364,7 +3426,7 @@
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3427,7 +3489,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U33" s="9"/>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -3512,7 +3576,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="U34" s="1"/>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D87D7FB-7639-46E3-9B1D-7E9E546A3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956841C-C2D8-42B0-BA1D-8C0220E72127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,9 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -782,7 +784,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -800,15 +802,15 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.95454545454545447</v>
+        <v>1.125</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -853,7 +855,9 @@
       <c r="E3" s="1">
         <v>1.5</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -869,7 +873,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -887,15 +891,15 @@
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -940,7 +944,9 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -956,7 +962,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -974,15 +980,15 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.9375</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1027,7 +1033,9 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1043,7 +1051,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U5" s="9">
         <v>0.1</v>
@@ -1061,15 +1069,15 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.95454545454545447</v>
+        <v>1.125</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1114,7 +1122,9 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1130,7 +1140,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -1148,15 +1158,15 @@
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.9375</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1201,7 +1211,9 @@
       <c r="E7" s="1">
         <v>1.5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1217,7 +1229,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1235,15 +1247,15 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1288,7 +1300,9 @@
       <c r="E8" s="9">
         <v>1.5</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1304,7 +1318,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1322,15 +1336,15 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1375,7 +1389,9 @@
       <c r="E9" s="9">
         <v>1.5</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1391,7 +1407,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U9" s="1">
         <v>0.2</v>
@@ -1409,15 +1425,15 @@
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>1.2272727272727273</v>
+        <v>1.3125</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1502,11 +1518,11 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.8636363636363633</v>
+        <v>1.2812499999999998</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1551,7 +1567,9 @@
       <c r="E11" s="9">
         <v>1.5</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1567,7 +1585,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1585,15 +1603,15 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1638,7 +1656,9 @@
       <c r="E12" s="9">
         <v>1.5</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1654,7 +1674,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1672,15 +1692,15 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1725,7 +1745,9 @@
       <c r="E13" s="9">
         <v>1.5</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>0.6</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1741,7 +1763,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1759,15 +1781,15 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>0.96875</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1812,7 +1834,9 @@
       <c r="E14" s="1">
         <v>1.5</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1828,7 +1852,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -1846,15 +1870,15 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1.2272727272727273</v>
+        <v>1.3125</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1899,7 +1923,9 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1915,7 +1941,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
@@ -1933,15 +1959,15 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>1.09375</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -1986,7 +2012,9 @@
       <c r="E16" s="9">
         <v>1.5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2002,7 +2030,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2020,15 +2048,15 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2073,7 +2101,9 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2089,7 +2119,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
@@ -2107,15 +2137,15 @@
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.95454545454545447</v>
+        <v>1.125</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2160,7 +2190,9 @@
       <c r="E18" s="1">
         <v>1.5</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2176,7 +2208,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U18" s="9">
         <v>0</v>
@@ -2194,15 +2226,15 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2247,7 +2279,9 @@
       <c r="E19" s="1">
         <v>1.5</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2263,7 +2297,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2281,15 +2315,15 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.1818181818181817</v>
+        <v>1.2812499999999998</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2337,7 +2371,9 @@
       <c r="F20" s="9">
         <v>1.5</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2352,7 +2388,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2370,15 +2406,15 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.8636363636363633</v>
+        <v>1.5937499999999998</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2423,7 +2459,9 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.6</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2439,7 +2477,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2457,15 +2495,15 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.8125</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2510,7 +2548,9 @@
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2526,7 +2566,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2544,15 +2584,15 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.1818181818181817</v>
+        <v>1.2812499999999998</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2597,7 +2637,9 @@
       <c r="E23" s="9">
         <v>1.5</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9">
+        <v>0.6</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2613,7 +2655,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
@@ -2631,15 +2673,15 @@
       </c>
       <c r="AD23" s="9">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>0.96875</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -2720,15 +2762,15 @@
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.45454545454545453</v>
+        <v>0.3125</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
@@ -2753,7 +2795,7 @@
       </c>
       <c r="AP24" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ24" s="5"/>
     </row>
@@ -2769,7 +2811,9 @@
       <c r="E25" s="1">
         <v>1.5</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2785,7 +2829,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U25" s="9">
         <v>0.1</v>
@@ -2803,15 +2847,15 @@
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1.1818181818181817</v>
+        <v>1.125</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -2856,7 +2900,9 @@
       <c r="E26" s="1">
         <v>1.5</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2872,7 +2918,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -2890,15 +2936,15 @@
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -2946,7 +2992,9 @@
       <c r="F27" s="9">
         <v>1.5</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2961,7 +3009,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -2979,15 +3027,15 @@
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.9090909090909089</v>
+        <v>1.625</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3072,11 +3120,11 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>1.9090909090909089</v>
+        <v>1.3125</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3121,7 +3169,9 @@
       <c r="E29" s="1">
         <v>1.5</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3137,7 +3187,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3155,15 +3205,15 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3208,7 +3258,9 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>0.6</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3224,7 +3276,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -3242,15 +3294,15 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.90909090909090906</v>
+        <v>0.8125</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3335,11 +3387,11 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.9090909090909089</v>
+        <v>1.3125</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3384,7 +3436,9 @@
       <c r="E32" s="9">
         <v>1.5</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3400,7 +3454,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U32" s="9">
         <v>0.1</v>
@@ -3418,15 +3472,15 @@
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1.1818181818181817</v>
+        <v>1.2812499999999998</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3471,7 +3525,9 @@
       <c r="E33" s="9">
         <v>1.5</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
@@ -3487,7 +3543,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U33" s="9">
         <v>0</v>
@@ -3505,15 +3561,15 @@
       </c>
       <c r="AD33" s="9">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3558,7 +3614,9 @@
       <c r="E34" s="1">
         <v>1.5</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="9">
+        <v>1.5</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3574,7 +3632,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -3592,15 +3650,15 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.1363636363636362</v>
+        <v>1.25</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -3645,7 +3703,9 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3661,7 +3721,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -3679,11 +3739,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956841C-C2D8-42B0-BA1D-8C0220E72127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C4348-629F-40EA-A8BF-ADFD21E26986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,37 +591,35 @@
   <dimension ref="A1:AQ230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="4.19921875" customWidth="1"/>
-    <col min="5" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="3.3984375" customWidth="1"/>
-    <col min="12" max="14" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="4.3984375" customWidth="1"/>
-    <col min="16" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="19" width="4.3984375" customWidth="1"/>
-    <col min="20" max="20" width="6.5" customWidth="1"/>
-    <col min="21" max="29" width="4.5" customWidth="1"/>
-    <col min="30" max="30" width="6.5" customWidth="1"/>
-    <col min="31" max="31" width="5.69921875" customWidth="1"/>
-    <col min="32" max="32" width="8.5" customWidth="1"/>
-    <col min="33" max="33" width="14.59765625" customWidth="1"/>
-    <col min="34" max="35" width="4.5" customWidth="1"/>
-    <col min="36" max="36" width="4.796875" customWidth="1"/>
-    <col min="37" max="37" width="6.09765625" customWidth="1"/>
-    <col min="38" max="38" width="5.69921875" customWidth="1"/>
-    <col min="39" max="39" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.69921875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.3984375" customWidth="1"/>
-    <col min="41" max="41" width="8.69921875" customWidth="1"/>
-    <col min="42" max="42" width="12.5" customWidth="1"/>
+    <col min="41" max="41" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -769,7 +767,9 @@
       <c r="F2" s="1">
         <v>1.5</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -784,7 +784,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
@@ -810,7 +810,7 @@
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>1.125</v>
+        <v>1.328125</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -858,7 +858,9 @@
       <c r="F3" s="1">
         <v>1.5</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -873,7 +875,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -891,7 +893,7 @@
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
@@ -899,7 +901,7 @@
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.453125</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -947,7 +949,9 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -962,7 +966,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -980,7 +984,7 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
@@ -988,7 +992,7 @@
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
+        <v>1.140625</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1125,7 +1129,9 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1140,7 +1146,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
@@ -1166,7 +1172,7 @@
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.9375</v>
+        <v>1.140625</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1214,7 +1220,9 @@
       <c r="F7" s="1">
         <v>1.5</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1229,7 +1237,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1247,7 +1255,7 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
@@ -1255,7 +1263,7 @@
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.5625</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1303,7 +1311,9 @@
       <c r="F8" s="9">
         <v>1.5</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1318,7 +1328,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1336,7 +1346,7 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
@@ -1344,7 +1354,7 @@
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.453125</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1392,7 +1402,9 @@
       <c r="F9" s="9">
         <v>1.5</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1407,7 +1419,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U9" s="1">
         <v>0.2</v>
@@ -1425,7 +1437,7 @@
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
@@ -1433,7 +1445,7 @@
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>1.3125</v>
+        <v>1.515625</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1481,8 +1493,12 @@
       <c r="F10" s="1">
         <v>1.5</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1496,7 +1512,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U10" s="9">
         <v>0.1</v>
@@ -1514,7 +1530,7 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
@@ -1522,7 +1538,7 @@
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.2812499999999998</v>
+        <v>1.9062499999999998</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1570,7 +1586,9 @@
       <c r="F11" s="1">
         <v>1.5</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1585,7 +1603,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1603,7 +1621,7 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
@@ -1611,7 +1629,7 @@
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.453125</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1659,7 +1677,9 @@
       <c r="F12" s="9">
         <v>1.5</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1674,7 +1694,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1692,7 +1712,7 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
@@ -1700,7 +1720,7 @@
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.5625</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1748,7 +1768,9 @@
       <c r="F13" s="1">
         <v>0.6</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1763,7 +1785,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1781,7 +1803,7 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
@@ -1789,7 +1811,7 @@
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.96875</v>
+        <v>1.171875</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1837,7 +1859,9 @@
       <c r="F14" s="9">
         <v>1.5</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1852,7 +1876,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -1870,7 +1894,7 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
@@ -1878,7 +1902,7 @@
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1.3125</v>
+        <v>1.625</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1926,7 +1950,9 @@
       <c r="F15" s="1">
         <v>1.5</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1941,7 +1967,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
@@ -1959,7 +1985,7 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
@@ -1967,7 +1993,7 @@
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>1.09375</v>
+        <v>1.296875</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2015,7 +2041,9 @@
       <c r="F16" s="9">
         <v>1.5</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2030,7 +2058,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2048,7 +2076,7 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
@@ -2056,7 +2084,7 @@
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.453125</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2104,7 +2132,9 @@
       <c r="F17" s="1">
         <v>1.5</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2119,7 +2149,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
@@ -2137,7 +2167,7 @@
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
@@ -2145,7 +2175,7 @@
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>1.125</v>
+        <v>1.328125</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2193,7 +2223,9 @@
       <c r="F18" s="9">
         <v>1.5</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2208,7 +2240,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U18" s="9">
         <v>0</v>
@@ -2226,7 +2258,7 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
@@ -2234,7 +2266,7 @@
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.453125</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2282,7 +2314,9 @@
       <c r="F19" s="9">
         <v>1.5</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2297,7 +2331,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2315,7 +2349,7 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
@@ -2323,7 +2357,7 @@
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.2812499999999998</v>
+        <v>1.5937499999999998</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2374,7 +2408,9 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2388,7 +2424,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2406,7 +2442,7 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
@@ -2414,7 +2450,7 @@
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.5937499999999998</v>
+        <v>2.0624999999999996</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2460,9 +2496,11 @@
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2477,7 +2515,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2495,7 +2533,7 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
@@ -2503,7 +2541,7 @@
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.8125</v>
+        <v>1.0312499999999998</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2551,7 +2589,9 @@
       <c r="F22" s="9">
         <v>1.5</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2566,7 +2606,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2584,7 +2624,7 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
@@ -2592,7 +2632,7 @@
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.2812499999999998</v>
+        <v>1.5937499999999998</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2638,7 +2678,7 @@
         <v>1.5</v>
       </c>
       <c r="F23" s="9">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2655,7 +2695,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
@@ -2673,7 +2713,7 @@
       </c>
       <c r="AD23" s="9">
         <f t="shared" si="2"/>
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
@@ -2681,7 +2721,7 @@
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.96875</v>
+        <v>1.09375</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -2723,9 +2763,15 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2740,7 +2786,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -2758,7 +2804,7 @@
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
@@ -2766,11 +2812,11 @@
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.3125</v>
+        <v>1.40625</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
@@ -2795,7 +2841,7 @@
       </c>
       <c r="AP24" s="4">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ24" s="5"/>
     </row>
@@ -2814,7 +2860,9 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2829,7 +2877,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="U25" s="9">
         <v>0.1</v>
@@ -2847,7 +2895,7 @@
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
@@ -2855,7 +2903,7 @@
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1.125</v>
+        <v>1.328125</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -2995,7 +3043,9 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3009,7 +3059,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3027,7 +3077,7 @@
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
@@ -3035,7 +3085,7 @@
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.625</v>
+        <v>2.09375</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3172,7 +3222,9 @@
       <c r="F29" s="1">
         <v>1.5</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3187,7 +3239,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3205,7 +3257,7 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
@@ -3213,7 +3265,7 @@
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.3437499999999998</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3259,9 +3311,11 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3276,7 +3330,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -3294,7 +3348,7 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
@@ -3302,7 +3356,7 @@
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.8125</v>
+        <v>1.1874999999999998</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3350,8 +3404,12 @@
       <c r="F31" s="9">
         <v>1.5</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3365,7 +3423,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="U31" s="9">
         <v>0.2</v>
@@ -3383,7 +3441,7 @@
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
@@ -3391,7 +3449,7 @@
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.3125</v>
+        <v>2.09375</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3439,7 +3497,9 @@
       <c r="F32" s="9">
         <v>1.5</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9">
+        <v>0.65</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -3454,7 +3514,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="U32" s="9">
         <v>0.1</v>
@@ -3472,7 +3532,7 @@
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
@@ -3480,7 +3540,7 @@
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1.2812499999999998</v>
+        <v>1.484375</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3528,7 +3588,9 @@
       <c r="F33" s="9">
         <v>1.5</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -3543,7 +3605,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U33" s="9">
         <v>0</v>
@@ -3561,7 +3623,7 @@
       </c>
       <c r="AD33" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
@@ -3569,7 +3631,7 @@
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.5625</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3617,7 +3679,9 @@
       <c r="F34" s="9">
         <v>1.5</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3632,7 +3696,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -3650,7 +3714,7 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
@@ -3658,7 +3722,7 @@
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.5625</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C4348-629F-40EA-A8BF-ADFD21E26986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB52250-5C3B-4FB2-AF1A-BC940F35C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -590,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1512,7 +1513,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U10" s="9">
         <v>0.1</v>
@@ -1530,7 +1531,7 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
@@ -1538,7 +1539,7 @@
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.9062499999999998</v>
+        <v>2.0624999999999996</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1587,7 +1588,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="9">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1603,7 +1604,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>5</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1621,7 +1622,7 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
@@ -1629,7 +1630,7 @@
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.453125</v>
+        <v>1.5625</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1771,7 +1772,9 @@
       <c r="G13" s="9">
         <v>0.65</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1785,7 +1788,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1803,7 +1806,7 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
@@ -1811,7 +1814,7 @@
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>1.171875</v>
+        <v>1.3593749999999998</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -2499,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2515,7 +2518,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2533,7 +2536,7 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>1.0312499999999998</v>
+        <v>1.140625</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB52250-5C3B-4FB2-AF1A-BC940F35C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518FF57-808D-4A73-823D-CB3275C77800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -591,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,9 +602,9 @@
     <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="28" width="4.296875" bestFit="1" customWidth="1"/>
@@ -771,7 +770,9 @@
       <c r="G2" s="9">
         <v>0.65</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -785,7 +786,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>4.1500000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -803,15 +804,15 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>4.25</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>1.328125</v>
+        <v>0.9326923076923076</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -898,11 +899,11 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>1.453125</v>
+        <v>0.89423076923076927</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -953,7 +954,9 @@
       <c r="G4" s="9">
         <v>0.65</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -967,7 +970,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -985,15 +988,15 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>1.140625</v>
+        <v>0.81730769230769229</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1042,7 +1045,9 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1056,7 +1061,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U5" s="9">
         <v>0.1</v>
@@ -1074,15 +1079,15 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>1.125</v>
+        <v>0.80769230769230749</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1169,15 +1174,15 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>1.140625</v>
+        <v>0.70192307692307687</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1202,7 +1207,7 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
@@ -1224,7 +1229,9 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1238,7 +1245,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1256,15 +1263,15 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1.5625</v>
+        <v>1.25</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1315,7 +1322,9 @@
       <c r="G8" s="1">
         <v>0.65</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1329,7 +1338,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1347,15 +1356,15 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>1.453125</v>
+        <v>1.0096153846153846</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1442,11 +1451,11 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>1.515625</v>
+        <v>0.93269230769230771</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>2.0624999999999996</v>
+        <v>1.2692307692307692</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1590,7 +1599,9 @@
       <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1604,7 +1615,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1622,15 +1633,15 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.5625</v>
+        <v>1.25</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1681,7 +1692,9 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1695,7 +1708,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1713,15 +1726,15 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>1.5625</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1773,7 +1786,7 @@
         <v>0.65</v>
       </c>
       <c r="H13" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1788,7 +1801,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>4.3499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1806,15 +1819,15 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>4.3499999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>1.3593749999999998</v>
+        <v>0.91346153846153844</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1901,11 +1914,11 @@
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1992,15 +2005,15 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>1.296875</v>
+        <v>0.79807692307692313</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -2025,7 +2038,7 @@
       </c>
       <c r="AP15" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ15" s="5"/>
     </row>
@@ -2047,7 +2060,9 @@
       <c r="G16" s="1">
         <v>0.65</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2061,7 +2076,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>5.65</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2079,15 +2094,15 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>5.65</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1.453125</v>
+        <v>1.0865384615384617</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2174,11 +2189,11 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>1.328125</v>
+        <v>0.81730769230769229</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2265,11 +2280,11 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>1.453125</v>
+        <v>0.89423076923076927</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2320,7 +2335,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2334,7 +2351,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2352,15 +2369,15 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.5937499999999998</v>
+        <v>1.096153846153846</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2414,7 +2431,9 @@
       <c r="H20" s="1">
         <v>1.5</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>1.5</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2427,7 +2446,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2445,15 +2464,15 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>2.0624999999999996</v>
+        <v>1.5576923076923075</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2540,15 +2559,15 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>1.140625</v>
+        <v>0.70192307692307687</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -2573,7 +2592,7 @@
       </c>
       <c r="AP21" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
@@ -2595,7 +2614,9 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2609,7 +2630,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2627,15 +2648,15 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.5937499999999998</v>
+        <v>1.2692307692307692</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2720,15 +2741,15 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>1.09375</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2753,7 +2774,7 @@
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ23" s="5"/>
     </row>
@@ -2775,7 +2796,9 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2789,7 +2812,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -2807,15 +2830,15 @@
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>1.40625</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -2866,7 +2889,9 @@
       <c r="G25" s="1">
         <v>0.65</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2880,7 +2905,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>5.15</v>
       </c>
       <c r="U25" s="9">
         <v>0.1</v>
@@ -2898,15 +2923,15 @@
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="2"/>
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1.328125</v>
+        <v>1.0096153846153846</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -2954,8 +2979,12 @@
       <c r="F26" s="9">
         <v>1.5</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2969,7 +2998,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -2987,11 +3016,11 @@
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
@@ -3084,11 +3113,11 @@
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>2.09375</v>
+        <v>1.2884615384615385</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3173,11 +3202,11 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>1.3125</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3228,7 +3257,9 @@
       <c r="G29" s="1">
         <v>0.3</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3242,7 +3273,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3260,15 +3291,15 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>1.3437499999999998</v>
+        <v>1.0192307692307692</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3317,9 +3348,11 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3333,7 +3366,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>4.45</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -3351,15 +3384,15 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>3.8</v>
+        <v>4.45</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>1.1874999999999998</v>
+        <v>0.85576923076923073</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3448,11 +3481,11 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>2.09375</v>
+        <v>1.2884615384615385</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3503,7 +3536,9 @@
       <c r="G32" s="9">
         <v>0.65</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="9">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3517,7 +3552,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>5.65</v>
       </c>
       <c r="U32" s="9">
         <v>0.1</v>
@@ -3535,15 +3570,15 @@
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1.484375</v>
+        <v>1.1057692307692308</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3630,11 +3665,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>1.5625</v>
+        <v>0.96153846153846145</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3685,7 +3720,9 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3699,7 +3736,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -3717,15 +3754,15 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.5625</v>
+        <v>1.25</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -3773,8 +3810,12 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3788,7 +3829,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -3806,11 +3847,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518FF57-808D-4A73-823D-CB3275C77800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D36F41-0018-4A40-84FD-A960F68F543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,9 @@
       <c r="H2" s="1">
         <v>0.6</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -786,7 +788,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>4.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -804,19 +806,19 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>4.8499999999999996</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.9326923076923076</v>
+        <v>0.79838709677419339</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -841,7 +843,7 @@
       </c>
       <c r="AP2" s="4">
         <f t="shared" ref="AP2:AP34" si="9">(AG2+AN2+AO2)/3</f>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ2" s="5"/>
     </row>
@@ -899,15 +901,15 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.89423076923076927</v>
+        <v>0.75</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -932,7 +934,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -992,15 +994,15 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.81730769230769229</v>
+        <v>0.68548387096774188</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1025,7 +1027,7 @@
       </c>
       <c r="AP4" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ4" s="5"/>
     </row>
@@ -1083,15 +1085,15 @@
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.80769230769230749</v>
+        <v>0.67741935483870952</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1116,7 +1118,7 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ5" s="5"/>
     </row>
@@ -1174,15 +1176,15 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.70192307692307687</v>
+        <v>0.58870967741935476</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1207,7 +1209,7 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
@@ -1232,7 +1234,9 @@
       <c r="H7" s="1">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1245,7 +1249,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1263,15 +1267,15 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.1451612903225805</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1325,7 +1329,9 @@
       <c r="H8" s="1">
         <v>0.6</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1338,7 +1344,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>5.85</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1356,15 +1362,15 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>5.85</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>1.0096153846153846</v>
+        <v>0.94354838709677413</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1451,15 +1457,15 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.93269230769230771</v>
+        <v>0.78225806451612911</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1484,7 +1490,7 @@
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1544,11 +1550,11 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.2692307692307692</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1637,11 +1643,11 @@
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.0483870967741935</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1693,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1708,12 +1714,14 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
       </c>
-      <c r="V12" s="1"/>
+      <c r="V12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -1722,19 +1730,19 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.8999999999999995</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>1.0769230769230769</v>
+        <v>0.95161290322580638</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1788,7 +1796,9 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1801,7 +1811,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1819,19 +1829,19 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>4.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.91346153846153844</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -1856,7 +1866,7 @@
       </c>
       <c r="AP13" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ13" s="5"/>
     </row>
@@ -1879,7 +1889,9 @@
         <v>1</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1892,12 +1904,14 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
       </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1906,19 +1920,19 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.0161290322580645</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -2005,11 +2019,11 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.79807692307692313</v>
+        <v>0.66935483870967749</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2063,7 +2077,9 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2076,7 +2092,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>5.65</v>
+        <v>6.25</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2094,15 +2110,15 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>5.65</v>
+        <v>6.25</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1.0865384615384617</v>
+        <v>1.0080645161290323</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2189,15 +2205,15 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.81730769230769229</v>
+        <v>0.68548387096774188</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -2222,7 +2238,7 @@
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ17" s="5"/>
     </row>
@@ -2280,15 +2296,15 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.89423076923076927</v>
+        <v>0.75</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -2313,7 +2329,7 @@
       </c>
       <c r="AP18" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ18" s="5"/>
     </row>
@@ -2338,7 +2354,9 @@
       <c r="H19" s="1">
         <v>0.6</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2351,12 +2369,14 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
       </c>
-      <c r="V19" s="1"/>
+      <c r="V19" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -2365,19 +2385,19 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>5.6999999999999993</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.096153846153846</v>
+        <v>1.032258064516129</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2451,7 +2471,9 @@
       <c r="U20" s="9">
         <v>0.1</v>
       </c>
-      <c r="V20" s="1"/>
+      <c r="V20" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -2460,19 +2482,19 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.5576923076923075</v>
+        <v>1.3225806451612903</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2559,15 +2581,15 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.70192307692307687</v>
+        <v>0.58870967741935476</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -2592,7 +2614,7 @@
       </c>
       <c r="AP21" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
@@ -2617,7 +2639,9 @@
       <c r="H22" s="1">
         <v>1.5</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2630,12 +2654,14 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
       </c>
-      <c r="V22" s="1"/>
+      <c r="V22" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -2644,19 +2670,19 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.2692307692307692</v>
+        <v>1.1774193548387095</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2741,15 +2767,15 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.67307692307692302</v>
+        <v>0.56451612903225801</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2774,7 +2800,7 @@
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="5"/>
     </row>
@@ -2799,7 +2825,9 @@
       <c r="H24" s="1">
         <v>1.5</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2812,7 +2840,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -2830,15 +2858,15 @@
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>1.1538461538461537</v>
+        <v>1.2096774193548387</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -2927,11 +2955,11 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>1.0096153846153846</v>
+        <v>0.84677419354838712</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -2985,7 +3013,9 @@
       <c r="H26" s="1">
         <v>1.5</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2998,12 +3028,14 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
       </c>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -3012,19 +3044,19 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.225806451612903</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -3078,7 +3110,9 @@
       <c r="H27" s="1">
         <v>1.5</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3091,12 +3125,14 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
       </c>
-      <c r="V27" s="1"/>
+      <c r="V27" s="1">
+        <v>0.2</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -3105,48 +3141,50 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.2884615384615385</v>
+        <v>1.3548387096774195</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="1">
+        <v>1</v>
+      </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <v>3</v>
       </c>
       <c r="AM27" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN27" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO27" s="8">
         <v>0</v>
       </c>
       <c r="AP27" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ27" s="5"/>
     </row>
@@ -3185,7 +3223,9 @@
       <c r="U28" s="9">
         <v>0.2</v>
       </c>
-      <c r="V28" s="1"/>
+      <c r="V28" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -3194,23 +3234,23 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.80769230769230771</v>
+        <v>0.69354838709677413</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -3235,7 +3275,7 @@
       </c>
       <c r="AP28" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ28" s="5"/>
     </row>
@@ -3278,7 +3318,9 @@
       <c r="U29" s="9">
         <v>0</v>
       </c>
-      <c r="V29" s="1"/>
+      <c r="V29" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -3287,19 +3329,19 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>5.3</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>1.0192307692307692</v>
+        <v>0.87096774193548376</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3348,7 +3390,7 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="1">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="H30" s="1">
         <v>0.6</v>
@@ -3366,7 +3408,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -3384,19 +3426,19 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.85576923076923073</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3421,7 +3463,7 @@
       </c>
       <c r="AP30" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3446,7 +3488,9 @@
       <c r="H31" s="1">
         <v>1.5</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3459,12 +3503,14 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U31" s="9">
         <v>0.2</v>
       </c>
-      <c r="V31" s="1"/>
+      <c r="V31" s="1">
+        <v>0.1</v>
+      </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -3473,19 +3519,19 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.2884615384615385</v>
+        <v>1.2580645161290323</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3574,11 +3620,11 @@
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>1.1057692307692308</v>
+        <v>0.92741935483870963</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3665,11 +3711,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.96153846153846145</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3723,7 +3769,9 @@
       <c r="H34" s="1">
         <v>1.5</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3736,7 +3784,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -3754,15 +3802,15 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>1.2903225806451613</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -3816,7 +3864,9 @@
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3829,7 +3879,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -3847,11 +3897,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D36F41-0018-4A40-84FD-A960F68F543D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C891A1-382D-44E0-92FB-65043AAA5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,12 +602,14 @@
     <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.3984375" bestFit="1" customWidth="1"/>
@@ -795,26 +797,28 @@
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="X2" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <f t="shared" ref="AC2:AC34" si="1">SUM(U2:AB2)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>4.9499999999999993</v>
+        <v>5.05</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.79838709677419339</v>
+        <v>0.64743589743589747</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -866,7 +870,9 @@
         <v>0.65</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -879,33 +885,35 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="X3" s="1">
+        <v>0.05</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -979,30 +987,32 @@
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="X4" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.68548387096774188</v>
+        <v>0.55769230769230771</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1027,7 +1037,7 @@
       </c>
       <c r="AP4" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="5"/>
     </row>
@@ -1050,7 +1060,9 @@
       <c r="H5" s="1">
         <v>0.6</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1063,7 +1075,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>4.6999999999999993</v>
       </c>
       <c r="U5" s="9">
         <v>0.1</v>
@@ -1081,15 +1093,15 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>4.1999999999999993</v>
+        <v>4.7999999999999989</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.67741935483870952</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1176,11 +1188,11 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.58870967741935476</v>
+        <v>0.46794871794871795</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1237,7 +1249,9 @@
       <c r="I7" s="1">
         <v>0.6</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1249,33 +1263,35 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="X7" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>7.1</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>1.1451612903225805</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1351,30 +1367,32 @@
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>5.85</v>
+        <v>5.9499999999999993</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.94354838709677413</v>
+        <v>0.76282051282051277</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1399,7 +1417,7 @@
       </c>
       <c r="AP8" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ8" s="5"/>
     </row>
@@ -1442,26 +1460,28 @@
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>4.8500000000000005</v>
+        <v>4.95</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.78225806451612911</v>
+        <v>0.63461538461538469</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1515,8 +1535,12 @@
       <c r="H10" s="1">
         <v>1.5</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1528,33 +1552,35 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="U10" s="9">
         <v>0.1</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>8.2999999999999989</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.064516129032258</v>
+        <v>1.0641025641025641</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1608,7 +1634,9 @@
       <c r="H11" s="1">
         <v>1.5</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.05</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1621,7 +1649,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1639,15 +1667,15 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>1.0483870967741935</v>
+        <v>0.83974358974358976</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1701,7 +1729,9 @@
       <c r="H12" s="1">
         <v>0.8</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1714,7 +1744,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1723,26 +1753,28 @@
         <v>0.1</v>
       </c>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>5.8999999999999995</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.95161290322580638</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1818,26 +1850,28 @@
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>4.8499999999999996</v>
+        <v>4.9499999999999993</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.782258064516129</v>
+        <v>0.63461538461538458</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1913,26 +1947,28 @@
         <v>0.1</v>
       </c>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>1.0161290322580645</v>
+        <v>0.8205128205128206</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -1983,9 +2019,13 @@
       <c r="G15" s="1">
         <v>0.65</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>0.4</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>0.3</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1997,7 +2037,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
@@ -2015,15 +2055,15 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>4.1500000000000004</v>
+        <v>4.8500000000000005</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.66935483870967749</v>
+        <v>0.62179487179487192</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2078,9 +2118,11 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.6</v>
       </c>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2092,33 +2134,35 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>7.05</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="X16" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>7.1499999999999995</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>1.0080645161290323</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2170,7 +2214,9 @@
         <v>0.65</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2183,33 +2229,35 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="X17" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>4.25</v>
+        <v>4.95</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.68548387096774188</v>
+        <v>0.63461538461538469</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2296,15 +2344,15 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.59615384615384626</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -2329,7 +2377,7 @@
       </c>
       <c r="AP18" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="5"/>
     </row>
@@ -2355,7 +2403,7 @@
         <v>0.6</v>
       </c>
       <c r="I19" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2369,7 +2417,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>6.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2378,26 +2426,28 @@
         <v>0.1</v>
       </c>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>6.3999999999999995</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>1.032258064516129</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2454,9 +2504,13 @@
       <c r="I20" s="1">
         <v>1.5</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2466,7 +2520,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2474,56 +2528,62 @@
       <c r="V20" s="1">
         <v>0.1</v>
       </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
+      <c r="W20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.3225806451612903</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AH20" s="1"/>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1">
         <v>3</v>
       </c>
       <c r="AM20" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN20" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="8">
         <v>0</v>
       </c>
       <c r="AP20" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ20" s="5"/>
     </row>
@@ -2581,11 +2641,11 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.58870967741935476</v>
+        <v>0.46794871794871795</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2640,7 +2700,7 @@
         <v>1.5</v>
       </c>
       <c r="I22" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2654,7 +2714,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2663,26 +2723,28 @@
         <v>0.1</v>
       </c>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1.1774193548387095</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2767,11 +2829,11 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.56451612903225801</v>
+        <v>0.44871794871794873</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -2828,7 +2890,9 @@
       <c r="I24" s="1">
         <v>1.5</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2840,33 +2904,35 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
+      <c r="X24" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>1.2096774193548387</v>
+        <v>1.1025641025641026</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -2955,15 +3021,15 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.84677419354838712</v>
+        <v>0.67307692307692313</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -2988,7 +3054,7 @@
       </c>
       <c r="AP25" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ25" s="5"/>
     </row>
@@ -3014,9 +3080,11 @@
         <v>1.5</v>
       </c>
       <c r="I26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3028,7 +3096,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -3037,26 +3105,28 @@
         <v>0.1</v>
       </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
+      <c r="X26" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>7.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>1.225806451612903</v>
+        <v>1.1794871794871795</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -3113,9 +3183,13 @@
       <c r="I27" s="1">
         <v>1.5</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3125,7 +3199,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3133,27 +3207,31 @@
       <c r="V27" s="1">
         <v>0.2</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+      <c r="W27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>10.7</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.3548387096774195</v>
+        <v>1.3717948717948718</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3206,7 +3284,9 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3218,7 +3298,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U28" s="9">
         <v>0.2</v>
@@ -3227,26 +3307,28 @@
         <v>0.1</v>
       </c>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.69354838709677413</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3300,8 +3382,12 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.1</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3313,7 +3399,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3333,19 +3419,19 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>5.3999999999999995</v>
+        <v>6.0999999999999988</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.87096774193548376</v>
+        <v>0.78205128205128194</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3370,7 +3456,7 @@
       </c>
       <c r="AP29" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ29" s="5"/>
     </row>
@@ -3430,11 +3516,11 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.7661290322580645</v>
+        <v>0.60897435897435903</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3491,7 +3577,9 @@
       <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3503,7 +3591,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="U31" s="9">
         <v>0.2</v>
@@ -3512,26 +3600,28 @@
         <v>0.1</v>
       </c>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="X31" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.2580645161290323</v>
+        <v>1.1025641025641026</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3585,8 +3675,12 @@
       <c r="H32" s="9">
         <v>1</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.1</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -3598,7 +3692,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>5.65</v>
+        <v>6.05</v>
       </c>
       <c r="U32" s="9">
         <v>0.1</v>
@@ -3616,19 +3710,19 @@
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>5.75</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.92741935483870963</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
@@ -3653,7 +3747,7 @@
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ32" s="5"/>
     </row>
@@ -3711,15 +3805,15 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.80645161290322576</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
@@ -3744,7 +3838,7 @@
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ33" s="5"/>
     </row>
@@ -3772,7 +3866,9 @@
       <c r="I34" s="1">
         <v>1.5</v>
       </c>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3784,33 +3880,35 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="X34" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.2903225806451613</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -3867,7 +3965,9 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3879,29 +3979,35 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
       </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
+      <c r="V35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C891A1-382D-44E0-92FB-65043AAA5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937A7124-4223-43CB-ABB4-FE1038A6FD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AQ230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,8 +602,7 @@
     <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
@@ -778,7 +777,9 @@
       <c r="I2" s="1">
         <v>0.1</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -790,7 +791,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>4.8499999999999996</v>
+        <v>5.4499999999999993</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -810,19 +811,19 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>5.05</v>
+        <v>5.6499999999999995</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.64743589743589747</v>
+        <v>0.57653061224489788</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -847,7 +848,7 @@
       </c>
       <c r="AP2" s="4">
         <f t="shared" ref="AP2:AP34" si="9">(AG2+AN2+AO2)/3</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="5"/>
     </row>
@@ -909,15 +910,15 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.61538461538461542</v>
+        <v>0.48979591836734687</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -942,7 +943,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -1004,11 +1005,11 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.55769230769230771</v>
+        <v>0.4438775510204081</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1097,15 +1098,15 @@
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.61538461538461531</v>
+        <v>0.48979591836734682</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="5"/>
     </row>
@@ -1154,7 +1155,9 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1166,7 +1169,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -1184,19 +1187,19 @@
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="2"/>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.46794871794871795</v>
+        <v>0.38265306122448978</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="AP6" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
@@ -1287,15 +1290,15 @@
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.99999999999999989</v>
+        <v>0.79591836734693866</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="AP7" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ7" s="5"/>
     </row>
@@ -1384,11 +1387,11 @@
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.76282051282051277</v>
+        <v>0.60714285714285698</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1477,15 +1480,15 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.63461538461538469</v>
+        <v>0.50510204081632648</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1576,11 +1579,11 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>1.0641025641025641</v>
+        <v>0.84693877551020391</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1671,15 +1674,15 @@
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.83974358974358976</v>
+        <v>0.66836734693877542</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="AP11" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ11" s="5"/>
     </row>
@@ -1770,15 +1773,15 @@
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
+        <v>0.66326530612244894</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -1803,7 +1806,7 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ12" s="5"/>
     </row>
@@ -1831,7 +1834,9 @@
       <c r="I13" s="1">
         <v>0.1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>0.35</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1843,7 +1848,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1863,44 +1868,46 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>4.9499999999999993</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.63461538461538458</v>
+        <v>0.54081632653061207</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>3</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN13" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="8">
         <v>0</v>
       </c>
       <c r="AP13" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ13" s="5"/>
     </row>
@@ -1926,7 +1933,9 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1938,7 +1947,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -1960,19 +1969,19 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>0.8205128205128206</v>
+        <v>0.75510204081632648</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -1997,7 +2006,7 @@
       </c>
       <c r="AP14" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ14" s="5"/>
     </row>
@@ -2059,15 +2068,15 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.62179487179487192</v>
+        <v>0.49489795918367346</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -2092,7 +2101,7 @@
       </c>
       <c r="AP15" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="5"/>
     </row>
@@ -2158,15 +2167,15 @@
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.91666666666666663</v>
+        <v>0.72959183673469374</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -2191,7 +2200,7 @@
       </c>
       <c r="AP16" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ16" s="5"/>
     </row>
@@ -2253,15 +2262,15 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.63461538461538469</v>
+        <v>0.50510204081632648</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -2286,7 +2295,7 @@
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="5"/>
     </row>
@@ -2344,11 +2353,11 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.59615384615384626</v>
+        <v>0.47448979591836737</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2443,15 +2452,15 @@
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.88461538461538458</v>
+        <v>0.70408163265306112</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2476,7 +2485,7 @@
       </c>
       <c r="AP19" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ19" s="5"/>
     </row>
@@ -2548,11 +2557,11 @@
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.3333333333333335</v>
+        <v>1.0612244897959184</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2607,7 +2616,9 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>0.1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2619,7 +2630,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2637,19 +2648,19 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.46794871794871795</v>
+        <v>0.38265306122448978</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
@@ -2674,7 +2685,7 @@
       </c>
       <c r="AP21" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
@@ -2702,7 +2713,9 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2714,7 +2727,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2736,15 +2749,15 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2829,15 +2842,15 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.44871794871794873</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2862,7 +2875,7 @@
       </c>
       <c r="AP23" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ23" s="5"/>
     </row>
@@ -2928,11 +2941,11 @@
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>1.1025641025641026</v>
+        <v>0.87755102040816313</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -3021,15 +3034,15 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.67307692307692313</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -3054,7 +3067,7 @@
       </c>
       <c r="AP25" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="5"/>
     </row>
@@ -3122,11 +3135,11 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>1.1794871794871795</v>
+        <v>0.93877551020408145</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -3227,11 +3240,11 @@
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.3717948717948718</v>
+        <v>1.0918367346938773</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3324,15 +3337,15 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.64102564102564108</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -3357,7 +3370,7 @@
       </c>
       <c r="AP28" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="5"/>
     </row>
@@ -3386,7 +3399,7 @@
         <v>0.6</v>
       </c>
       <c r="J29" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3399,7 +3412,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>5.9999999999999991</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3419,15 +3432,15 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>6.0999999999999988</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.78205128205128194</v>
+        <v>0.64285714285714268</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3516,15 +3529,15 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.60897435897435903</v>
+        <v>0.48469387755102039</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3549,7 +3562,7 @@
       </c>
       <c r="AP30" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3617,11 +3630,11 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>1.1025641025641026</v>
+        <v>0.87755102040816313</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3714,11 +3727,11 @@
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.78846153846153844</v>
+        <v>0.62755102040816313</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3805,15 +3818,15 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.64102564102564108</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
@@ -3838,7 +3851,7 @@
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="5"/>
     </row>
@@ -3904,11 +3917,11 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
+        <v>0.92857142857142849</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -3951,19 +3964,19 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1.5</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
+      <c r="H35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1.5</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -3979,7 +3992,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4003,11 +4016,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937A7124-4223-43CB-ABB4-FE1038A6FD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5D1D5-CF7D-42B9-BE3D-3C713BEBDEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,8 @@
     <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
@@ -614,7 +615,8 @@
     <col min="31" max="31" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2.69921875" bestFit="1" customWidth="1"/>
@@ -815,29 +817,31 @@
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.57653061224489788</v>
+        <v>0.52314814814814803</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
         <v>3</v>
       </c>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1">
         <f t="shared" ref="AK2:AK34" si="6">SUM(AH2:AJ2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL2" s="1">
         <v>3</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" ref="AM2:AM34" si="7">(AK2/AL2)*100</f>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN2" s="4">
         <f t="shared" ref="AN2:AN34" si="8">MAX(IF(AM2&gt;=20,2,0),IF(AM2&gt;=40,3,0),IF(AM2&gt;=60,4,0),IF(AM2&gt;=80,5,0))</f>
@@ -910,11 +914,11 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.48979591836734687</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -1005,29 +1009,31 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.4438775510204081</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL4" s="1">
         <v>3</v>
       </c>
       <c r="AM4" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN4" s="4">
         <f t="shared" si="8"/>
@@ -1098,11 +1104,11 @@
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.48979591836734682</v>
+        <v>0.44444444444444431</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1191,29 +1197,31 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.38265306122448978</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL6" s="1">
         <v>3</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN6" s="4">
         <f t="shared" si="8"/>
@@ -1290,40 +1298,42 @@
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.79591836734693866</v>
+        <v>0.7222222222222221</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="1">
+        <v>1</v>
+      </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>3</v>
       </c>
       <c r="AM7" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN7" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO7" s="8">
         <v>0</v>
       </c>
       <c r="AP7" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AQ7" s="5"/>
     </row>
@@ -1387,29 +1397,31 @@
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.60714285714285698</v>
+        <v>0.55092592592592582</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH8" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL8" s="1">
         <v>3</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN8" s="4">
         <f t="shared" si="8"/>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="AP8" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="5"/>
     </row>
@@ -1480,11 +1492,11 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.50510204081632648</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1579,40 +1591,42 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>0.84693877551020391</v>
+        <v>0.76851851851851838</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH10" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" s="1">
         <v>3</v>
       </c>
       <c r="AM10" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN10" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO10" s="8">
         <v>0</v>
       </c>
       <c r="AP10" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AQ10" s="5"/>
     </row>
@@ -1674,29 +1688,31 @@
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.66836734693877542</v>
+        <v>0.6064814814814814</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL11" s="1">
         <v>3</v>
       </c>
       <c r="AM11" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN11" s="4">
         <f t="shared" si="8"/>
@@ -1773,29 +1789,31 @@
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.66326530612244894</v>
+        <v>0.60185185185185186</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL12" s="1">
         <v>3</v>
       </c>
       <c r="AM12" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN12" s="4">
         <f t="shared" si="8"/>
@@ -1838,7 +1856,9 @@
         <v>0.35</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>0.6</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1848,7 +1868,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>5.1999999999999993</v>
+        <v>5.7999999999999989</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1868,15 +1888,15 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>5.2999999999999989</v>
+        <v>5.8999999999999986</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.54081632653061207</v>
+        <v>0.54629629629629617</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1973,40 +1993,42 @@
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>0.75510204081632648</v>
+        <v>0.68518518518518512</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH14" s="1"/>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>3</v>
       </c>
       <c r="AM14" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="8">
         <v>0</v>
       </c>
       <c r="AP14" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AQ14" s="5"/>
     </row>
@@ -2068,29 +2090,31 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.49489795918367346</v>
+        <v>0.44907407407407407</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL15" s="1">
         <v>3</v>
       </c>
       <c r="AM15" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN15" s="4">
         <f t="shared" si="8"/>
@@ -2167,29 +2191,31 @@
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.72959183673469374</v>
+        <v>0.66203703703703698</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH16" s="1"/>
+      <c r="AH16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL16" s="1">
         <v>3</v>
       </c>
       <c r="AM16" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN16" s="4">
         <f t="shared" si="8"/>
@@ -2262,29 +2288,31 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.50510204081632648</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AH17" s="1"/>
+      <c r="AH17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL17" s="1">
         <v>3</v>
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN17" s="4">
         <f t="shared" si="8"/>
@@ -2353,29 +2381,31 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.47448979591836737</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL18" s="1">
         <v>3</v>
       </c>
       <c r="AM18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN18" s="4">
         <f t="shared" si="8"/>
@@ -2452,29 +2482,31 @@
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.70408163265306112</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL19" s="1">
         <v>3</v>
       </c>
       <c r="AM19" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AN19" s="4">
         <f t="shared" si="8"/>
@@ -2520,7 +2552,9 @@
       <c r="L20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2529,7 +2563,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2553,15 +2587,15 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.0612244897959184</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2652,11 +2686,11 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.38265306122448978</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2753,40 +2787,42 @@
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>0.8571428571428571</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1</v>
+      </c>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="1">
         <v>3</v>
       </c>
       <c r="AM22" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN22" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="8">
         <v>0</v>
       </c>
       <c r="AP22" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AQ22" s="5"/>
     </row>
@@ -2842,11 +2878,11 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.3571428571428571</v>
+        <v>0.32407407407407407</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -2941,40 +2977,42 @@
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.87755102040816313</v>
+        <v>0.79629629629629617</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH24" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="1">
         <v>3</v>
       </c>
       <c r="AM24" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN24" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO24" s="8">
         <v>0</v>
       </c>
       <c r="AP24" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AQ24" s="5"/>
     </row>
@@ -3034,11 +3072,11 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.5357142857142857</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -3135,40 +3173,42 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>0.93877551020408145</v>
+        <v>0.85185185185185175</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AH26" s="1"/>
+      <c r="AH26" s="1">
+        <v>1</v>
+      </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <v>3</v>
       </c>
       <c r="AM26" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN26" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO26" s="8">
         <v>0</v>
       </c>
       <c r="AP26" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ26" s="5"/>
     </row>
@@ -3203,7 +3243,9 @@
       <c r="L27" s="1">
         <v>1</v>
       </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3212,7 +3254,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3236,15 +3278,15 @@
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.0918367346938773</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3337,40 +3379,42 @@
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.51020408163265307</v>
+        <v>0.46296296296296291</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="1">
+        <v>1</v>
+      </c>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="1">
         <v>3</v>
       </c>
       <c r="AM28" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN28" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="8">
         <v>0</v>
       </c>
       <c r="AP28" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AQ28" s="5"/>
     </row>
@@ -3436,15 +3480,15 @@
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.64285714285714268</v>
+        <v>0.58333333333333315</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3469,7 +3513,7 @@
       </c>
       <c r="AP29" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="5"/>
     </row>
@@ -3529,11 +3573,11 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.48469387755102039</v>
+        <v>0.43981481481481477</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3630,40 +3674,42 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>0.87755102040816313</v>
+        <v>0.79629629629629617</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH31" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>1</v>
+      </c>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <v>3</v>
       </c>
       <c r="AM31" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN31" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO31" s="8">
         <v>0</v>
       </c>
       <c r="AP31" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AQ31" s="5"/>
     </row>
@@ -3727,15 +3773,15 @@
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.62755102040816313</v>
+        <v>0.56944444444444431</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9"/>
@@ -3760,7 +3806,7 @@
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="5"/>
     </row>
@@ -3818,11 +3864,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.51020408163265307</v>
+        <v>0.46296296296296291</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3917,40 +3963,42 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.92857142857142849</v>
+        <v>0.84259259259259256</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AH34" s="1"/>
+      <c r="AH34" s="1">
+        <v>1</v>
+      </c>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="1">
         <v>3</v>
       </c>
       <c r="AM34" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN34" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="8">
         <v>0</v>
       </c>
       <c r="AP34" s="4">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ34" s="5"/>
     </row>
@@ -3982,7 +4030,9 @@
         <v>1</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3992,7 +4042,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4016,11 +4066,11 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>9.8000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>
@@ -4030,30 +4080,32 @@
         <f t="shared" ref="AG35" si="14">MAX(IF(AF35*100&gt;=20,2,0),IF(AF35*100&gt;=40,3,0),IF(AF35*100&gt;=60,4,0),IF(AF35*100&gt;=80,5,0))</f>
         <v>5</v>
       </c>
-      <c r="AH35" s="1"/>
+      <c r="AH35" s="1">
+        <v>1</v>
+      </c>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1">
         <f t="shared" ref="AK35" si="15">SUM(AH35:AJ35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="9">
         <v>3</v>
       </c>
       <c r="AM35" s="4">
         <f t="shared" ref="AM35" si="16">(AK35/AL35)*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN35" s="4">
         <f t="shared" ref="AN35" si="17">MAX(IF(AM35&gt;=20,2,0),IF(AM35&gt;=40,3,0),IF(AM35&gt;=60,4,0),IF(AM35&gt;=80,5,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO35" s="8">
         <v>0</v>
       </c>
       <c r="AP35" s="4">
         <f t="shared" ref="AP35" si="18">(AG35+AN35+AO35)/3</f>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ35" s="5"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5D1D5-CF7D-42B9-BE3D-3C713BEBDEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2553995A-95F8-4CC7-8689-60303FA2CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
@@ -783,7 +783,9 @@
         <v>0.6</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -793,7 +795,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>5.4499999999999993</v>
+        <v>5.7499999999999991</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -803,25 +805,27 @@
       <c r="X2" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <f t="shared" ref="AC2:AC34" si="1">SUM(U2:AB2)</f>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>5.6499999999999995</v>
+        <v>6.0499999999999989</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.52314814814814803</v>
+        <v>0.50416666666666654</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -914,11 +918,11 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
@@ -1009,15 +1013,15 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.40277777777777773</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="1">
         <v>0.5</v>
@@ -1044,7 +1048,7 @@
       </c>
       <c r="AP4" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ4" s="5"/>
     </row>
@@ -1072,7 +1076,9 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1082,7 +1088,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>4.6999999999999993</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="U5" s="9">
         <v>0.1</v>
@@ -1100,15 +1106,15 @@
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>4.7999999999999989</v>
+        <v>5.0999999999999988</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.44444444444444431</v>
+        <v>0.42499999999999988</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1165,7 +1171,9 @@
         <v>0.1</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>0.2</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1175,7 +1183,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="U6" s="9">
         <v>0</v>
@@ -1183,25 +1191,27 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.34722222222222221</v>
+        <v>0.33749999999999997</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1264,7 +1274,9 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1274,7 +1286,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>7.6999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1284,25 +1296,27 @@
       <c r="X7" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>7.7999999999999989</v>
+        <v>9</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.7222222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1363,7 +1377,9 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1373,7 +1389,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>5.85</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1383,25 +1399,27 @@
       <c r="X8" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>5.9499999999999993</v>
+        <v>6.4499999999999993</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.55092592592592582</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1458,7 +1476,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1468,7 +1488,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="U9" s="1">
         <v>0.2</v>
@@ -1488,15 +1508,15 @@
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>5.25</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1557,7 +1577,9 @@
         <v>0.6</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1567,7 +1589,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="U10" s="9">
         <v>0.1</v>
@@ -1577,25 +1599,27 @@
       <c r="X10" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>8.2999999999999989</v>
+        <v>9.4</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>0.76851851851851838</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1656,7 +1680,9 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1666,7 +1692,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>6.55</v>
+        <v>7.55</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1684,15 +1710,15 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>6.55</v>
+        <v>7.55</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.6064814814814814</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1789,15 +1815,15 @@
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.60185185185185186</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" s="1">
         <v>0.5</v>
@@ -1824,7 +1850,7 @@
       </c>
       <c r="AP12" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="5"/>
     </row>
@@ -1859,7 +1885,9 @@
       <c r="L13" s="1">
         <v>0.6</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>0.3</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1868,7 +1896,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>5.7999999999999989</v>
+        <v>6.0999999999999988</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -1888,15 +1916,15 @@
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>5.8999999999999986</v>
+        <v>6.1999999999999984</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.54629629629629617</v>
+        <v>0.5166666666666665</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -1957,7 +1985,9 @@
         <v>1</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1967,7 +1997,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -1979,25 +2009,27 @@
       <c r="X14" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>0.68518518518518512</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -2058,7 +2090,9 @@
         <v>0.3</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>0.6</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2068,7 +2102,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>4.8500000000000005</v>
+        <v>5.45</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
@@ -2086,15 +2120,15 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>4.8500000000000005</v>
+        <v>5.45</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.44907407407407407</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2191,15 +2225,15 @@
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.66203703703703698</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="1">
         <v>0.5</v>
@@ -2226,7 +2260,7 @@
       </c>
       <c r="AP16" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="5"/>
     </row>
@@ -2254,7 +2288,9 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <v>0.6</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2264,7 +2300,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>5.35</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
@@ -2274,25 +2310,27 @@
       <c r="X17" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>4.95</v>
+        <v>5.6499999999999995</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.45833333333333331</v>
+        <v>0.47083333333333327</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2349,7 +2387,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2359,7 +2399,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="U18" s="9">
         <v>0</v>
@@ -2377,15 +2417,15 @@
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="2"/>
-        <v>4.6500000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.43055555555555558</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2446,7 +2486,9 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2456,7 +2498,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2468,25 +2510,27 @@
       <c r="X19" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>6.8999999999999995</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.63888888888888884</v>
+        <v>0.61666666666666659</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2591,11 +2635,11 @@
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.0555555555555556</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2654,7 +2698,9 @@
         <v>0.1</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>0.1</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2664,7 +2710,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2682,15 +2728,15 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.34722222222222221</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2751,7 +2797,9 @@
         <v>0.6</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2761,7 +2809,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2773,25 +2821,27 @@
       <c r="X22" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>0.77777777777777779</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2878,11 +2928,11 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.32407407407407407</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -2943,7 +2993,9 @@
         <v>1</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2953,7 +3005,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -2963,29 +3015,31 @@
       <c r="X24" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>8.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.79629629629629617</v>
+        <v>0.80833333333333324</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="1">
         <v>1</v>
@@ -3012,7 +3066,7 @@
       </c>
       <c r="AP24" s="4">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ24" s="5"/>
     </row>
@@ -3072,11 +3126,11 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.4861111111111111</v>
+        <v>0.4375</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -3137,7 +3191,9 @@
         <v>1</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3147,7 +3203,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -3169,15 +3225,15 @@
       </c>
       <c r="AD26" s="1">
         <f t="shared" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>0.85185185185185175</v>
+        <v>0.85</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -3246,7 +3302,9 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3254,7 +3312,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3268,25 +3326,27 @@
       <c r="X27" s="9">
         <v>0.2</v>
       </c>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.0833333333333333</v>
+        <v>1.1166666666666667</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3343,7 +3403,9 @@
         <v>0.6</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>0.45</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3353,7 +3415,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="U28" s="9">
         <v>0.2</v>
@@ -3365,25 +3427,27 @@
       <c r="X28" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>5.55</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.46296296296296291</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3446,7 +3510,9 @@
         <v>0.3</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <v>0.35</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3456,7 +3522,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>6.1999999999999993</v>
+        <v>6.5499999999999989</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3476,15 +3542,15 @@
       </c>
       <c r="AD29" s="1">
         <f t="shared" si="2"/>
-        <v>6.2999999999999989</v>
+        <v>6.6499999999999986</v>
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.58333333333333315</v>
+        <v>0.55416666666666659</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3520,24 +3586,22 @@
     <row r="30" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F30" s="1">
         <v>1.5</v>
       </c>
       <c r="G30" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3551,7 +3615,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="U30" s="9">
         <v>0</v>
@@ -3569,15 +3633,15 @@
       </c>
       <c r="AD30" s="1">
         <f t="shared" si="2"/>
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.43981481481481477</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3613,32 +3677,30 @@
     <row r="31" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F31" s="9">
         <v>1.5</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H31" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
         <v>0.6</v>
       </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>0.2</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3648,75 +3710,69 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>4.95</v>
       </c>
       <c r="U31" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="9">
-        <v>0.2</v>
-      </c>
+      <c r="X31" s="9"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="2"/>
-        <v>8.6</v>
+        <v>4.95</v>
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>0.79629629629629617</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <v>3</v>
       </c>
       <c r="AM31" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="8">
         <v>0</v>
       </c>
       <c r="AP31" s="4">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="5"/>
     </row>
     <row r="32" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9">
@@ -3729,19 +3785,21 @@
         <v>1.5</v>
       </c>
       <c r="G32" s="9">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="J32" s="9">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -3751,69 +3809,77 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>6.05</v>
+        <v>9.1</v>
       </c>
       <c r="U32" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="9">
         <v>0.1</v>
       </c>
-      <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
+      <c r="X32" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0.2</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>6.1499999999999995</v>
+        <v>9.7999999999999989</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.56944444444444431</v>
+        <v>0.81666666666666654</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AH32" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="AH32" s="9">
+        <v>1</v>
+      </c>
       <c r="AI32" s="9"/>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="9">
         <v>3</v>
       </c>
       <c r="AM32" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN32" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32" s="8">
         <v>0</v>
       </c>
       <c r="AP32" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ32" s="5"/>
     </row>
     <row r="33" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9">
@@ -3826,13 +3892,21 @@
         <v>1.5</v>
       </c>
       <c r="G33" s="9">
-        <v>1</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.1</v>
+      </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -3842,10 +3916,10 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.05</v>
       </c>
       <c r="U33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
@@ -3856,19 +3930,19 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD33" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7.1499999999999995</v>
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.46296296296296291</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -3929,7 +4003,9 @@
         <v>1</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3939,7 +4015,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -3949,25 +4025,27 @@
       <c r="X34" s="9">
         <v>0.1</v>
       </c>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="9">
+        <v>0.1</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>9.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.84259259259259256</v>
+        <v>0.85</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -4033,7 +4111,9 @@
       <c r="L35" s="1">
         <v>1</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -4042,7 +4122,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4056,21 +4136,23 @@
       <c r="X35" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2553995A-95F8-4CC7-8689-60303FA2CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602CD1F-62AB-4232-85E2-004816451FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:AQ230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,11 +821,11 @@
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.50416666666666654</v>
+        <v>0.49590163934426224</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -918,15 +918,15 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.39999999999999997</v>
+        <v>0.39344262295081966</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -1013,11 +1013,11 @@
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.36249999999999999</v>
+        <v>0.35655737704918034</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1097,24 +1097,26 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="2"/>
-        <v>5.0999999999999988</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.42499999999999988</v>
+        <v>0.42622950819672129</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
@@ -1207,11 +1209,11 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.33749999999999997</v>
+        <v>0.33196721311475408</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1312,11 +1314,11 @@
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>0.73770491803278693</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1415,11 +1417,11 @@
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.53749999999999998</v>
+        <v>0.52868852459016391</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1512,11 +1514,11 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>0.43032786885245905</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1615,11 +1617,11 @@
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>0.78333333333333333</v>
+        <v>0.7704918032786886</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
@@ -1714,11 +1716,11 @@
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.62916666666666665</v>
+        <v>0.61885245901639352</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1815,11 +1817,11 @@
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
+        <v>0.53278688524590168</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1907,24 +1909,26 @@
         <v>0.1</v>
       </c>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" si="2"/>
-        <v>6.1999999999999984</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.5166666666666665</v>
+        <v>0.51639344262295073</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -2012,24 +2016,26 @@
       <c r="Y14" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z14" s="1"/>
+      <c r="Z14" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>0.71666666666666667</v>
+        <v>0.71311475409836067</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -2124,11 +2130,11 @@
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.45416666666666666</v>
+        <v>0.44672131147540989</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2191,7 +2197,9 @@
         <v>0.6</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2201,7 +2209,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>7.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2221,19 +2229,19 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>7.1499999999999995</v>
+        <v>8.15</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.59583333333333333</v>
+        <v>0.66803278688524592</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="1">
         <v>0.5</v>
@@ -2260,7 +2268,7 @@
       </c>
       <c r="AP16" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ16" s="5"/>
     </row>
@@ -2326,11 +2334,11 @@
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.47083333333333327</v>
+        <v>0.46311475409836061</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2421,11 +2429,11 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.41250000000000003</v>
+        <v>0.40573770491803285</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
@@ -2526,11 +2534,11 @@
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.61666666666666659</v>
+        <v>0.60655737704918034</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2622,24 +2630,26 @@
         <v>0.1</v>
       </c>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>0.95000000000000007</v>
+        <v>0.94262295081967218</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2732,11 +2742,11 @@
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.32083333333333336</v>
+        <v>0.3155737704918033</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2837,11 +2847,11 @@
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>0.73333333333333339</v>
+        <v>0.7213114754098362</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2928,11 +2938,11 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.29166666666666669</v>
+        <v>0.28688524590163939</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -3018,24 +3028,26 @@
       <c r="Y24" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.80833333333333324</v>
+        <v>0.80327868852459028</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -3126,11 +3138,11 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.4375</v>
+        <v>0.43032786885245905</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
@@ -3229,11 +3241,11 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>0.85</v>
+        <v>0.83606557377049184</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
@@ -3329,24 +3341,26 @@
       <c r="Y27" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z27" s="1"/>
+      <c r="Z27" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AD27" s="1">
         <f t="shared" si="2"/>
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.1166666666666667</v>
+        <v>1.1065573770491803</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3430,24 +3444,26 @@
       <c r="Y28" s="9">
         <v>0.1</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>5.55</v>
+        <v>5.6499999999999995</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.46249999999999997</v>
+        <v>0.46311475409836061</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3546,11 +3562,11 @@
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.55416666666666659</v>
+        <v>0.54508196721311464</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3637,11 +3653,11 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.41666666666666669</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
@@ -3732,11 +3748,11 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>0.41250000000000003</v>
+        <v>0.40573770491803285</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
@@ -3837,11 +3853,11 @@
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.81666666666666654</v>
+        <v>0.80327868852459017</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3938,11 +3954,11 @@
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.59583333333333333</v>
+        <v>0.58606557377049184</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
@@ -4028,24 +4044,26 @@
       <c r="Y34" s="9">
         <v>0.1</v>
       </c>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.85</v>
+        <v>0.84426229508196737</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -4139,20 +4157,22 @@
       <c r="Y35" s="1">
         <v>0.2</v>
       </c>
-      <c r="Z35" s="1"/>
+      <c r="Z35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602CD1F-62AB-4232-85E2-004816451FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0BAD7-54B6-40D3-ACC1-7169E0DE8EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -590,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,7 +787,9 @@
       <c r="L2" s="1">
         <v>0.3</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -795,7 +798,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>5.7499999999999991</v>
+        <v>5.8499999999999988</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -817,7 +820,7 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>6.0499999999999989</v>
+        <v>6.1499999999999986</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
@@ -825,7 +828,7 @@
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.49590163934426224</v>
+        <v>0.50409836065573765</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -885,7 +888,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -894,7 +899,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -914,7 +919,7 @@
       </c>
       <c r="AD3" s="1">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
@@ -922,11 +927,11 @@
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.39344262295081966</v>
+        <v>0.40163934426229508</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -951,7 +956,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -980,7 +985,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -989,7 +996,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -1009,7 +1016,7 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>4.3499999999999996</v>
+        <v>4.4499999999999993</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
@@ -1017,7 +1024,7 @@
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.35655737704918034</v>
+        <v>0.3647540983606557</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1279,7 +1286,9 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>0.6</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1288,7 +1297,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1310,7 +1319,7 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
@@ -1318,7 +1327,7 @@
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.73770491803278693</v>
+        <v>0.78688524590163933</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1481,7 +1490,9 @@
       <c r="L9" s="1">
         <v>0.3</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1490,7 +1501,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>4.95</v>
+        <v>5.05</v>
       </c>
       <c r="U9" s="1">
         <v>0.2</v>
@@ -1510,7 +1521,7 @@
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="2"/>
-        <v>5.25</v>
+        <v>5.35</v>
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
@@ -1518,7 +1529,7 @@
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.43032786885245905</v>
+        <v>0.43852459016393441</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
@@ -1782,7 +1793,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1791,7 +1804,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>6.3</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1813,7 +1826,7 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
@@ -1821,7 +1834,7 @@
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.53278688524590168</v>
+        <v>0.54098360655737709</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -2497,7 +2510,9 @@
       <c r="L19" s="1">
         <v>0.3</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2506,7 +2521,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>6.8999999999999995</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2530,7 +2545,7 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" si="2"/>
-        <v>7.3999999999999995</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
@@ -2538,7 +2553,7 @@
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.60655737704918034</v>
+        <v>0.61475409836065575</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
@@ -2607,7 +2622,9 @@
       <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2615,7 +2632,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2641,7 +2658,7 @@
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
@@ -2649,7 +2666,7 @@
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>0.94262295081967218</v>
+        <v>1.0655737704918034</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2810,7 +2827,9 @@
       <c r="L22" s="1">
         <v>0.3</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <v>0.3</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2819,7 +2838,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2843,7 +2862,7 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>9.1000000000000014</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
@@ -2851,7 +2870,7 @@
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>0.7213114754098362</v>
+        <v>0.74590163934426246</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -3006,7 +3025,9 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1">
+        <v>0.6</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3015,7 +3036,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -3039,7 +3060,7 @@
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>10.4</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
@@ -3047,7 +3068,7 @@
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.80327868852459028</v>
+        <v>0.85245901639344268</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -3420,7 +3441,9 @@
       <c r="L28" s="1">
         <v>0.45</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>0.3</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3429,7 +3452,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>5.05</v>
+        <v>5.35</v>
       </c>
       <c r="U28" s="9">
         <v>0.2</v>
@@ -3455,7 +3478,7 @@
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>5.6499999999999995</v>
+        <v>5.9499999999999993</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
@@ -3463,7 +3486,7 @@
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.46311475409836061</v>
+        <v>0.48770491803278687</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3923,7 +3946,9 @@
       <c r="L33" s="9">
         <v>1</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="9">
+        <v>0.6</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -3932,7 +3957,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>7.05</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="U33" s="9">
         <v>0.1</v>
@@ -3950,7 +3975,7 @@
       </c>
       <c r="AD33" s="9">
         <f t="shared" si="2"/>
-        <v>7.1499999999999995</v>
+        <v>7.7499999999999991</v>
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
@@ -3958,11 +3983,11 @@
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.58606557377049184</v>
+        <v>0.63524590163934425</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
@@ -3987,7 +4012,7 @@
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AQ33" s="5"/>
     </row>
@@ -4022,7 +4047,9 @@
       <c r="L34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1">
+        <v>0.6</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4031,7 +4058,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -4055,7 +4082,7 @@
       </c>
       <c r="AD34" s="1">
         <f t="shared" si="2"/>
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
@@ -4063,7 +4090,7 @@
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.84426229508196737</v>
+        <v>0.89344262295081978</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED0BAD7-54B6-40D3-ACC1-7169E0DE8EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DFE10-2A6D-437F-8021-9C1793AE2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -591,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -605,8 +604,8 @@
     <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.8984375" bestFit="1" customWidth="1"/>
@@ -788,7 +787,7 @@
         <v>0.3</v>
       </c>
       <c r="M2" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -798,7 +797,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>5.8499999999999988</v>
+        <v>6.0499999999999989</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -820,15 +819,15 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
-        <v>6.1499999999999986</v>
+        <v>6.3499999999999988</v>
       </c>
       <c r="AE2" s="9">
         <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF2" s="7">
         <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.50409836065573765</v>
+        <v>0.47388059701492524</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
@@ -923,15 +922,15 @@
       </c>
       <c r="AE3" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="4"/>
-        <v>0.40163934426229508</v>
+        <v>0.36567164179104472</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -956,7 +955,7 @@
       </c>
       <c r="AP3" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ3" s="5"/>
     </row>
@@ -986,7 +985,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -996,7 +995,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>4.3499999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -1016,15 +1015,15 @@
       </c>
       <c r="AD4" s="1">
         <f t="shared" si="2"/>
-        <v>4.4499999999999993</v>
+        <v>4.6499999999999995</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF4" s="7">
         <f t="shared" si="4"/>
-        <v>0.3647540983606557</v>
+        <v>0.34701492537313428</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="5"/>
@@ -1119,15 +1118,15 @@
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="4"/>
-        <v>0.42622950819672129</v>
+        <v>0.38805970149253727</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1152,7 +1151,7 @@
       </c>
       <c r="AP5" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ5" s="5"/>
     </row>
@@ -1216,11 +1215,11 @@
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="4"/>
-        <v>0.33196721311475408</v>
+        <v>0.30223880597014924</v>
       </c>
       <c r="AG6" s="4">
         <f t="shared" si="5"/>
@@ -1289,7 +1288,9 @@
       <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0.3</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1297,7 +1298,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>9.2999999999999989</v>
+        <v>9.6</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1319,15 +1320,15 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF7" s="7">
         <f t="shared" si="4"/>
-        <v>0.78688524590163933</v>
+        <v>0.73880597014925375</v>
       </c>
       <c r="AG7" s="4">
         <f t="shared" si="5"/>
@@ -1389,7 +1390,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1400,7 +1401,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>6.1499999999999995</v>
+        <v>6.5</v>
       </c>
       <c r="U8" s="9">
         <v>0</v>
@@ -1422,15 +1423,15 @@
       </c>
       <c r="AD8" s="1">
         <f t="shared" si="2"/>
-        <v>6.4499999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF8" s="7">
         <f t="shared" si="4"/>
-        <v>0.52868852459016391</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="AG8" s="4">
         <f t="shared" si="5"/>
@@ -1525,15 +1526,15 @@
       </c>
       <c r="AE9" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF9" s="7">
         <f t="shared" si="4"/>
-        <v>0.43852459016393441</v>
+        <v>0.39925373134328357</v>
       </c>
       <c r="AG9" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -1558,7 +1559,7 @@
       </c>
       <c r="AP9" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1593,8 +1594,12 @@
       <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1602,7 +1607,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>9.1</v>
+        <v>10.6</v>
       </c>
       <c r="U10" s="9">
         <v>0.1</v>
@@ -1624,19 +1629,19 @@
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="2"/>
-        <v>9.4</v>
+        <v>10.9</v>
       </c>
       <c r="AE10" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF10" s="7">
         <f t="shared" si="4"/>
-        <v>0.7704918032786886</v>
+        <v>0.81343283582089554</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="1">
         <v>1</v>
@@ -1663,7 +1668,7 @@
       </c>
       <c r="AP10" s="4">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AQ10" s="5"/>
     </row>
@@ -1696,8 +1701,12 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1705,7 +1714,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>7.55</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1723,15 +1732,15 @@
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="2"/>
-        <v>7.55</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AE11" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF11" s="7">
         <f t="shared" si="4"/>
-        <v>0.61885245901639352</v>
+        <v>0.62686567164179097</v>
       </c>
       <c r="AG11" s="4">
         <f t="shared" si="5"/>
@@ -1794,7 +1803,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1804,7 +1813,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>6.5</v>
       </c>
       <c r="U12" s="9">
         <v>0</v>
@@ -1826,15 +1835,15 @@
       </c>
       <c r="AD12" s="1">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE12" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF12" s="7">
         <f t="shared" si="4"/>
-        <v>0.54098360655737709</v>
+        <v>0.5</v>
       </c>
       <c r="AG12" s="4">
         <f t="shared" si="5"/>
@@ -1937,11 +1946,11 @@
       </c>
       <c r="AE13" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF13" s="7">
         <f t="shared" si="4"/>
-        <v>0.51639344262295073</v>
+        <v>0.4701492537313432</v>
       </c>
       <c r="AG13" s="4">
         <f t="shared" si="5"/>
@@ -2005,8 +2014,12 @@
       <c r="L14" s="1">
         <v>1</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.4</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2014,7 +2027,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -2040,15 +2053,15 @@
       </c>
       <c r="AD14" s="1">
         <f t="shared" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AE14" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF14" s="7">
         <f t="shared" si="4"/>
-        <v>0.71311475409836067</v>
+        <v>0.72388059701492535</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="5"/>
@@ -2112,7 +2125,9 @@
       <c r="L15" s="1">
         <v>0.6</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>0.3</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2121,7 +2136,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>5.45</v>
+        <v>5.75</v>
       </c>
       <c r="U15" s="9">
         <v>0</v>
@@ -2139,15 +2154,15 @@
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="2"/>
-        <v>5.45</v>
+        <v>5.75</v>
       </c>
       <c r="AE15" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF15" s="7">
         <f t="shared" si="4"/>
-        <v>0.44672131147540989</v>
+        <v>0.42910447761194026</v>
       </c>
       <c r="AG15" s="4">
         <f t="shared" si="5"/>
@@ -2213,8 +2228,12 @@
       <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.1</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2222,7 +2241,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
+        <v>8.75</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2242,15 +2261,15 @@
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="2"/>
-        <v>8.15</v>
+        <v>8.85</v>
       </c>
       <c r="AE16" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF16" s="7">
         <f t="shared" si="4"/>
-        <v>0.66803278688524592</v>
+        <v>0.66044776119402981</v>
       </c>
       <c r="AG16" s="4">
         <f t="shared" si="5"/>
@@ -2313,7 +2332,9 @@
         <v>0.6</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2321,7 +2342,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>5.35</v>
+        <v>5.85</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
@@ -2343,15 +2364,15 @@
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>5.6499999999999995</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="AE17" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF17" s="7">
         <f t="shared" si="4"/>
-        <v>0.46311475409836061</v>
+        <v>0.45895522388059695</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="5"/>
@@ -2442,15 +2463,15 @@
       </c>
       <c r="AE18" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF18" s="7">
         <f t="shared" si="4"/>
-        <v>0.40573770491803285</v>
+        <v>0.36940298507462688</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="1">
         <v>0.5</v>
@@ -2477,7 +2498,7 @@
       </c>
       <c r="AP18" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ18" s="5"/>
     </row>
@@ -2549,15 +2570,15 @@
       </c>
       <c r="AE19" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF19" s="7">
         <f t="shared" si="4"/>
-        <v>0.61475409836065575</v>
+        <v>0.55970149253731338</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="1">
         <v>0.5</v>
@@ -2584,7 +2605,7 @@
       </c>
       <c r="AP19" s="4">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="5"/>
     </row>
@@ -2650,23 +2671,25 @@
       <c r="Z20" s="9">
         <v>0.1</v>
       </c>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="AE20" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF20" s="7">
         <f t="shared" si="4"/>
-        <v>1.0655737704918034</v>
+        <v>0.9776119402985074</v>
       </c>
       <c r="AG20" s="4">
         <f t="shared" si="5"/>
@@ -2675,29 +2698,31 @@
       <c r="AH20" s="1">
         <v>1</v>
       </c>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="1">
         <v>3</v>
       </c>
       <c r="AM20" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AN20" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" s="8">
         <v>0</v>
       </c>
       <c r="AP20" s="4">
         <f t="shared" si="9"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="AQ20" s="5"/>
     </row>
@@ -2728,7 +2753,9 @@
       <c r="L21" s="1">
         <v>0.1</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.05</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2737,7 +2764,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2755,15 +2782,15 @@
       </c>
       <c r="AD21" s="1">
         <f t="shared" si="2"/>
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AE21" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF21" s="7">
         <f t="shared" si="4"/>
-        <v>0.3155737704918033</v>
+        <v>0.29104477611940299</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" si="5"/>
@@ -2830,7 +2857,9 @@
       <c r="M22" s="1">
         <v>0.3</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0.1</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2838,7 +2867,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1">
         <f t="shared" si="0"/>
-        <v>8.7000000000000011</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="U22" s="1">
         <v>0.1</v>
@@ -2862,15 +2891,15 @@
       </c>
       <c r="AD22" s="1">
         <f t="shared" si="2"/>
-        <v>9.1000000000000014</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="AE22" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF22" s="7">
         <f t="shared" si="4"/>
-        <v>0.74590163934426246</v>
+        <v>0.68656716417910457</v>
       </c>
       <c r="AG22" s="4">
         <f t="shared" si="5"/>
@@ -2957,11 +2986,11 @@
       </c>
       <c r="AE23" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF23" s="7">
         <f t="shared" si="4"/>
-        <v>0.28688524590163939</v>
+        <v>0.26119402985074625</v>
       </c>
       <c r="AG23" s="8">
         <f t="shared" si="5"/>
@@ -3026,9 +3055,11 @@
         <v>1</v>
       </c>
       <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
         <v>0.6</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3036,7 +3067,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -3052,23 +3083,25 @@
       <c r="Z24" s="9">
         <v>0.1</v>
       </c>
-      <c r="AA24" s="1"/>
+      <c r="AA24" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" s="1">
         <f t="shared" si="2"/>
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF24" s="7">
         <f t="shared" si="4"/>
-        <v>0.85245901639344268</v>
+        <v>0.85820895522388052</v>
       </c>
       <c r="AG24" s="4">
         <f t="shared" si="5"/>
@@ -3159,15 +3192,15 @@
       </c>
       <c r="AE25" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF25" s="7">
         <f t="shared" si="4"/>
-        <v>0.43032786885245905</v>
+        <v>0.39179104477611937</v>
       </c>
       <c r="AG25" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
@@ -3192,7 +3225,7 @@
       </c>
       <c r="AP25" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ25" s="5"/>
     </row>
@@ -3262,15 +3295,15 @@
       </c>
       <c r="AE26" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF26" s="7">
         <f t="shared" si="4"/>
-        <v>0.83606557377049184</v>
+        <v>0.76119402985074625</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26" s="1">
         <v>1</v>
@@ -3297,7 +3330,7 @@
       </c>
       <c r="AP26" s="4">
         <f t="shared" si="9"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="AQ26" s="5"/>
     </row>
@@ -3377,11 +3410,11 @@
       </c>
       <c r="AE27" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF27" s="7">
         <f t="shared" si="4"/>
-        <v>1.1065573770491803</v>
+        <v>1.0074626865671641</v>
       </c>
       <c r="AG27" s="4">
         <f t="shared" si="5"/>
@@ -3390,29 +3423,31 @@
       <c r="AH27" s="1">
         <v>1</v>
       </c>
-      <c r="AI27" s="1"/>
+      <c r="AI27" s="1">
+        <v>1</v>
+      </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL27" s="1">
         <v>3</v>
       </c>
       <c r="AM27" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AN27" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO27" s="8">
         <v>0</v>
       </c>
       <c r="AP27" s="4">
         <f t="shared" si="9"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="AQ27" s="5"/>
     </row>
@@ -3444,7 +3479,9 @@
       <c r="M28" s="1">
         <v>0.3</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0.2</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3452,7 +3489,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1">
         <f t="shared" si="0"/>
-        <v>5.35</v>
+        <v>5.55</v>
       </c>
       <c r="U28" s="9">
         <v>0.2</v>
@@ -3478,15 +3515,15 @@
       </c>
       <c r="AD28" s="1">
         <f t="shared" si="2"/>
-        <v>5.9499999999999993</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="AE28" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF28" s="7">
         <f t="shared" si="4"/>
-        <v>0.48770491803278687</v>
+        <v>0.45895522388059695</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="5"/>
@@ -3585,11 +3622,11 @@
       </c>
       <c r="AE29" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF29" s="7">
         <f t="shared" si="4"/>
-        <v>0.54508196721311464</v>
+        <v>0.49626865671641779</v>
       </c>
       <c r="AG29" s="4">
         <f t="shared" si="5"/>
@@ -3676,15 +3713,15 @@
       </c>
       <c r="AE30" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF30" s="7">
         <f t="shared" si="4"/>
-        <v>0.4098360655737705</v>
+        <v>0.37313432835820892</v>
       </c>
       <c r="AG30" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3709,7 +3746,7 @@
       </c>
       <c r="AP30" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3771,15 +3808,15 @@
       </c>
       <c r="AE31" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF31" s="7">
         <f t="shared" si="4"/>
-        <v>0.40573770491803285</v>
+        <v>0.36940298507462688</v>
       </c>
       <c r="AG31" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -3804,7 +3841,7 @@
       </c>
       <c r="AP31" s="4">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AQ31" s="5"/>
     </row>
@@ -3839,8 +3876,12 @@
       <c r="L32" s="9">
         <v>1</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="M32" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.6</v>
+      </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -3848,7 +3889,7 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>9.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="U32" s="9">
         <v>0.2</v>
@@ -3864,23 +3905,25 @@
         <v>0.2</v>
       </c>
       <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="AD32" s="9">
         <f t="shared" si="2"/>
-        <v>9.7999999999999989</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF32" s="7">
         <f t="shared" si="4"/>
-        <v>0.80327868852459017</v>
+        <v>0.82089552238805963</v>
       </c>
       <c r="AG32" s="8">
         <f t="shared" si="5"/>
@@ -3949,7 +3992,9 @@
       <c r="M33" s="9">
         <v>0.6</v>
       </c>
-      <c r="N33" s="9"/>
+      <c r="N33" s="9">
+        <v>0.2</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -3957,7 +4002,7 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>7.6499999999999995</v>
+        <v>7.85</v>
       </c>
       <c r="U33" s="9">
         <v>0.1</v>
@@ -3975,19 +4020,19 @@
       </c>
       <c r="AD33" s="9">
         <f t="shared" si="2"/>
-        <v>7.7499999999999991</v>
+        <v>7.9499999999999993</v>
       </c>
       <c r="AE33" s="9">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF33" s="7">
         <f t="shared" si="4"/>
-        <v>0.63524590163934425</v>
+        <v>0.59328358208955212</v>
       </c>
       <c r="AG33" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9"/>
@@ -4012,7 +4057,7 @@
       </c>
       <c r="AP33" s="8">
         <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="5"/>
     </row>
@@ -4086,11 +4131,11 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="3"/>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF34" s="7">
         <f t="shared" si="4"/>
-        <v>0.89344262295081978</v>
+        <v>0.81343283582089554</v>
       </c>
       <c r="AG34" s="4">
         <f t="shared" si="5"/>
@@ -4159,7 +4204,9 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4167,7 +4214,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4187,19 +4234,21 @@
       <c r="Z35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AA35" s="1"/>
+      <c r="AA35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AE35" s="4">
         <f>AD35</f>
-        <v>12.2</v>
+        <v>13.4</v>
       </c>
       <c r="AF35" s="7">
         <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DFE10-2A6D-437F-8021-9C1793AE2DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724787D-0CD0-411D-9A06-7A46F94C33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>№</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Чуфаров Михаил Дмитриевич</t>
+  </si>
+  <si>
+    <t>КР9</t>
+  </si>
+  <si>
+    <t>КР10</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ230"/>
+  <dimension ref="A1:AS230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,23 +616,25 @@
     <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.3984375" customWidth="1"/>
-    <col min="41" max="41" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.8984375" customWidth="1"/>
+    <col min="29" max="29" width="4.296875" customWidth="1"/>
+    <col min="30" max="30" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.69921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.3984375" customWidth="1"/>
+    <col min="43" max="43" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,51 +719,57 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="5"/>
-    </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS1" s="5"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -813,56 +827,58 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC34" si="1">SUM(U2:AB2)</f>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="1">
+        <f>SUM(U2:AD2)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD34" si="2">T2+AC2</f>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2:AF34" si="1">T2+AE2</f>
         <v>6.3499999999999988</v>
       </c>
-      <c r="AE2" s="9">
-        <f t="shared" ref="AE2:AE34" si="3">AE3</f>
-        <v>13.4</v>
-      </c>
-      <c r="AF2" s="7">
-        <f t="shared" ref="AF2:AF34" si="4">(AD2/AE2)</f>
-        <v>0.47388059701492524</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" ref="AG2:AG34" si="5">MAX(IF(AF2*100&gt;=20,2,0),IF(AF2*100&gt;=40,3,0),IF(AF2*100&gt;=60,4,0),IF(AF2*100&gt;=80,5,0))</f>
+      <c r="AG2" s="9">
+        <f t="shared" ref="AG2:AG34" si="2">AG3</f>
+        <v>13.6</v>
+      </c>
+      <c r="AH2" s="7">
+        <f t="shared" ref="AH2:AH34" si="3">(AF2/AG2)</f>
+        <v>0.46691176470588225</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" ref="AI2:AI34" si="4">MAX(IF(AH2*100&gt;=20,2,0),IF(AH2*100&gt;=40,3,0),IF(AH2*100&gt;=60,4,0),IF(AH2*100&gt;=80,5,0))</f>
         <v>3</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK34" si="6">SUM(AH2:AJ2)</f>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1">
+        <f t="shared" ref="AM2:AM34" si="5">SUM(AJ2:AL2)</f>
         <v>0.5</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AN2" s="1">
         <v>3</v>
       </c>
-      <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM34" si="7">(AK2/AL2)*100</f>
+      <c r="AO2" s="4">
+        <f t="shared" ref="AO2:AO34" si="6">(AM2/AN2)*100</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="AN2" s="4">
-        <f t="shared" ref="AN2:AN34" si="8">MAX(IF(AM2&gt;=20,2,0),IF(AM2&gt;=40,3,0),IF(AM2&gt;=60,4,0),IF(AM2&gt;=80,5,0))</f>
+      <c r="AP2" s="4">
+        <f t="shared" ref="AP2:AP34" si="7">MAX(IF(AO2&gt;=20,2,0),IF(AO2&gt;=40,3,0),IF(AO2&gt;=60,4,0),IF(AO2&gt;=80,5,0))</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AQ2" s="8">
         <v>0</v>
       </c>
-      <c r="AP2" s="4">
-        <f t="shared" ref="AP2:AP34" si="9">(AG2+AN2+AO2)/3</f>
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="5"/>
-    </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AR2" s="4">
+        <f t="shared" ref="AR2:AR34" si="8">(AI2+AP2+AQ2)/3</f>
+        <v>1</v>
+      </c>
+      <c r="AS2" s="5"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>42</v>
@@ -912,54 +928,56 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9">
+        <f t="shared" ref="AE3:AE35" si="9">SUM(U3:AD3)</f>
+        <v>0.05</v>
+      </c>
+      <c r="AF3" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="AD3" s="1">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="AG3" s="9">
         <f t="shared" si="2"/>
-        <v>4.8999999999999995</v>
-      </c>
-      <c r="AE3" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH3" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF3" s="7">
+        <v>0.36029411764705882</v>
+      </c>
+      <c r="AI3" s="4">
         <f t="shared" si="4"/>
-        <v>0.36567164179104472</v>
-      </c>
-      <c r="AG3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="4">
+      <c r="AP3" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AQ3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ3" s="5"/>
-    </row>
-    <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS3" s="5"/>
+    </row>
+    <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>43</v>
@@ -1009,56 +1027,58 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF4" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="AG4" s="9">
         <f t="shared" si="2"/>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="AE4" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH4" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF4" s="7">
+        <v>0.3419117647058823</v>
+      </c>
+      <c r="AI4" s="4">
         <f t="shared" si="4"/>
-        <v>0.34701492537313428</v>
-      </c>
-      <c r="AG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1">
+      <c r="AN4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP4" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ4" s="5"/>
-    </row>
-    <row r="5" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS4" s="5"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>44</v>
@@ -1108,54 +1128,56 @@
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF5" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD5" s="1">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="AG5" s="9">
         <f t="shared" si="2"/>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="AE5" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH5" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF5" s="7">
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="AI5" s="4">
         <f t="shared" si="4"/>
-        <v>0.38805970149253727</v>
-      </c>
-      <c r="AG5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="4">
+      <c r="AP5" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AQ5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ5" s="5"/>
-    </row>
-    <row r="6" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS5" s="5"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>45</v>
@@ -1205,56 +1227,58 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="AG6" s="9">
         <f t="shared" si="2"/>
-        <v>4.05</v>
-      </c>
-      <c r="AE6" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH6" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF6" s="7">
+        <v>0.29779411764705882</v>
+      </c>
+      <c r="AI6" s="4">
         <f t="shared" si="4"/>
-        <v>0.30223880597014924</v>
-      </c>
-      <c r="AG6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1">
+      <c r="AN6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP6" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ6" s="5"/>
-    </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS6" s="5"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>46</v>
@@ -1314,56 +1338,58 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF7" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="AG7" s="9">
         <f t="shared" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="AE7" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH7" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF7" s="7">
+        <v>0.72794117647058831</v>
+      </c>
+      <c r="AI7" s="4">
         <f t="shared" si="4"/>
-        <v>0.73880597014925375</v>
-      </c>
-      <c r="AG7" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP7" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AO7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AQ7" s="5"/>
-    </row>
-    <row r="8" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS7" s="5"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>47</v>
@@ -1417,56 +1443,58 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF8" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD8" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="AG8" s="9">
         <f t="shared" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="AE8" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH8" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AI8" s="4">
         <f t="shared" si="4"/>
-        <v>0.5074626865671642</v>
-      </c>
-      <c r="AG8" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1">
         <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN8" s="1">
         <v>3</v>
       </c>
-      <c r="AH8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1">
+      <c r="AO8" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP8" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="5"/>
-    </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="5"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>48</v>
@@ -1516,54 +1544,56 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF9" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD9" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="AG9" s="9">
         <f t="shared" si="2"/>
-        <v>5.35</v>
-      </c>
-      <c r="AE9" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH9" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF9" s="7">
+        <v>0.39338235294117646</v>
+      </c>
+      <c r="AI9" s="4">
         <f t="shared" si="4"/>
-        <v>0.39925373134328357</v>
-      </c>
-      <c r="AG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="4">
+      <c r="AP9" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AQ9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ9" s="5"/>
-    </row>
-    <row r="10" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>49</v>
@@ -1623,56 +1653,58 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1">
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF10" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD10" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="AG10" s="9">
         <f t="shared" si="2"/>
-        <v>10.9</v>
-      </c>
-      <c r="AE10" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH10" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF10" s="7">
+        <v>0.80147058823529416</v>
+      </c>
+      <c r="AI10" s="4">
         <f t="shared" si="4"/>
-        <v>0.81343283582089554</v>
-      </c>
-      <c r="AG10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM10" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP10" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="4">
-        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AQ10" s="5"/>
-    </row>
-    <row r="11" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS10" s="5"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -1726,56 +1758,58 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
         <f t="shared" si="1"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.61764705882352933</v>
+      </c>
+      <c r="AI11" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="4">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP11" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="AE11" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF11" s="7">
-        <f t="shared" si="4"/>
-        <v>0.62686567164179097</v>
-      </c>
-      <c r="AG11" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM11" s="4">
-        <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN11" s="4">
+      <c r="AQ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="4">
-        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AQ11" s="5"/>
-    </row>
-    <row r="12" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS11" s="5"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>51</v>
@@ -1829,56 +1863,58 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF12" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD12" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="AG12" s="9">
         <f t="shared" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="AE12" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH12" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF12" s="7">
+        <v>0.49264705882352944</v>
+      </c>
+      <c r="AI12" s="4">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>0.5</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1">
         <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN12" s="1">
         <v>3</v>
       </c>
-      <c r="AH12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1">
+      <c r="AO12" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM12" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP12" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="5"/>
-    </row>
-    <row r="13" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="5"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>52</v>
@@ -1936,56 +1972,58 @@
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF13" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD13" s="1">
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="AG13" s="9">
         <f t="shared" si="2"/>
-        <v>6.2999999999999989</v>
-      </c>
-      <c r="AE13" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH13" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF13" s="7">
+        <v>0.46323529411764697</v>
+      </c>
+      <c r="AI13" s="4">
         <f t="shared" si="4"/>
-        <v>0.4701492537313432</v>
-      </c>
-      <c r="AG13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1">
         <v>3</v>
       </c>
-      <c r="AH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1">
+      <c r="AO13" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM13" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP13" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="4">
-        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AQ13" s="5"/>
-    </row>
-    <row r="14" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS13" s="5"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>53</v>
@@ -2046,57 +2084,61 @@
         <v>0.1</v>
       </c>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1">
+      <c r="AB14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF14" s="1">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="AD14" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AG14" s="9">
         <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AE14" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH14" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF14" s="7">
+        <v>0.72058823529411775</v>
+      </c>
+      <c r="AI14" s="4">
         <f t="shared" si="4"/>
-        <v>0.72388059701492535</v>
-      </c>
-      <c r="AG14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP14" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AO14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="5"/>
-    </row>
-    <row r="15" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS14" s="5"/>
+    </row>
+    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>54</v>
@@ -2148,56 +2190,58 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
         <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.42279411764705882</v>
+      </c>
+      <c r="AI15" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP15" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="2"/>
-        <v>5.75</v>
-      </c>
-      <c r="AE15" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF15" s="7">
-        <f t="shared" si="4"/>
-        <v>0.42910447761194026</v>
-      </c>
-      <c r="AG15" s="4">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="4">
-        <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN15" s="4">
+      <c r="AQ15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="5"/>
-    </row>
-    <row r="16" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="5"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>55</v>
@@ -2232,7 +2276,7 @@
         <v>0.6</v>
       </c>
       <c r="N16" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2241,7 +2285,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>8.75</v>
+        <v>8.9500000000000011</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2255,56 +2299,58 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1">
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF16" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD16" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AG16" s="9">
         <f t="shared" si="2"/>
-        <v>8.85</v>
-      </c>
-      <c r="AE16" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH16" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF16" s="7">
+        <v>0.66544117647058831</v>
+      </c>
+      <c r="AI16" s="4">
         <f t="shared" si="4"/>
-        <v>0.66044776119402981</v>
-      </c>
-      <c r="AG16" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH16" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1">
+      <c r="AN16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM16" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP16" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="4">
-        <f t="shared" si="9"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="AQ16" s="5"/>
-    </row>
-    <row r="17" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS16" s="5"/>
+    </row>
+    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>56</v>
@@ -2358,56 +2404,58 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF17" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD17" s="1">
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="AG17" s="9">
         <f t="shared" si="2"/>
-        <v>6.1499999999999995</v>
-      </c>
-      <c r="AE17" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH17" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF17" s="7">
+        <v>0.45220588235294112</v>
+      </c>
+      <c r="AI17" s="4">
         <f t="shared" si="4"/>
-        <v>0.45895522388059695</v>
-      </c>
-      <c r="AG17" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1">
         <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN17" s="1">
         <v>3</v>
       </c>
-      <c r="AH17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1">
+      <c r="AO17" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM17" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP17" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="5"/>
-    </row>
-    <row r="18" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="5"/>
+    </row>
+    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>57</v>
@@ -2453,56 +2501,58 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1">
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
         <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+      <c r="AG18" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="3"/>
+        <v>0.36397058823529416</v>
+      </c>
+      <c r="AI18" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="4">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP18" s="4">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="1">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="AE18" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF18" s="7">
-        <f t="shared" si="4"/>
-        <v>0.36940298507462688</v>
-      </c>
-      <c r="AG18" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM18" s="4">
-        <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN18" s="4">
+      <c r="AQ18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ18" s="5"/>
-    </row>
-    <row r="19" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS18" s="5"/>
+    </row>
+    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>58</v>
@@ -2534,7 +2584,9 @@
       <c r="M19" s="1">
         <v>0.1</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0.1</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2542,7 +2594,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1">
         <f t="shared" si="0"/>
-        <v>6.9999999999999991</v>
+        <v>7.0999999999999988</v>
       </c>
       <c r="U19" s="9">
         <v>0.1</v>
@@ -2560,56 +2612,58 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1">
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF19" s="1">
         <f t="shared" si="1"/>
+        <v>7.5999999999999988</v>
+      </c>
+      <c r="AG19" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.55882352941176461</v>
+      </c>
+      <c r="AI19" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD19" s="1">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999991</v>
-      </c>
-      <c r="AE19" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF19" s="7">
-        <f t="shared" si="4"/>
-        <v>0.55970149253731338</v>
-      </c>
-      <c r="AG19" s="4">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1">
         <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="AN19" s="1">
         <v>3</v>
       </c>
-      <c r="AH19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1">
+      <c r="AO19" s="4">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM19" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AP19" s="4">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AN19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="5"/>
-    </row>
-    <row r="20" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="5"/>
+    </row>
+    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -2674,59 +2728,63 @@
       <c r="AA20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1">
+      <c r="AB20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="AF20" s="1">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AD20" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="AG20" s="9">
         <f t="shared" si="2"/>
-        <v>13.1</v>
-      </c>
-      <c r="AE20" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH20" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF20" s="7">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="AI20" s="4">
         <f t="shared" si="4"/>
-        <v>0.9776119402985074</v>
-      </c>
-      <c r="AG20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AL20" s="1">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AP20" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AQ20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="4">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AM20" s="4">
-        <f t="shared" si="7"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AO20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="4">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AQ20" s="5"/>
-    </row>
-    <row r="21" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS20" s="5"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
         <v>60</v>
@@ -2776,54 +2834,56 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1">
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
         <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="AG21" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28676470588235292</v>
+      </c>
+      <c r="AI21" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9</v>
-      </c>
-      <c r="AE21" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF21" s="7">
-        <f t="shared" si="4"/>
-        <v>0.29104477611940299</v>
-      </c>
-      <c r="AG21" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1">
+      <c r="AN21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM21" s="4">
+      <c r="AP21" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AQ21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ21" s="5"/>
-    </row>
-    <row r="22" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS21" s="5"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>61</v>
@@ -2885,56 +2945,58 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1">
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF22" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD22" s="1">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="AG22" s="9">
         <f t="shared" si="2"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="AE22" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH22" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF22" s="7">
+        <v>0.67647058823529427</v>
+      </c>
+      <c r="AI22" s="4">
         <f t="shared" si="4"/>
-        <v>0.68656716417910457</v>
-      </c>
-      <c r="AG22" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO22" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM22" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP22" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN22" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AO22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AQ22" s="5"/>
-    </row>
-    <row r="23" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS22" s="5"/>
+    </row>
+    <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
         <v>70</v>
@@ -2950,7 +3012,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2964,7 +3028,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U23" s="9">
         <v>0</v>
@@ -2976,54 +3040,56 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="9">
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
         <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33088235294117646</v>
+      </c>
+      <c r="AI23" s="8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="9">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF23" s="7">
-        <f t="shared" si="4"/>
-        <v>0.26119402985074625</v>
-      </c>
-      <c r="AG23" s="8">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9">
+      <c r="AN23" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="9">
-        <v>3</v>
-      </c>
-      <c r="AM23" s="8">
+      <c r="AP23" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AQ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="8">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ23" s="5"/>
-    </row>
-    <row r="24" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS23" s="5"/>
+    </row>
+    <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
         <v>62</v>
@@ -3087,56 +3153,58 @@
         <v>0.1</v>
       </c>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1">
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="AF24" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD24" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AG24" s="9">
         <f t="shared" si="2"/>
-        <v>11.5</v>
-      </c>
-      <c r="AE24" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH24" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF24" s="7">
+        <v>0.84558823529411764</v>
+      </c>
+      <c r="AI24" s="4">
         <f t="shared" si="4"/>
-        <v>0.85820895522388052</v>
-      </c>
-      <c r="AG24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO24" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL24" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM24" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP24" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO24" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="4">
-        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AQ24" s="5"/>
-    </row>
-    <row r="25" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS24" s="5"/>
+    </row>
+    <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
         <v>63</v>
@@ -3182,54 +3250,56 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1">
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF25" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD25" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="AG25" s="9">
         <f t="shared" si="2"/>
-        <v>5.25</v>
-      </c>
-      <c r="AE25" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH25" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF25" s="7">
+        <v>0.3860294117647059</v>
+      </c>
+      <c r="AI25" s="4">
         <f t="shared" si="4"/>
-        <v>0.39179104477611937</v>
-      </c>
-      <c r="AG25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL25" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM25" s="4">
+      <c r="AP25" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AQ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ25" s="5"/>
-    </row>
-    <row r="26" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS25" s="5"/>
+    </row>
+    <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
         <v>72</v>
@@ -3285,56 +3355,58 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1">
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF26" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD26" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AG26" s="9">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AE26" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH26" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AI26" s="4">
         <f t="shared" si="4"/>
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="AG26" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM26" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP26" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AO26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="4">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AQ26" s="5"/>
-    </row>
-    <row r="27" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS26" s="5"/>
+    </row>
+    <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
         <v>64</v>
@@ -3399,59 +3471,63 @@
         <v>0.1</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
+      <c r="AB27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AF27" s="1">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="AD27" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="AG27" s="9">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="AE27" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH27" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF27" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="4">
         <f t="shared" si="4"/>
-        <v>1.0074626865671641</v>
-      </c>
-      <c r="AG27" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO27" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AL27" s="1">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AP27" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AQ27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="4">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AM27" s="4">
-        <f t="shared" si="7"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="AN27" s="4">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AO27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="4">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AQ27" s="5"/>
-    </row>
-    <row r="28" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS27" s="5"/>
+    </row>
+    <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
         <v>65</v>
@@ -3509,56 +3585,58 @@
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1">
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="AF28" s="1">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AD28" s="1">
+        <v>6.1499999999999995</v>
+      </c>
+      <c r="AG28" s="9">
         <f t="shared" si="2"/>
-        <v>6.1499999999999995</v>
-      </c>
-      <c r="AE28" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH28" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF28" s="7">
+        <v>0.45220588235294112</v>
+      </c>
+      <c r="AI28" s="4">
         <f t="shared" si="4"/>
-        <v>0.45895522388059695</v>
-      </c>
-      <c r="AG28" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="1">
         <v>3</v>
       </c>
-      <c r="AH28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1">
+      <c r="AO28" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM28" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP28" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="9"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AQ28" s="5"/>
-    </row>
-    <row r="29" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS28" s="5"/>
+    </row>
+    <row r="29" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>71</v>
@@ -3612,54 +3690,56 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1">
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF29" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD29" s="1">
+        <v>6.6499999999999986</v>
+      </c>
+      <c r="AG29" s="9">
         <f t="shared" si="2"/>
-        <v>6.6499999999999986</v>
-      </c>
-      <c r="AE29" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH29" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF29" s="7">
+        <v>0.48897058823529405</v>
+      </c>
+      <c r="AI29" s="4">
         <f t="shared" si="4"/>
-        <v>0.49626865671641779</v>
-      </c>
-      <c r="AG29" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1">
         <v>3</v>
       </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1">
+      <c r="AO29" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM29" s="4">
+      <c r="AP29" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="4">
+      <c r="AQ29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="5"/>
-    </row>
-    <row r="30" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="5"/>
+    </row>
+    <row r="30" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>73</v>
@@ -3703,54 +3783,56 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1">
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH30" s="7">
+        <f t="shared" si="3"/>
+        <v>0.36764705882352944</v>
+      </c>
+      <c r="AI30" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AE30" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF30" s="7">
-        <f t="shared" si="4"/>
-        <v>0.37313432835820892</v>
-      </c>
-      <c r="AG30" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1">
+      <c r="AN30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM30" s="4">
+      <c r="AP30" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="4">
+      <c r="AQ30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ30" s="5"/>
-    </row>
-    <row r="31" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AS30" s="5"/>
+    </row>
+    <row r="31" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
         <v>66</v>
@@ -3798,54 +3880,56 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1">
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
         <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+      <c r="AG31" s="9">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="AH31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.36397058823529416</v>
+      </c>
+      <c r="AI31" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="1">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="AE31" s="9">
-        <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF31" s="7">
-        <f t="shared" si="4"/>
-        <v>0.36940298507462688</v>
-      </c>
-      <c r="AG31" s="4">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1">
+      <c r="AN31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO31" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM31" s="4">
+      <c r="AP31" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="4">
+      <c r="AQ31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="4">
-        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AQ31" s="5"/>
-    </row>
-    <row r="32" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AS31" s="5"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>67</v>
@@ -3909,56 +3993,58 @@
         <v>0.1</v>
       </c>
       <c r="AB32" s="9"/>
-      <c r="AC32" s="9">
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9">
+        <f t="shared" si="9"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AF32" s="9">
         <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="AD32" s="9">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="9">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AE32" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH32" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF32" s="7">
+        <v>0.80882352941176472</v>
+      </c>
+      <c r="AI32" s="8">
         <f t="shared" si="4"/>
-        <v>0.82089552238805963</v>
-      </c>
-      <c r="AG32" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH32" s="9">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="9">
+        <v>3</v>
+      </c>
+      <c r="AO32" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL32" s="9">
-        <v>3</v>
-      </c>
-      <c r="AM32" s="8">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP32" s="8">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="8">
-        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AQ32" s="5"/>
-    </row>
-    <row r="33" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AS32" s="5"/>
+    </row>
+    <row r="33" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
         <v>68</v>
@@ -4014,54 +4100,56 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
-      <c r="AC33" s="9">
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="AF33" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD33" s="9">
+        <v>7.9499999999999993</v>
+      </c>
+      <c r="AG33" s="9">
         <f t="shared" si="2"/>
-        <v>7.9499999999999993</v>
-      </c>
-      <c r="AE33" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AH33" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF33" s="7">
+        <v>0.58455882352941169</v>
+      </c>
+      <c r="AI33" s="8">
         <f t="shared" si="4"/>
-        <v>0.59328358208955212</v>
-      </c>
-      <c r="AG33" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="9">
         <v>3</v>
       </c>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9">
+      <c r="AO33" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="9">
-        <v>3</v>
-      </c>
-      <c r="AM33" s="8">
+      <c r="AP33" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AQ33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="8">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="5"/>
-    </row>
-    <row r="34" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="5"/>
+    </row>
+    <row r="34" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
         <v>69</v>
@@ -4095,7 +4183,9 @@
       <c r="M34" s="1">
         <v>0.6</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0.6</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -4103,7 +4193,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1">
         <f t="shared" si="0"/>
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="U34" s="9">
         <v>0</v>
@@ -4121,56 +4211,58 @@
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1">
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF34" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AD34" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="AG34" s="1">
         <f t="shared" si="2"/>
-        <v>10.9</v>
-      </c>
-      <c r="AE34" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="AH34" s="7">
         <f t="shared" si="3"/>
-        <v>13.4</v>
-      </c>
-      <c r="AF34" s="7">
+        <v>0.84558823529411764</v>
+      </c>
+      <c r="AI34" s="4">
         <f t="shared" si="4"/>
-        <v>0.81343283582089554</v>
-      </c>
-      <c r="AG34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO34" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM34" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AP34" s="4">
         <f t="shared" si="7"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AN34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AO34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="4">
-        <f t="shared" si="9"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AQ34" s="5"/>
-    </row>
-    <row r="35" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS34" s="5"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -4237,57 +4329,61 @@
       <c r="AA35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1">
-        <f t="shared" ref="AC35" si="11">SUM(U35:AB35)</f>
-        <v>1.4</v>
-      </c>
-      <c r="AD35" s="1">
-        <f t="shared" ref="AD35" si="12">T35+AC35</f>
-        <v>13.4</v>
-      </c>
-      <c r="AE35" s="4">
-        <f>AD35</f>
-        <v>13.4</v>
-      </c>
-      <c r="AF35" s="7">
-        <f t="shared" ref="AF35" si="13">(AD35/AE35)</f>
-        <v>1</v>
+      <c r="AB35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9">
+        <f t="shared" si="9"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" ref="AF35" si="11">T35+AE35</f>
+        <v>13.6</v>
       </c>
       <c r="AG35" s="4">
-        <f t="shared" ref="AG35" si="14">MAX(IF(AF35*100&gt;=20,2,0),IF(AF35*100&gt;=40,3,0),IF(AF35*100&gt;=60,4,0),IF(AF35*100&gt;=80,5,0))</f>
+        <f>AF35</f>
+        <v>13.6</v>
+      </c>
+      <c r="AH35" s="7">
+        <f t="shared" ref="AH35" si="12">(AF35/AG35)</f>
+        <v>1</v>
+      </c>
+      <c r="AI35" s="4">
+        <f t="shared" ref="AI35" si="13">MAX(IF(AH35*100&gt;=20,2,0),IF(AH35*100&gt;=40,3,0),IF(AH35*100&gt;=60,4,0),IF(AH35*100&gt;=80,5,0))</f>
         <v>5</v>
       </c>
-      <c r="AH35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1">
-        <f t="shared" ref="AK35" si="15">SUM(AH35:AJ35)</f>
-        <v>1</v>
-      </c>
-      <c r="AL35" s="9">
+      <c r="AJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1">
+        <f t="shared" ref="AM35" si="14">SUM(AJ35:AL35)</f>
+        <v>1</v>
+      </c>
+      <c r="AN35" s="9">
         <v>3</v>
       </c>
-      <c r="AM35" s="4">
-        <f t="shared" ref="AM35" si="16">(AK35/AL35)*100</f>
+      <c r="AO35" s="4">
+        <f t="shared" ref="AO35" si="15">(AM35/AN35)*100</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="AN35" s="4">
-        <f t="shared" ref="AN35" si="17">MAX(IF(AM35&gt;=20,2,0),IF(AM35&gt;=40,3,0),IF(AM35&gt;=60,4,0),IF(AM35&gt;=80,5,0))</f>
+      <c r="AP35" s="4">
+        <f t="shared" ref="AP35" si="16">MAX(IF(AO35&gt;=20,2,0),IF(AO35&gt;=40,3,0),IF(AO35&gt;=60,4,0),IF(AO35&gt;=80,5,0))</f>
         <v>2</v>
       </c>
-      <c r="AO35" s="8">
+      <c r="AQ35" s="8">
         <v>0</v>
       </c>
-      <c r="AP35" s="4">
-        <f t="shared" ref="AP35" si="18">(AG35+AN35+AO35)/3</f>
+      <c r="AR35" s="4">
+        <f t="shared" ref="AR35" si="17">(AI35+AP35+AQ35)/3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AQ35" s="5"/>
-    </row>
-    <row r="36" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS35" s="5"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4318,21 +4414,23 @@
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
       <c r="AJ36" s="10"/>
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
       <c r="AO36" s="11"/>
       <c r="AP36" s="11"/>
-      <c r="AQ36" s="5"/>
-    </row>
-    <row r="37" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="5"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4363,21 +4461,23 @@
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
       <c r="AJ37" s="10"/>
       <c r="AK37" s="10"/>
       <c r="AL37" s="10"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="11"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
       <c r="AO37" s="11"/>
       <c r="AP37" s="11"/>
-      <c r="AQ37" s="5"/>
-    </row>
-    <row r="38" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="5"/>
+    </row>
+    <row r="38" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4408,21 +4508,23 @@
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
       <c r="AJ38" s="10"/>
       <c r="AK38" s="10"/>
       <c r="AL38" s="10"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="11"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
       <c r="AO38" s="11"/>
       <c r="AP38" s="11"/>
-      <c r="AQ38" s="5"/>
-    </row>
-    <row r="39" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="5"/>
+    </row>
+    <row r="39" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4453,21 +4555,23 @@
       <c r="AB39" s="10"/>
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
       <c r="AJ39" s="10"/>
       <c r="AK39" s="10"/>
       <c r="AL39" s="10"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="11"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10"/>
       <c r="AO39" s="11"/>
       <c r="AP39" s="11"/>
-      <c r="AQ39" s="5"/>
-    </row>
-    <row r="40" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="5"/>
+    </row>
+    <row r="40" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4498,21 +4602,23 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
       <c r="AJ40" s="10"/>
       <c r="AK40" s="10"/>
       <c r="AL40" s="10"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="11"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
       <c r="AO40" s="11"/>
       <c r="AP40" s="11"/>
-      <c r="AQ40" s="5"/>
-    </row>
-    <row r="41" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="5"/>
+    </row>
+    <row r="41" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4543,21 +4649,23 @@
       <c r="AB41" s="10"/>
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
       <c r="AJ41" s="10"/>
       <c r="AK41" s="10"/>
       <c r="AL41" s="10"/>
-      <c r="AM41" s="11"/>
-      <c r="AN41" s="11"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
       <c r="AO41" s="11"/>
       <c r="AP41" s="11"/>
-      <c r="AQ41" s="5"/>
-    </row>
-    <row r="42" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="5"/>
+    </row>
+    <row r="42" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4588,21 +4696,23 @@
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
       <c r="AJ42" s="10"/>
       <c r="AK42" s="10"/>
       <c r="AL42" s="10"/>
-      <c r="AM42" s="11"/>
-      <c r="AN42" s="11"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
       <c r="AO42" s="11"/>
       <c r="AP42" s="11"/>
-      <c r="AQ42" s="5"/>
-    </row>
-    <row r="43" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="5"/>
+    </row>
+    <row r="43" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4633,21 +4743,23 @@
       <c r="AB43" s="10"/>
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
-      <c r="AM43" s="11"/>
-      <c r="AN43" s="11"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
       <c r="AO43" s="11"/>
       <c r="AP43" s="11"/>
-      <c r="AQ43" s="5"/>
-    </row>
-    <row r="44" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="5"/>
+    </row>
+    <row r="44" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4678,21 +4790,23 @@
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="11"/>
+      <c r="AM44" s="10"/>
+      <c r="AN44" s="10"/>
       <c r="AO44" s="11"/>
       <c r="AP44" s="11"/>
-      <c r="AQ44" s="5"/>
-    </row>
-    <row r="45" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="5"/>
+    </row>
+    <row r="45" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4723,21 +4837,23 @@
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
       <c r="AJ45" s="10"/>
       <c r="AK45" s="10"/>
       <c r="AL45" s="10"/>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="11"/>
+      <c r="AM45" s="10"/>
+      <c r="AN45" s="10"/>
       <c r="AO45" s="11"/>
       <c r="AP45" s="11"/>
-      <c r="AQ45" s="5"/>
-    </row>
-    <row r="46" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="5"/>
+    </row>
+    <row r="46" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4768,21 +4884,23 @@
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="11"/>
+      <c r="AM46" s="10"/>
+      <c r="AN46" s="10"/>
       <c r="AO46" s="11"/>
       <c r="AP46" s="11"/>
-      <c r="AQ46" s="5"/>
-    </row>
-    <row r="47" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="5"/>
+    </row>
+    <row r="47" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4813,21 +4931,23 @@
       <c r="AB47" s="10"/>
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
       <c r="AJ47" s="10"/>
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
       <c r="AO47" s="11"/>
       <c r="AP47" s="11"/>
-      <c r="AQ47" s="5"/>
-    </row>
-    <row r="48" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="5"/>
+    </row>
+    <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4858,21 +4978,23 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
       <c r="AG48" s="11"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
       <c r="AJ48" s="10"/>
       <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
       <c r="AO48" s="11"/>
       <c r="AP48" s="11"/>
-      <c r="AQ48" s="5"/>
-    </row>
-    <row r="49" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="5"/>
+    </row>
+    <row r="49" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4903,21 +5025,23 @@
       <c r="AB49" s="10"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
       <c r="AJ49" s="10"/>
       <c r="AK49" s="10"/>
       <c r="AL49" s="10"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
       <c r="AO49" s="11"/>
       <c r="AP49" s="11"/>
-      <c r="AQ49" s="5"/>
-    </row>
-    <row r="50" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="5"/>
+    </row>
+    <row r="50" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4948,21 +5072,23 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
       <c r="AJ50" s="10"/>
       <c r="AK50" s="10"/>
       <c r="AL50" s="10"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
       <c r="AO50" s="11"/>
       <c r="AP50" s="11"/>
-      <c r="AQ50" s="5"/>
-    </row>
-    <row r="51" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="5"/>
+    </row>
+    <row r="51" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4993,21 +5119,23 @@
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
       <c r="AJ51" s="10"/>
       <c r="AK51" s="10"/>
       <c r="AL51" s="10"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
       <c r="AO51" s="11"/>
       <c r="AP51" s="11"/>
-      <c r="AQ51" s="5"/>
-    </row>
-    <row r="52" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="5"/>
+    </row>
+    <row r="52" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5038,21 +5166,23 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="10"/>
-      <c r="AI52" s="10"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
       <c r="AJ52" s="10"/>
       <c r="AK52" s="10"/>
       <c r="AL52" s="10"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="11"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
       <c r="AO52" s="11"/>
       <c r="AP52" s="11"/>
-      <c r="AQ52" s="5"/>
-    </row>
-    <row r="53" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="5"/>
+    </row>
+    <row r="53" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5083,21 +5213,23 @@
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
       <c r="AG53" s="11"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
       <c r="AL53" s="10"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
       <c r="AO53" s="11"/>
       <c r="AP53" s="11"/>
-      <c r="AQ53" s="5"/>
-    </row>
-    <row r="54" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="5"/>
+    </row>
+    <row r="54" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5128,21 +5260,23 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
       <c r="AG54" s="11"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
       <c r="AJ54" s="10"/>
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
       <c r="AO54" s="11"/>
       <c r="AP54" s="11"/>
-      <c r="AQ54" s="5"/>
-    </row>
-    <row r="55" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="5"/>
+    </row>
+    <row r="55" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5173,21 +5307,23 @@
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
       <c r="AG55" s="11"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
       <c r="AJ55" s="10"/>
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
       <c r="AO55" s="11"/>
       <c r="AP55" s="11"/>
-      <c r="AQ55" s="5"/>
-    </row>
-    <row r="56" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="5"/>
+    </row>
+    <row r="56" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5218,21 +5354,23 @@
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
       <c r="AG56" s="11"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
       <c r="AJ56" s="10"/>
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
       <c r="AO56" s="11"/>
       <c r="AP56" s="11"/>
-      <c r="AQ56" s="5"/>
-    </row>
-    <row r="57" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="5"/>
+    </row>
+    <row r="57" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5263,21 +5401,23 @@
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
       <c r="AG57" s="11"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
       <c r="AJ57" s="10"/>
       <c r="AK57" s="10"/>
       <c r="AL57" s="10"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
       <c r="AO57" s="11"/>
       <c r="AP57" s="11"/>
-      <c r="AQ57" s="5"/>
-    </row>
-    <row r="58" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="5"/>
+    </row>
+    <row r="58" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5308,21 +5448,23 @@
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
       <c r="AG58" s="11"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
       <c r="AJ58" s="10"/>
       <c r="AK58" s="10"/>
       <c r="AL58" s="10"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
       <c r="AO58" s="11"/>
       <c r="AP58" s="11"/>
-      <c r="AQ58" s="5"/>
-    </row>
-    <row r="59" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="5"/>
+    </row>
+    <row r="59" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5353,21 +5495,23 @@
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
       <c r="AG59" s="11"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
       <c r="AJ59" s="10"/>
       <c r="AK59" s="10"/>
       <c r="AL59" s="10"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
       <c r="AO59" s="11"/>
       <c r="AP59" s="11"/>
-      <c r="AQ59" s="5"/>
-    </row>
-    <row r="60" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="5"/>
+    </row>
+    <row r="60" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5398,21 +5542,23 @@
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
       <c r="AG60" s="11"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
       <c r="AJ60" s="10"/>
       <c r="AK60" s="10"/>
       <c r="AL60" s="10"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
       <c r="AO60" s="11"/>
       <c r="AP60" s="11"/>
-      <c r="AQ60" s="5"/>
-    </row>
-    <row r="61" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="5"/>
+    </row>
+    <row r="61" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5443,21 +5589,23 @@
       <c r="AB61" s="10"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
       <c r="AG61" s="11"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
       <c r="AJ61" s="10"/>
       <c r="AK61" s="10"/>
       <c r="AL61" s="10"/>
-      <c r="AM61" s="11"/>
-      <c r="AN61" s="11"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="10"/>
       <c r="AO61" s="11"/>
       <c r="AP61" s="11"/>
-      <c r="AQ61" s="5"/>
-    </row>
-    <row r="62" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="5"/>
+    </row>
+    <row r="62" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5488,21 +5636,23 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
       <c r="AG62" s="11"/>
-      <c r="AH62" s="10"/>
-      <c r="AI62" s="10"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
       <c r="AJ62" s="10"/>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
+      <c r="AM62" s="10"/>
+      <c r="AN62" s="10"/>
       <c r="AO62" s="11"/>
       <c r="AP62" s="11"/>
-      <c r="AQ62" s="5"/>
-    </row>
-    <row r="63" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="5"/>
+    </row>
+    <row r="63" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5533,21 +5683,23 @@
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
       <c r="AG63" s="11"/>
-      <c r="AH63" s="10"/>
-      <c r="AI63" s="10"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
       <c r="AJ63" s="10"/>
       <c r="AK63" s="10"/>
       <c r="AL63" s="10"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
       <c r="AO63" s="11"/>
       <c r="AP63" s="11"/>
-      <c r="AQ63" s="5"/>
-    </row>
-    <row r="64" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="5"/>
+    </row>
+    <row r="64" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5578,21 +5730,23 @@
       <c r="AB64" s="10"/>
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
       <c r="AG64" s="11"/>
-      <c r="AH64" s="10"/>
-      <c r="AI64" s="10"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
       <c r="AJ64" s="10"/>
       <c r="AK64" s="10"/>
       <c r="AL64" s="10"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
       <c r="AO64" s="11"/>
       <c r="AP64" s="11"/>
-      <c r="AQ64" s="5"/>
-    </row>
-    <row r="65" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="5"/>
+    </row>
+    <row r="65" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5623,21 +5777,23 @@
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
       <c r="AG65" s="11"/>
-      <c r="AH65" s="10"/>
-      <c r="AI65" s="10"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
       <c r="AJ65" s="10"/>
       <c r="AK65" s="10"/>
       <c r="AL65" s="10"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
       <c r="AO65" s="11"/>
       <c r="AP65" s="11"/>
-      <c r="AQ65" s="5"/>
-    </row>
-    <row r="66" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="5"/>
+    </row>
+    <row r="66" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5668,21 +5824,23 @@
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
       <c r="AG66" s="11"/>
-      <c r="AH66" s="10"/>
-      <c r="AI66" s="10"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
       <c r="AL66" s="10"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
       <c r="AO66" s="11"/>
       <c r="AP66" s="11"/>
-      <c r="AQ66" s="5"/>
-    </row>
-    <row r="67" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="5"/>
+    </row>
+    <row r="67" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5713,21 +5871,23 @@
       <c r="AB67" s="10"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
       <c r="AG67" s="11"/>
-      <c r="AH67" s="10"/>
-      <c r="AI67" s="10"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
       <c r="AL67" s="10"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
       <c r="AO67" s="11"/>
       <c r="AP67" s="11"/>
-      <c r="AQ67" s="5"/>
-    </row>
-    <row r="68" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="5"/>
+    </row>
+    <row r="68" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5758,21 +5918,23 @@
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
-      <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
       <c r="AG68" s="11"/>
-      <c r="AH68" s="10"/>
-      <c r="AI68" s="10"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
       <c r="AJ68" s="10"/>
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
       <c r="AO68" s="11"/>
       <c r="AP68" s="11"/>
-      <c r="AQ68" s="5"/>
-    </row>
-    <row r="69" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="5"/>
+    </row>
+    <row r="69" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5803,21 +5965,23 @@
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
       <c r="AG69" s="11"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="10"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
-      <c r="AM69" s="11"/>
-      <c r="AN69" s="11"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
       <c r="AO69" s="11"/>
       <c r="AP69" s="11"/>
-      <c r="AQ69" s="5"/>
-    </row>
-    <row r="70" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="11"/>
+      <c r="AR69" s="11"/>
+      <c r="AS69" s="5"/>
+    </row>
+    <row r="70" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5848,21 +6012,23 @@
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
       <c r="AG70" s="11"/>
-      <c r="AH70" s="10"/>
-      <c r="AI70" s="10"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
       <c r="AJ70" s="10"/>
       <c r="AK70" s="10"/>
       <c r="AL70" s="10"/>
-      <c r="AM70" s="11"/>
-      <c r="AN70" s="11"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
       <c r="AO70" s="11"/>
       <c r="AP70" s="11"/>
-      <c r="AQ70" s="5"/>
-    </row>
-    <row r="71" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="11"/>
+      <c r="AR70" s="11"/>
+      <c r="AS70" s="5"/>
+    </row>
+    <row r="71" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5893,21 +6059,23 @@
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
       <c r="AG71" s="11"/>
-      <c r="AH71" s="10"/>
-      <c r="AI71" s="10"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
       <c r="AJ71" s="10"/>
       <c r="AK71" s="10"/>
       <c r="AL71" s="10"/>
-      <c r="AM71" s="11"/>
-      <c r="AN71" s="11"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
       <c r="AO71" s="11"/>
       <c r="AP71" s="11"/>
-      <c r="AQ71" s="5"/>
-    </row>
-    <row r="72" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="5"/>
+    </row>
+    <row r="72" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5938,21 +6106,23 @@
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
       <c r="AG72" s="11"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="10"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
       <c r="AJ72" s="10"/>
       <c r="AK72" s="10"/>
       <c r="AL72" s="10"/>
-      <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="10"/>
       <c r="AO72" s="11"/>
       <c r="AP72" s="11"/>
-      <c r="AQ72" s="5"/>
-    </row>
-    <row r="73" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="5"/>
+    </row>
+    <row r="73" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5983,21 +6153,23 @@
       <c r="AB73" s="10"/>
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
       <c r="AG73" s="11"/>
-      <c r="AH73" s="10"/>
-      <c r="AI73" s="10"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
       <c r="AJ73" s="10"/>
       <c r="AK73" s="10"/>
       <c r="AL73" s="10"/>
-      <c r="AM73" s="11"/>
-      <c r="AN73" s="11"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
       <c r="AO73" s="11"/>
       <c r="AP73" s="11"/>
-      <c r="AQ73" s="5"/>
-    </row>
-    <row r="74" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="5"/>
+    </row>
+    <row r="74" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -6028,21 +6200,23 @@
       <c r="AB74" s="10"/>
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
       <c r="AG74" s="11"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
       <c r="AJ74" s="10"/>
       <c r="AK74" s="10"/>
       <c r="AL74" s="10"/>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
       <c r="AO74" s="11"/>
       <c r="AP74" s="11"/>
-      <c r="AQ74" s="5"/>
-    </row>
-    <row r="75" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="5"/>
+    </row>
+    <row r="75" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -6073,21 +6247,23 @@
       <c r="AB75" s="10"/>
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
-      <c r="AE75" s="11"/>
-      <c r="AF75" s="11"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="10"/>
       <c r="AG75" s="11"/>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="10"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
       <c r="AJ75" s="10"/>
       <c r="AK75" s="10"/>
       <c r="AL75" s="10"/>
-      <c r="AM75" s="11"/>
-      <c r="AN75" s="11"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
       <c r="AO75" s="11"/>
       <c r="AP75" s="11"/>
-      <c r="AQ75" s="5"/>
-    </row>
-    <row r="76" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="11"/>
+      <c r="AR75" s="11"/>
+      <c r="AS75" s="5"/>
+    </row>
+    <row r="76" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -6118,21 +6294,23 @@
       <c r="AB76" s="10"/>
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
       <c r="AG76" s="11"/>
-      <c r="AH76" s="10"/>
-      <c r="AI76" s="10"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
       <c r="AJ76" s="10"/>
       <c r="AK76" s="10"/>
       <c r="AL76" s="10"/>
-      <c r="AM76" s="11"/>
-      <c r="AN76" s="11"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
       <c r="AO76" s="11"/>
       <c r="AP76" s="11"/>
-      <c r="AQ76" s="5"/>
-    </row>
-    <row r="77" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="11"/>
+      <c r="AR76" s="11"/>
+      <c r="AS76" s="5"/>
+    </row>
+    <row r="77" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -6163,21 +6341,23 @@
       <c r="AB77" s="10"/>
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
-      <c r="AE77" s="11"/>
-      <c r="AF77" s="11"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
       <c r="AG77" s="11"/>
-      <c r="AH77" s="10"/>
-      <c r="AI77" s="10"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
       <c r="AJ77" s="10"/>
       <c r="AK77" s="10"/>
       <c r="AL77" s="10"/>
-      <c r="AM77" s="11"/>
-      <c r="AN77" s="11"/>
+      <c r="AM77" s="10"/>
+      <c r="AN77" s="10"/>
       <c r="AO77" s="11"/>
       <c r="AP77" s="11"/>
-      <c r="AQ77" s="5"/>
-    </row>
-    <row r="78" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="11"/>
+      <c r="AR77" s="11"/>
+      <c r="AS77" s="5"/>
+    </row>
+    <row r="78" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -6208,21 +6388,23 @@
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
-      <c r="AE78" s="11"/>
-      <c r="AF78" s="11"/>
+      <c r="AE78" s="10"/>
+      <c r="AF78" s="10"/>
       <c r="AG78" s="11"/>
-      <c r="AH78" s="10"/>
-      <c r="AI78" s="10"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
       <c r="AJ78" s="10"/>
       <c r="AK78" s="10"/>
       <c r="AL78" s="10"/>
-      <c r="AM78" s="11"/>
-      <c r="AN78" s="11"/>
+      <c r="AM78" s="10"/>
+      <c r="AN78" s="10"/>
       <c r="AO78" s="11"/>
       <c r="AP78" s="11"/>
-      <c r="AQ78" s="5"/>
-    </row>
-    <row r="79" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="11"/>
+      <c r="AR78" s="11"/>
+      <c r="AS78" s="5"/>
+    </row>
+    <row r="79" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6253,21 +6435,23 @@
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
-      <c r="AE79" s="11"/>
-      <c r="AF79" s="11"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
       <c r="AG79" s="11"/>
-      <c r="AH79" s="10"/>
-      <c r="AI79" s="10"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
       <c r="AJ79" s="10"/>
       <c r="AK79" s="10"/>
       <c r="AL79" s="10"/>
-      <c r="AM79" s="11"/>
-      <c r="AN79" s="11"/>
+      <c r="AM79" s="10"/>
+      <c r="AN79" s="10"/>
       <c r="AO79" s="11"/>
       <c r="AP79" s="11"/>
-      <c r="AQ79" s="5"/>
-    </row>
-    <row r="80" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="11"/>
+      <c r="AR79" s="11"/>
+      <c r="AS79" s="5"/>
+    </row>
+    <row r="80" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -6298,21 +6482,23 @@
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
-      <c r="AE80" s="11"/>
-      <c r="AF80" s="11"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
       <c r="AG80" s="11"/>
-      <c r="AH80" s="10"/>
-      <c r="AI80" s="10"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
       <c r="AJ80" s="10"/>
       <c r="AK80" s="10"/>
       <c r="AL80" s="10"/>
-      <c r="AM80" s="11"/>
-      <c r="AN80" s="11"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="10"/>
       <c r="AO80" s="11"/>
       <c r="AP80" s="11"/>
-      <c r="AQ80" s="5"/>
-    </row>
-    <row r="81" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="11"/>
+      <c r="AR80" s="11"/>
+      <c r="AS80" s="5"/>
+    </row>
+    <row r="81" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -6343,21 +6529,23 @@
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
-      <c r="AE81" s="11"/>
-      <c r="AF81" s="11"/>
+      <c r="AE81" s="10"/>
+      <c r="AF81" s="10"/>
       <c r="AG81" s="11"/>
-      <c r="AH81" s="10"/>
-      <c r="AI81" s="10"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
       <c r="AJ81" s="10"/>
       <c r="AK81" s="10"/>
       <c r="AL81" s="10"/>
-      <c r="AM81" s="11"/>
-      <c r="AN81" s="11"/>
+      <c r="AM81" s="10"/>
+      <c r="AN81" s="10"/>
       <c r="AO81" s="11"/>
       <c r="AP81" s="11"/>
-      <c r="AQ81" s="5"/>
-    </row>
-    <row r="82" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="11"/>
+      <c r="AR81" s="11"/>
+      <c r="AS81" s="5"/>
+    </row>
+    <row r="82" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -6388,21 +6576,23 @@
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
-      <c r="AE82" s="11"/>
-      <c r="AF82" s="11"/>
+      <c r="AE82" s="10"/>
+      <c r="AF82" s="10"/>
       <c r="AG82" s="11"/>
-      <c r="AH82" s="10"/>
-      <c r="AI82" s="10"/>
+      <c r="AH82" s="11"/>
+      <c r="AI82" s="11"/>
       <c r="AJ82" s="10"/>
       <c r="AK82" s="10"/>
       <c r="AL82" s="10"/>
-      <c r="AM82" s="11"/>
-      <c r="AN82" s="11"/>
+      <c r="AM82" s="10"/>
+      <c r="AN82" s="10"/>
       <c r="AO82" s="11"/>
       <c r="AP82" s="11"/>
-      <c r="AQ82" s="5"/>
-    </row>
-    <row r="83" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="11"/>
+      <c r="AR82" s="11"/>
+      <c r="AS82" s="5"/>
+    </row>
+    <row r="83" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -6433,21 +6623,23 @@
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
-      <c r="AE83" s="11"/>
-      <c r="AF83" s="11"/>
+      <c r="AE83" s="10"/>
+      <c r="AF83" s="10"/>
       <c r="AG83" s="11"/>
-      <c r="AH83" s="10"/>
-      <c r="AI83" s="10"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
       <c r="AJ83" s="10"/>
       <c r="AK83" s="10"/>
       <c r="AL83" s="10"/>
-      <c r="AM83" s="11"/>
-      <c r="AN83" s="11"/>
+      <c r="AM83" s="10"/>
+      <c r="AN83" s="10"/>
       <c r="AO83" s="11"/>
       <c r="AP83" s="11"/>
-      <c r="AQ83" s="5"/>
-    </row>
-    <row r="84" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="11"/>
+      <c r="AR83" s="11"/>
+      <c r="AS83" s="5"/>
+    </row>
+    <row r="84" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -6478,21 +6670,23 @@
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
-      <c r="AE84" s="11"/>
-      <c r="AF84" s="11"/>
+      <c r="AE84" s="10"/>
+      <c r="AF84" s="10"/>
       <c r="AG84" s="11"/>
-      <c r="AH84" s="10"/>
-      <c r="AI84" s="10"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
       <c r="AJ84" s="10"/>
       <c r="AK84" s="10"/>
       <c r="AL84" s="10"/>
-      <c r="AM84" s="11"/>
-      <c r="AN84" s="11"/>
+      <c r="AM84" s="10"/>
+      <c r="AN84" s="10"/>
       <c r="AO84" s="11"/>
       <c r="AP84" s="11"/>
-      <c r="AQ84" s="5"/>
-    </row>
-    <row r="85" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="11"/>
+      <c r="AR84" s="11"/>
+      <c r="AS84" s="5"/>
+    </row>
+    <row r="85" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -6523,21 +6717,23 @@
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
-      <c r="AE85" s="11"/>
-      <c r="AF85" s="11"/>
+      <c r="AE85" s="10"/>
+      <c r="AF85" s="10"/>
       <c r="AG85" s="11"/>
-      <c r="AH85" s="10"/>
-      <c r="AI85" s="10"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
       <c r="AJ85" s="10"/>
       <c r="AK85" s="10"/>
       <c r="AL85" s="10"/>
-      <c r="AM85" s="11"/>
-      <c r="AN85" s="11"/>
+      <c r="AM85" s="10"/>
+      <c r="AN85" s="10"/>
       <c r="AO85" s="11"/>
       <c r="AP85" s="11"/>
-      <c r="AQ85" s="5"/>
-    </row>
-    <row r="86" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="11"/>
+      <c r="AR85" s="11"/>
+      <c r="AS85" s="5"/>
+    </row>
+    <row r="86" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -6568,21 +6764,23 @@
       <c r="AB86" s="10"/>
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
-      <c r="AE86" s="11"/>
-      <c r="AF86" s="11"/>
+      <c r="AE86" s="10"/>
+      <c r="AF86" s="10"/>
       <c r="AG86" s="11"/>
-      <c r="AH86" s="10"/>
-      <c r="AI86" s="10"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="11"/>
       <c r="AJ86" s="10"/>
       <c r="AK86" s="10"/>
       <c r="AL86" s="10"/>
-      <c r="AM86" s="11"/>
-      <c r="AN86" s="11"/>
+      <c r="AM86" s="10"/>
+      <c r="AN86" s="10"/>
       <c r="AO86" s="11"/>
       <c r="AP86" s="11"/>
-      <c r="AQ86" s="5"/>
-    </row>
-    <row r="87" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="11"/>
+      <c r="AR86" s="11"/>
+      <c r="AS86" s="5"/>
+    </row>
+    <row r="87" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -6613,21 +6811,23 @@
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
-      <c r="AE87" s="11"/>
-      <c r="AF87" s="11"/>
+      <c r="AE87" s="10"/>
+      <c r="AF87" s="10"/>
       <c r="AG87" s="11"/>
-      <c r="AH87" s="10"/>
-      <c r="AI87" s="10"/>
+      <c r="AH87" s="11"/>
+      <c r="AI87" s="11"/>
       <c r="AJ87" s="10"/>
       <c r="AK87" s="10"/>
       <c r="AL87" s="10"/>
-      <c r="AM87" s="11"/>
-      <c r="AN87" s="11"/>
+      <c r="AM87" s="10"/>
+      <c r="AN87" s="10"/>
       <c r="AO87" s="11"/>
       <c r="AP87" s="11"/>
-      <c r="AQ87" s="5"/>
-    </row>
-    <row r="88" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="11"/>
+      <c r="AR87" s="11"/>
+      <c r="AS87" s="5"/>
+    </row>
+    <row r="88" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -6658,21 +6858,23 @@
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
-      <c r="AE88" s="11"/>
-      <c r="AF88" s="11"/>
+      <c r="AE88" s="10"/>
+      <c r="AF88" s="10"/>
       <c r="AG88" s="11"/>
-      <c r="AH88" s="10"/>
-      <c r="AI88" s="10"/>
+      <c r="AH88" s="11"/>
+      <c r="AI88" s="11"/>
       <c r="AJ88" s="10"/>
       <c r="AK88" s="10"/>
       <c r="AL88" s="10"/>
-      <c r="AM88" s="11"/>
-      <c r="AN88" s="11"/>
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="10"/>
       <c r="AO88" s="11"/>
       <c r="AP88" s="11"/>
-      <c r="AQ88" s="5"/>
-    </row>
-    <row r="89" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="11"/>
+      <c r="AR88" s="11"/>
+      <c r="AS88" s="5"/>
+    </row>
+    <row r="89" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -6703,21 +6905,23 @@
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
-      <c r="AE89" s="11"/>
-      <c r="AF89" s="11"/>
+      <c r="AE89" s="10"/>
+      <c r="AF89" s="10"/>
       <c r="AG89" s="11"/>
-      <c r="AH89" s="10"/>
-      <c r="AI89" s="10"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="11"/>
       <c r="AJ89" s="10"/>
       <c r="AK89" s="10"/>
       <c r="AL89" s="10"/>
-      <c r="AM89" s="11"/>
-      <c r="AN89" s="11"/>
+      <c r="AM89" s="10"/>
+      <c r="AN89" s="10"/>
       <c r="AO89" s="11"/>
       <c r="AP89" s="11"/>
-      <c r="AQ89" s="5"/>
-    </row>
-    <row r="90" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="11"/>
+      <c r="AR89" s="11"/>
+      <c r="AS89" s="5"/>
+    </row>
+    <row r="90" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -6748,21 +6952,23 @@
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
-      <c r="AE90" s="11"/>
-      <c r="AF90" s="11"/>
+      <c r="AE90" s="10"/>
+      <c r="AF90" s="10"/>
       <c r="AG90" s="11"/>
-      <c r="AH90" s="10"/>
-      <c r="AI90" s="10"/>
+      <c r="AH90" s="11"/>
+      <c r="AI90" s="11"/>
       <c r="AJ90" s="10"/>
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
-      <c r="AM90" s="11"/>
-      <c r="AN90" s="11"/>
+      <c r="AM90" s="10"/>
+      <c r="AN90" s="10"/>
       <c r="AO90" s="11"/>
       <c r="AP90" s="11"/>
-      <c r="AQ90" s="5"/>
-    </row>
-    <row r="91" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="11"/>
+      <c r="AR90" s="11"/>
+      <c r="AS90" s="5"/>
+    </row>
+    <row r="91" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -6793,21 +6999,23 @@
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
-      <c r="AE91" s="11"/>
-      <c r="AF91" s="11"/>
+      <c r="AE91" s="10"/>
+      <c r="AF91" s="10"/>
       <c r="AG91" s="11"/>
-      <c r="AH91" s="10"/>
-      <c r="AI91" s="10"/>
+      <c r="AH91" s="11"/>
+      <c r="AI91" s="11"/>
       <c r="AJ91" s="10"/>
       <c r="AK91" s="10"/>
       <c r="AL91" s="10"/>
-      <c r="AM91" s="11"/>
-      <c r="AN91" s="11"/>
+      <c r="AM91" s="10"/>
+      <c r="AN91" s="10"/>
       <c r="AO91" s="11"/>
       <c r="AP91" s="11"/>
-      <c r="AQ91" s="5"/>
-    </row>
-    <row r="92" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="11"/>
+      <c r="AR91" s="11"/>
+      <c r="AS91" s="5"/>
+    </row>
+    <row r="92" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -6838,21 +7046,23 @@
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
-      <c r="AE92" s="11"/>
-      <c r="AF92" s="11"/>
+      <c r="AE92" s="10"/>
+      <c r="AF92" s="10"/>
       <c r="AG92" s="11"/>
-      <c r="AH92" s="10"/>
-      <c r="AI92" s="10"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
       <c r="AJ92" s="10"/>
       <c r="AK92" s="10"/>
       <c r="AL92" s="10"/>
-      <c r="AM92" s="11"/>
-      <c r="AN92" s="11"/>
+      <c r="AM92" s="10"/>
+      <c r="AN92" s="10"/>
       <c r="AO92" s="11"/>
       <c r="AP92" s="11"/>
-      <c r="AQ92" s="5"/>
-    </row>
-    <row r="93" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="11"/>
+      <c r="AR92" s="11"/>
+      <c r="AS92" s="5"/>
+    </row>
+    <row r="93" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -6883,21 +7093,23 @@
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
-      <c r="AE93" s="11"/>
-      <c r="AF93" s="11"/>
+      <c r="AE93" s="10"/>
+      <c r="AF93" s="10"/>
       <c r="AG93" s="11"/>
-      <c r="AH93" s="10"/>
-      <c r="AI93" s="10"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
       <c r="AJ93" s="10"/>
       <c r="AK93" s="10"/>
       <c r="AL93" s="10"/>
-      <c r="AM93" s="11"/>
-      <c r="AN93" s="11"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
       <c r="AO93" s="11"/>
       <c r="AP93" s="11"/>
-      <c r="AQ93" s="5"/>
-    </row>
-    <row r="94" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="11"/>
+      <c r="AR93" s="11"/>
+      <c r="AS93" s="5"/>
+    </row>
+    <row r="94" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -6928,21 +7140,23 @@
       <c r="AB94" s="10"/>
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
-      <c r="AE94" s="11"/>
-      <c r="AF94" s="11"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
       <c r="AG94" s="11"/>
-      <c r="AH94" s="10"/>
-      <c r="AI94" s="10"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
       <c r="AJ94" s="10"/>
       <c r="AK94" s="10"/>
       <c r="AL94" s="10"/>
-      <c r="AM94" s="11"/>
-      <c r="AN94" s="11"/>
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
       <c r="AO94" s="11"/>
       <c r="AP94" s="11"/>
-      <c r="AQ94" s="5"/>
-    </row>
-    <row r="95" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="11"/>
+      <c r="AR94" s="11"/>
+      <c r="AS94" s="5"/>
+    </row>
+    <row r="95" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -6973,21 +7187,23 @@
       <c r="AB95" s="10"/>
       <c r="AC95" s="10"/>
       <c r="AD95" s="10"/>
-      <c r="AE95" s="11"/>
-      <c r="AF95" s="11"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
       <c r="AG95" s="11"/>
-      <c r="AH95" s="10"/>
-      <c r="AI95" s="10"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
       <c r="AJ95" s="10"/>
       <c r="AK95" s="10"/>
       <c r="AL95" s="10"/>
-      <c r="AM95" s="11"/>
-      <c r="AN95" s="11"/>
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
       <c r="AO95" s="11"/>
       <c r="AP95" s="11"/>
-      <c r="AQ95" s="5"/>
-    </row>
-    <row r="96" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="11"/>
+      <c r="AR95" s="11"/>
+      <c r="AS95" s="5"/>
+    </row>
+    <row r="96" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -7018,21 +7234,23 @@
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
-      <c r="AE96" s="11"/>
-      <c r="AF96" s="11"/>
+      <c r="AE96" s="10"/>
+      <c r="AF96" s="10"/>
       <c r="AG96" s="11"/>
-      <c r="AH96" s="10"/>
-      <c r="AI96" s="10"/>
+      <c r="AH96" s="11"/>
+      <c r="AI96" s="11"/>
       <c r="AJ96" s="10"/>
       <c r="AK96" s="10"/>
       <c r="AL96" s="10"/>
-      <c r="AM96" s="11"/>
-      <c r="AN96" s="11"/>
+      <c r="AM96" s="10"/>
+      <c r="AN96" s="10"/>
       <c r="AO96" s="11"/>
       <c r="AP96" s="11"/>
-      <c r="AQ96" s="5"/>
-    </row>
-    <row r="97" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ96" s="11"/>
+      <c r="AR96" s="11"/>
+      <c r="AS96" s="5"/>
+    </row>
+    <row r="97" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -7063,21 +7281,23 @@
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
-      <c r="AE97" s="11"/>
-      <c r="AF97" s="11"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
       <c r="AG97" s="11"/>
-      <c r="AH97" s="10"/>
-      <c r="AI97" s="10"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
       <c r="AJ97" s="10"/>
       <c r="AK97" s="10"/>
       <c r="AL97" s="10"/>
-      <c r="AM97" s="11"/>
-      <c r="AN97" s="11"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
       <c r="AO97" s="11"/>
       <c r="AP97" s="11"/>
-      <c r="AQ97" s="5"/>
-    </row>
-    <row r="98" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ97" s="11"/>
+      <c r="AR97" s="11"/>
+      <c r="AS97" s="5"/>
+    </row>
+    <row r="98" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7108,21 +7328,23 @@
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
-      <c r="AE98" s="11"/>
-      <c r="AF98" s="11"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
       <c r="AG98" s="11"/>
-      <c r="AH98" s="10"/>
-      <c r="AI98" s="10"/>
+      <c r="AH98" s="11"/>
+      <c r="AI98" s="11"/>
       <c r="AJ98" s="10"/>
       <c r="AK98" s="10"/>
       <c r="AL98" s="10"/>
-      <c r="AM98" s="11"/>
-      <c r="AN98" s="11"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
       <c r="AO98" s="11"/>
       <c r="AP98" s="11"/>
-      <c r="AQ98" s="5"/>
-    </row>
-    <row r="99" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ98" s="11"/>
+      <c r="AR98" s="11"/>
+      <c r="AS98" s="5"/>
+    </row>
+    <row r="99" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -7153,21 +7375,23 @@
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
-      <c r="AE99" s="11"/>
-      <c r="AF99" s="11"/>
+      <c r="AE99" s="10"/>
+      <c r="AF99" s="10"/>
       <c r="AG99" s="11"/>
-      <c r="AH99" s="10"/>
-      <c r="AI99" s="10"/>
+      <c r="AH99" s="11"/>
+      <c r="AI99" s="11"/>
       <c r="AJ99" s="10"/>
       <c r="AK99" s="10"/>
       <c r="AL99" s="10"/>
-      <c r="AM99" s="11"/>
-      <c r="AN99" s="11"/>
+      <c r="AM99" s="10"/>
+      <c r="AN99" s="10"/>
       <c r="AO99" s="11"/>
       <c r="AP99" s="11"/>
-      <c r="AQ99" s="5"/>
-    </row>
-    <row r="100" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ99" s="11"/>
+      <c r="AR99" s="11"/>
+      <c r="AS99" s="5"/>
+    </row>
+    <row r="100" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -7198,21 +7422,23 @@
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
-      <c r="AE100" s="11"/>
-      <c r="AF100" s="11"/>
+      <c r="AE100" s="10"/>
+      <c r="AF100" s="10"/>
       <c r="AG100" s="11"/>
-      <c r="AH100" s="10"/>
-      <c r="AI100" s="10"/>
+      <c r="AH100" s="11"/>
+      <c r="AI100" s="11"/>
       <c r="AJ100" s="10"/>
       <c r="AK100" s="10"/>
       <c r="AL100" s="10"/>
-      <c r="AM100" s="11"/>
-      <c r="AN100" s="11"/>
+      <c r="AM100" s="10"/>
+      <c r="AN100" s="10"/>
       <c r="AO100" s="11"/>
       <c r="AP100" s="11"/>
-      <c r="AQ100" s="5"/>
-    </row>
-    <row r="101" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ100" s="11"/>
+      <c r="AR100" s="11"/>
+      <c r="AS100" s="5"/>
+    </row>
+    <row r="101" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -7243,21 +7469,23 @@
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
-      <c r="AE101" s="11"/>
-      <c r="AF101" s="11"/>
+      <c r="AE101" s="10"/>
+      <c r="AF101" s="10"/>
       <c r="AG101" s="11"/>
-      <c r="AH101" s="10"/>
-      <c r="AI101" s="10"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
       <c r="AJ101" s="10"/>
       <c r="AK101" s="10"/>
       <c r="AL101" s="10"/>
-      <c r="AM101" s="11"/>
-      <c r="AN101" s="11"/>
+      <c r="AM101" s="10"/>
+      <c r="AN101" s="10"/>
       <c r="AO101" s="11"/>
       <c r="AP101" s="11"/>
-      <c r="AQ101" s="5"/>
-    </row>
-    <row r="102" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ101" s="11"/>
+      <c r="AR101" s="11"/>
+      <c r="AS101" s="5"/>
+    </row>
+    <row r="102" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7288,21 +7516,23 @@
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
-      <c r="AE102" s="11"/>
-      <c r="AF102" s="11"/>
+      <c r="AE102" s="10"/>
+      <c r="AF102" s="10"/>
       <c r="AG102" s="11"/>
-      <c r="AH102" s="10"/>
-      <c r="AI102" s="10"/>
+      <c r="AH102" s="11"/>
+      <c r="AI102" s="11"/>
       <c r="AJ102" s="10"/>
       <c r="AK102" s="10"/>
       <c r="AL102" s="10"/>
-      <c r="AM102" s="11"/>
-      <c r="AN102" s="11"/>
+      <c r="AM102" s="10"/>
+      <c r="AN102" s="10"/>
       <c r="AO102" s="11"/>
       <c r="AP102" s="11"/>
-      <c r="AQ102" s="5"/>
-    </row>
-    <row r="103" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ102" s="11"/>
+      <c r="AR102" s="11"/>
+      <c r="AS102" s="5"/>
+    </row>
+    <row r="103" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -7333,21 +7563,23 @@
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
-      <c r="AE103" s="11"/>
-      <c r="AF103" s="11"/>
+      <c r="AE103" s="10"/>
+      <c r="AF103" s="10"/>
       <c r="AG103" s="11"/>
-      <c r="AH103" s="10"/>
-      <c r="AI103" s="10"/>
+      <c r="AH103" s="11"/>
+      <c r="AI103" s="11"/>
       <c r="AJ103" s="10"/>
       <c r="AK103" s="10"/>
       <c r="AL103" s="10"/>
-      <c r="AM103" s="11"/>
-      <c r="AN103" s="11"/>
+      <c r="AM103" s="10"/>
+      <c r="AN103" s="10"/>
       <c r="AO103" s="11"/>
       <c r="AP103" s="11"/>
-      <c r="AQ103" s="5"/>
-    </row>
-    <row r="104" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ103" s="11"/>
+      <c r="AR103" s="11"/>
+      <c r="AS103" s="5"/>
+    </row>
+    <row r="104" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -7378,21 +7610,23 @@
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
-      <c r="AE104" s="11"/>
-      <c r="AF104" s="11"/>
+      <c r="AE104" s="10"/>
+      <c r="AF104" s="10"/>
       <c r="AG104" s="11"/>
-      <c r="AH104" s="10"/>
-      <c r="AI104" s="10"/>
+      <c r="AH104" s="11"/>
+      <c r="AI104" s="11"/>
       <c r="AJ104" s="10"/>
       <c r="AK104" s="10"/>
       <c r="AL104" s="10"/>
-      <c r="AM104" s="11"/>
-      <c r="AN104" s="11"/>
+      <c r="AM104" s="10"/>
+      <c r="AN104" s="10"/>
       <c r="AO104" s="11"/>
       <c r="AP104" s="11"/>
-      <c r="AQ104" s="5"/>
-    </row>
-    <row r="105" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ104" s="11"/>
+      <c r="AR104" s="11"/>
+      <c r="AS104" s="5"/>
+    </row>
+    <row r="105" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -7423,21 +7657,23 @@
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
-      <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
+      <c r="AE105" s="10"/>
+      <c r="AF105" s="10"/>
       <c r="AG105" s="11"/>
-      <c r="AH105" s="10"/>
-      <c r="AI105" s="10"/>
+      <c r="AH105" s="11"/>
+      <c r="AI105" s="11"/>
       <c r="AJ105" s="10"/>
       <c r="AK105" s="10"/>
       <c r="AL105" s="10"/>
-      <c r="AM105" s="11"/>
-      <c r="AN105" s="11"/>
+      <c r="AM105" s="10"/>
+      <c r="AN105" s="10"/>
       <c r="AO105" s="11"/>
       <c r="AP105" s="11"/>
-      <c r="AQ105" s="5"/>
-    </row>
-    <row r="106" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ105" s="11"/>
+      <c r="AR105" s="11"/>
+      <c r="AS105" s="5"/>
+    </row>
+    <row r="106" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -7468,21 +7704,23 @@
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
-      <c r="AE106" s="11"/>
-      <c r="AF106" s="11"/>
+      <c r="AE106" s="10"/>
+      <c r="AF106" s="10"/>
       <c r="AG106" s="11"/>
-      <c r="AH106" s="10"/>
-      <c r="AI106" s="10"/>
+      <c r="AH106" s="11"/>
+      <c r="AI106" s="11"/>
       <c r="AJ106" s="10"/>
       <c r="AK106" s="10"/>
       <c r="AL106" s="10"/>
-      <c r="AM106" s="11"/>
-      <c r="AN106" s="11"/>
+      <c r="AM106" s="10"/>
+      <c r="AN106" s="10"/>
       <c r="AO106" s="11"/>
       <c r="AP106" s="11"/>
-      <c r="AQ106" s="5"/>
-    </row>
-    <row r="107" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ106" s="11"/>
+      <c r="AR106" s="11"/>
+      <c r="AS106" s="5"/>
+    </row>
+    <row r="107" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -7513,21 +7751,23 @@
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
-      <c r="AE107" s="11"/>
-      <c r="AF107" s="11"/>
+      <c r="AE107" s="10"/>
+      <c r="AF107" s="10"/>
       <c r="AG107" s="11"/>
-      <c r="AH107" s="10"/>
-      <c r="AI107" s="10"/>
+      <c r="AH107" s="11"/>
+      <c r="AI107" s="11"/>
       <c r="AJ107" s="10"/>
       <c r="AK107" s="10"/>
       <c r="AL107" s="10"/>
-      <c r="AM107" s="11"/>
-      <c r="AN107" s="11"/>
+      <c r="AM107" s="10"/>
+      <c r="AN107" s="10"/>
       <c r="AO107" s="11"/>
       <c r="AP107" s="11"/>
-      <c r="AQ107" s="5"/>
-    </row>
-    <row r="108" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ107" s="11"/>
+      <c r="AR107" s="11"/>
+      <c r="AS107" s="5"/>
+    </row>
+    <row r="108" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -7558,21 +7798,23 @@
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
-      <c r="AE108" s="11"/>
-      <c r="AF108" s="11"/>
+      <c r="AE108" s="10"/>
+      <c r="AF108" s="10"/>
       <c r="AG108" s="11"/>
-      <c r="AH108" s="10"/>
-      <c r="AI108" s="10"/>
+      <c r="AH108" s="11"/>
+      <c r="AI108" s="11"/>
       <c r="AJ108" s="10"/>
       <c r="AK108" s="10"/>
       <c r="AL108" s="10"/>
-      <c r="AM108" s="11"/>
-      <c r="AN108" s="11"/>
+      <c r="AM108" s="10"/>
+      <c r="AN108" s="10"/>
       <c r="AO108" s="11"/>
       <c r="AP108" s="11"/>
-      <c r="AQ108" s="5"/>
-    </row>
-    <row r="109" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ108" s="11"/>
+      <c r="AR108" s="11"/>
+      <c r="AS108" s="5"/>
+    </row>
+    <row r="109" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -7603,21 +7845,23 @@
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
-      <c r="AE109" s="11"/>
-      <c r="AF109" s="11"/>
+      <c r="AE109" s="10"/>
+      <c r="AF109" s="10"/>
       <c r="AG109" s="11"/>
-      <c r="AH109" s="10"/>
-      <c r="AI109" s="10"/>
+      <c r="AH109" s="11"/>
+      <c r="AI109" s="11"/>
       <c r="AJ109" s="10"/>
       <c r="AK109" s="10"/>
       <c r="AL109" s="10"/>
-      <c r="AM109" s="11"/>
-      <c r="AN109" s="11"/>
+      <c r="AM109" s="10"/>
+      <c r="AN109" s="10"/>
       <c r="AO109" s="11"/>
       <c r="AP109" s="11"/>
-      <c r="AQ109" s="5"/>
-    </row>
-    <row r="110" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ109" s="11"/>
+      <c r="AR109" s="11"/>
+      <c r="AS109" s="5"/>
+    </row>
+    <row r="110" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -7648,21 +7892,23 @@
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
-      <c r="AE110" s="11"/>
-      <c r="AF110" s="11"/>
+      <c r="AE110" s="10"/>
+      <c r="AF110" s="10"/>
       <c r="AG110" s="11"/>
-      <c r="AH110" s="10"/>
-      <c r="AI110" s="10"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
       <c r="AJ110" s="10"/>
       <c r="AK110" s="10"/>
       <c r="AL110" s="10"/>
-      <c r="AM110" s="11"/>
-      <c r="AN110" s="11"/>
+      <c r="AM110" s="10"/>
+      <c r="AN110" s="10"/>
       <c r="AO110" s="11"/>
       <c r="AP110" s="11"/>
-      <c r="AQ110" s="5"/>
-    </row>
-    <row r="111" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ110" s="11"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="5"/>
+    </row>
+    <row r="111" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -7693,21 +7939,23 @@
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
-      <c r="AE111" s="11"/>
-      <c r="AF111" s="11"/>
+      <c r="AE111" s="10"/>
+      <c r="AF111" s="10"/>
       <c r="AG111" s="11"/>
-      <c r="AH111" s="10"/>
-      <c r="AI111" s="10"/>
+      <c r="AH111" s="11"/>
+      <c r="AI111" s="11"/>
       <c r="AJ111" s="10"/>
       <c r="AK111" s="10"/>
       <c r="AL111" s="10"/>
-      <c r="AM111" s="11"/>
-      <c r="AN111" s="11"/>
+      <c r="AM111" s="10"/>
+      <c r="AN111" s="10"/>
       <c r="AO111" s="11"/>
       <c r="AP111" s="11"/>
-      <c r="AQ111" s="5"/>
-    </row>
-    <row r="112" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ111" s="11"/>
+      <c r="AR111" s="11"/>
+      <c r="AS111" s="5"/>
+    </row>
+    <row r="112" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -7738,21 +7986,23 @@
       <c r="AB112" s="10"/>
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
-      <c r="AE112" s="11"/>
-      <c r="AF112" s="11"/>
+      <c r="AE112" s="10"/>
+      <c r="AF112" s="10"/>
       <c r="AG112" s="11"/>
-      <c r="AH112" s="10"/>
-      <c r="AI112" s="10"/>
+      <c r="AH112" s="11"/>
+      <c r="AI112" s="11"/>
       <c r="AJ112" s="10"/>
       <c r="AK112" s="10"/>
       <c r="AL112" s="10"/>
-      <c r="AM112" s="11"/>
-      <c r="AN112" s="11"/>
+      <c r="AM112" s="10"/>
+      <c r="AN112" s="10"/>
       <c r="AO112" s="11"/>
       <c r="AP112" s="11"/>
-      <c r="AQ112" s="5"/>
-    </row>
-    <row r="113" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ112" s="11"/>
+      <c r="AR112" s="11"/>
+      <c r="AS112" s="5"/>
+    </row>
+    <row r="113" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -7783,21 +8033,23 @@
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
-      <c r="AE113" s="11"/>
-      <c r="AF113" s="11"/>
+      <c r="AE113" s="10"/>
+      <c r="AF113" s="10"/>
       <c r="AG113" s="11"/>
-      <c r="AH113" s="10"/>
-      <c r="AI113" s="10"/>
+      <c r="AH113" s="11"/>
+      <c r="AI113" s="11"/>
       <c r="AJ113" s="10"/>
       <c r="AK113" s="10"/>
       <c r="AL113" s="10"/>
-      <c r="AM113" s="11"/>
-      <c r="AN113" s="11"/>
+      <c r="AM113" s="10"/>
+      <c r="AN113" s="10"/>
       <c r="AO113" s="11"/>
       <c r="AP113" s="11"/>
-      <c r="AQ113" s="5"/>
-    </row>
-    <row r="114" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ113" s="11"/>
+      <c r="AR113" s="11"/>
+      <c r="AS113" s="5"/>
+    </row>
+    <row r="114" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -7828,21 +8080,23 @@
       <c r="AB114" s="10"/>
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
-      <c r="AE114" s="11"/>
-      <c r="AF114" s="11"/>
+      <c r="AE114" s="10"/>
+      <c r="AF114" s="10"/>
       <c r="AG114" s="11"/>
-      <c r="AH114" s="10"/>
-      <c r="AI114" s="10"/>
+      <c r="AH114" s="11"/>
+      <c r="AI114" s="11"/>
       <c r="AJ114" s="10"/>
       <c r="AK114" s="10"/>
       <c r="AL114" s="10"/>
-      <c r="AM114" s="11"/>
-      <c r="AN114" s="11"/>
+      <c r="AM114" s="10"/>
+      <c r="AN114" s="10"/>
       <c r="AO114" s="11"/>
       <c r="AP114" s="11"/>
-      <c r="AQ114" s="5"/>
-    </row>
-    <row r="115" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ114" s="11"/>
+      <c r="AR114" s="11"/>
+      <c r="AS114" s="5"/>
+    </row>
+    <row r="115" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -7873,21 +8127,23 @@
       <c r="AB115" s="10"/>
       <c r="AC115" s="10"/>
       <c r="AD115" s="10"/>
-      <c r="AE115" s="11"/>
-      <c r="AF115" s="11"/>
+      <c r="AE115" s="10"/>
+      <c r="AF115" s="10"/>
       <c r="AG115" s="11"/>
-      <c r="AH115" s="10"/>
-      <c r="AI115" s="10"/>
+      <c r="AH115" s="11"/>
+      <c r="AI115" s="11"/>
       <c r="AJ115" s="10"/>
       <c r="AK115" s="10"/>
       <c r="AL115" s="10"/>
-      <c r="AM115" s="11"/>
-      <c r="AN115" s="11"/>
+      <c r="AM115" s="10"/>
+      <c r="AN115" s="10"/>
       <c r="AO115" s="11"/>
       <c r="AP115" s="11"/>
-      <c r="AQ115" s="5"/>
-    </row>
-    <row r="116" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ115" s="11"/>
+      <c r="AR115" s="11"/>
+      <c r="AS115" s="5"/>
+    </row>
+    <row r="116" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -7918,21 +8174,23 @@
       <c r="AB116" s="10"/>
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
-      <c r="AE116" s="11"/>
-      <c r="AF116" s="11"/>
+      <c r="AE116" s="10"/>
+      <c r="AF116" s="10"/>
       <c r="AG116" s="11"/>
-      <c r="AH116" s="10"/>
-      <c r="AI116" s="10"/>
+      <c r="AH116" s="11"/>
+      <c r="AI116" s="11"/>
       <c r="AJ116" s="10"/>
       <c r="AK116" s="10"/>
       <c r="AL116" s="10"/>
-      <c r="AM116" s="11"/>
-      <c r="AN116" s="11"/>
+      <c r="AM116" s="10"/>
+      <c r="AN116" s="10"/>
       <c r="AO116" s="11"/>
       <c r="AP116" s="11"/>
-      <c r="AQ116" s="5"/>
-    </row>
-    <row r="117" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ116" s="11"/>
+      <c r="AR116" s="11"/>
+      <c r="AS116" s="5"/>
+    </row>
+    <row r="117" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -7963,21 +8221,23 @@
       <c r="AB117" s="10"/>
       <c r="AC117" s="10"/>
       <c r="AD117" s="10"/>
-      <c r="AE117" s="11"/>
-      <c r="AF117" s="11"/>
+      <c r="AE117" s="10"/>
+      <c r="AF117" s="10"/>
       <c r="AG117" s="11"/>
-      <c r="AH117" s="10"/>
-      <c r="AI117" s="10"/>
+      <c r="AH117" s="11"/>
+      <c r="AI117" s="11"/>
       <c r="AJ117" s="10"/>
       <c r="AK117" s="10"/>
       <c r="AL117" s="10"/>
-      <c r="AM117" s="11"/>
-      <c r="AN117" s="11"/>
+      <c r="AM117" s="10"/>
+      <c r="AN117" s="10"/>
       <c r="AO117" s="11"/>
       <c r="AP117" s="11"/>
-      <c r="AQ117" s="5"/>
-    </row>
-    <row r="118" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ117" s="11"/>
+      <c r="AR117" s="11"/>
+      <c r="AS117" s="5"/>
+    </row>
+    <row r="118" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -8008,21 +8268,23 @@
       <c r="AB118" s="10"/>
       <c r="AC118" s="10"/>
       <c r="AD118" s="10"/>
-      <c r="AE118" s="11"/>
-      <c r="AF118" s="11"/>
+      <c r="AE118" s="10"/>
+      <c r="AF118" s="10"/>
       <c r="AG118" s="11"/>
-      <c r="AH118" s="10"/>
-      <c r="AI118" s="10"/>
+      <c r="AH118" s="11"/>
+      <c r="AI118" s="11"/>
       <c r="AJ118" s="10"/>
       <c r="AK118" s="10"/>
       <c r="AL118" s="10"/>
-      <c r="AM118" s="11"/>
-      <c r="AN118" s="11"/>
+      <c r="AM118" s="10"/>
+      <c r="AN118" s="10"/>
       <c r="AO118" s="11"/>
       <c r="AP118" s="11"/>
-      <c r="AQ118" s="5"/>
-    </row>
-    <row r="119" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ118" s="11"/>
+      <c r="AR118" s="11"/>
+      <c r="AS118" s="5"/>
+    </row>
+    <row r="119" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -8053,21 +8315,23 @@
       <c r="AB119" s="10"/>
       <c r="AC119" s="10"/>
       <c r="AD119" s="10"/>
-      <c r="AE119" s="11"/>
-      <c r="AF119" s="11"/>
+      <c r="AE119" s="10"/>
+      <c r="AF119" s="10"/>
       <c r="AG119" s="11"/>
-      <c r="AH119" s="10"/>
-      <c r="AI119" s="10"/>
+      <c r="AH119" s="11"/>
+      <c r="AI119" s="11"/>
       <c r="AJ119" s="10"/>
       <c r="AK119" s="10"/>
       <c r="AL119" s="10"/>
-      <c r="AM119" s="11"/>
-      <c r="AN119" s="11"/>
+      <c r="AM119" s="10"/>
+      <c r="AN119" s="10"/>
       <c r="AO119" s="11"/>
       <c r="AP119" s="11"/>
-      <c r="AQ119" s="5"/>
-    </row>
-    <row r="120" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ119" s="11"/>
+      <c r="AR119" s="11"/>
+      <c r="AS119" s="5"/>
+    </row>
+    <row r="120" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8098,21 +8362,23 @@
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
       <c r="AD120" s="10"/>
-      <c r="AE120" s="11"/>
-      <c r="AF120" s="11"/>
+      <c r="AE120" s="10"/>
+      <c r="AF120" s="10"/>
       <c r="AG120" s="11"/>
-      <c r="AH120" s="10"/>
-      <c r="AI120" s="10"/>
+      <c r="AH120" s="11"/>
+      <c r="AI120" s="11"/>
       <c r="AJ120" s="10"/>
       <c r="AK120" s="10"/>
       <c r="AL120" s="10"/>
-      <c r="AM120" s="11"/>
-      <c r="AN120" s="11"/>
+      <c r="AM120" s="10"/>
+      <c r="AN120" s="10"/>
       <c r="AO120" s="11"/>
       <c r="AP120" s="11"/>
-      <c r="AQ120" s="5"/>
-    </row>
-    <row r="121" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ120" s="11"/>
+      <c r="AR120" s="11"/>
+      <c r="AS120" s="5"/>
+    </row>
+    <row r="121" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8143,21 +8409,23 @@
       <c r="AB121" s="10"/>
       <c r="AC121" s="10"/>
       <c r="AD121" s="10"/>
-      <c r="AE121" s="11"/>
-      <c r="AF121" s="11"/>
+      <c r="AE121" s="10"/>
+      <c r="AF121" s="10"/>
       <c r="AG121" s="11"/>
-      <c r="AH121" s="10"/>
-      <c r="AI121" s="10"/>
+      <c r="AH121" s="11"/>
+      <c r="AI121" s="11"/>
       <c r="AJ121" s="10"/>
       <c r="AK121" s="10"/>
       <c r="AL121" s="10"/>
-      <c r="AM121" s="11"/>
-      <c r="AN121" s="11"/>
+      <c r="AM121" s="10"/>
+      <c r="AN121" s="10"/>
       <c r="AO121" s="11"/>
       <c r="AP121" s="11"/>
-      <c r="AQ121" s="5"/>
-    </row>
-    <row r="122" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ121" s="11"/>
+      <c r="AR121" s="11"/>
+      <c r="AS121" s="5"/>
+    </row>
+    <row r="122" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -8188,21 +8456,23 @@
       <c r="AB122" s="10"/>
       <c r="AC122" s="10"/>
       <c r="AD122" s="10"/>
-      <c r="AE122" s="11"/>
-      <c r="AF122" s="11"/>
+      <c r="AE122" s="10"/>
+      <c r="AF122" s="10"/>
       <c r="AG122" s="11"/>
-      <c r="AH122" s="10"/>
-      <c r="AI122" s="10"/>
+      <c r="AH122" s="11"/>
+      <c r="AI122" s="11"/>
       <c r="AJ122" s="10"/>
       <c r="AK122" s="10"/>
       <c r="AL122" s="10"/>
-      <c r="AM122" s="11"/>
-      <c r="AN122" s="11"/>
+      <c r="AM122" s="10"/>
+      <c r="AN122" s="10"/>
       <c r="AO122" s="11"/>
       <c r="AP122" s="11"/>
-      <c r="AQ122" s="5"/>
-    </row>
-    <row r="123" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ122" s="11"/>
+      <c r="AR122" s="11"/>
+      <c r="AS122" s="5"/>
+    </row>
+    <row r="123" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -8233,21 +8503,23 @@
       <c r="AB123" s="10"/>
       <c r="AC123" s="10"/>
       <c r="AD123" s="10"/>
-      <c r="AE123" s="11"/>
-      <c r="AF123" s="11"/>
+      <c r="AE123" s="10"/>
+      <c r="AF123" s="10"/>
       <c r="AG123" s="11"/>
-      <c r="AH123" s="10"/>
-      <c r="AI123" s="10"/>
+      <c r="AH123" s="11"/>
+      <c r="AI123" s="11"/>
       <c r="AJ123" s="10"/>
       <c r="AK123" s="10"/>
       <c r="AL123" s="10"/>
-      <c r="AM123" s="11"/>
-      <c r="AN123" s="11"/>
+      <c r="AM123" s="10"/>
+      <c r="AN123" s="10"/>
       <c r="AO123" s="11"/>
       <c r="AP123" s="11"/>
-      <c r="AQ123" s="5"/>
-    </row>
-    <row r="124" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ123" s="11"/>
+      <c r="AR123" s="11"/>
+      <c r="AS123" s="5"/>
+    </row>
+    <row r="124" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -8278,21 +8550,23 @@
       <c r="AB124" s="10"/>
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
-      <c r="AE124" s="11"/>
-      <c r="AF124" s="11"/>
+      <c r="AE124" s="10"/>
+      <c r="AF124" s="10"/>
       <c r="AG124" s="11"/>
-      <c r="AH124" s="10"/>
-      <c r="AI124" s="10"/>
+      <c r="AH124" s="11"/>
+      <c r="AI124" s="11"/>
       <c r="AJ124" s="10"/>
       <c r="AK124" s="10"/>
       <c r="AL124" s="10"/>
-      <c r="AM124" s="11"/>
-      <c r="AN124" s="11"/>
+      <c r="AM124" s="10"/>
+      <c r="AN124" s="10"/>
       <c r="AO124" s="11"/>
       <c r="AP124" s="11"/>
-      <c r="AQ124" s="5"/>
-    </row>
-    <row r="125" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ124" s="11"/>
+      <c r="AR124" s="11"/>
+      <c r="AS124" s="5"/>
+    </row>
+    <row r="125" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8323,21 +8597,23 @@
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
-      <c r="AE125" s="11"/>
-      <c r="AF125" s="11"/>
+      <c r="AE125" s="10"/>
+      <c r="AF125" s="10"/>
       <c r="AG125" s="11"/>
-      <c r="AH125" s="10"/>
-      <c r="AI125" s="10"/>
+      <c r="AH125" s="11"/>
+      <c r="AI125" s="11"/>
       <c r="AJ125" s="10"/>
       <c r="AK125" s="10"/>
       <c r="AL125" s="10"/>
-      <c r="AM125" s="11"/>
-      <c r="AN125" s="11"/>
+      <c r="AM125" s="10"/>
+      <c r="AN125" s="10"/>
       <c r="AO125" s="11"/>
       <c r="AP125" s="11"/>
-      <c r="AQ125" s="5"/>
-    </row>
-    <row r="126" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ125" s="11"/>
+      <c r="AR125" s="11"/>
+      <c r="AS125" s="5"/>
+    </row>
+    <row r="126" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -8368,21 +8644,23 @@
       <c r="AB126" s="10"/>
       <c r="AC126" s="10"/>
       <c r="AD126" s="10"/>
-      <c r="AE126" s="11"/>
-      <c r="AF126" s="11"/>
+      <c r="AE126" s="10"/>
+      <c r="AF126" s="10"/>
       <c r="AG126" s="11"/>
-      <c r="AH126" s="10"/>
-      <c r="AI126" s="10"/>
+      <c r="AH126" s="11"/>
+      <c r="AI126" s="11"/>
       <c r="AJ126" s="10"/>
       <c r="AK126" s="10"/>
       <c r="AL126" s="10"/>
-      <c r="AM126" s="11"/>
-      <c r="AN126" s="11"/>
+      <c r="AM126" s="10"/>
+      <c r="AN126" s="10"/>
       <c r="AO126" s="11"/>
       <c r="AP126" s="11"/>
-      <c r="AQ126" s="5"/>
-    </row>
-    <row r="127" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ126" s="11"/>
+      <c r="AR126" s="11"/>
+      <c r="AS126" s="5"/>
+    </row>
+    <row r="127" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -8413,21 +8691,23 @@
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
-      <c r="AE127" s="11"/>
-      <c r="AF127" s="11"/>
+      <c r="AE127" s="10"/>
+      <c r="AF127" s="10"/>
       <c r="AG127" s="11"/>
-      <c r="AH127" s="10"/>
-      <c r="AI127" s="10"/>
+      <c r="AH127" s="11"/>
+      <c r="AI127" s="11"/>
       <c r="AJ127" s="10"/>
       <c r="AK127" s="10"/>
       <c r="AL127" s="10"/>
-      <c r="AM127" s="11"/>
-      <c r="AN127" s="11"/>
+      <c r="AM127" s="10"/>
+      <c r="AN127" s="10"/>
       <c r="AO127" s="11"/>
       <c r="AP127" s="11"/>
-      <c r="AQ127" s="5"/>
-    </row>
-    <row r="128" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ127" s="11"/>
+      <c r="AR127" s="11"/>
+      <c r="AS127" s="5"/>
+    </row>
+    <row r="128" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8458,21 +8738,23 @@
       <c r="AB128" s="10"/>
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
-      <c r="AE128" s="11"/>
-      <c r="AF128" s="11"/>
+      <c r="AE128" s="10"/>
+      <c r="AF128" s="10"/>
       <c r="AG128" s="11"/>
-      <c r="AH128" s="10"/>
-      <c r="AI128" s="10"/>
+      <c r="AH128" s="11"/>
+      <c r="AI128" s="11"/>
       <c r="AJ128" s="10"/>
       <c r="AK128" s="10"/>
       <c r="AL128" s="10"/>
-      <c r="AM128" s="11"/>
-      <c r="AN128" s="11"/>
+      <c r="AM128" s="10"/>
+      <c r="AN128" s="10"/>
       <c r="AO128" s="11"/>
       <c r="AP128" s="11"/>
-      <c r="AQ128" s="5"/>
-    </row>
-    <row r="129" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ128" s="11"/>
+      <c r="AR128" s="11"/>
+      <c r="AS128" s="5"/>
+    </row>
+    <row r="129" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -8503,21 +8785,23 @@
       <c r="AB129" s="10"/>
       <c r="AC129" s="10"/>
       <c r="AD129" s="10"/>
-      <c r="AE129" s="11"/>
-      <c r="AF129" s="11"/>
+      <c r="AE129" s="10"/>
+      <c r="AF129" s="10"/>
       <c r="AG129" s="11"/>
-      <c r="AH129" s="10"/>
-      <c r="AI129" s="10"/>
+      <c r="AH129" s="11"/>
+      <c r="AI129" s="11"/>
       <c r="AJ129" s="10"/>
       <c r="AK129" s="10"/>
       <c r="AL129" s="10"/>
-      <c r="AM129" s="11"/>
-      <c r="AN129" s="11"/>
+      <c r="AM129" s="10"/>
+      <c r="AN129" s="10"/>
       <c r="AO129" s="11"/>
       <c r="AP129" s="11"/>
-      <c r="AQ129" s="5"/>
-    </row>
-    <row r="130" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ129" s="11"/>
+      <c r="AR129" s="11"/>
+      <c r="AS129" s="5"/>
+    </row>
+    <row r="130" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -8548,21 +8832,23 @@
       <c r="AB130" s="10"/>
       <c r="AC130" s="10"/>
       <c r="AD130" s="10"/>
-      <c r="AE130" s="11"/>
-      <c r="AF130" s="11"/>
+      <c r="AE130" s="10"/>
+      <c r="AF130" s="10"/>
       <c r="AG130" s="11"/>
-      <c r="AH130" s="10"/>
-      <c r="AI130" s="10"/>
+      <c r="AH130" s="11"/>
+      <c r="AI130" s="11"/>
       <c r="AJ130" s="10"/>
       <c r="AK130" s="10"/>
       <c r="AL130" s="10"/>
-      <c r="AM130" s="11"/>
-      <c r="AN130" s="11"/>
+      <c r="AM130" s="10"/>
+      <c r="AN130" s="10"/>
       <c r="AO130" s="11"/>
       <c r="AP130" s="11"/>
-      <c r="AQ130" s="5"/>
-    </row>
-    <row r="131" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ130" s="11"/>
+      <c r="AR130" s="11"/>
+      <c r="AS130" s="5"/>
+    </row>
+    <row r="131" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -8593,21 +8879,23 @@
       <c r="AB131" s="10"/>
       <c r="AC131" s="10"/>
       <c r="AD131" s="10"/>
-      <c r="AE131" s="11"/>
-      <c r="AF131" s="11"/>
+      <c r="AE131" s="10"/>
+      <c r="AF131" s="10"/>
       <c r="AG131" s="11"/>
-      <c r="AH131" s="10"/>
-      <c r="AI131" s="10"/>
+      <c r="AH131" s="11"/>
+      <c r="AI131" s="11"/>
       <c r="AJ131" s="10"/>
       <c r="AK131" s="10"/>
       <c r="AL131" s="10"/>
-      <c r="AM131" s="11"/>
-      <c r="AN131" s="11"/>
+      <c r="AM131" s="10"/>
+      <c r="AN131" s="10"/>
       <c r="AO131" s="11"/>
       <c r="AP131" s="11"/>
-      <c r="AQ131" s="5"/>
-    </row>
-    <row r="132" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ131" s="11"/>
+      <c r="AR131" s="11"/>
+      <c r="AS131" s="5"/>
+    </row>
+    <row r="132" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -8638,21 +8926,23 @@
       <c r="AB132" s="10"/>
       <c r="AC132" s="10"/>
       <c r="AD132" s="10"/>
-      <c r="AE132" s="11"/>
-      <c r="AF132" s="11"/>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
       <c r="AG132" s="11"/>
-      <c r="AH132" s="10"/>
-      <c r="AI132" s="10"/>
+      <c r="AH132" s="11"/>
+      <c r="AI132" s="11"/>
       <c r="AJ132" s="10"/>
       <c r="AK132" s="10"/>
       <c r="AL132" s="10"/>
-      <c r="AM132" s="11"/>
-      <c r="AN132" s="11"/>
+      <c r="AM132" s="10"/>
+      <c r="AN132" s="10"/>
       <c r="AO132" s="11"/>
       <c r="AP132" s="11"/>
-      <c r="AQ132" s="5"/>
-    </row>
-    <row r="133" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ132" s="11"/>
+      <c r="AR132" s="11"/>
+      <c r="AS132" s="5"/>
+    </row>
+    <row r="133" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -8683,21 +8973,23 @@
       <c r="AB133" s="10"/>
       <c r="AC133" s="10"/>
       <c r="AD133" s="10"/>
-      <c r="AE133" s="11"/>
-      <c r="AF133" s="11"/>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
       <c r="AG133" s="11"/>
-      <c r="AH133" s="10"/>
-      <c r="AI133" s="10"/>
+      <c r="AH133" s="11"/>
+      <c r="AI133" s="11"/>
       <c r="AJ133" s="10"/>
       <c r="AK133" s="10"/>
       <c r="AL133" s="10"/>
-      <c r="AM133" s="11"/>
-      <c r="AN133" s="11"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
       <c r="AO133" s="11"/>
       <c r="AP133" s="11"/>
-      <c r="AQ133" s="5"/>
-    </row>
-    <row r="134" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ133" s="11"/>
+      <c r="AR133" s="11"/>
+      <c r="AS133" s="5"/>
+    </row>
+    <row r="134" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -8728,21 +9020,23 @@
       <c r="AB134" s="10"/>
       <c r="AC134" s="10"/>
       <c r="AD134" s="10"/>
-      <c r="AE134" s="11"/>
-      <c r="AF134" s="11"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
       <c r="AG134" s="11"/>
-      <c r="AH134" s="10"/>
-      <c r="AI134" s="10"/>
+      <c r="AH134" s="11"/>
+      <c r="AI134" s="11"/>
       <c r="AJ134" s="10"/>
       <c r="AK134" s="10"/>
       <c r="AL134" s="10"/>
-      <c r="AM134" s="11"/>
-      <c r="AN134" s="11"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
       <c r="AO134" s="11"/>
       <c r="AP134" s="11"/>
-      <c r="AQ134" s="5"/>
-    </row>
-    <row r="135" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ134" s="11"/>
+      <c r="AR134" s="11"/>
+      <c r="AS134" s="5"/>
+    </row>
+    <row r="135" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -8773,21 +9067,23 @@
       <c r="AB135" s="10"/>
       <c r="AC135" s="10"/>
       <c r="AD135" s="10"/>
-      <c r="AE135" s="11"/>
-      <c r="AF135" s="11"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
       <c r="AG135" s="11"/>
-      <c r="AH135" s="10"/>
-      <c r="AI135" s="10"/>
+      <c r="AH135" s="11"/>
+      <c r="AI135" s="11"/>
       <c r="AJ135" s="10"/>
       <c r="AK135" s="10"/>
       <c r="AL135" s="10"/>
-      <c r="AM135" s="11"/>
-      <c r="AN135" s="11"/>
+      <c r="AM135" s="10"/>
+      <c r="AN135" s="10"/>
       <c r="AO135" s="11"/>
       <c r="AP135" s="11"/>
-      <c r="AQ135" s="5"/>
-    </row>
-    <row r="136" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ135" s="11"/>
+      <c r="AR135" s="11"/>
+      <c r="AS135" s="5"/>
+    </row>
+    <row r="136" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -8818,21 +9114,23 @@
       <c r="AB136" s="10"/>
       <c r="AC136" s="10"/>
       <c r="AD136" s="10"/>
-      <c r="AE136" s="11"/>
-      <c r="AF136" s="11"/>
+      <c r="AE136" s="10"/>
+      <c r="AF136" s="10"/>
       <c r="AG136" s="11"/>
-      <c r="AH136" s="10"/>
-      <c r="AI136" s="10"/>
+      <c r="AH136" s="11"/>
+      <c r="AI136" s="11"/>
       <c r="AJ136" s="10"/>
       <c r="AK136" s="10"/>
       <c r="AL136" s="10"/>
-      <c r="AM136" s="11"/>
-      <c r="AN136" s="11"/>
+      <c r="AM136" s="10"/>
+      <c r="AN136" s="10"/>
       <c r="AO136" s="11"/>
       <c r="AP136" s="11"/>
-      <c r="AQ136" s="5"/>
-    </row>
-    <row r="137" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ136" s="11"/>
+      <c r="AR136" s="11"/>
+      <c r="AS136" s="5"/>
+    </row>
+    <row r="137" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -8863,21 +9161,23 @@
       <c r="AB137" s="10"/>
       <c r="AC137" s="10"/>
       <c r="AD137" s="10"/>
-      <c r="AE137" s="11"/>
-      <c r="AF137" s="11"/>
+      <c r="AE137" s="10"/>
+      <c r="AF137" s="10"/>
       <c r="AG137" s="11"/>
-      <c r="AH137" s="10"/>
-      <c r="AI137" s="10"/>
+      <c r="AH137" s="11"/>
+      <c r="AI137" s="11"/>
       <c r="AJ137" s="10"/>
       <c r="AK137" s="10"/>
       <c r="AL137" s="10"/>
-      <c r="AM137" s="11"/>
-      <c r="AN137" s="11"/>
+      <c r="AM137" s="10"/>
+      <c r="AN137" s="10"/>
       <c r="AO137" s="11"/>
       <c r="AP137" s="11"/>
-      <c r="AQ137" s="5"/>
-    </row>
-    <row r="138" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ137" s="11"/>
+      <c r="AR137" s="11"/>
+      <c r="AS137" s="5"/>
+    </row>
+    <row r="138" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -8908,21 +9208,23 @@
       <c r="AB138" s="10"/>
       <c r="AC138" s="10"/>
       <c r="AD138" s="10"/>
-      <c r="AE138" s="11"/>
-      <c r="AF138" s="11"/>
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="10"/>
       <c r="AG138" s="11"/>
-      <c r="AH138" s="10"/>
-      <c r="AI138" s="10"/>
+      <c r="AH138" s="11"/>
+      <c r="AI138" s="11"/>
       <c r="AJ138" s="10"/>
       <c r="AK138" s="10"/>
       <c r="AL138" s="10"/>
-      <c r="AM138" s="11"/>
-      <c r="AN138" s="11"/>
+      <c r="AM138" s="10"/>
+      <c r="AN138" s="10"/>
       <c r="AO138" s="11"/>
       <c r="AP138" s="11"/>
-      <c r="AQ138" s="5"/>
-    </row>
-    <row r="139" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ138" s="11"/>
+      <c r="AR138" s="11"/>
+      <c r="AS138" s="5"/>
+    </row>
+    <row r="139" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -8953,21 +9255,23 @@
       <c r="AB139" s="10"/>
       <c r="AC139" s="10"/>
       <c r="AD139" s="10"/>
-      <c r="AE139" s="11"/>
-      <c r="AF139" s="11"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
       <c r="AG139" s="11"/>
-      <c r="AH139" s="10"/>
-      <c r="AI139" s="10"/>
+      <c r="AH139" s="11"/>
+      <c r="AI139" s="11"/>
       <c r="AJ139" s="10"/>
       <c r="AK139" s="10"/>
       <c r="AL139" s="10"/>
-      <c r="AM139" s="11"/>
-      <c r="AN139" s="11"/>
+      <c r="AM139" s="10"/>
+      <c r="AN139" s="10"/>
       <c r="AO139" s="11"/>
       <c r="AP139" s="11"/>
-      <c r="AQ139" s="5"/>
-    </row>
-    <row r="140" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ139" s="11"/>
+      <c r="AR139" s="11"/>
+      <c r="AS139" s="5"/>
+    </row>
+    <row r="140" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -8998,21 +9302,23 @@
       <c r="AB140" s="10"/>
       <c r="AC140" s="10"/>
       <c r="AD140" s="10"/>
-      <c r="AE140" s="11"/>
-      <c r="AF140" s="11"/>
+      <c r="AE140" s="10"/>
+      <c r="AF140" s="10"/>
       <c r="AG140" s="11"/>
-      <c r="AH140" s="10"/>
-      <c r="AI140" s="10"/>
+      <c r="AH140" s="11"/>
+      <c r="AI140" s="11"/>
       <c r="AJ140" s="10"/>
       <c r="AK140" s="10"/>
       <c r="AL140" s="10"/>
-      <c r="AM140" s="11"/>
-      <c r="AN140" s="11"/>
+      <c r="AM140" s="10"/>
+      <c r="AN140" s="10"/>
       <c r="AO140" s="11"/>
       <c r="AP140" s="11"/>
-      <c r="AQ140" s="5"/>
-    </row>
-    <row r="141" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ140" s="11"/>
+      <c r="AR140" s="11"/>
+      <c r="AS140" s="5"/>
+    </row>
+    <row r="141" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -9043,21 +9349,23 @@
       <c r="AB141" s="10"/>
       <c r="AC141" s="10"/>
       <c r="AD141" s="10"/>
-      <c r="AE141" s="11"/>
-      <c r="AF141" s="11"/>
+      <c r="AE141" s="10"/>
+      <c r="AF141" s="10"/>
       <c r="AG141" s="11"/>
-      <c r="AH141" s="10"/>
-      <c r="AI141" s="10"/>
+      <c r="AH141" s="11"/>
+      <c r="AI141" s="11"/>
       <c r="AJ141" s="10"/>
       <c r="AK141" s="10"/>
       <c r="AL141" s="10"/>
-      <c r="AM141" s="11"/>
-      <c r="AN141" s="11"/>
+      <c r="AM141" s="10"/>
+      <c r="AN141" s="10"/>
       <c r="AO141" s="11"/>
       <c r="AP141" s="11"/>
-      <c r="AQ141" s="5"/>
-    </row>
-    <row r="142" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ141" s="11"/>
+      <c r="AR141" s="11"/>
+      <c r="AS141" s="5"/>
+    </row>
+    <row r="142" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -9088,21 +9396,23 @@
       <c r="AB142" s="10"/>
       <c r="AC142" s="10"/>
       <c r="AD142" s="10"/>
-      <c r="AE142" s="11"/>
-      <c r="AF142" s="11"/>
+      <c r="AE142" s="10"/>
+      <c r="AF142" s="10"/>
       <c r="AG142" s="11"/>
-      <c r="AH142" s="10"/>
-      <c r="AI142" s="10"/>
+      <c r="AH142" s="11"/>
+      <c r="AI142" s="11"/>
       <c r="AJ142" s="10"/>
       <c r="AK142" s="10"/>
       <c r="AL142" s="10"/>
-      <c r="AM142" s="11"/>
-      <c r="AN142" s="11"/>
+      <c r="AM142" s="10"/>
+      <c r="AN142" s="10"/>
       <c r="AO142" s="11"/>
       <c r="AP142" s="11"/>
-      <c r="AQ142" s="5"/>
-    </row>
-    <row r="143" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ142" s="11"/>
+      <c r="AR142" s="11"/>
+      <c r="AS142" s="5"/>
+    </row>
+    <row r="143" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -9133,21 +9443,23 @@
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
       <c r="AD143" s="10"/>
-      <c r="AE143" s="11"/>
-      <c r="AF143" s="11"/>
+      <c r="AE143" s="10"/>
+      <c r="AF143" s="10"/>
       <c r="AG143" s="11"/>
-      <c r="AH143" s="10"/>
-      <c r="AI143" s="10"/>
+      <c r="AH143" s="11"/>
+      <c r="AI143" s="11"/>
       <c r="AJ143" s="10"/>
       <c r="AK143" s="10"/>
       <c r="AL143" s="10"/>
-      <c r="AM143" s="11"/>
-      <c r="AN143" s="11"/>
+      <c r="AM143" s="10"/>
+      <c r="AN143" s="10"/>
       <c r="AO143" s="11"/>
       <c r="AP143" s="11"/>
-      <c r="AQ143" s="5"/>
-    </row>
-    <row r="144" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ143" s="11"/>
+      <c r="AR143" s="11"/>
+      <c r="AS143" s="5"/>
+    </row>
+    <row r="144" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -9178,21 +9490,23 @@
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
       <c r="AD144" s="10"/>
-      <c r="AE144" s="11"/>
-      <c r="AF144" s="11"/>
+      <c r="AE144" s="10"/>
+      <c r="AF144" s="10"/>
       <c r="AG144" s="11"/>
-      <c r="AH144" s="10"/>
-      <c r="AI144" s="10"/>
+      <c r="AH144" s="11"/>
+      <c r="AI144" s="11"/>
       <c r="AJ144" s="10"/>
       <c r="AK144" s="10"/>
       <c r="AL144" s="10"/>
-      <c r="AM144" s="11"/>
-      <c r="AN144" s="11"/>
+      <c r="AM144" s="10"/>
+      <c r="AN144" s="10"/>
       <c r="AO144" s="11"/>
       <c r="AP144" s="11"/>
-      <c r="AQ144" s="5"/>
-    </row>
-    <row r="145" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ144" s="11"/>
+      <c r="AR144" s="11"/>
+      <c r="AS144" s="5"/>
+    </row>
+    <row r="145" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -9223,21 +9537,23 @@
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
       <c r="AD145" s="10"/>
-      <c r="AE145" s="11"/>
-      <c r="AF145" s="11"/>
+      <c r="AE145" s="10"/>
+      <c r="AF145" s="10"/>
       <c r="AG145" s="11"/>
-      <c r="AH145" s="10"/>
-      <c r="AI145" s="10"/>
+      <c r="AH145" s="11"/>
+      <c r="AI145" s="11"/>
       <c r="AJ145" s="10"/>
       <c r="AK145" s="10"/>
       <c r="AL145" s="10"/>
-      <c r="AM145" s="11"/>
-      <c r="AN145" s="11"/>
+      <c r="AM145" s="10"/>
+      <c r="AN145" s="10"/>
       <c r="AO145" s="11"/>
       <c r="AP145" s="11"/>
-      <c r="AQ145" s="5"/>
-    </row>
-    <row r="146" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ145" s="11"/>
+      <c r="AR145" s="11"/>
+      <c r="AS145" s="5"/>
+    </row>
+    <row r="146" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -9268,21 +9584,23 @@
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
-      <c r="AE146" s="11"/>
-      <c r="AF146" s="11"/>
+      <c r="AE146" s="10"/>
+      <c r="AF146" s="10"/>
       <c r="AG146" s="11"/>
-      <c r="AH146" s="10"/>
-      <c r="AI146" s="10"/>
+      <c r="AH146" s="11"/>
+      <c r="AI146" s="11"/>
       <c r="AJ146" s="10"/>
       <c r="AK146" s="10"/>
       <c r="AL146" s="10"/>
-      <c r="AM146" s="11"/>
-      <c r="AN146" s="11"/>
+      <c r="AM146" s="10"/>
+      <c r="AN146" s="10"/>
       <c r="AO146" s="11"/>
       <c r="AP146" s="11"/>
-      <c r="AQ146" s="5"/>
-    </row>
-    <row r="147" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ146" s="11"/>
+      <c r="AR146" s="11"/>
+      <c r="AS146" s="5"/>
+    </row>
+    <row r="147" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -9313,21 +9631,23 @@
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
       <c r="AD147" s="10"/>
-      <c r="AE147" s="11"/>
-      <c r="AF147" s="11"/>
+      <c r="AE147" s="10"/>
+      <c r="AF147" s="10"/>
       <c r="AG147" s="11"/>
-      <c r="AH147" s="10"/>
-      <c r="AI147" s="10"/>
+      <c r="AH147" s="11"/>
+      <c r="AI147" s="11"/>
       <c r="AJ147" s="10"/>
       <c r="AK147" s="10"/>
       <c r="AL147" s="10"/>
-      <c r="AM147" s="11"/>
-      <c r="AN147" s="11"/>
+      <c r="AM147" s="10"/>
+      <c r="AN147" s="10"/>
       <c r="AO147" s="11"/>
       <c r="AP147" s="11"/>
-      <c r="AQ147" s="5"/>
-    </row>
-    <row r="148" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ147" s="11"/>
+      <c r="AR147" s="11"/>
+      <c r="AS147" s="5"/>
+    </row>
+    <row r="148" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -9358,21 +9678,23 @@
       <c r="AB148" s="10"/>
       <c r="AC148" s="10"/>
       <c r="AD148" s="10"/>
-      <c r="AE148" s="11"/>
-      <c r="AF148" s="11"/>
+      <c r="AE148" s="10"/>
+      <c r="AF148" s="10"/>
       <c r="AG148" s="11"/>
-      <c r="AH148" s="10"/>
-      <c r="AI148" s="10"/>
+      <c r="AH148" s="11"/>
+      <c r="AI148" s="11"/>
       <c r="AJ148" s="10"/>
       <c r="AK148" s="10"/>
       <c r="AL148" s="10"/>
-      <c r="AM148" s="11"/>
-      <c r="AN148" s="11"/>
+      <c r="AM148" s="10"/>
+      <c r="AN148" s="10"/>
       <c r="AO148" s="11"/>
       <c r="AP148" s="11"/>
-      <c r="AQ148" s="5"/>
-    </row>
-    <row r="149" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ148" s="11"/>
+      <c r="AR148" s="11"/>
+      <c r="AS148" s="5"/>
+    </row>
+    <row r="149" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -9403,21 +9725,23 @@
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
       <c r="AD149" s="10"/>
-      <c r="AE149" s="11"/>
-      <c r="AF149" s="11"/>
+      <c r="AE149" s="10"/>
+      <c r="AF149" s="10"/>
       <c r="AG149" s="11"/>
-      <c r="AH149" s="10"/>
-      <c r="AI149" s="10"/>
+      <c r="AH149" s="11"/>
+      <c r="AI149" s="11"/>
       <c r="AJ149" s="10"/>
       <c r="AK149" s="10"/>
       <c r="AL149" s="10"/>
-      <c r="AM149" s="11"/>
-      <c r="AN149" s="11"/>
+      <c r="AM149" s="10"/>
+      <c r="AN149" s="10"/>
       <c r="AO149" s="11"/>
       <c r="AP149" s="11"/>
-      <c r="AQ149" s="5"/>
-    </row>
-    <row r="150" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ149" s="11"/>
+      <c r="AR149" s="11"/>
+      <c r="AS149" s="5"/>
+    </row>
+    <row r="150" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -9448,21 +9772,23 @@
       <c r="AB150" s="10"/>
       <c r="AC150" s="10"/>
       <c r="AD150" s="10"/>
-      <c r="AE150" s="11"/>
-      <c r="AF150" s="11"/>
+      <c r="AE150" s="10"/>
+      <c r="AF150" s="10"/>
       <c r="AG150" s="11"/>
-      <c r="AH150" s="10"/>
-      <c r="AI150" s="10"/>
+      <c r="AH150" s="11"/>
+      <c r="AI150" s="11"/>
       <c r="AJ150" s="10"/>
       <c r="AK150" s="10"/>
       <c r="AL150" s="10"/>
-      <c r="AM150" s="11"/>
-      <c r="AN150" s="11"/>
+      <c r="AM150" s="10"/>
+      <c r="AN150" s="10"/>
       <c r="AO150" s="11"/>
       <c r="AP150" s="11"/>
-      <c r="AQ150" s="5"/>
-    </row>
-    <row r="151" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ150" s="11"/>
+      <c r="AR150" s="11"/>
+      <c r="AS150" s="5"/>
+    </row>
+    <row r="151" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -9493,21 +9819,23 @@
       <c r="AB151" s="10"/>
       <c r="AC151" s="10"/>
       <c r="AD151" s="10"/>
-      <c r="AE151" s="11"/>
-      <c r="AF151" s="11"/>
+      <c r="AE151" s="10"/>
+      <c r="AF151" s="10"/>
       <c r="AG151" s="11"/>
-      <c r="AH151" s="10"/>
-      <c r="AI151" s="10"/>
+      <c r="AH151" s="11"/>
+      <c r="AI151" s="11"/>
       <c r="AJ151" s="10"/>
       <c r="AK151" s="10"/>
       <c r="AL151" s="10"/>
-      <c r="AM151" s="11"/>
-      <c r="AN151" s="11"/>
+      <c r="AM151" s="10"/>
+      <c r="AN151" s="10"/>
       <c r="AO151" s="11"/>
       <c r="AP151" s="11"/>
-      <c r="AQ151" s="5"/>
-    </row>
-    <row r="152" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ151" s="11"/>
+      <c r="AR151" s="11"/>
+      <c r="AS151" s="5"/>
+    </row>
+    <row r="152" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -9538,21 +9866,23 @@
       <c r="AB152" s="10"/>
       <c r="AC152" s="10"/>
       <c r="AD152" s="10"/>
-      <c r="AE152" s="11"/>
-      <c r="AF152" s="11"/>
+      <c r="AE152" s="10"/>
+      <c r="AF152" s="10"/>
       <c r="AG152" s="11"/>
-      <c r="AH152" s="10"/>
-      <c r="AI152" s="10"/>
+      <c r="AH152" s="11"/>
+      <c r="AI152" s="11"/>
       <c r="AJ152" s="10"/>
       <c r="AK152" s="10"/>
       <c r="AL152" s="10"/>
-      <c r="AM152" s="11"/>
-      <c r="AN152" s="11"/>
+      <c r="AM152" s="10"/>
+      <c r="AN152" s="10"/>
       <c r="AO152" s="11"/>
       <c r="AP152" s="11"/>
-      <c r="AQ152" s="5"/>
-    </row>
-    <row r="153" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ152" s="11"/>
+      <c r="AR152" s="11"/>
+      <c r="AS152" s="5"/>
+    </row>
+    <row r="153" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -9583,21 +9913,23 @@
       <c r="AB153" s="10"/>
       <c r="AC153" s="10"/>
       <c r="AD153" s="10"/>
-      <c r="AE153" s="11"/>
-      <c r="AF153" s="11"/>
+      <c r="AE153" s="10"/>
+      <c r="AF153" s="10"/>
       <c r="AG153" s="11"/>
-      <c r="AH153" s="10"/>
-      <c r="AI153" s="10"/>
+      <c r="AH153" s="11"/>
+      <c r="AI153" s="11"/>
       <c r="AJ153" s="10"/>
       <c r="AK153" s="10"/>
       <c r="AL153" s="10"/>
-      <c r="AM153" s="11"/>
-      <c r="AN153" s="11"/>
+      <c r="AM153" s="10"/>
+      <c r="AN153" s="10"/>
       <c r="AO153" s="11"/>
       <c r="AP153" s="11"/>
-      <c r="AQ153" s="5"/>
-    </row>
-    <row r="154" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ153" s="11"/>
+      <c r="AR153" s="11"/>
+      <c r="AS153" s="5"/>
+    </row>
+    <row r="154" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -9628,21 +9960,23 @@
       <c r="AB154" s="10"/>
       <c r="AC154" s="10"/>
       <c r="AD154" s="10"/>
-      <c r="AE154" s="11"/>
-      <c r="AF154" s="11"/>
+      <c r="AE154" s="10"/>
+      <c r="AF154" s="10"/>
       <c r="AG154" s="11"/>
-      <c r="AH154" s="10"/>
-      <c r="AI154" s="10"/>
+      <c r="AH154" s="11"/>
+      <c r="AI154" s="11"/>
       <c r="AJ154" s="10"/>
       <c r="AK154" s="10"/>
       <c r="AL154" s="10"/>
-      <c r="AM154" s="11"/>
-      <c r="AN154" s="11"/>
+      <c r="AM154" s="10"/>
+      <c r="AN154" s="10"/>
       <c r="AO154" s="11"/>
       <c r="AP154" s="11"/>
-      <c r="AQ154" s="5"/>
-    </row>
-    <row r="155" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ154" s="11"/>
+      <c r="AR154" s="11"/>
+      <c r="AS154" s="5"/>
+    </row>
+    <row r="155" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -9673,21 +10007,23 @@
       <c r="AB155" s="10"/>
       <c r="AC155" s="10"/>
       <c r="AD155" s="10"/>
-      <c r="AE155" s="11"/>
-      <c r="AF155" s="11"/>
+      <c r="AE155" s="10"/>
+      <c r="AF155" s="10"/>
       <c r="AG155" s="11"/>
-      <c r="AH155" s="10"/>
-      <c r="AI155" s="10"/>
+      <c r="AH155" s="11"/>
+      <c r="AI155" s="11"/>
       <c r="AJ155" s="10"/>
       <c r="AK155" s="10"/>
       <c r="AL155" s="10"/>
-      <c r="AM155" s="11"/>
-      <c r="AN155" s="11"/>
+      <c r="AM155" s="10"/>
+      <c r="AN155" s="10"/>
       <c r="AO155" s="11"/>
       <c r="AP155" s="11"/>
-      <c r="AQ155" s="5"/>
-    </row>
-    <row r="156" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ155" s="11"/>
+      <c r="AR155" s="11"/>
+      <c r="AS155" s="5"/>
+    </row>
+    <row r="156" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -9718,21 +10054,23 @@
       <c r="AB156" s="10"/>
       <c r="AC156" s="10"/>
       <c r="AD156" s="10"/>
-      <c r="AE156" s="11"/>
-      <c r="AF156" s="11"/>
+      <c r="AE156" s="10"/>
+      <c r="AF156" s="10"/>
       <c r="AG156" s="11"/>
-      <c r="AH156" s="10"/>
-      <c r="AI156" s="10"/>
+      <c r="AH156" s="11"/>
+      <c r="AI156" s="11"/>
       <c r="AJ156" s="10"/>
       <c r="AK156" s="10"/>
       <c r="AL156" s="10"/>
-      <c r="AM156" s="11"/>
-      <c r="AN156" s="11"/>
+      <c r="AM156" s="10"/>
+      <c r="AN156" s="10"/>
       <c r="AO156" s="11"/>
       <c r="AP156" s="11"/>
-      <c r="AQ156" s="5"/>
-    </row>
-    <row r="157" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ156" s="11"/>
+      <c r="AR156" s="11"/>
+      <c r="AS156" s="5"/>
+    </row>
+    <row r="157" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -9763,21 +10101,23 @@
       <c r="AB157" s="10"/>
       <c r="AC157" s="10"/>
       <c r="AD157" s="10"/>
-      <c r="AE157" s="11"/>
-      <c r="AF157" s="11"/>
+      <c r="AE157" s="10"/>
+      <c r="AF157" s="10"/>
       <c r="AG157" s="11"/>
-      <c r="AH157" s="10"/>
-      <c r="AI157" s="10"/>
+      <c r="AH157" s="11"/>
+      <c r="AI157" s="11"/>
       <c r="AJ157" s="10"/>
       <c r="AK157" s="10"/>
       <c r="AL157" s="10"/>
-      <c r="AM157" s="11"/>
-      <c r="AN157" s="11"/>
+      <c r="AM157" s="10"/>
+      <c r="AN157" s="10"/>
       <c r="AO157" s="11"/>
       <c r="AP157" s="11"/>
-      <c r="AQ157" s="5"/>
-    </row>
-    <row r="158" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ157" s="11"/>
+      <c r="AR157" s="11"/>
+      <c r="AS157" s="5"/>
+    </row>
+    <row r="158" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -9808,21 +10148,23 @@
       <c r="AB158" s="10"/>
       <c r="AC158" s="10"/>
       <c r="AD158" s="10"/>
-      <c r="AE158" s="11"/>
-      <c r="AF158" s="11"/>
+      <c r="AE158" s="10"/>
+      <c r="AF158" s="10"/>
       <c r="AG158" s="11"/>
-      <c r="AH158" s="10"/>
-      <c r="AI158" s="10"/>
+      <c r="AH158" s="11"/>
+      <c r="AI158" s="11"/>
       <c r="AJ158" s="10"/>
       <c r="AK158" s="10"/>
       <c r="AL158" s="10"/>
-      <c r="AM158" s="11"/>
-      <c r="AN158" s="11"/>
+      <c r="AM158" s="10"/>
+      <c r="AN158" s="10"/>
       <c r="AO158" s="11"/>
       <c r="AP158" s="11"/>
-      <c r="AQ158" s="5"/>
-    </row>
-    <row r="159" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ158" s="11"/>
+      <c r="AR158" s="11"/>
+      <c r="AS158" s="5"/>
+    </row>
+    <row r="159" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -9853,21 +10195,23 @@
       <c r="AB159" s="10"/>
       <c r="AC159" s="10"/>
       <c r="AD159" s="10"/>
-      <c r="AE159" s="11"/>
-      <c r="AF159" s="11"/>
+      <c r="AE159" s="10"/>
+      <c r="AF159" s="10"/>
       <c r="AG159" s="11"/>
-      <c r="AH159" s="10"/>
-      <c r="AI159" s="10"/>
+      <c r="AH159" s="11"/>
+      <c r="AI159" s="11"/>
       <c r="AJ159" s="10"/>
       <c r="AK159" s="10"/>
       <c r="AL159" s="10"/>
-      <c r="AM159" s="11"/>
-      <c r="AN159" s="11"/>
+      <c r="AM159" s="10"/>
+      <c r="AN159" s="10"/>
       <c r="AO159" s="11"/>
       <c r="AP159" s="11"/>
-      <c r="AQ159" s="5"/>
-    </row>
-    <row r="160" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ159" s="11"/>
+      <c r="AR159" s="11"/>
+      <c r="AS159" s="5"/>
+    </row>
+    <row r="160" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -9898,21 +10242,23 @@
       <c r="AB160" s="10"/>
       <c r="AC160" s="10"/>
       <c r="AD160" s="10"/>
-      <c r="AE160" s="11"/>
-      <c r="AF160" s="11"/>
+      <c r="AE160" s="10"/>
+      <c r="AF160" s="10"/>
       <c r="AG160" s="11"/>
-      <c r="AH160" s="10"/>
-      <c r="AI160" s="10"/>
+      <c r="AH160" s="11"/>
+      <c r="AI160" s="11"/>
       <c r="AJ160" s="10"/>
       <c r="AK160" s="10"/>
       <c r="AL160" s="10"/>
-      <c r="AM160" s="11"/>
-      <c r="AN160" s="11"/>
+      <c r="AM160" s="10"/>
+      <c r="AN160" s="10"/>
       <c r="AO160" s="11"/>
       <c r="AP160" s="11"/>
-      <c r="AQ160" s="5"/>
-    </row>
-    <row r="161" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ160" s="11"/>
+      <c r="AR160" s="11"/>
+      <c r="AS160" s="5"/>
+    </row>
+    <row r="161" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -9943,21 +10289,23 @@
       <c r="AB161" s="10"/>
       <c r="AC161" s="10"/>
       <c r="AD161" s="10"/>
-      <c r="AE161" s="11"/>
-      <c r="AF161" s="11"/>
+      <c r="AE161" s="10"/>
+      <c r="AF161" s="10"/>
       <c r="AG161" s="11"/>
-      <c r="AH161" s="10"/>
-      <c r="AI161" s="10"/>
+      <c r="AH161" s="11"/>
+      <c r="AI161" s="11"/>
       <c r="AJ161" s="10"/>
       <c r="AK161" s="10"/>
       <c r="AL161" s="10"/>
-      <c r="AM161" s="11"/>
-      <c r="AN161" s="11"/>
+      <c r="AM161" s="10"/>
+      <c r="AN161" s="10"/>
       <c r="AO161" s="11"/>
       <c r="AP161" s="11"/>
-      <c r="AQ161" s="5"/>
-    </row>
-    <row r="162" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ161" s="11"/>
+      <c r="AR161" s="11"/>
+      <c r="AS161" s="5"/>
+    </row>
+    <row r="162" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -9988,21 +10336,23 @@
       <c r="AB162" s="10"/>
       <c r="AC162" s="10"/>
       <c r="AD162" s="10"/>
-      <c r="AE162" s="11"/>
-      <c r="AF162" s="11"/>
+      <c r="AE162" s="10"/>
+      <c r="AF162" s="10"/>
       <c r="AG162" s="11"/>
-      <c r="AH162" s="10"/>
-      <c r="AI162" s="10"/>
+      <c r="AH162" s="11"/>
+      <c r="AI162" s="11"/>
       <c r="AJ162" s="10"/>
       <c r="AK162" s="10"/>
       <c r="AL162" s="10"/>
-      <c r="AM162" s="11"/>
-      <c r="AN162" s="11"/>
+      <c r="AM162" s="10"/>
+      <c r="AN162" s="10"/>
       <c r="AO162" s="11"/>
       <c r="AP162" s="11"/>
-      <c r="AQ162" s="5"/>
-    </row>
-    <row r="163" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ162" s="11"/>
+      <c r="AR162" s="11"/>
+      <c r="AS162" s="5"/>
+    </row>
+    <row r="163" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -10033,21 +10383,23 @@
       <c r="AB163" s="10"/>
       <c r="AC163" s="10"/>
       <c r="AD163" s="10"/>
-      <c r="AE163" s="11"/>
-      <c r="AF163" s="11"/>
+      <c r="AE163" s="10"/>
+      <c r="AF163" s="10"/>
       <c r="AG163" s="11"/>
-      <c r="AH163" s="10"/>
-      <c r="AI163" s="10"/>
+      <c r="AH163" s="11"/>
+      <c r="AI163" s="11"/>
       <c r="AJ163" s="10"/>
       <c r="AK163" s="10"/>
       <c r="AL163" s="10"/>
-      <c r="AM163" s="11"/>
-      <c r="AN163" s="11"/>
+      <c r="AM163" s="10"/>
+      <c r="AN163" s="10"/>
       <c r="AO163" s="11"/>
       <c r="AP163" s="11"/>
-      <c r="AQ163" s="5"/>
-    </row>
-    <row r="164" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ163" s="11"/>
+      <c r="AR163" s="11"/>
+      <c r="AS163" s="5"/>
+    </row>
+    <row r="164" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -10078,21 +10430,23 @@
       <c r="AB164" s="10"/>
       <c r="AC164" s="10"/>
       <c r="AD164" s="10"/>
-      <c r="AE164" s="11"/>
-      <c r="AF164" s="11"/>
+      <c r="AE164" s="10"/>
+      <c r="AF164" s="10"/>
       <c r="AG164" s="11"/>
-      <c r="AH164" s="10"/>
-      <c r="AI164" s="10"/>
+      <c r="AH164" s="11"/>
+      <c r="AI164" s="11"/>
       <c r="AJ164" s="10"/>
       <c r="AK164" s="10"/>
       <c r="AL164" s="10"/>
-      <c r="AM164" s="11"/>
-      <c r="AN164" s="11"/>
+      <c r="AM164" s="10"/>
+      <c r="AN164" s="10"/>
       <c r="AO164" s="11"/>
       <c r="AP164" s="11"/>
-      <c r="AQ164" s="5"/>
-    </row>
-    <row r="165" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ164" s="11"/>
+      <c r="AR164" s="11"/>
+      <c r="AS164" s="5"/>
+    </row>
+    <row r="165" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -10123,21 +10477,23 @@
       <c r="AB165" s="10"/>
       <c r="AC165" s="10"/>
       <c r="AD165" s="10"/>
-      <c r="AE165" s="11"/>
-      <c r="AF165" s="11"/>
+      <c r="AE165" s="10"/>
+      <c r="AF165" s="10"/>
       <c r="AG165" s="11"/>
-      <c r="AH165" s="10"/>
-      <c r="AI165" s="10"/>
+      <c r="AH165" s="11"/>
+      <c r="AI165" s="11"/>
       <c r="AJ165" s="10"/>
       <c r="AK165" s="10"/>
       <c r="AL165" s="10"/>
-      <c r="AM165" s="11"/>
-      <c r="AN165" s="11"/>
+      <c r="AM165" s="10"/>
+      <c r="AN165" s="10"/>
       <c r="AO165" s="11"/>
       <c r="AP165" s="11"/>
-      <c r="AQ165" s="5"/>
-    </row>
-    <row r="166" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ165" s="11"/>
+      <c r="AR165" s="11"/>
+      <c r="AS165" s="5"/>
+    </row>
+    <row r="166" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -10168,21 +10524,23 @@
       <c r="AB166" s="10"/>
       <c r="AC166" s="10"/>
       <c r="AD166" s="10"/>
-      <c r="AE166" s="11"/>
-      <c r="AF166" s="11"/>
+      <c r="AE166" s="10"/>
+      <c r="AF166" s="10"/>
       <c r="AG166" s="11"/>
-      <c r="AH166" s="10"/>
-      <c r="AI166" s="10"/>
+      <c r="AH166" s="11"/>
+      <c r="AI166" s="11"/>
       <c r="AJ166" s="10"/>
       <c r="AK166" s="10"/>
       <c r="AL166" s="10"/>
-      <c r="AM166" s="11"/>
-      <c r="AN166" s="11"/>
+      <c r="AM166" s="10"/>
+      <c r="AN166" s="10"/>
       <c r="AO166" s="11"/>
       <c r="AP166" s="11"/>
-      <c r="AQ166" s="5"/>
-    </row>
-    <row r="167" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ166" s="11"/>
+      <c r="AR166" s="11"/>
+      <c r="AS166" s="5"/>
+    </row>
+    <row r="167" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -10213,21 +10571,23 @@
       <c r="AB167" s="10"/>
       <c r="AC167" s="10"/>
       <c r="AD167" s="10"/>
-      <c r="AE167" s="11"/>
-      <c r="AF167" s="11"/>
+      <c r="AE167" s="10"/>
+      <c r="AF167" s="10"/>
       <c r="AG167" s="11"/>
-      <c r="AH167" s="10"/>
-      <c r="AI167" s="10"/>
+      <c r="AH167" s="11"/>
+      <c r="AI167" s="11"/>
       <c r="AJ167" s="10"/>
       <c r="AK167" s="10"/>
       <c r="AL167" s="10"/>
-      <c r="AM167" s="11"/>
-      <c r="AN167" s="11"/>
+      <c r="AM167" s="10"/>
+      <c r="AN167" s="10"/>
       <c r="AO167" s="11"/>
       <c r="AP167" s="11"/>
-      <c r="AQ167" s="5"/>
-    </row>
-    <row r="168" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ167" s="11"/>
+      <c r="AR167" s="11"/>
+      <c r="AS167" s="5"/>
+    </row>
+    <row r="168" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -10258,21 +10618,23 @@
       <c r="AB168" s="10"/>
       <c r="AC168" s="10"/>
       <c r="AD168" s="10"/>
-      <c r="AE168" s="11"/>
-      <c r="AF168" s="11"/>
+      <c r="AE168" s="10"/>
+      <c r="AF168" s="10"/>
       <c r="AG168" s="11"/>
-      <c r="AH168" s="10"/>
-      <c r="AI168" s="10"/>
+      <c r="AH168" s="11"/>
+      <c r="AI168" s="11"/>
       <c r="AJ168" s="10"/>
       <c r="AK168" s="10"/>
       <c r="AL168" s="10"/>
-      <c r="AM168" s="11"/>
-      <c r="AN168" s="11"/>
+      <c r="AM168" s="10"/>
+      <c r="AN168" s="10"/>
       <c r="AO168" s="11"/>
       <c r="AP168" s="11"/>
-      <c r="AQ168" s="5"/>
-    </row>
-    <row r="169" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ168" s="11"/>
+      <c r="AR168" s="11"/>
+      <c r="AS168" s="5"/>
+    </row>
+    <row r="169" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -10303,21 +10665,23 @@
       <c r="AB169" s="10"/>
       <c r="AC169" s="10"/>
       <c r="AD169" s="10"/>
-      <c r="AE169" s="11"/>
-      <c r="AF169" s="11"/>
+      <c r="AE169" s="10"/>
+      <c r="AF169" s="10"/>
       <c r="AG169" s="11"/>
-      <c r="AH169" s="10"/>
-      <c r="AI169" s="10"/>
+      <c r="AH169" s="11"/>
+      <c r="AI169" s="11"/>
       <c r="AJ169" s="10"/>
       <c r="AK169" s="10"/>
       <c r="AL169" s="10"/>
-      <c r="AM169" s="11"/>
-      <c r="AN169" s="11"/>
+      <c r="AM169" s="10"/>
+      <c r="AN169" s="10"/>
       <c r="AO169" s="11"/>
       <c r="AP169" s="11"/>
-      <c r="AQ169" s="5"/>
-    </row>
-    <row r="170" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ169" s="11"/>
+      <c r="AR169" s="11"/>
+      <c r="AS169" s="5"/>
+    </row>
+    <row r="170" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -10348,21 +10712,23 @@
       <c r="AB170" s="10"/>
       <c r="AC170" s="10"/>
       <c r="AD170" s="10"/>
-      <c r="AE170" s="11"/>
-      <c r="AF170" s="11"/>
+      <c r="AE170" s="10"/>
+      <c r="AF170" s="10"/>
       <c r="AG170" s="11"/>
-      <c r="AH170" s="10"/>
-      <c r="AI170" s="10"/>
+      <c r="AH170" s="11"/>
+      <c r="AI170" s="11"/>
       <c r="AJ170" s="10"/>
       <c r="AK170" s="10"/>
       <c r="AL170" s="10"/>
-      <c r="AM170" s="11"/>
-      <c r="AN170" s="11"/>
+      <c r="AM170" s="10"/>
+      <c r="AN170" s="10"/>
       <c r="AO170" s="11"/>
       <c r="AP170" s="11"/>
-      <c r="AQ170" s="5"/>
-    </row>
-    <row r="171" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ170" s="11"/>
+      <c r="AR170" s="11"/>
+      <c r="AS170" s="5"/>
+    </row>
+    <row r="171" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -10393,21 +10759,23 @@
       <c r="AB171" s="10"/>
       <c r="AC171" s="10"/>
       <c r="AD171" s="10"/>
-      <c r="AE171" s="11"/>
-      <c r="AF171" s="11"/>
+      <c r="AE171" s="10"/>
+      <c r="AF171" s="10"/>
       <c r="AG171" s="11"/>
-      <c r="AH171" s="10"/>
-      <c r="AI171" s="10"/>
+      <c r="AH171" s="11"/>
+      <c r="AI171" s="11"/>
       <c r="AJ171" s="10"/>
       <c r="AK171" s="10"/>
       <c r="AL171" s="10"/>
-      <c r="AM171" s="11"/>
-      <c r="AN171" s="11"/>
+      <c r="AM171" s="10"/>
+      <c r="AN171" s="10"/>
       <c r="AO171" s="11"/>
       <c r="AP171" s="11"/>
-      <c r="AQ171" s="5"/>
-    </row>
-    <row r="172" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ171" s="11"/>
+      <c r="AR171" s="11"/>
+      <c r="AS171" s="5"/>
+    </row>
+    <row r="172" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -10438,21 +10806,23 @@
       <c r="AB172" s="10"/>
       <c r="AC172" s="10"/>
       <c r="AD172" s="10"/>
-      <c r="AE172" s="11"/>
-      <c r="AF172" s="11"/>
+      <c r="AE172" s="10"/>
+      <c r="AF172" s="10"/>
       <c r="AG172" s="11"/>
-      <c r="AH172" s="10"/>
-      <c r="AI172" s="10"/>
+      <c r="AH172" s="11"/>
+      <c r="AI172" s="11"/>
       <c r="AJ172" s="10"/>
       <c r="AK172" s="10"/>
       <c r="AL172" s="10"/>
-      <c r="AM172" s="11"/>
-      <c r="AN172" s="11"/>
+      <c r="AM172" s="10"/>
+      <c r="AN172" s="10"/>
       <c r="AO172" s="11"/>
       <c r="AP172" s="11"/>
-      <c r="AQ172" s="5"/>
-    </row>
-    <row r="173" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ172" s="11"/>
+      <c r="AR172" s="11"/>
+      <c r="AS172" s="5"/>
+    </row>
+    <row r="173" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -10483,21 +10853,23 @@
       <c r="AB173" s="10"/>
       <c r="AC173" s="10"/>
       <c r="AD173" s="10"/>
-      <c r="AE173" s="11"/>
-      <c r="AF173" s="11"/>
+      <c r="AE173" s="10"/>
+      <c r="AF173" s="10"/>
       <c r="AG173" s="11"/>
-      <c r="AH173" s="10"/>
-      <c r="AI173" s="10"/>
+      <c r="AH173" s="11"/>
+      <c r="AI173" s="11"/>
       <c r="AJ173" s="10"/>
       <c r="AK173" s="10"/>
       <c r="AL173" s="10"/>
-      <c r="AM173" s="11"/>
-      <c r="AN173" s="11"/>
+      <c r="AM173" s="10"/>
+      <c r="AN173" s="10"/>
       <c r="AO173" s="11"/>
       <c r="AP173" s="11"/>
-      <c r="AQ173" s="5"/>
-    </row>
-    <row r="174" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ173" s="11"/>
+      <c r="AR173" s="11"/>
+      <c r="AS173" s="5"/>
+    </row>
+    <row r="174" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -10528,21 +10900,23 @@
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
       <c r="AD174" s="10"/>
-      <c r="AE174" s="11"/>
-      <c r="AF174" s="11"/>
+      <c r="AE174" s="10"/>
+      <c r="AF174" s="10"/>
       <c r="AG174" s="11"/>
-      <c r="AH174" s="10"/>
-      <c r="AI174" s="10"/>
+      <c r="AH174" s="11"/>
+      <c r="AI174" s="11"/>
       <c r="AJ174" s="10"/>
       <c r="AK174" s="10"/>
       <c r="AL174" s="10"/>
-      <c r="AM174" s="11"/>
-      <c r="AN174" s="11"/>
+      <c r="AM174" s="10"/>
+      <c r="AN174" s="10"/>
       <c r="AO174" s="11"/>
       <c r="AP174" s="11"/>
-      <c r="AQ174" s="5"/>
-    </row>
-    <row r="175" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ174" s="11"/>
+      <c r="AR174" s="11"/>
+      <c r="AS174" s="5"/>
+    </row>
+    <row r="175" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -10573,21 +10947,23 @@
       <c r="AB175" s="10"/>
       <c r="AC175" s="10"/>
       <c r="AD175" s="10"/>
-      <c r="AE175" s="11"/>
-      <c r="AF175" s="11"/>
+      <c r="AE175" s="10"/>
+      <c r="AF175" s="10"/>
       <c r="AG175" s="11"/>
-      <c r="AH175" s="10"/>
-      <c r="AI175" s="10"/>
+      <c r="AH175" s="11"/>
+      <c r="AI175" s="11"/>
       <c r="AJ175" s="10"/>
       <c r="AK175" s="10"/>
       <c r="AL175" s="10"/>
-      <c r="AM175" s="11"/>
-      <c r="AN175" s="11"/>
+      <c r="AM175" s="10"/>
+      <c r="AN175" s="10"/>
       <c r="AO175" s="11"/>
       <c r="AP175" s="11"/>
-      <c r="AQ175" s="5"/>
-    </row>
-    <row r="176" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ175" s="11"/>
+      <c r="AR175" s="11"/>
+      <c r="AS175" s="5"/>
+    </row>
+    <row r="176" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -10618,21 +10994,23 @@
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10"/>
-      <c r="AE176" s="11"/>
-      <c r="AF176" s="11"/>
+      <c r="AE176" s="10"/>
+      <c r="AF176" s="10"/>
       <c r="AG176" s="11"/>
-      <c r="AH176" s="10"/>
-      <c r="AI176" s="10"/>
+      <c r="AH176" s="11"/>
+      <c r="AI176" s="11"/>
       <c r="AJ176" s="10"/>
       <c r="AK176" s="10"/>
       <c r="AL176" s="10"/>
-      <c r="AM176" s="11"/>
-      <c r="AN176" s="11"/>
+      <c r="AM176" s="10"/>
+      <c r="AN176" s="10"/>
       <c r="AO176" s="11"/>
       <c r="AP176" s="11"/>
-      <c r="AQ176" s="5"/>
-    </row>
-    <row r="177" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ176" s="11"/>
+      <c r="AR176" s="11"/>
+      <c r="AS176" s="5"/>
+    </row>
+    <row r="177" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -10663,21 +11041,23 @@
       <c r="AB177" s="10"/>
       <c r="AC177" s="10"/>
       <c r="AD177" s="10"/>
-      <c r="AE177" s="11"/>
-      <c r="AF177" s="11"/>
+      <c r="AE177" s="10"/>
+      <c r="AF177" s="10"/>
       <c r="AG177" s="11"/>
-      <c r="AH177" s="10"/>
-      <c r="AI177" s="10"/>
+      <c r="AH177" s="11"/>
+      <c r="AI177" s="11"/>
       <c r="AJ177" s="10"/>
       <c r="AK177" s="10"/>
       <c r="AL177" s="10"/>
-      <c r="AM177" s="11"/>
-      <c r="AN177" s="11"/>
+      <c r="AM177" s="10"/>
+      <c r="AN177" s="10"/>
       <c r="AO177" s="11"/>
       <c r="AP177" s="11"/>
-      <c r="AQ177" s="5"/>
-    </row>
-    <row r="178" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ177" s="11"/>
+      <c r="AR177" s="11"/>
+      <c r="AS177" s="5"/>
+    </row>
+    <row r="178" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -10708,21 +11088,23 @@
       <c r="AB178" s="10"/>
       <c r="AC178" s="10"/>
       <c r="AD178" s="10"/>
-      <c r="AE178" s="11"/>
-      <c r="AF178" s="11"/>
+      <c r="AE178" s="10"/>
+      <c r="AF178" s="10"/>
       <c r="AG178" s="11"/>
-      <c r="AH178" s="10"/>
-      <c r="AI178" s="10"/>
+      <c r="AH178" s="11"/>
+      <c r="AI178" s="11"/>
       <c r="AJ178" s="10"/>
       <c r="AK178" s="10"/>
       <c r="AL178" s="10"/>
-      <c r="AM178" s="11"/>
-      <c r="AN178" s="11"/>
+      <c r="AM178" s="10"/>
+      <c r="AN178" s="10"/>
       <c r="AO178" s="11"/>
       <c r="AP178" s="11"/>
-      <c r="AQ178" s="5"/>
-    </row>
-    <row r="179" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ178" s="11"/>
+      <c r="AR178" s="11"/>
+      <c r="AS178" s="5"/>
+    </row>
+    <row r="179" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -10753,21 +11135,23 @@
       <c r="AB179" s="10"/>
       <c r="AC179" s="10"/>
       <c r="AD179" s="10"/>
-      <c r="AE179" s="11"/>
-      <c r="AF179" s="11"/>
+      <c r="AE179" s="10"/>
+      <c r="AF179" s="10"/>
       <c r="AG179" s="11"/>
-      <c r="AH179" s="10"/>
-      <c r="AI179" s="10"/>
+      <c r="AH179" s="11"/>
+      <c r="AI179" s="11"/>
       <c r="AJ179" s="10"/>
       <c r="AK179" s="10"/>
       <c r="AL179" s="10"/>
-      <c r="AM179" s="11"/>
-      <c r="AN179" s="11"/>
+      <c r="AM179" s="10"/>
+      <c r="AN179" s="10"/>
       <c r="AO179" s="11"/>
       <c r="AP179" s="11"/>
-      <c r="AQ179" s="5"/>
-    </row>
-    <row r="180" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ179" s="11"/>
+      <c r="AR179" s="11"/>
+      <c r="AS179" s="5"/>
+    </row>
+    <row r="180" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -10798,21 +11182,23 @@
       <c r="AB180" s="10"/>
       <c r="AC180" s="10"/>
       <c r="AD180" s="10"/>
-      <c r="AE180" s="11"/>
-      <c r="AF180" s="11"/>
+      <c r="AE180" s="10"/>
+      <c r="AF180" s="10"/>
       <c r="AG180" s="11"/>
-      <c r="AH180" s="10"/>
-      <c r="AI180" s="10"/>
+      <c r="AH180" s="11"/>
+      <c r="AI180" s="11"/>
       <c r="AJ180" s="10"/>
       <c r="AK180" s="10"/>
       <c r="AL180" s="10"/>
-      <c r="AM180" s="11"/>
-      <c r="AN180" s="11"/>
+      <c r="AM180" s="10"/>
+      <c r="AN180" s="10"/>
       <c r="AO180" s="11"/>
       <c r="AP180" s="11"/>
-      <c r="AQ180" s="5"/>
-    </row>
-    <row r="181" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ180" s="11"/>
+      <c r="AR180" s="11"/>
+      <c r="AS180" s="5"/>
+    </row>
+    <row r="181" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -10843,21 +11229,23 @@
       <c r="AB181" s="10"/>
       <c r="AC181" s="10"/>
       <c r="AD181" s="10"/>
-      <c r="AE181" s="11"/>
-      <c r="AF181" s="11"/>
+      <c r="AE181" s="10"/>
+      <c r="AF181" s="10"/>
       <c r="AG181" s="11"/>
-      <c r="AH181" s="10"/>
-      <c r="AI181" s="10"/>
+      <c r="AH181" s="11"/>
+      <c r="AI181" s="11"/>
       <c r="AJ181" s="10"/>
       <c r="AK181" s="10"/>
       <c r="AL181" s="10"/>
-      <c r="AM181" s="11"/>
-      <c r="AN181" s="11"/>
+      <c r="AM181" s="10"/>
+      <c r="AN181" s="10"/>
       <c r="AO181" s="11"/>
       <c r="AP181" s="11"/>
-      <c r="AQ181" s="5"/>
-    </row>
-    <row r="182" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ181" s="11"/>
+      <c r="AR181" s="11"/>
+      <c r="AS181" s="5"/>
+    </row>
+    <row r="182" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -10888,21 +11276,23 @@
       <c r="AB182" s="10"/>
       <c r="AC182" s="10"/>
       <c r="AD182" s="10"/>
-      <c r="AE182" s="11"/>
-      <c r="AF182" s="11"/>
+      <c r="AE182" s="10"/>
+      <c r="AF182" s="10"/>
       <c r="AG182" s="11"/>
-      <c r="AH182" s="10"/>
-      <c r="AI182" s="10"/>
+      <c r="AH182" s="11"/>
+      <c r="AI182" s="11"/>
       <c r="AJ182" s="10"/>
       <c r="AK182" s="10"/>
       <c r="AL182" s="10"/>
-      <c r="AM182" s="11"/>
-      <c r="AN182" s="11"/>
+      <c r="AM182" s="10"/>
+      <c r="AN182" s="10"/>
       <c r="AO182" s="11"/>
       <c r="AP182" s="11"/>
-      <c r="AQ182" s="5"/>
-    </row>
-    <row r="183" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ182" s="11"/>
+      <c r="AR182" s="11"/>
+      <c r="AS182" s="5"/>
+    </row>
+    <row r="183" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -10933,21 +11323,23 @@
       <c r="AB183" s="10"/>
       <c r="AC183" s="10"/>
       <c r="AD183" s="10"/>
-      <c r="AE183" s="11"/>
-      <c r="AF183" s="11"/>
+      <c r="AE183" s="10"/>
+      <c r="AF183" s="10"/>
       <c r="AG183" s="11"/>
-      <c r="AH183" s="10"/>
-      <c r="AI183" s="10"/>
+      <c r="AH183" s="11"/>
+      <c r="AI183" s="11"/>
       <c r="AJ183" s="10"/>
       <c r="AK183" s="10"/>
       <c r="AL183" s="10"/>
-      <c r="AM183" s="11"/>
-      <c r="AN183" s="11"/>
+      <c r="AM183" s="10"/>
+      <c r="AN183" s="10"/>
       <c r="AO183" s="11"/>
       <c r="AP183" s="11"/>
-      <c r="AQ183" s="5"/>
-    </row>
-    <row r="184" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ183" s="11"/>
+      <c r="AR183" s="11"/>
+      <c r="AS183" s="5"/>
+    </row>
+    <row r="184" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -10978,21 +11370,23 @@
       <c r="AB184" s="10"/>
       <c r="AC184" s="10"/>
       <c r="AD184" s="10"/>
-      <c r="AE184" s="11"/>
-      <c r="AF184" s="11"/>
+      <c r="AE184" s="10"/>
+      <c r="AF184" s="10"/>
       <c r="AG184" s="11"/>
-      <c r="AH184" s="10"/>
-      <c r="AI184" s="10"/>
+      <c r="AH184" s="11"/>
+      <c r="AI184" s="11"/>
       <c r="AJ184" s="10"/>
       <c r="AK184" s="10"/>
       <c r="AL184" s="10"/>
-      <c r="AM184" s="11"/>
-      <c r="AN184" s="11"/>
+      <c r="AM184" s="10"/>
+      <c r="AN184" s="10"/>
       <c r="AO184" s="11"/>
       <c r="AP184" s="11"/>
-      <c r="AQ184" s="5"/>
-    </row>
-    <row r="185" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ184" s="11"/>
+      <c r="AR184" s="11"/>
+      <c r="AS184" s="5"/>
+    </row>
+    <row r="185" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -11023,21 +11417,23 @@
       <c r="AB185" s="10"/>
       <c r="AC185" s="10"/>
       <c r="AD185" s="10"/>
-      <c r="AE185" s="11"/>
-      <c r="AF185" s="11"/>
+      <c r="AE185" s="10"/>
+      <c r="AF185" s="10"/>
       <c r="AG185" s="11"/>
-      <c r="AH185" s="10"/>
-      <c r="AI185" s="10"/>
+      <c r="AH185" s="11"/>
+      <c r="AI185" s="11"/>
       <c r="AJ185" s="10"/>
       <c r="AK185" s="10"/>
       <c r="AL185" s="10"/>
-      <c r="AM185" s="11"/>
-      <c r="AN185" s="11"/>
+      <c r="AM185" s="10"/>
+      <c r="AN185" s="10"/>
       <c r="AO185" s="11"/>
       <c r="AP185" s="11"/>
-      <c r="AQ185" s="5"/>
-    </row>
-    <row r="186" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ185" s="11"/>
+      <c r="AR185" s="11"/>
+      <c r="AS185" s="5"/>
+    </row>
+    <row r="186" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -11068,21 +11464,23 @@
       <c r="AB186" s="10"/>
       <c r="AC186" s="10"/>
       <c r="AD186" s="10"/>
-      <c r="AE186" s="11"/>
-      <c r="AF186" s="11"/>
+      <c r="AE186" s="10"/>
+      <c r="AF186" s="10"/>
       <c r="AG186" s="11"/>
-      <c r="AH186" s="10"/>
-      <c r="AI186" s="10"/>
+      <c r="AH186" s="11"/>
+      <c r="AI186" s="11"/>
       <c r="AJ186" s="10"/>
       <c r="AK186" s="10"/>
       <c r="AL186" s="10"/>
-      <c r="AM186" s="11"/>
-      <c r="AN186" s="11"/>
+      <c r="AM186" s="10"/>
+      <c r="AN186" s="10"/>
       <c r="AO186" s="11"/>
       <c r="AP186" s="11"/>
-      <c r="AQ186" s="5"/>
-    </row>
-    <row r="187" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ186" s="11"/>
+      <c r="AR186" s="11"/>
+      <c r="AS186" s="5"/>
+    </row>
+    <row r="187" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -11113,21 +11511,23 @@
       <c r="AB187" s="10"/>
       <c r="AC187" s="10"/>
       <c r="AD187" s="10"/>
-      <c r="AE187" s="11"/>
-      <c r="AF187" s="11"/>
+      <c r="AE187" s="10"/>
+      <c r="AF187" s="10"/>
       <c r="AG187" s="11"/>
-      <c r="AH187" s="10"/>
-      <c r="AI187" s="10"/>
+      <c r="AH187" s="11"/>
+      <c r="AI187" s="11"/>
       <c r="AJ187" s="10"/>
       <c r="AK187" s="10"/>
       <c r="AL187" s="10"/>
-      <c r="AM187" s="11"/>
-      <c r="AN187" s="11"/>
+      <c r="AM187" s="10"/>
+      <c r="AN187" s="10"/>
       <c r="AO187" s="11"/>
       <c r="AP187" s="11"/>
-      <c r="AQ187" s="5"/>
-    </row>
-    <row r="188" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ187" s="11"/>
+      <c r="AR187" s="11"/>
+      <c r="AS187" s="5"/>
+    </row>
+    <row r="188" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -11158,21 +11558,23 @@
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
       <c r="AD188" s="10"/>
-      <c r="AE188" s="11"/>
-      <c r="AF188" s="11"/>
+      <c r="AE188" s="10"/>
+      <c r="AF188" s="10"/>
       <c r="AG188" s="11"/>
-      <c r="AH188" s="10"/>
-      <c r="AI188" s="10"/>
+      <c r="AH188" s="11"/>
+      <c r="AI188" s="11"/>
       <c r="AJ188" s="10"/>
       <c r="AK188" s="10"/>
       <c r="AL188" s="10"/>
-      <c r="AM188" s="11"/>
-      <c r="AN188" s="11"/>
+      <c r="AM188" s="10"/>
+      <c r="AN188" s="10"/>
       <c r="AO188" s="11"/>
       <c r="AP188" s="11"/>
-      <c r="AQ188" s="5"/>
-    </row>
-    <row r="189" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ188" s="11"/>
+      <c r="AR188" s="11"/>
+      <c r="AS188" s="5"/>
+    </row>
+    <row r="189" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -11203,21 +11605,23 @@
       <c r="AB189" s="10"/>
       <c r="AC189" s="10"/>
       <c r="AD189" s="10"/>
-      <c r="AE189" s="11"/>
-      <c r="AF189" s="11"/>
+      <c r="AE189" s="10"/>
+      <c r="AF189" s="10"/>
       <c r="AG189" s="11"/>
-      <c r="AH189" s="10"/>
-      <c r="AI189" s="10"/>
+      <c r="AH189" s="11"/>
+      <c r="AI189" s="11"/>
       <c r="AJ189" s="10"/>
       <c r="AK189" s="10"/>
       <c r="AL189" s="10"/>
-      <c r="AM189" s="11"/>
-      <c r="AN189" s="11"/>
+      <c r="AM189" s="10"/>
+      <c r="AN189" s="10"/>
       <c r="AO189" s="11"/>
       <c r="AP189" s="11"/>
-      <c r="AQ189" s="5"/>
-    </row>
-    <row r="190" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ189" s="11"/>
+      <c r="AR189" s="11"/>
+      <c r="AS189" s="5"/>
+    </row>
+    <row r="190" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -11248,21 +11652,23 @@
       <c r="AB190" s="10"/>
       <c r="AC190" s="10"/>
       <c r="AD190" s="10"/>
-      <c r="AE190" s="11"/>
-      <c r="AF190" s="11"/>
+      <c r="AE190" s="10"/>
+      <c r="AF190" s="10"/>
       <c r="AG190" s="11"/>
-      <c r="AH190" s="10"/>
-      <c r="AI190" s="10"/>
+      <c r="AH190" s="11"/>
+      <c r="AI190" s="11"/>
       <c r="AJ190" s="10"/>
       <c r="AK190" s="10"/>
       <c r="AL190" s="10"/>
-      <c r="AM190" s="11"/>
-      <c r="AN190" s="11"/>
+      <c r="AM190" s="10"/>
+      <c r="AN190" s="10"/>
       <c r="AO190" s="11"/>
       <c r="AP190" s="11"/>
-      <c r="AQ190" s="5"/>
-    </row>
-    <row r="191" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ190" s="11"/>
+      <c r="AR190" s="11"/>
+      <c r="AS190" s="5"/>
+    </row>
+    <row r="191" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -11293,21 +11699,23 @@
       <c r="AB191" s="10"/>
       <c r="AC191" s="10"/>
       <c r="AD191" s="10"/>
-      <c r="AE191" s="11"/>
-      <c r="AF191" s="11"/>
+      <c r="AE191" s="10"/>
+      <c r="AF191" s="10"/>
       <c r="AG191" s="11"/>
-      <c r="AH191" s="10"/>
-      <c r="AI191" s="10"/>
+      <c r="AH191" s="11"/>
+      <c r="AI191" s="11"/>
       <c r="AJ191" s="10"/>
       <c r="AK191" s="10"/>
       <c r="AL191" s="10"/>
-      <c r="AM191" s="11"/>
-      <c r="AN191" s="11"/>
+      <c r="AM191" s="10"/>
+      <c r="AN191" s="10"/>
       <c r="AO191" s="11"/>
       <c r="AP191" s="11"/>
-      <c r="AQ191" s="5"/>
-    </row>
-    <row r="192" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ191" s="11"/>
+      <c r="AR191" s="11"/>
+      <c r="AS191" s="5"/>
+    </row>
+    <row r="192" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -11338,21 +11746,23 @@
       <c r="AB192" s="10"/>
       <c r="AC192" s="10"/>
       <c r="AD192" s="10"/>
-      <c r="AE192" s="11"/>
-      <c r="AF192" s="11"/>
+      <c r="AE192" s="10"/>
+      <c r="AF192" s="10"/>
       <c r="AG192" s="11"/>
-      <c r="AH192" s="10"/>
-      <c r="AI192" s="10"/>
+      <c r="AH192" s="11"/>
+      <c r="AI192" s="11"/>
       <c r="AJ192" s="10"/>
       <c r="AK192" s="10"/>
       <c r="AL192" s="10"/>
-      <c r="AM192" s="11"/>
-      <c r="AN192" s="11"/>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
       <c r="AO192" s="11"/>
       <c r="AP192" s="11"/>
-      <c r="AQ192" s="5"/>
-    </row>
-    <row r="193" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ192" s="11"/>
+      <c r="AR192" s="11"/>
+      <c r="AS192" s="5"/>
+    </row>
+    <row r="193" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -11383,21 +11793,23 @@
       <c r="AB193" s="10"/>
       <c r="AC193" s="10"/>
       <c r="AD193" s="10"/>
-      <c r="AE193" s="11"/>
-      <c r="AF193" s="11"/>
+      <c r="AE193" s="10"/>
+      <c r="AF193" s="10"/>
       <c r="AG193" s="11"/>
-      <c r="AH193" s="10"/>
-      <c r="AI193" s="10"/>
+      <c r="AH193" s="11"/>
+      <c r="AI193" s="11"/>
       <c r="AJ193" s="10"/>
       <c r="AK193" s="10"/>
       <c r="AL193" s="10"/>
-      <c r="AM193" s="11"/>
-      <c r="AN193" s="11"/>
+      <c r="AM193" s="10"/>
+      <c r="AN193" s="10"/>
       <c r="AO193" s="11"/>
       <c r="AP193" s="11"/>
-      <c r="AQ193" s="5"/>
-    </row>
-    <row r="194" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ193" s="11"/>
+      <c r="AR193" s="11"/>
+      <c r="AS193" s="5"/>
+    </row>
+    <row r="194" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -11428,21 +11840,23 @@
       <c r="AB194" s="10"/>
       <c r="AC194" s="10"/>
       <c r="AD194" s="10"/>
-      <c r="AE194" s="11"/>
-      <c r="AF194" s="11"/>
+      <c r="AE194" s="10"/>
+      <c r="AF194" s="10"/>
       <c r="AG194" s="11"/>
-      <c r="AH194" s="10"/>
-      <c r="AI194" s="10"/>
+      <c r="AH194" s="11"/>
+      <c r="AI194" s="11"/>
       <c r="AJ194" s="10"/>
       <c r="AK194" s="10"/>
       <c r="AL194" s="10"/>
-      <c r="AM194" s="11"/>
-      <c r="AN194" s="11"/>
+      <c r="AM194" s="10"/>
+      <c r="AN194" s="10"/>
       <c r="AO194" s="11"/>
       <c r="AP194" s="11"/>
-      <c r="AQ194" s="5"/>
-    </row>
-    <row r="195" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ194" s="11"/>
+      <c r="AR194" s="11"/>
+      <c r="AS194" s="5"/>
+    </row>
+    <row r="195" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -11473,21 +11887,23 @@
       <c r="AB195" s="10"/>
       <c r="AC195" s="10"/>
       <c r="AD195" s="10"/>
-      <c r="AE195" s="11"/>
-      <c r="AF195" s="11"/>
+      <c r="AE195" s="10"/>
+      <c r="AF195" s="10"/>
       <c r="AG195" s="11"/>
-      <c r="AH195" s="10"/>
-      <c r="AI195" s="10"/>
+      <c r="AH195" s="11"/>
+      <c r="AI195" s="11"/>
       <c r="AJ195" s="10"/>
       <c r="AK195" s="10"/>
       <c r="AL195" s="10"/>
-      <c r="AM195" s="11"/>
-      <c r="AN195" s="11"/>
+      <c r="AM195" s="10"/>
+      <c r="AN195" s="10"/>
       <c r="AO195" s="11"/>
       <c r="AP195" s="11"/>
-      <c r="AQ195" s="5"/>
-    </row>
-    <row r="196" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ195" s="11"/>
+      <c r="AR195" s="11"/>
+      <c r="AS195" s="5"/>
+    </row>
+    <row r="196" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -11518,21 +11934,23 @@
       <c r="AB196" s="10"/>
       <c r="AC196" s="10"/>
       <c r="AD196" s="10"/>
-      <c r="AE196" s="11"/>
-      <c r="AF196" s="11"/>
+      <c r="AE196" s="10"/>
+      <c r="AF196" s="10"/>
       <c r="AG196" s="11"/>
-      <c r="AH196" s="10"/>
-      <c r="AI196" s="10"/>
+      <c r="AH196" s="11"/>
+      <c r="AI196" s="11"/>
       <c r="AJ196" s="10"/>
       <c r="AK196" s="10"/>
       <c r="AL196" s="10"/>
-      <c r="AM196" s="11"/>
-      <c r="AN196" s="11"/>
+      <c r="AM196" s="10"/>
+      <c r="AN196" s="10"/>
       <c r="AO196" s="11"/>
       <c r="AP196" s="11"/>
-      <c r="AQ196" s="5"/>
-    </row>
-    <row r="197" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ196" s="11"/>
+      <c r="AR196" s="11"/>
+      <c r="AS196" s="5"/>
+    </row>
+    <row r="197" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -11563,21 +11981,23 @@
       <c r="AB197" s="10"/>
       <c r="AC197" s="10"/>
       <c r="AD197" s="10"/>
-      <c r="AE197" s="11"/>
-      <c r="AF197" s="11"/>
+      <c r="AE197" s="10"/>
+      <c r="AF197" s="10"/>
       <c r="AG197" s="11"/>
-      <c r="AH197" s="10"/>
-      <c r="AI197" s="10"/>
+      <c r="AH197" s="11"/>
+      <c r="AI197" s="11"/>
       <c r="AJ197" s="10"/>
       <c r="AK197" s="10"/>
       <c r="AL197" s="10"/>
-      <c r="AM197" s="11"/>
-      <c r="AN197" s="11"/>
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
       <c r="AO197" s="11"/>
       <c r="AP197" s="11"/>
-      <c r="AQ197" s="5"/>
-    </row>
-    <row r="198" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ197" s="11"/>
+      <c r="AR197" s="11"/>
+      <c r="AS197" s="5"/>
+    </row>
+    <row r="198" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -11608,21 +12028,23 @@
       <c r="AB198" s="10"/>
       <c r="AC198" s="10"/>
       <c r="AD198" s="10"/>
-      <c r="AE198" s="11"/>
-      <c r="AF198" s="11"/>
+      <c r="AE198" s="10"/>
+      <c r="AF198" s="10"/>
       <c r="AG198" s="11"/>
-      <c r="AH198" s="10"/>
-      <c r="AI198" s="10"/>
+      <c r="AH198" s="11"/>
+      <c r="AI198" s="11"/>
       <c r="AJ198" s="10"/>
       <c r="AK198" s="10"/>
       <c r="AL198" s="10"/>
-      <c r="AM198" s="11"/>
-      <c r="AN198" s="11"/>
+      <c r="AM198" s="10"/>
+      <c r="AN198" s="10"/>
       <c r="AO198" s="11"/>
       <c r="AP198" s="11"/>
-      <c r="AQ198" s="5"/>
-    </row>
-    <row r="199" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ198" s="11"/>
+      <c r="AR198" s="11"/>
+      <c r="AS198" s="5"/>
+    </row>
+    <row r="199" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -11653,21 +12075,23 @@
       <c r="AB199" s="10"/>
       <c r="AC199" s="10"/>
       <c r="AD199" s="10"/>
-      <c r="AE199" s="11"/>
-      <c r="AF199" s="11"/>
+      <c r="AE199" s="10"/>
+      <c r="AF199" s="10"/>
       <c r="AG199" s="11"/>
-      <c r="AH199" s="10"/>
-      <c r="AI199" s="10"/>
+      <c r="AH199" s="11"/>
+      <c r="AI199" s="11"/>
       <c r="AJ199" s="10"/>
       <c r="AK199" s="10"/>
       <c r="AL199" s="10"/>
-      <c r="AM199" s="11"/>
-      <c r="AN199" s="11"/>
+      <c r="AM199" s="10"/>
+      <c r="AN199" s="10"/>
       <c r="AO199" s="11"/>
       <c r="AP199" s="11"/>
-      <c r="AQ199" s="5"/>
-    </row>
-    <row r="200" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ199" s="11"/>
+      <c r="AR199" s="11"/>
+      <c r="AS199" s="5"/>
+    </row>
+    <row r="200" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -11698,21 +12122,23 @@
       <c r="AB200" s="10"/>
       <c r="AC200" s="10"/>
       <c r="AD200" s="10"/>
-      <c r="AE200" s="11"/>
-      <c r="AF200" s="11"/>
+      <c r="AE200" s="10"/>
+      <c r="AF200" s="10"/>
       <c r="AG200" s="11"/>
-      <c r="AH200" s="10"/>
-      <c r="AI200" s="10"/>
+      <c r="AH200" s="11"/>
+      <c r="AI200" s="11"/>
       <c r="AJ200" s="10"/>
       <c r="AK200" s="10"/>
       <c r="AL200" s="10"/>
-      <c r="AM200" s="11"/>
-      <c r="AN200" s="11"/>
+      <c r="AM200" s="10"/>
+      <c r="AN200" s="10"/>
       <c r="AO200" s="11"/>
       <c r="AP200" s="11"/>
-      <c r="AQ200" s="5"/>
-    </row>
-    <row r="201" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ200" s="11"/>
+      <c r="AR200" s="11"/>
+      <c r="AS200" s="5"/>
+    </row>
+    <row r="201" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -11743,21 +12169,23 @@
       <c r="AB201" s="10"/>
       <c r="AC201" s="10"/>
       <c r="AD201" s="10"/>
-      <c r="AE201" s="11"/>
-      <c r="AF201" s="11"/>
+      <c r="AE201" s="10"/>
+      <c r="AF201" s="10"/>
       <c r="AG201" s="11"/>
-      <c r="AH201" s="10"/>
-      <c r="AI201" s="10"/>
+      <c r="AH201" s="11"/>
+      <c r="AI201" s="11"/>
       <c r="AJ201" s="10"/>
       <c r="AK201" s="10"/>
       <c r="AL201" s="10"/>
-      <c r="AM201" s="11"/>
-      <c r="AN201" s="11"/>
+      <c r="AM201" s="10"/>
+      <c r="AN201" s="10"/>
       <c r="AO201" s="11"/>
       <c r="AP201" s="11"/>
-      <c r="AQ201" s="5"/>
-    </row>
-    <row r="202" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ201" s="11"/>
+      <c r="AR201" s="11"/>
+      <c r="AS201" s="5"/>
+    </row>
+    <row r="202" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -11788,21 +12216,23 @@
       <c r="AB202" s="10"/>
       <c r="AC202" s="10"/>
       <c r="AD202" s="10"/>
-      <c r="AE202" s="11"/>
-      <c r="AF202" s="11"/>
+      <c r="AE202" s="10"/>
+      <c r="AF202" s="10"/>
       <c r="AG202" s="11"/>
-      <c r="AH202" s="10"/>
-      <c r="AI202" s="10"/>
+      <c r="AH202" s="11"/>
+      <c r="AI202" s="11"/>
       <c r="AJ202" s="10"/>
       <c r="AK202" s="10"/>
       <c r="AL202" s="10"/>
-      <c r="AM202" s="11"/>
-      <c r="AN202" s="11"/>
+      <c r="AM202" s="10"/>
+      <c r="AN202" s="10"/>
       <c r="AO202" s="11"/>
       <c r="AP202" s="11"/>
-      <c r="AQ202" s="5"/>
-    </row>
-    <row r="203" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ202" s="11"/>
+      <c r="AR202" s="11"/>
+      <c r="AS202" s="5"/>
+    </row>
+    <row r="203" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -11833,21 +12263,23 @@
       <c r="AB203" s="10"/>
       <c r="AC203" s="10"/>
       <c r="AD203" s="10"/>
-      <c r="AE203" s="11"/>
-      <c r="AF203" s="11"/>
+      <c r="AE203" s="10"/>
+      <c r="AF203" s="10"/>
       <c r="AG203" s="11"/>
-      <c r="AH203" s="10"/>
-      <c r="AI203" s="10"/>
+      <c r="AH203" s="11"/>
+      <c r="AI203" s="11"/>
       <c r="AJ203" s="10"/>
       <c r="AK203" s="10"/>
       <c r="AL203" s="10"/>
-      <c r="AM203" s="11"/>
-      <c r="AN203" s="11"/>
+      <c r="AM203" s="10"/>
+      <c r="AN203" s="10"/>
       <c r="AO203" s="11"/>
       <c r="AP203" s="11"/>
-      <c r="AQ203" s="5"/>
-    </row>
-    <row r="204" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ203" s="11"/>
+      <c r="AR203" s="11"/>
+      <c r="AS203" s="5"/>
+    </row>
+    <row r="204" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -11878,21 +12310,23 @@
       <c r="AB204" s="10"/>
       <c r="AC204" s="10"/>
       <c r="AD204" s="10"/>
-      <c r="AE204" s="11"/>
-      <c r="AF204" s="11"/>
+      <c r="AE204" s="10"/>
+      <c r="AF204" s="10"/>
       <c r="AG204" s="11"/>
-      <c r="AH204" s="10"/>
-      <c r="AI204" s="10"/>
+      <c r="AH204" s="11"/>
+      <c r="AI204" s="11"/>
       <c r="AJ204" s="10"/>
       <c r="AK204" s="10"/>
       <c r="AL204" s="10"/>
-      <c r="AM204" s="11"/>
-      <c r="AN204" s="11"/>
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
       <c r="AO204" s="11"/>
       <c r="AP204" s="11"/>
-      <c r="AQ204" s="5"/>
-    </row>
-    <row r="205" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ204" s="11"/>
+      <c r="AR204" s="11"/>
+      <c r="AS204" s="5"/>
+    </row>
+    <row r="205" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -11923,21 +12357,23 @@
       <c r="AB205" s="10"/>
       <c r="AC205" s="10"/>
       <c r="AD205" s="10"/>
-      <c r="AE205" s="11"/>
-      <c r="AF205" s="11"/>
+      <c r="AE205" s="10"/>
+      <c r="AF205" s="10"/>
       <c r="AG205" s="11"/>
-      <c r="AH205" s="10"/>
-      <c r="AI205" s="10"/>
+      <c r="AH205" s="11"/>
+      <c r="AI205" s="11"/>
       <c r="AJ205" s="10"/>
       <c r="AK205" s="10"/>
       <c r="AL205" s="10"/>
-      <c r="AM205" s="11"/>
-      <c r="AN205" s="11"/>
+      <c r="AM205" s="10"/>
+      <c r="AN205" s="10"/>
       <c r="AO205" s="11"/>
       <c r="AP205" s="11"/>
-      <c r="AQ205" s="5"/>
-    </row>
-    <row r="206" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ205" s="11"/>
+      <c r="AR205" s="11"/>
+      <c r="AS205" s="5"/>
+    </row>
+    <row r="206" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -11968,21 +12404,23 @@
       <c r="AB206" s="10"/>
       <c r="AC206" s="10"/>
       <c r="AD206" s="10"/>
-      <c r="AE206" s="11"/>
-      <c r="AF206" s="11"/>
+      <c r="AE206" s="10"/>
+      <c r="AF206" s="10"/>
       <c r="AG206" s="11"/>
-      <c r="AH206" s="10"/>
-      <c r="AI206" s="10"/>
+      <c r="AH206" s="11"/>
+      <c r="AI206" s="11"/>
       <c r="AJ206" s="10"/>
       <c r="AK206" s="10"/>
       <c r="AL206" s="10"/>
-      <c r="AM206" s="11"/>
-      <c r="AN206" s="11"/>
+      <c r="AM206" s="10"/>
+      <c r="AN206" s="10"/>
       <c r="AO206" s="11"/>
       <c r="AP206" s="11"/>
-      <c r="AQ206" s="5"/>
-    </row>
-    <row r="207" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ206" s="11"/>
+      <c r="AR206" s="11"/>
+      <c r="AS206" s="5"/>
+    </row>
+    <row r="207" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -12013,21 +12451,23 @@
       <c r="AB207" s="10"/>
       <c r="AC207" s="10"/>
       <c r="AD207" s="10"/>
-      <c r="AE207" s="11"/>
-      <c r="AF207" s="11"/>
+      <c r="AE207" s="10"/>
+      <c r="AF207" s="10"/>
       <c r="AG207" s="11"/>
-      <c r="AH207" s="10"/>
-      <c r="AI207" s="10"/>
+      <c r="AH207" s="11"/>
+      <c r="AI207" s="11"/>
       <c r="AJ207" s="10"/>
       <c r="AK207" s="10"/>
       <c r="AL207" s="10"/>
-      <c r="AM207" s="11"/>
-      <c r="AN207" s="11"/>
+      <c r="AM207" s="10"/>
+      <c r="AN207" s="10"/>
       <c r="AO207" s="11"/>
       <c r="AP207" s="11"/>
-      <c r="AQ207" s="5"/>
-    </row>
-    <row r="208" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ207" s="11"/>
+      <c r="AR207" s="11"/>
+      <c r="AS207" s="5"/>
+    </row>
+    <row r="208" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -12058,21 +12498,23 @@
       <c r="AB208" s="10"/>
       <c r="AC208" s="10"/>
       <c r="AD208" s="10"/>
-      <c r="AE208" s="11"/>
-      <c r="AF208" s="11"/>
+      <c r="AE208" s="10"/>
+      <c r="AF208" s="10"/>
       <c r="AG208" s="11"/>
-      <c r="AH208" s="10"/>
-      <c r="AI208" s="10"/>
+      <c r="AH208" s="11"/>
+      <c r="AI208" s="11"/>
       <c r="AJ208" s="10"/>
       <c r="AK208" s="10"/>
       <c r="AL208" s="10"/>
-      <c r="AM208" s="11"/>
-      <c r="AN208" s="11"/>
+      <c r="AM208" s="10"/>
+      <c r="AN208" s="10"/>
       <c r="AO208" s="11"/>
       <c r="AP208" s="11"/>
-      <c r="AQ208" s="5"/>
-    </row>
-    <row r="209" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ208" s="11"/>
+      <c r="AR208" s="11"/>
+      <c r="AS208" s="5"/>
+    </row>
+    <row r="209" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -12103,21 +12545,23 @@
       <c r="AB209" s="10"/>
       <c r="AC209" s="10"/>
       <c r="AD209" s="10"/>
-      <c r="AE209" s="11"/>
-      <c r="AF209" s="11"/>
+      <c r="AE209" s="10"/>
+      <c r="AF209" s="10"/>
       <c r="AG209" s="11"/>
-      <c r="AH209" s="10"/>
-      <c r="AI209" s="10"/>
+      <c r="AH209" s="11"/>
+      <c r="AI209" s="11"/>
       <c r="AJ209" s="10"/>
       <c r="AK209" s="10"/>
       <c r="AL209" s="10"/>
-      <c r="AM209" s="11"/>
-      <c r="AN209" s="11"/>
+      <c r="AM209" s="10"/>
+      <c r="AN209" s="10"/>
       <c r="AO209" s="11"/>
       <c r="AP209" s="11"/>
-      <c r="AQ209" s="5"/>
-    </row>
-    <row r="210" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ209" s="11"/>
+      <c r="AR209" s="11"/>
+      <c r="AS209" s="5"/>
+    </row>
+    <row r="210" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -12148,21 +12592,23 @@
       <c r="AB210" s="10"/>
       <c r="AC210" s="10"/>
       <c r="AD210" s="10"/>
-      <c r="AE210" s="11"/>
-      <c r="AF210" s="11"/>
+      <c r="AE210" s="10"/>
+      <c r="AF210" s="10"/>
       <c r="AG210" s="11"/>
-      <c r="AH210" s="10"/>
-      <c r="AI210" s="10"/>
+      <c r="AH210" s="11"/>
+      <c r="AI210" s="11"/>
       <c r="AJ210" s="10"/>
       <c r="AK210" s="10"/>
       <c r="AL210" s="10"/>
-      <c r="AM210" s="11"/>
-      <c r="AN210" s="11"/>
+      <c r="AM210" s="10"/>
+      <c r="AN210" s="10"/>
       <c r="AO210" s="11"/>
       <c r="AP210" s="11"/>
-      <c r="AQ210" s="5"/>
-    </row>
-    <row r="211" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ210" s="11"/>
+      <c r="AR210" s="11"/>
+      <c r="AS210" s="5"/>
+    </row>
+    <row r="211" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -12193,21 +12639,23 @@
       <c r="AB211" s="10"/>
       <c r="AC211" s="10"/>
       <c r="AD211" s="10"/>
-      <c r="AE211" s="11"/>
-      <c r="AF211" s="11"/>
+      <c r="AE211" s="10"/>
+      <c r="AF211" s="10"/>
       <c r="AG211" s="11"/>
-      <c r="AH211" s="10"/>
-      <c r="AI211" s="10"/>
+      <c r="AH211" s="11"/>
+      <c r="AI211" s="11"/>
       <c r="AJ211" s="10"/>
       <c r="AK211" s="10"/>
       <c r="AL211" s="10"/>
-      <c r="AM211" s="11"/>
-      <c r="AN211" s="11"/>
+      <c r="AM211" s="10"/>
+      <c r="AN211" s="10"/>
       <c r="AO211" s="11"/>
       <c r="AP211" s="11"/>
-      <c r="AQ211" s="5"/>
-    </row>
-    <row r="212" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ211" s="11"/>
+      <c r="AR211" s="11"/>
+      <c r="AS211" s="5"/>
+    </row>
+    <row r="212" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -12238,21 +12686,23 @@
       <c r="AB212" s="10"/>
       <c r="AC212" s="10"/>
       <c r="AD212" s="10"/>
-      <c r="AE212" s="11"/>
-      <c r="AF212" s="11"/>
+      <c r="AE212" s="10"/>
+      <c r="AF212" s="10"/>
       <c r="AG212" s="11"/>
-      <c r="AH212" s="10"/>
-      <c r="AI212" s="10"/>
+      <c r="AH212" s="11"/>
+      <c r="AI212" s="11"/>
       <c r="AJ212" s="10"/>
       <c r="AK212" s="10"/>
       <c r="AL212" s="10"/>
-      <c r="AM212" s="11"/>
-      <c r="AN212" s="11"/>
+      <c r="AM212" s="10"/>
+      <c r="AN212" s="10"/>
       <c r="AO212" s="11"/>
       <c r="AP212" s="11"/>
-      <c r="AQ212" s="5"/>
-    </row>
-    <row r="213" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ212" s="11"/>
+      <c r="AR212" s="11"/>
+      <c r="AS212" s="5"/>
+    </row>
+    <row r="213" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -12283,21 +12733,23 @@
       <c r="AB213" s="10"/>
       <c r="AC213" s="10"/>
       <c r="AD213" s="10"/>
-      <c r="AE213" s="11"/>
-      <c r="AF213" s="11"/>
+      <c r="AE213" s="10"/>
+      <c r="AF213" s="10"/>
       <c r="AG213" s="11"/>
-      <c r="AH213" s="10"/>
-      <c r="AI213" s="10"/>
+      <c r="AH213" s="11"/>
+      <c r="AI213" s="11"/>
       <c r="AJ213" s="10"/>
       <c r="AK213" s="10"/>
       <c r="AL213" s="10"/>
-      <c r="AM213" s="11"/>
-      <c r="AN213" s="11"/>
+      <c r="AM213" s="10"/>
+      <c r="AN213" s="10"/>
       <c r="AO213" s="11"/>
       <c r="AP213" s="11"/>
-      <c r="AQ213" s="5"/>
-    </row>
-    <row r="214" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ213" s="11"/>
+      <c r="AR213" s="11"/>
+      <c r="AS213" s="5"/>
+    </row>
+    <row r="214" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -12328,21 +12780,23 @@
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
       <c r="AD214" s="10"/>
-      <c r="AE214" s="11"/>
-      <c r="AF214" s="11"/>
+      <c r="AE214" s="10"/>
+      <c r="AF214" s="10"/>
       <c r="AG214" s="11"/>
-      <c r="AH214" s="10"/>
-      <c r="AI214" s="10"/>
+      <c r="AH214" s="11"/>
+      <c r="AI214" s="11"/>
       <c r="AJ214" s="10"/>
       <c r="AK214" s="10"/>
       <c r="AL214" s="10"/>
-      <c r="AM214" s="11"/>
-      <c r="AN214" s="11"/>
+      <c r="AM214" s="10"/>
+      <c r="AN214" s="10"/>
       <c r="AO214" s="11"/>
       <c r="AP214" s="11"/>
-      <c r="AQ214" s="5"/>
-    </row>
-    <row r="215" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ214" s="11"/>
+      <c r="AR214" s="11"/>
+      <c r="AS214" s="5"/>
+    </row>
+    <row r="215" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -12373,21 +12827,23 @@
       <c r="AB215" s="10"/>
       <c r="AC215" s="10"/>
       <c r="AD215" s="10"/>
-      <c r="AE215" s="11"/>
-      <c r="AF215" s="11"/>
+      <c r="AE215" s="10"/>
+      <c r="AF215" s="10"/>
       <c r="AG215" s="11"/>
-      <c r="AH215" s="10"/>
-      <c r="AI215" s="10"/>
+      <c r="AH215" s="11"/>
+      <c r="AI215" s="11"/>
       <c r="AJ215" s="10"/>
       <c r="AK215" s="10"/>
       <c r="AL215" s="10"/>
-      <c r="AM215" s="11"/>
-      <c r="AN215" s="11"/>
+      <c r="AM215" s="10"/>
+      <c r="AN215" s="10"/>
       <c r="AO215" s="11"/>
       <c r="AP215" s="11"/>
-      <c r="AQ215" s="5"/>
-    </row>
-    <row r="216" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ215" s="11"/>
+      <c r="AR215" s="11"/>
+      <c r="AS215" s="5"/>
+    </row>
+    <row r="216" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -12418,21 +12874,23 @@
       <c r="AB216" s="10"/>
       <c r="AC216" s="10"/>
       <c r="AD216" s="10"/>
-      <c r="AE216" s="11"/>
-      <c r="AF216" s="11"/>
+      <c r="AE216" s="10"/>
+      <c r="AF216" s="10"/>
       <c r="AG216" s="11"/>
-      <c r="AH216" s="10"/>
-      <c r="AI216" s="10"/>
+      <c r="AH216" s="11"/>
+      <c r="AI216" s="11"/>
       <c r="AJ216" s="10"/>
       <c r="AK216" s="10"/>
       <c r="AL216" s="10"/>
-      <c r="AM216" s="11"/>
-      <c r="AN216" s="11"/>
+      <c r="AM216" s="10"/>
+      <c r="AN216" s="10"/>
       <c r="AO216" s="11"/>
       <c r="AP216" s="11"/>
-      <c r="AQ216" s="5"/>
-    </row>
-    <row r="217" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ216" s="11"/>
+      <c r="AR216" s="11"/>
+      <c r="AS216" s="5"/>
+    </row>
+    <row r="217" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -12463,21 +12921,23 @@
       <c r="AB217" s="10"/>
       <c r="AC217" s="10"/>
       <c r="AD217" s="10"/>
-      <c r="AE217" s="11"/>
-      <c r="AF217" s="11"/>
+      <c r="AE217" s="10"/>
+      <c r="AF217" s="10"/>
       <c r="AG217" s="11"/>
-      <c r="AH217" s="10"/>
-      <c r="AI217" s="10"/>
+      <c r="AH217" s="11"/>
+      <c r="AI217" s="11"/>
       <c r="AJ217" s="10"/>
       <c r="AK217" s="10"/>
       <c r="AL217" s="10"/>
-      <c r="AM217" s="11"/>
-      <c r="AN217" s="11"/>
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
       <c r="AO217" s="11"/>
       <c r="AP217" s="11"/>
-      <c r="AQ217" s="5"/>
-    </row>
-    <row r="218" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ217" s="11"/>
+      <c r="AR217" s="11"/>
+      <c r="AS217" s="5"/>
+    </row>
+    <row r="218" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -12508,21 +12968,23 @@
       <c r="AB218" s="10"/>
       <c r="AC218" s="10"/>
       <c r="AD218" s="10"/>
-      <c r="AE218" s="11"/>
-      <c r="AF218" s="11"/>
+      <c r="AE218" s="10"/>
+      <c r="AF218" s="10"/>
       <c r="AG218" s="11"/>
-      <c r="AH218" s="10"/>
-      <c r="AI218" s="10"/>
+      <c r="AH218" s="11"/>
+      <c r="AI218" s="11"/>
       <c r="AJ218" s="10"/>
       <c r="AK218" s="10"/>
       <c r="AL218" s="10"/>
-      <c r="AM218" s="11"/>
-      <c r="AN218" s="11"/>
+      <c r="AM218" s="10"/>
+      <c r="AN218" s="10"/>
       <c r="AO218" s="11"/>
       <c r="AP218" s="11"/>
-      <c r="AQ218" s="5"/>
-    </row>
-    <row r="219" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ218" s="11"/>
+      <c r="AR218" s="11"/>
+      <c r="AS218" s="5"/>
+    </row>
+    <row r="219" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -12553,21 +13015,23 @@
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
       <c r="AD219" s="10"/>
-      <c r="AE219" s="11"/>
-      <c r="AF219" s="11"/>
+      <c r="AE219" s="10"/>
+      <c r="AF219" s="10"/>
       <c r="AG219" s="11"/>
-      <c r="AH219" s="10"/>
-      <c r="AI219" s="10"/>
+      <c r="AH219" s="11"/>
+      <c r="AI219" s="11"/>
       <c r="AJ219" s="10"/>
       <c r="AK219" s="10"/>
       <c r="AL219" s="10"/>
-      <c r="AM219" s="11"/>
-      <c r="AN219" s="11"/>
+      <c r="AM219" s="10"/>
+      <c r="AN219" s="10"/>
       <c r="AO219" s="11"/>
       <c r="AP219" s="11"/>
-      <c r="AQ219" s="5"/>
-    </row>
-    <row r="220" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ219" s="11"/>
+      <c r="AR219" s="11"/>
+      <c r="AS219" s="5"/>
+    </row>
+    <row r="220" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -12598,21 +13062,23 @@
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
-      <c r="AE220" s="11"/>
-      <c r="AF220" s="11"/>
+      <c r="AE220" s="10"/>
+      <c r="AF220" s="10"/>
       <c r="AG220" s="11"/>
-      <c r="AH220" s="10"/>
-      <c r="AI220" s="10"/>
+      <c r="AH220" s="11"/>
+      <c r="AI220" s="11"/>
       <c r="AJ220" s="10"/>
       <c r="AK220" s="10"/>
       <c r="AL220" s="10"/>
-      <c r="AM220" s="11"/>
-      <c r="AN220" s="11"/>
+      <c r="AM220" s="10"/>
+      <c r="AN220" s="10"/>
       <c r="AO220" s="11"/>
       <c r="AP220" s="11"/>
-      <c r="AQ220" s="5"/>
-    </row>
-    <row r="221" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ220" s="11"/>
+      <c r="AR220" s="11"/>
+      <c r="AS220" s="5"/>
+    </row>
+    <row r="221" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -12643,21 +13109,23 @@
       <c r="AB221" s="10"/>
       <c r="AC221" s="10"/>
       <c r="AD221" s="10"/>
-      <c r="AE221" s="11"/>
-      <c r="AF221" s="11"/>
+      <c r="AE221" s="10"/>
+      <c r="AF221" s="10"/>
       <c r="AG221" s="11"/>
-      <c r="AH221" s="10"/>
-      <c r="AI221" s="10"/>
+      <c r="AH221" s="11"/>
+      <c r="AI221" s="11"/>
       <c r="AJ221" s="10"/>
       <c r="AK221" s="10"/>
       <c r="AL221" s="10"/>
-      <c r="AM221" s="11"/>
-      <c r="AN221" s="11"/>
+      <c r="AM221" s="10"/>
+      <c r="AN221" s="10"/>
       <c r="AO221" s="11"/>
       <c r="AP221" s="11"/>
-      <c r="AQ221" s="5"/>
-    </row>
-    <row r="222" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ221" s="11"/>
+      <c r="AR221" s="11"/>
+      <c r="AS221" s="5"/>
+    </row>
+    <row r="222" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -12688,21 +13156,23 @@
       <c r="AB222" s="10"/>
       <c r="AC222" s="10"/>
       <c r="AD222" s="10"/>
-      <c r="AE222" s="11"/>
-      <c r="AF222" s="11"/>
+      <c r="AE222" s="10"/>
+      <c r="AF222" s="10"/>
       <c r="AG222" s="11"/>
-      <c r="AH222" s="10"/>
-      <c r="AI222" s="10"/>
+      <c r="AH222" s="11"/>
+      <c r="AI222" s="11"/>
       <c r="AJ222" s="10"/>
       <c r="AK222" s="10"/>
       <c r="AL222" s="10"/>
-      <c r="AM222" s="11"/>
-      <c r="AN222" s="11"/>
+      <c r="AM222" s="10"/>
+      <c r="AN222" s="10"/>
       <c r="AO222" s="11"/>
       <c r="AP222" s="11"/>
-      <c r="AQ222" s="5"/>
-    </row>
-    <row r="223" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ222" s="11"/>
+      <c r="AR222" s="11"/>
+      <c r="AS222" s="5"/>
+    </row>
+    <row r="223" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -12733,21 +13203,23 @@
       <c r="AB223" s="10"/>
       <c r="AC223" s="10"/>
       <c r="AD223" s="10"/>
-      <c r="AE223" s="11"/>
-      <c r="AF223" s="11"/>
+      <c r="AE223" s="10"/>
+      <c r="AF223" s="10"/>
       <c r="AG223" s="11"/>
-      <c r="AH223" s="10"/>
-      <c r="AI223" s="10"/>
+      <c r="AH223" s="11"/>
+      <c r="AI223" s="11"/>
       <c r="AJ223" s="10"/>
       <c r="AK223" s="10"/>
       <c r="AL223" s="10"/>
-      <c r="AM223" s="11"/>
-      <c r="AN223" s="11"/>
+      <c r="AM223" s="10"/>
+      <c r="AN223" s="10"/>
       <c r="AO223" s="11"/>
       <c r="AP223" s="11"/>
-      <c r="AQ223" s="5"/>
-    </row>
-    <row r="224" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ223" s="11"/>
+      <c r="AR223" s="11"/>
+      <c r="AS223" s="5"/>
+    </row>
+    <row r="224" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -12778,21 +13250,23 @@
       <c r="AB224" s="10"/>
       <c r="AC224" s="10"/>
       <c r="AD224" s="10"/>
-      <c r="AE224" s="11"/>
-      <c r="AF224" s="11"/>
+      <c r="AE224" s="10"/>
+      <c r="AF224" s="10"/>
       <c r="AG224" s="11"/>
-      <c r="AH224" s="10"/>
-      <c r="AI224" s="10"/>
+      <c r="AH224" s="11"/>
+      <c r="AI224" s="11"/>
       <c r="AJ224" s="10"/>
       <c r="AK224" s="10"/>
       <c r="AL224" s="10"/>
-      <c r="AM224" s="11"/>
-      <c r="AN224" s="11"/>
+      <c r="AM224" s="10"/>
+      <c r="AN224" s="10"/>
       <c r="AO224" s="11"/>
       <c r="AP224" s="11"/>
-      <c r="AQ224" s="5"/>
-    </row>
-    <row r="225" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ224" s="11"/>
+      <c r="AR224" s="11"/>
+      <c r="AS224" s="5"/>
+    </row>
+    <row r="225" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -12823,21 +13297,23 @@
       <c r="AB225" s="10"/>
       <c r="AC225" s="10"/>
       <c r="AD225" s="10"/>
-      <c r="AE225" s="11"/>
-      <c r="AF225" s="11"/>
+      <c r="AE225" s="10"/>
+      <c r="AF225" s="10"/>
       <c r="AG225" s="11"/>
-      <c r="AH225" s="10"/>
-      <c r="AI225" s="10"/>
+      <c r="AH225" s="11"/>
+      <c r="AI225" s="11"/>
       <c r="AJ225" s="10"/>
       <c r="AK225" s="10"/>
       <c r="AL225" s="10"/>
-      <c r="AM225" s="11"/>
-      <c r="AN225" s="11"/>
+      <c r="AM225" s="10"/>
+      <c r="AN225" s="10"/>
       <c r="AO225" s="11"/>
       <c r="AP225" s="11"/>
-      <c r="AQ225" s="5"/>
-    </row>
-    <row r="226" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ225" s="11"/>
+      <c r="AR225" s="11"/>
+      <c r="AS225" s="5"/>
+    </row>
+    <row r="226" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -12868,21 +13344,23 @@
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10"/>
-      <c r="AE226" s="11"/>
-      <c r="AF226" s="11"/>
+      <c r="AE226" s="10"/>
+      <c r="AF226" s="10"/>
       <c r="AG226" s="11"/>
-      <c r="AH226" s="10"/>
-      <c r="AI226" s="10"/>
+      <c r="AH226" s="11"/>
+      <c r="AI226" s="11"/>
       <c r="AJ226" s="10"/>
       <c r="AK226" s="10"/>
       <c r="AL226" s="10"/>
-      <c r="AM226" s="11"/>
-      <c r="AN226" s="11"/>
+      <c r="AM226" s="10"/>
+      <c r="AN226" s="10"/>
       <c r="AO226" s="11"/>
       <c r="AP226" s="11"/>
-      <c r="AQ226" s="5"/>
-    </row>
-    <row r="227" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ226" s="11"/>
+      <c r="AR226" s="11"/>
+      <c r="AS226" s="5"/>
+    </row>
+    <row r="227" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -12913,21 +13391,23 @@
       <c r="AB227" s="10"/>
       <c r="AC227" s="10"/>
       <c r="AD227" s="10"/>
-      <c r="AE227" s="11"/>
-      <c r="AF227" s="11"/>
+      <c r="AE227" s="10"/>
+      <c r="AF227" s="10"/>
       <c r="AG227" s="11"/>
-      <c r="AH227" s="10"/>
-      <c r="AI227" s="10"/>
+      <c r="AH227" s="11"/>
+      <c r="AI227" s="11"/>
       <c r="AJ227" s="10"/>
       <c r="AK227" s="10"/>
       <c r="AL227" s="10"/>
-      <c r="AM227" s="11"/>
-      <c r="AN227" s="11"/>
+      <c r="AM227" s="10"/>
+      <c r="AN227" s="10"/>
       <c r="AO227" s="11"/>
       <c r="AP227" s="11"/>
-      <c r="AQ227" s="5"/>
-    </row>
-    <row r="228" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ227" s="11"/>
+      <c r="AR227" s="11"/>
+      <c r="AS227" s="5"/>
+    </row>
+    <row r="228" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -12958,21 +13438,23 @@
       <c r="AB228" s="10"/>
       <c r="AC228" s="10"/>
       <c r="AD228" s="10"/>
-      <c r="AE228" s="11"/>
-      <c r="AF228" s="11"/>
+      <c r="AE228" s="10"/>
+      <c r="AF228" s="10"/>
       <c r="AG228" s="11"/>
-      <c r="AH228" s="10"/>
-      <c r="AI228" s="10"/>
+      <c r="AH228" s="11"/>
+      <c r="AI228" s="11"/>
       <c r="AJ228" s="10"/>
       <c r="AK228" s="10"/>
       <c r="AL228" s="10"/>
-      <c r="AM228" s="11"/>
-      <c r="AN228" s="11"/>
+      <c r="AM228" s="10"/>
+      <c r="AN228" s="10"/>
       <c r="AO228" s="11"/>
       <c r="AP228" s="11"/>
-      <c r="AQ228" s="5"/>
-    </row>
-    <row r="229" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ228" s="11"/>
+      <c r="AR228" s="11"/>
+      <c r="AS228" s="5"/>
+    </row>
+    <row r="229" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -13003,21 +13485,23 @@
       <c r="AB229" s="10"/>
       <c r="AC229" s="10"/>
       <c r="AD229" s="10"/>
-      <c r="AE229" s="11"/>
-      <c r="AF229" s="11"/>
+      <c r="AE229" s="10"/>
+      <c r="AF229" s="10"/>
       <c r="AG229" s="11"/>
-      <c r="AH229" s="10"/>
-      <c r="AI229" s="10"/>
+      <c r="AH229" s="11"/>
+      <c r="AI229" s="11"/>
       <c r="AJ229" s="10"/>
       <c r="AK229" s="10"/>
       <c r="AL229" s="10"/>
-      <c r="AM229" s="11"/>
-      <c r="AN229" s="11"/>
+      <c r="AM229" s="10"/>
+      <c r="AN229" s="10"/>
       <c r="AO229" s="11"/>
       <c r="AP229" s="11"/>
-      <c r="AQ229" s="5"/>
-    </row>
-    <row r="230" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AQ229" s="11"/>
+      <c r="AR229" s="11"/>
+      <c r="AS229" s="5"/>
+    </row>
+    <row r="230" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -13048,22 +13532,24 @@
       <c r="AB230" s="10"/>
       <c r="AC230" s="10"/>
       <c r="AD230" s="10"/>
-      <c r="AE230" s="11"/>
-      <c r="AF230" s="11"/>
+      <c r="AE230" s="10"/>
+      <c r="AF230" s="10"/>
       <c r="AG230" s="11"/>
-      <c r="AH230" s="10"/>
-      <c r="AI230" s="10"/>
+      <c r="AH230" s="11"/>
+      <c r="AI230" s="11"/>
       <c r="AJ230" s="10"/>
       <c r="AK230" s="10"/>
       <c r="AL230" s="10"/>
-      <c r="AM230" s="11"/>
-      <c r="AN230" s="11"/>
+      <c r="AM230" s="10"/>
+      <c r="AN230" s="10"/>
       <c r="AO230" s="11"/>
       <c r="AP230" s="11"/>
-      <c r="AQ230" s="5"/>
+      <c r="AQ230" s="11"/>
+      <c r="AR230" s="11"/>
+      <c r="AS230" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724787D-0CD0-411D-9A06-7A46F94C33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C353AB-F6D6-4D04-B691-922D3A27C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>№</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>КР10</t>
+  </si>
+  <si>
+    <t>КР11</t>
+  </si>
+  <si>
+    <t>КР12</t>
   </si>
 </sst>
 </file>
@@ -594,21 +600,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS230"/>
+  <dimension ref="A1:AU230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="4.296875" bestFit="1" customWidth="1"/>
@@ -617,24 +624,23 @@
     <col min="24" max="24" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.296875" customWidth="1"/>
-    <col min="30" max="30" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.69921875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.3984375" customWidth="1"/>
-    <col min="43" max="43" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.8984375" customWidth="1"/>
+    <col min="30" max="32" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.3984375" customWidth="1"/>
+    <col min="45" max="45" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,51 +731,57 @@
       <c r="AD1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="5"/>
-    </row>
-    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU1" s="5"/>
+    </row>
+    <row r="2" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>41</v>
@@ -829,56 +841,60 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="1">
-        <f>SUM(U2:AD2)</f>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="1">
+        <f>SUM(U2:AF2)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF34" si="1">T2+AE2</f>
+      <c r="AH2" s="1">
+        <f t="shared" ref="AH2:AH34" si="1">T2+AG2</f>
         <v>6.3499999999999988</v>
       </c>
-      <c r="AG2" s="9">
-        <f t="shared" ref="AG2:AG34" si="2">AG3</f>
-        <v>13.6</v>
-      </c>
-      <c r="AH2" s="7">
-        <f t="shared" ref="AH2:AH34" si="3">(AF2/AG2)</f>
-        <v>0.46691176470588225</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" ref="AI2:AI34" si="4">MAX(IF(AH2*100&gt;=20,2,0),IF(AH2*100&gt;=40,3,0),IF(AH2*100&gt;=60,4,0),IF(AH2*100&gt;=80,5,0))</f>
+      <c r="AI2" s="9">
+        <f t="shared" ref="AI2:AI34" si="2">AI3</f>
+        <v>15.3</v>
+      </c>
+      <c r="AJ2" s="7">
+        <f t="shared" ref="AJ2:AJ34" si="3">(AH2/AI2)</f>
+        <v>0.415032679738562</v>
+      </c>
+      <c r="AK2" s="4">
+        <f t="shared" ref="AK2:AK34" si="4">MAX(IF(AJ2*100&gt;=20,2,0),IF(AJ2*100&gt;=40,3,0),IF(AJ2*100&gt;=60,4,0),IF(AJ2*100&gt;=80,5,0))</f>
         <v>3</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
       <c r="AM2" s="1">
-        <f t="shared" ref="AM2:AM34" si="5">SUM(AJ2:AL2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AN2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1">
+        <f t="shared" ref="AO2:AO34" si="5">SUM(AL2:AN2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AP2" s="1">
         <v>3</v>
       </c>
-      <c r="AO2" s="4">
-        <f t="shared" ref="AO2:AO34" si="6">(AM2/AN2)*100</f>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AP2" s="4">
-        <f t="shared" ref="AP2:AP34" si="7">MAX(IF(AO2&gt;=20,2,0),IF(AO2&gt;=40,3,0),IF(AO2&gt;=60,4,0),IF(AO2&gt;=80,5,0))</f>
+      <c r="AQ2" s="4">
+        <f t="shared" ref="AQ2:AQ34" si="6">(AO2/AP2)*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AR2" s="4">
+        <f t="shared" ref="AR2:AR34" si="7">MAX(IF(AQ2&gt;=20,2,0),IF(AQ2&gt;=40,3,0),IF(AQ2&gt;=60,4,0),IF(AQ2&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AS2" s="8">
         <v>0</v>
       </c>
-      <c r="AQ2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="4">
-        <f t="shared" ref="AR2:AR34" si="8">(AI2+AP2+AQ2)/3</f>
-        <v>1</v>
-      </c>
-      <c r="AS2" s="5"/>
-    </row>
-    <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT2" s="4">
+        <f t="shared" ref="AT2:AT34" si="8">(AK2+AR2+AS2)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AU2" s="5"/>
+    </row>
+    <row r="3" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>42</v>
@@ -930,54 +946,56 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="9">
-        <f t="shared" ref="AE3:AE35" si="9">SUM(U3:AD3)</f>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9">
+        <f t="shared" ref="AG3:AG35" si="9">SUM(U3:AF3)</f>
         <v>0.05</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AH3" s="1">
         <f t="shared" si="1"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AI3" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH3" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ3" s="7">
         <f t="shared" si="3"/>
-        <v>0.36029411764705882</v>
-      </c>
-      <c r="AI3" s="4">
+        <v>0.3202614379084967</v>
+      </c>
+      <c r="AK3" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1">
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AP3" s="1">
         <v>3</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AQ3" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP3" s="4">
+      <c r="AR3" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AS3" s="8">
         <v>0</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AT3" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS3" s="5"/>
-    </row>
-    <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU3" s="5"/>
+    </row>
+    <row r="4" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>43</v>
@@ -1027,58 +1045,64 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="9"/>
+      <c r="AC4" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="9">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9">
         <f t="shared" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="AF4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AH4" s="1">
         <f t="shared" si="1"/>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="AG4" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="AI4" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH4" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ4" s="7">
         <f t="shared" si="3"/>
-        <v>0.3419117647058823</v>
-      </c>
-      <c r="AI4" s="4">
+        <v>0.31045751633986929</v>
+      </c>
+      <c r="AK4" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
       <c r="AM4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AP4" s="1">
         <v>3</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AQ4" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AP4" s="4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AR4" s="4">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AS4" s="8">
         <v>0</v>
       </c>
-      <c r="AQ4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="4">
+      <c r="AT4" s="4">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AS4" s="5"/>
-    </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AU4" s="5"/>
+    </row>
+    <row r="5" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>44</v>
@@ -1130,54 +1154,56 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="9">
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <f t="shared" si="1"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AI5" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH5" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ5" s="7">
         <f t="shared" si="3"/>
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="AI5" s="4">
+        <v>0.33986928104575159</v>
+      </c>
+      <c r="AK5" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AP5" s="1">
         <v>3</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AQ5" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AR5" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AS5" s="8">
         <v>0</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AT5" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS5" s="5"/>
-    </row>
-    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU5" s="5"/>
+    </row>
+    <row r="6" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>45</v>
@@ -1229,56 +1255,58 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="9">
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AI6" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH6" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ6" s="7">
         <f t="shared" si="3"/>
-        <v>0.29779411764705882</v>
-      </c>
-      <c r="AI6" s="4">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="AK6" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1">
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AP6" s="1">
         <v>3</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AQ6" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AR6" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ6" s="8">
+      <c r="AS6" s="8">
         <v>0</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AT6" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS6" s="5"/>
-    </row>
-    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU6" s="5"/>
+    </row>
+    <row r="7" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>46</v>
@@ -1340,56 +1368,60 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-      <c r="AE7" s="9">
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AH7" s="1">
         <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AI7" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH7" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ7" s="7">
         <f t="shared" si="3"/>
-        <v>0.72794117647058831</v>
-      </c>
-      <c r="AI7" s="4">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="AK7" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>1</v>
       </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
       <c r="AM7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AP7" s="1">
         <v>3</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AQ7" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP7" s="4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AR7" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ7" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="8">
         <v>0</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AT7" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AS7" s="5"/>
-    </row>
-    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AU7" s="5"/>
+    </row>
+    <row r="8" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>47</v>
@@ -1445,56 +1477,58 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-      <c r="AE8" s="9">
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
-      <c r="AG8" s="9">
+      <c r="AI8" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH8" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ8" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI8" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK8" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1">
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AP8" s="1">
         <v>3</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AQ8" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AR8" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AS8" s="8">
         <v>0</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AT8" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AS8" s="5"/>
-    </row>
-    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU8" s="5"/>
+    </row>
+    <row r="9" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>48</v>
@@ -1546,54 +1580,56 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
-      <c r="AE9" s="9">
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <f t="shared" si="1"/>
         <v>5.35</v>
       </c>
-      <c r="AG9" s="9">
+      <c r="AI9" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH9" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ9" s="7">
         <f t="shared" si="3"/>
-        <v>0.39338235294117646</v>
-      </c>
-      <c r="AI9" s="4">
+        <v>0.34967320261437906</v>
+      </c>
+      <c r="AK9" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1">
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AP9" s="1">
         <v>3</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AQ9" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AR9" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AS9" s="8">
         <v>0</v>
       </c>
-      <c r="AR9" s="4">
+      <c r="AT9" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS9" s="5"/>
-    </row>
-    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU9" s="5"/>
+    </row>
+    <row r="10" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>49</v>
@@ -1655,56 +1691,60 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-      <c r="AE10" s="9">
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AH10" s="1">
         <f t="shared" si="1"/>
         <v>10.9</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AI10" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH10" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ10" s="7">
         <f t="shared" si="3"/>
-        <v>0.80147058823529416</v>
-      </c>
-      <c r="AI10" s="4">
+        <v>0.71241830065359479</v>
+      </c>
+      <c r="AK10" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="1">
         <v>1</v>
       </c>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
       <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="1">
         <v>3</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AQ10" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP10" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AR10" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="8">
         <v>0</v>
       </c>
-      <c r="AR10" s="4">
+      <c r="AT10" s="4">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS10" s="5"/>
-    </row>
-    <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AU10" s="5"/>
+    </row>
+    <row r="11" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>50</v>
@@ -1758,58 +1798,62 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="9">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="AG11" s="9">
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="AI11" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH11" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ11" s="7">
         <f t="shared" si="3"/>
-        <v>0.61764705882352933</v>
-      </c>
-      <c r="AI11" s="4">
+        <v>0.55555555555555536</v>
+      </c>
+      <c r="AK11" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AJ11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1">
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AP11" s="1">
         <v>3</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AQ11" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AR11" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AS11" s="8">
         <v>0</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AT11" s="4">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AS11" s="5"/>
-    </row>
-    <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="5"/>
+    </row>
+    <row r="12" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>51</v>
@@ -1865,56 +1909,58 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-      <c r="AE12" s="9">
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <f t="shared" si="1"/>
         <v>6.7</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AI12" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH12" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ12" s="7">
         <f t="shared" si="3"/>
-        <v>0.49264705882352944</v>
-      </c>
-      <c r="AI12" s="4">
+        <v>0.43790849673202614</v>
+      </c>
+      <c r="AK12" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1">
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AP12" s="1">
         <v>3</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AQ12" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AR12" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AS12" s="8">
         <v>0</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="AT12" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AS12" s="5"/>
-    </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU12" s="5"/>
+    </row>
+    <row r="13" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>52</v>
@@ -1974,56 +2020,60 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-      <c r="AE13" s="9">
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <f t="shared" si="1"/>
         <v>6.2999999999999989</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AI13" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH13" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ13" s="7">
         <f t="shared" si="3"/>
-        <v>0.46323529411764697</v>
-      </c>
-      <c r="AI13" s="4">
+        <v>0.41176470588235287</v>
+      </c>
+      <c r="AK13" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AL13" s="1">
         <v>1</v>
       </c>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
       <c r="AM13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN13" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AP13" s="1">
         <v>3</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AQ13" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP13" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="AR13" s="4">
         <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="4">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AQ13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="4">
-        <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AS13" s="5"/>
-    </row>
-    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU13" s="5"/>
+    </row>
+    <row r="14" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>53</v>
@@ -2087,58 +2137,64 @@
       <c r="AB14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC14" s="9"/>
+      <c r="AC14" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD14" s="9"/>
-      <c r="AE14" s="9">
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9">
         <f t="shared" si="9"/>
-        <v>0.8</v>
-      </c>
-      <c r="AF14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="1"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AG14" s="9">
+        <v>9.9</v>
+      </c>
+      <c r="AI14" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH14" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ14" s="7">
         <f t="shared" si="3"/>
-        <v>0.72058823529411775</v>
-      </c>
-      <c r="AI14" s="4">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="AK14" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AL14" s="1">
         <v>1</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
       <c r="AM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="1">
         <v>3</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AQ14" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP14" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AR14" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="8">
         <v>0</v>
       </c>
-      <c r="AR14" s="4">
+      <c r="AT14" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AS14" s="5"/>
-    </row>
-    <row r="15" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AU14" s="5"/>
+    </row>
+    <row r="15" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>54</v>
@@ -2192,56 +2248,60 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
-      <c r="AE15" s="9">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AH15" s="1">
         <f t="shared" si="1"/>
         <v>5.75</v>
       </c>
-      <c r="AG15" s="9">
+      <c r="AI15" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH15" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ15" s="7">
         <f t="shared" si="3"/>
-        <v>0.42279411764705882</v>
-      </c>
-      <c r="AI15" s="4">
+        <v>0.37581699346405228</v>
+      </c>
+      <c r="AK15" s="4">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AP15" s="1">
         <v>3</v>
       </c>
-      <c r="AJ15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AO15" s="4">
+      <c r="AQ15" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AP15" s="4">
+        <v>36.666666666666671</v>
+      </c>
+      <c r="AR15" s="4">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AS15" s="8">
         <v>0</v>
       </c>
-      <c r="AQ15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="4">
+      <c r="AT15" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AS15" s="5"/>
-    </row>
-    <row r="16" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AU15" s="5"/>
+    </row>
+    <row r="16" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>55</v>
@@ -2301,56 +2361,60 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="9">
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AH16" s="1">
         <f t="shared" si="1"/>
         <v>9.0500000000000007</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AI16" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH16" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ16" s="7">
         <f t="shared" si="3"/>
-        <v>0.66544117647058831</v>
-      </c>
-      <c r="AI16" s="4">
+        <v>0.59150326797385622</v>
+      </c>
+      <c r="AK16" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
       <c r="AM16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AP16" s="1">
         <v>3</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AQ16" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AP16" s="4">
+        <v>36.666666666666671</v>
+      </c>
+      <c r="AR16" s="4">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AS16" s="8">
         <v>0</v>
       </c>
-      <c r="AQ16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="4">
+      <c r="AT16" s="4">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AS16" s="5"/>
-    </row>
-    <row r="17" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AU16" s="5"/>
+    </row>
+    <row r="17" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>56</v>
@@ -2406,56 +2470,60 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
-      <c r="AE17" s="9">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AH17" s="1">
         <f t="shared" si="1"/>
         <v>6.1499999999999995</v>
       </c>
-      <c r="AG17" s="9">
+      <c r="AI17" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH17" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ17" s="7">
         <f t="shared" si="3"/>
-        <v>0.45220588235294112</v>
-      </c>
-      <c r="AI17" s="4">
+        <v>0.40196078431372545</v>
+      </c>
+      <c r="AK17" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AL17" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
       <c r="AM17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="AN17" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AP17" s="1">
         <v>3</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AQ17" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AP17" s="4">
+        <v>36.666666666666671</v>
+      </c>
+      <c r="AR17" s="4">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AS17" s="8">
         <v>0</v>
       </c>
-      <c r="AQ17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="4">
+      <c r="AT17" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AS17" s="5"/>
-    </row>
-    <row r="18" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AU17" s="5"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>57</v>
@@ -2503,56 +2571,58 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="9">
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AH18" s="1">
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-      <c r="AG18" s="9">
+      <c r="AI18" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH18" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ18" s="7">
         <f t="shared" si="3"/>
-        <v>0.36397058823529416</v>
-      </c>
-      <c r="AI18" s="4">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="AK18" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AL18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1">
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AP18" s="1">
         <v>3</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AQ18" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AR18" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="8">
+      <c r="AS18" s="8">
         <v>0</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="AT18" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS18" s="5"/>
-    </row>
-    <row r="19" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU18" s="5"/>
+    </row>
+    <row r="19" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>58</v>
@@ -2612,58 +2682,62 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="9"/>
+      <c r="AC19" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="9">
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="1">
         <f t="shared" si="1"/>
-        <v>7.5999999999999988</v>
-      </c>
-      <c r="AG19" s="9">
+        <v>7.6999999999999984</v>
+      </c>
+      <c r="AI19" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH19" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ19" s="7">
         <f t="shared" si="3"/>
-        <v>0.55882352941176461</v>
-      </c>
-      <c r="AI19" s="4">
+        <v>0.50326797385620903</v>
+      </c>
+      <c r="AK19" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AL19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1">
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AP19" s="1">
         <v>3</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="AQ19" s="4">
         <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="AR19" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="8">
+      <c r="AS19" s="8">
         <v>0</v>
       </c>
-      <c r="AR19" s="4">
+      <c r="AT19" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AS19" s="5"/>
-    </row>
-    <row r="20" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU19" s="5"/>
+    </row>
+    <row r="20" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -2701,13 +2775,15 @@
         <v>1.5</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2731,60 +2807,64 @@
       <c r="AB20" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC20" s="9"/>
+      <c r="AC20" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD20" s="9"/>
-      <c r="AE20" s="9">
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9">
         <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="AF20" s="1">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AH20" s="1">
         <f t="shared" si="1"/>
-        <v>13.2</v>
-      </c>
-      <c r="AG20" s="9">
+        <v>14.8</v>
+      </c>
+      <c r="AI20" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH20" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ20" s="7">
         <f t="shared" si="3"/>
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="AI20" s="4">
+        <v>0.9673202614379085</v>
+      </c>
+      <c r="AK20" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AL20" s="1">
         <v>1</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AM20" s="1">
         <v>1</v>
       </c>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1">
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AP20" s="1">
         <v>3</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AQ20" s="4">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="AP20" s="4">
+      <c r="AR20" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AQ20" s="8">
+      <c r="AS20" s="8">
         <v>0</v>
       </c>
-      <c r="AR20" s="4">
+      <c r="AT20" s="4">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AS20" s="5"/>
-    </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU20" s="5"/>
+    </row>
+    <row r="21" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
         <v>60</v>
@@ -2836,54 +2916,56 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
-      <c r="AE21" s="9">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AH21" s="1">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
-      <c r="AG21" s="9">
+      <c r="AI21" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH21" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ21" s="7">
         <f t="shared" si="3"/>
-        <v>0.28676470588235292</v>
-      </c>
-      <c r="AI21" s="4">
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="AK21" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1">
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AP21" s="1">
         <v>3</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AQ21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="AR21" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="8">
+      <c r="AS21" s="8">
         <v>0</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="AT21" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS21" s="5"/>
-    </row>
-    <row r="22" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU21" s="5"/>
+    </row>
+    <row r="22" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>61</v>
@@ -2945,58 +3027,64 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="9"/>
+      <c r="AC22" s="9">
+        <v>0.1</v>
+      </c>
       <c r="AD22" s="9"/>
-      <c r="AE22" s="9">
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9">
         <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AF22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH22" s="1">
         <f t="shared" si="1"/>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="AG22" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AI22" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH22" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ22" s="7">
         <f t="shared" si="3"/>
-        <v>0.67647058823529427</v>
-      </c>
-      <c r="AI22" s="4">
+        <v>0.60784313725490202</v>
+      </c>
+      <c r="AK22" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AL22" s="1">
         <v>1</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
       <c r="AM22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN22" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AP22" s="1">
         <v>3</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="AQ22" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP22" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="AR22" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ22" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="8">
         <v>0</v>
       </c>
-      <c r="AR22" s="4">
+      <c r="AT22" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AS22" s="5"/>
-    </row>
-    <row r="23" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AU22" s="5"/>
+    </row>
+    <row r="23" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
         <v>70</v>
@@ -3042,54 +3130,56 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AH23" s="9">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AI23" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH23" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ23" s="7">
         <f t="shared" si="3"/>
-        <v>0.33088235294117646</v>
-      </c>
-      <c r="AI23" s="8">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="AK23" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
-      <c r="AM23" s="9">
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="9">
+      <c r="AP23" s="9">
         <v>3</v>
       </c>
-      <c r="AO23" s="8">
+      <c r="AQ23" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="8">
+      <c r="AR23" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ23" s="8">
+      <c r="AS23" s="8">
         <v>0</v>
       </c>
-      <c r="AR23" s="8">
+      <c r="AT23" s="8">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS23" s="5"/>
-    </row>
-    <row r="24" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU23" s="5"/>
+    </row>
+    <row r="24" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
         <v>62</v>
@@ -3155,56 +3245,60 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
-      <c r="AE24" s="9">
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AH24" s="1">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="AG24" s="9">
+      <c r="AI24" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH24" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ24" s="7">
         <f t="shared" si="3"/>
-        <v>0.84558823529411764</v>
-      </c>
-      <c r="AI24" s="4">
+        <v>0.75163398692810457</v>
+      </c>
+      <c r="AK24" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL24" s="1">
         <v>1</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
       <c r="AM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="1">
         <v>3</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AQ24" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP24" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AR24" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS24" s="8">
         <v>0</v>
       </c>
-      <c r="AR24" s="4">
+      <c r="AT24" s="4">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS24" s="5"/>
-    </row>
-    <row r="25" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AU24" s="5"/>
+    </row>
+    <row r="25" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
         <v>63</v>
@@ -3252,54 +3346,56 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
-      <c r="AE25" s="9">
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AH25" s="1">
         <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AI25" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH25" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ25" s="7">
         <f t="shared" si="3"/>
-        <v>0.3860294117647059</v>
-      </c>
-      <c r="AI25" s="4">
+        <v>0.34313725490196079</v>
+      </c>
+      <c r="AK25" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1">
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AP25" s="1">
         <v>3</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AQ25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AR25" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ25" s="8">
+      <c r="AS25" s="8">
         <v>0</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AT25" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS25" s="5"/>
-    </row>
-    <row r="26" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU25" s="5"/>
+    </row>
+    <row r="26" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
         <v>72</v>
@@ -3357,56 +3453,58 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
-      <c r="AE26" s="9">
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AH26" s="1">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="AG26" s="9">
+      <c r="AI26" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH26" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ26" s="7">
         <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="AI26" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK26" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AL26" s="1">
         <v>1</v>
       </c>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1">
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AP26" s="1">
         <v>3</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AQ26" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="AP26" s="4">
+      <c r="AR26" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AQ26" s="8">
+      <c r="AS26" s="8">
         <v>0</v>
       </c>
-      <c r="AR26" s="4">
+      <c r="AT26" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AS26" s="5"/>
-    </row>
-    <row r="27" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU26" s="5"/>
+    </row>
+    <row r="27" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
         <v>64</v>
@@ -3444,13 +3542,15 @@
         <v>1.5</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3474,60 +3574,64 @@
       <c r="AB27" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC27" s="9"/>
+      <c r="AC27" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AD27" s="9"/>
-      <c r="AE27" s="9">
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9">
         <f t="shared" si="9"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="AF27" s="1">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AH27" s="1">
         <f t="shared" si="1"/>
-        <v>13.6</v>
-      </c>
-      <c r="AG27" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="AI27" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH27" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ27" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AK27" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AL27" s="1">
         <v>1</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AM27" s="1">
         <v>1</v>
       </c>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1">
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AP27" s="1">
         <v>3</v>
       </c>
-      <c r="AO27" s="4">
+      <c r="AQ27" s="4">
         <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="AP27" s="4">
+      <c r="AR27" s="4">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AQ27" s="8">
+      <c r="AS27" s="8">
         <v>0</v>
       </c>
-      <c r="AR27" s="4">
+      <c r="AT27" s="4">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AS27" s="5"/>
-    </row>
-    <row r="28" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU27" s="5"/>
+    </row>
+    <row r="28" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
         <v>65</v>
@@ -3587,56 +3691,58 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
-      <c r="AE28" s="9">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AH28" s="1">
         <f t="shared" si="1"/>
         <v>6.1499999999999995</v>
       </c>
-      <c r="AG28" s="9">
+      <c r="AI28" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH28" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ28" s="7">
         <f t="shared" si="3"/>
-        <v>0.45220588235294112</v>
-      </c>
-      <c r="AI28" s="4">
+        <v>0.40196078431372545</v>
+      </c>
+      <c r="AK28" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AL28" s="1">
         <v>1</v>
       </c>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1">
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AP28" s="1">
         <v>3</v>
       </c>
-      <c r="AO28" s="4">
+      <c r="AQ28" s="4">
         <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="AP28" s="4">
+      <c r="AR28" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AQ28" s="8">
+      <c r="AS28" s="8">
         <v>0</v>
       </c>
-      <c r="AR28" s="4">
+      <c r="AT28" s="4">
         <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="AS28" s="5"/>
-    </row>
-    <row r="29" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU28" s="5"/>
+    </row>
+    <row r="29" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
         <v>71</v>
@@ -3692,54 +3798,56 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
-      <c r="AE29" s="9">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AH29" s="1">
         <f t="shared" si="1"/>
         <v>6.6499999999999986</v>
       </c>
-      <c r="AG29" s="9">
+      <c r="AI29" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH29" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ29" s="7">
         <f t="shared" si="3"/>
-        <v>0.48897058823529405</v>
-      </c>
-      <c r="AI29" s="4">
+        <v>0.43464052287581689</v>
+      </c>
+      <c r="AK29" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1">
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AP29" s="1">
         <v>3</v>
       </c>
-      <c r="AO29" s="4">
+      <c r="AQ29" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP29" s="4">
+      <c r="AR29" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ29" s="8">
+      <c r="AS29" s="8">
         <v>0</v>
       </c>
-      <c r="AR29" s="4">
+      <c r="AT29" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AS29" s="5"/>
-    </row>
-    <row r="30" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AU29" s="5"/>
+    </row>
+    <row r="30" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
         <v>73</v>
@@ -3785,54 +3893,56 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
-      <c r="AE30" s="9">
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AH30" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG30" s="9">
+      <c r="AI30" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH30" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ30" s="7">
         <f t="shared" si="3"/>
-        <v>0.36764705882352944</v>
-      </c>
-      <c r="AI30" s="4">
+        <v>0.32679738562091504</v>
+      </c>
+      <c r="AK30" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1">
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AP30" s="1">
         <v>3</v>
       </c>
-      <c r="AO30" s="4">
+      <c r="AQ30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="4">
+      <c r="AR30" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="8">
+      <c r="AS30" s="8">
         <v>0</v>
       </c>
-      <c r="AR30" s="4">
+      <c r="AT30" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AU30" s="5"/>
+    </row>
+    <row r="31" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
         <v>66</v>
@@ -3882,54 +3992,56 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
-      <c r="AE31" s="9">
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AH31" s="1">
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-      <c r="AG31" s="9">
+      <c r="AI31" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH31" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ31" s="7">
         <f t="shared" si="3"/>
-        <v>0.36397058823529416</v>
-      </c>
-      <c r="AI31" s="4">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="AK31" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1">
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AP31" s="1">
         <v>3</v>
       </c>
-      <c r="AO31" s="4">
+      <c r="AQ31" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP31" s="4">
+      <c r="AR31" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="8">
+      <c r="AS31" s="8">
         <v>0</v>
       </c>
-      <c r="AR31" s="4">
+      <c r="AT31" s="4">
         <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AS31" s="5"/>
-    </row>
-    <row r="32" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AU31" s="5"/>
+    </row>
+    <row r="32" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="6" t="s">
         <v>67</v>
@@ -3995,56 +4107,60 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
-      <c r="AE32" s="9">
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="AF32" s="9">
+      <c r="AH32" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AG32" s="9">
+      <c r="AI32" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH32" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ32" s="7">
         <f t="shared" si="3"/>
-        <v>0.80882352941176472</v>
-      </c>
-      <c r="AI32" s="8">
+        <v>0.71895424836601307</v>
+      </c>
+      <c r="AK32" s="8">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ32" s="9">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="9">
         <v>1</v>
       </c>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
       <c r="AM32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="9">
+        <v>2</v>
+      </c>
+      <c r="AP32" s="9">
         <v>3</v>
       </c>
-      <c r="AO32" s="8">
+      <c r="AQ32" s="8">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP32" s="8">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AR32" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS32" s="8">
         <v>0</v>
       </c>
-      <c r="AR32" s="8">
+      <c r="AT32" s="8">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS32" s="5"/>
-    </row>
-    <row r="33" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AU32" s="5"/>
+    </row>
+    <row r="33" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="6" t="s">
         <v>68</v>
@@ -4102,54 +4218,56 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
-      <c r="AE33" s="9">
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="AF33" s="9">
+      <c r="AH33" s="9">
         <f t="shared" si="1"/>
         <v>7.9499999999999993</v>
       </c>
-      <c r="AG33" s="9">
+      <c r="AI33" s="9">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH33" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ33" s="7">
         <f t="shared" si="3"/>
-        <v>0.58455882352941169</v>
-      </c>
-      <c r="AI33" s="8">
+        <v>0.51960784313725483</v>
+      </c>
+      <c r="AK33" s="8">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
-      <c r="AM33" s="9">
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="9">
+      <c r="AP33" s="9">
         <v>3</v>
       </c>
-      <c r="AO33" s="8">
+      <c r="AQ33" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AP33" s="8">
+      <c r="AR33" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ33" s="8">
+      <c r="AS33" s="8">
         <v>0</v>
       </c>
-      <c r="AR33" s="8">
+      <c r="AT33" s="8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AS33" s="5"/>
-    </row>
-    <row r="34" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AU33" s="5"/>
+    </row>
+    <row r="34" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
         <v>69</v>
@@ -4213,56 +4331,60 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
-      <c r="AE34" s="9">
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AH34" s="1">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AI34" s="1">
         <f t="shared" si="2"/>
-        <v>13.6</v>
-      </c>
-      <c r="AH34" s="7">
+        <v>15.3</v>
+      </c>
+      <c r="AJ34" s="7">
         <f t="shared" si="3"/>
-        <v>0.84558823529411764</v>
-      </c>
-      <c r="AI34" s="4">
+        <v>0.75163398692810457</v>
+      </c>
+      <c r="AK34" s="4">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AL34" s="1">
         <v>1</v>
       </c>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
       <c r="AM34" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AN34" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AP34" s="1">
         <v>3</v>
       </c>
-      <c r="AO34" s="4">
+      <c r="AQ34" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP34" s="4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="AR34" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AQ34" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS34" s="8">
         <v>0</v>
       </c>
-      <c r="AR34" s="4">
+      <c r="AT34" s="4">
         <f t="shared" si="8"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AS34" s="5"/>
-    </row>
-    <row r="35" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AU34" s="5"/>
+    </row>
+    <row r="35" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -4300,13 +4422,15 @@
         <v>1</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4332,58 +4456,64 @@
       <c r="AB35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AC35" s="9"/>
+      <c r="AC35" s="9">
+        <v>0.2</v>
+      </c>
       <c r="AD35" s="9"/>
-      <c r="AE35" s="9">
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9">
         <f t="shared" si="9"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="AF35" s="1">
-        <f t="shared" ref="AF35" si="11">T35+AE35</f>
-        <v>13.6</v>
-      </c>
-      <c r="AG35" s="4">
-        <f>AF35</f>
-        <v>13.6</v>
-      </c>
-      <c r="AH35" s="7">
-        <f t="shared" ref="AH35" si="12">(AF35/AG35)</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AH35" s="1">
+        <f t="shared" ref="AH35" si="11">T35+AG35</f>
+        <v>15.3</v>
+      </c>
+      <c r="AI35" s="4">
+        <f>AH35</f>
+        <v>15.3</v>
+      </c>
+      <c r="AJ35" s="7">
+        <f t="shared" ref="AJ35" si="12">(AH35/AI35)</f>
         <v>1</v>
       </c>
-      <c r="AI35" s="4">
-        <f t="shared" ref="AI35" si="13">MAX(IF(AH35*100&gt;=20,2,0),IF(AH35*100&gt;=40,3,0),IF(AH35*100&gt;=60,4,0),IF(AH35*100&gt;=80,5,0))</f>
+      <c r="AK35" s="4">
+        <f t="shared" ref="AK35" si="13">MAX(IF(AJ35*100&gt;=20,2,0),IF(AJ35*100&gt;=40,3,0),IF(AJ35*100&gt;=60,4,0),IF(AJ35*100&gt;=80,5,0))</f>
         <v>5</v>
       </c>
-      <c r="AJ35" s="1">
+      <c r="AL35" s="1">
         <v>1</v>
       </c>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
       <c r="AM35" s="1">
-        <f t="shared" ref="AM35" si="14">SUM(AJ35:AL35)</f>
         <v>1</v>
       </c>
-      <c r="AN35" s="9">
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1">
+        <f t="shared" ref="AO35" si="14">SUM(AL35:AN35)</f>
+        <v>2</v>
+      </c>
+      <c r="AP35" s="9">
         <v>3</v>
       </c>
-      <c r="AO35" s="4">
-        <f t="shared" ref="AO35" si="15">(AM35/AN35)*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AP35" s="4">
-        <f t="shared" ref="AP35" si="16">MAX(IF(AO35&gt;=20,2,0),IF(AO35&gt;=40,3,0),IF(AO35&gt;=60,4,0),IF(AO35&gt;=80,5,0))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ35" s="8">
+      <c r="AQ35" s="4">
+        <f t="shared" ref="AQ35" si="15">(AO35/AP35)*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AR35" s="4">
+        <f t="shared" ref="AR35" si="16">MAX(IF(AQ35&gt;=20,2,0),IF(AQ35&gt;=40,3,0),IF(AQ35&gt;=60,4,0),IF(AQ35&gt;=80,5,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AS35" s="8">
         <v>0</v>
       </c>
-      <c r="AR35" s="4">
-        <f t="shared" ref="AR35" si="17">(AI35+AP35+AQ35)/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AS35" s="5"/>
-    </row>
-    <row r="36" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AT35" s="4">
+        <f t="shared" ref="AT35" si="17">(AK35+AR35+AS35)/3</f>
+        <v>3</v>
+      </c>
+      <c r="AU35" s="5"/>
+    </row>
+    <row r="36" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4416,21 +4546,23 @@
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
       <c r="AI36" s="11"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
       <c r="AL36" s="10"/>
       <c r="AM36" s="10"/>
       <c r="AN36" s="10"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
       <c r="AQ36" s="11"/>
       <c r="AR36" s="11"/>
-      <c r="AS36" s="5"/>
-    </row>
-    <row r="37" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="5"/>
+    </row>
+    <row r="37" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4463,21 +4595,23 @@
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
       <c r="AI37" s="11"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
       <c r="AL37" s="10"/>
       <c r="AM37" s="10"/>
       <c r="AN37" s="10"/>
-      <c r="AO37" s="11"/>
-      <c r="AP37" s="11"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
       <c r="AQ37" s="11"/>
       <c r="AR37" s="11"/>
-      <c r="AS37" s="5"/>
-    </row>
-    <row r="38" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="5"/>
+    </row>
+    <row r="38" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4510,21 +4644,23 @@
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
       <c r="AI38" s="11"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
       <c r="AL38" s="10"/>
       <c r="AM38" s="10"/>
       <c r="AN38" s="10"/>
-      <c r="AO38" s="11"/>
-      <c r="AP38" s="11"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
       <c r="AQ38" s="11"/>
       <c r="AR38" s="11"/>
-      <c r="AS38" s="5"/>
-    </row>
-    <row r="39" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="5"/>
+    </row>
+    <row r="39" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4557,21 +4693,23 @@
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
       <c r="AI39" s="11"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
       <c r="AL39" s="10"/>
       <c r="AM39" s="10"/>
       <c r="AN39" s="10"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="11"/>
+      <c r="AO39" s="10"/>
+      <c r="AP39" s="10"/>
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
-      <c r="AS39" s="5"/>
-    </row>
-    <row r="40" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="5"/>
+    </row>
+    <row r="40" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4604,21 +4742,23 @@
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
       <c r="AI40" s="11"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
       <c r="AL40" s="10"/>
       <c r="AM40" s="10"/>
       <c r="AN40" s="10"/>
-      <c r="AO40" s="11"/>
-      <c r="AP40" s="11"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
-      <c r="AS40" s="5"/>
-    </row>
-    <row r="41" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="5"/>
+    </row>
+    <row r="41" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4651,21 +4791,23 @@
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="11"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
       <c r="AI41" s="11"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
       <c r="AL41" s="10"/>
       <c r="AM41" s="10"/>
       <c r="AN41" s="10"/>
-      <c r="AO41" s="11"/>
-      <c r="AP41" s="11"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
       <c r="AQ41" s="11"/>
       <c r="AR41" s="11"/>
-      <c r="AS41" s="5"/>
-    </row>
-    <row r="42" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="5"/>
+    </row>
+    <row r="42" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4698,21 +4840,23 @@
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
       <c r="AF42" s="10"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
       <c r="AI42" s="11"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
       <c r="AL42" s="10"/>
       <c r="AM42" s="10"/>
       <c r="AN42" s="10"/>
-      <c r="AO42" s="11"/>
-      <c r="AP42" s="11"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
       <c r="AQ42" s="11"/>
       <c r="AR42" s="11"/>
-      <c r="AS42" s="5"/>
-    </row>
-    <row r="43" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="5"/>
+    </row>
+    <row r="43" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4745,21 +4889,23 @@
       <c r="AD43" s="10"/>
       <c r="AE43" s="10"/>
       <c r="AF43" s="10"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
       <c r="AI43" s="11"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
       <c r="AL43" s="10"/>
       <c r="AM43" s="10"/>
       <c r="AN43" s="10"/>
-      <c r="AO43" s="11"/>
-      <c r="AP43" s="11"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
       <c r="AQ43" s="11"/>
       <c r="AR43" s="11"/>
-      <c r="AS43" s="5"/>
-    </row>
-    <row r="44" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="5"/>
+    </row>
+    <row r="44" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4792,21 +4938,23 @@
       <c r="AD44" s="10"/>
       <c r="AE44" s="10"/>
       <c r="AF44" s="10"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
       <c r="AI44" s="11"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
       <c r="AL44" s="10"/>
       <c r="AM44" s="10"/>
       <c r="AN44" s="10"/>
-      <c r="AO44" s="11"/>
-      <c r="AP44" s="11"/>
+      <c r="AO44" s="10"/>
+      <c r="AP44" s="10"/>
       <c r="AQ44" s="11"/>
       <c r="AR44" s="11"/>
-      <c r="AS44" s="5"/>
-    </row>
-    <row r="45" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="5"/>
+    </row>
+    <row r="45" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4839,21 +4987,23 @@
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
       <c r="AI45" s="11"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
       <c r="AL45" s="10"/>
       <c r="AM45" s="10"/>
       <c r="AN45" s="10"/>
-      <c r="AO45" s="11"/>
-      <c r="AP45" s="11"/>
+      <c r="AO45" s="10"/>
+      <c r="AP45" s="10"/>
       <c r="AQ45" s="11"/>
       <c r="AR45" s="11"/>
-      <c r="AS45" s="5"/>
-    </row>
-    <row r="46" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="5"/>
+    </row>
+    <row r="46" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4886,21 +5036,23 @@
       <c r="AD46" s="10"/>
       <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
       <c r="AI46" s="11"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10"/>
       <c r="AN46" s="10"/>
-      <c r="AO46" s="11"/>
-      <c r="AP46" s="11"/>
+      <c r="AO46" s="10"/>
+      <c r="AP46" s="10"/>
       <c r="AQ46" s="11"/>
       <c r="AR46" s="11"/>
-      <c r="AS46" s="5"/>
-    </row>
-    <row r="47" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="5"/>
+    </row>
+    <row r="47" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4933,21 +5085,23 @@
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
       <c r="AF47" s="10"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
       <c r="AI47" s="11"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="10"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
       <c r="AL47" s="10"/>
       <c r="AM47" s="10"/>
       <c r="AN47" s="10"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
       <c r="AQ47" s="11"/>
       <c r="AR47" s="11"/>
-      <c r="AS47" s="5"/>
-    </row>
-    <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="5"/>
+    </row>
+    <row r="48" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4980,21 +5134,23 @@
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
       <c r="AI48" s="11"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
       <c r="AL48" s="10"/>
       <c r="AM48" s="10"/>
       <c r="AN48" s="10"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
       <c r="AQ48" s="11"/>
       <c r="AR48" s="11"/>
-      <c r="AS48" s="5"/>
-    </row>
-    <row r="49" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="5"/>
+    </row>
+    <row r="49" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5027,21 +5183,23 @@
       <c r="AD49" s="10"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
       <c r="AI49" s="11"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
       <c r="AL49" s="10"/>
       <c r="AM49" s="10"/>
       <c r="AN49" s="10"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
       <c r="AQ49" s="11"/>
       <c r="AR49" s="11"/>
-      <c r="AS49" s="5"/>
-    </row>
-    <row r="50" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="5"/>
+    </row>
+    <row r="50" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5074,21 +5232,23 @@
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
       <c r="AI50" s="11"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
       <c r="AL50" s="10"/>
       <c r="AM50" s="10"/>
       <c r="AN50" s="10"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
-      <c r="AS50" s="5"/>
-    </row>
-    <row r="51" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="5"/>
+    </row>
+    <row r="51" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5121,21 +5281,23 @@
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
       <c r="AF51" s="10"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
       <c r="AI51" s="11"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
       <c r="AL51" s="10"/>
       <c r="AM51" s="10"/>
       <c r="AN51" s="10"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
-      <c r="AS51" s="5"/>
-    </row>
-    <row r="52" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="5"/>
+    </row>
+    <row r="52" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5168,21 +5330,23 @@
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
       <c r="AI52" s="11"/>
-      <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
       <c r="AL52" s="10"/>
       <c r="AM52" s="10"/>
       <c r="AN52" s="10"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="11"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
       <c r="AQ52" s="11"/>
       <c r="AR52" s="11"/>
-      <c r="AS52" s="5"/>
-    </row>
-    <row r="53" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="5"/>
+    </row>
+    <row r="53" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5215,21 +5379,23 @@
       <c r="AD53" s="10"/>
       <c r="AE53" s="10"/>
       <c r="AF53" s="10"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
       <c r="AI53" s="11"/>
-      <c r="AJ53" s="10"/>
-      <c r="AK53" s="10"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
       <c r="AL53" s="10"/>
       <c r="AM53" s="10"/>
       <c r="AN53" s="10"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
       <c r="AQ53" s="11"/>
       <c r="AR53" s="11"/>
-      <c r="AS53" s="5"/>
-    </row>
-    <row r="54" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="5"/>
+    </row>
+    <row r="54" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5262,21 +5428,23 @@
       <c r="AD54" s="10"/>
       <c r="AE54" s="10"/>
       <c r="AF54" s="10"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
       <c r="AI54" s="11"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="10"/>
       <c r="AN54" s="10"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="10"/>
       <c r="AQ54" s="11"/>
       <c r="AR54" s="11"/>
-      <c r="AS54" s="5"/>
-    </row>
-    <row r="55" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="5"/>
+    </row>
+    <row r="55" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5309,21 +5477,23 @@
       <c r="AD55" s="10"/>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
       <c r="AI55" s="11"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="10"/>
       <c r="AN55" s="10"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
       <c r="AQ55" s="11"/>
       <c r="AR55" s="11"/>
-      <c r="AS55" s="5"/>
-    </row>
-    <row r="56" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="5"/>
+    </row>
+    <row r="56" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5356,21 +5526,23 @@
       <c r="AD56" s="10"/>
       <c r="AE56" s="10"/>
       <c r="AF56" s="10"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
       <c r="AI56" s="11"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="10"/>
       <c r="AN56" s="10"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
       <c r="AQ56" s="11"/>
       <c r="AR56" s="11"/>
-      <c r="AS56" s="5"/>
-    </row>
-    <row r="57" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="5"/>
+    </row>
+    <row r="57" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5403,21 +5575,23 @@
       <c r="AD57" s="10"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="10"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
       <c r="AI57" s="11"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
       <c r="AL57" s="10"/>
       <c r="AM57" s="10"/>
       <c r="AN57" s="10"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
       <c r="AQ57" s="11"/>
       <c r="AR57" s="11"/>
-      <c r="AS57" s="5"/>
-    </row>
-    <row r="58" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="5"/>
+    </row>
+    <row r="58" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5450,21 +5624,23 @@
       <c r="AD58" s="10"/>
       <c r="AE58" s="10"/>
       <c r="AF58" s="10"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
       <c r="AI58" s="11"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
       <c r="AL58" s="10"/>
       <c r="AM58" s="10"/>
       <c r="AN58" s="10"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
       <c r="AQ58" s="11"/>
       <c r="AR58" s="11"/>
-      <c r="AS58" s="5"/>
-    </row>
-    <row r="59" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="5"/>
+    </row>
+    <row r="59" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5497,21 +5673,23 @@
       <c r="AD59" s="10"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="10"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
       <c r="AI59" s="11"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
       <c r="AL59" s="10"/>
       <c r="AM59" s="10"/>
       <c r="AN59" s="10"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="10"/>
       <c r="AQ59" s="11"/>
       <c r="AR59" s="11"/>
-      <c r="AS59" s="5"/>
-    </row>
-    <row r="60" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="5"/>
+    </row>
+    <row r="60" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5544,21 +5722,23 @@
       <c r="AD60" s="10"/>
       <c r="AE60" s="10"/>
       <c r="AF60" s="10"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
       <c r="AI60" s="11"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
       <c r="AL60" s="10"/>
       <c r="AM60" s="10"/>
       <c r="AN60" s="10"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
       <c r="AQ60" s="11"/>
       <c r="AR60" s="11"/>
-      <c r="AS60" s="5"/>
-    </row>
-    <row r="61" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="5"/>
+    </row>
+    <row r="61" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5591,21 +5771,23 @@
       <c r="AD61" s="10"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="10"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
       <c r="AI61" s="11"/>
-      <c r="AJ61" s="10"/>
-      <c r="AK61" s="10"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
       <c r="AL61" s="10"/>
       <c r="AM61" s="10"/>
       <c r="AN61" s="10"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
+      <c r="AO61" s="10"/>
+      <c r="AP61" s="10"/>
       <c r="AQ61" s="11"/>
       <c r="AR61" s="11"/>
-      <c r="AS61" s="5"/>
-    </row>
-    <row r="62" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="5"/>
+    </row>
+    <row r="62" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5638,21 +5820,23 @@
       <c r="AD62" s="10"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10"/>
       <c r="AI62" s="11"/>
-      <c r="AJ62" s="10"/>
-      <c r="AK62" s="10"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
       <c r="AL62" s="10"/>
       <c r="AM62" s="10"/>
       <c r="AN62" s="10"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
+      <c r="AO62" s="10"/>
+      <c r="AP62" s="10"/>
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
-      <c r="AS62" s="5"/>
-    </row>
-    <row r="63" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS62" s="11"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="5"/>
+    </row>
+    <row r="63" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5685,21 +5869,23 @@
       <c r="AD63" s="10"/>
       <c r="AE63" s="10"/>
       <c r="AF63" s="10"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
       <c r="AI63" s="11"/>
-      <c r="AJ63" s="10"/>
-      <c r="AK63" s="10"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
       <c r="AL63" s="10"/>
       <c r="AM63" s="10"/>
       <c r="AN63" s="10"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="10"/>
       <c r="AQ63" s="11"/>
       <c r="AR63" s="11"/>
-      <c r="AS63" s="5"/>
-    </row>
-    <row r="64" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="5"/>
+    </row>
+    <row r="64" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5732,21 +5918,23 @@
       <c r="AD64" s="10"/>
       <c r="AE64" s="10"/>
       <c r="AF64" s="10"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
       <c r="AI64" s="11"/>
-      <c r="AJ64" s="10"/>
-      <c r="AK64" s="10"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
       <c r="AL64" s="10"/>
       <c r="AM64" s="10"/>
       <c r="AN64" s="10"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
       <c r="AQ64" s="11"/>
       <c r="AR64" s="11"/>
-      <c r="AS64" s="5"/>
-    </row>
-    <row r="65" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="5"/>
+    </row>
+    <row r="65" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5779,21 +5967,23 @@
       <c r="AD65" s="10"/>
       <c r="AE65" s="10"/>
       <c r="AF65" s="10"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="11"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
       <c r="AI65" s="11"/>
-      <c r="AJ65" s="10"/>
-      <c r="AK65" s="10"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
       <c r="AL65" s="10"/>
       <c r="AM65" s="10"/>
       <c r="AN65" s="10"/>
-      <c r="AO65" s="11"/>
-      <c r="AP65" s="11"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
       <c r="AQ65" s="11"/>
       <c r="AR65" s="11"/>
-      <c r="AS65" s="5"/>
-    </row>
-    <row r="66" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="5"/>
+    </row>
+    <row r="66" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5826,21 +6016,23 @@
       <c r="AD66" s="10"/>
       <c r="AE66" s="10"/>
       <c r="AF66" s="10"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
       <c r="AI66" s="11"/>
-      <c r="AJ66" s="10"/>
-      <c r="AK66" s="10"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
       <c r="AL66" s="10"/>
       <c r="AM66" s="10"/>
       <c r="AN66" s="10"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
       <c r="AQ66" s="11"/>
       <c r="AR66" s="11"/>
-      <c r="AS66" s="5"/>
-    </row>
-    <row r="67" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="5"/>
+    </row>
+    <row r="67" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5873,21 +6065,23 @@
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
       <c r="AF67" s="10"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
       <c r="AI67" s="11"/>
-      <c r="AJ67" s="10"/>
-      <c r="AK67" s="10"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
       <c r="AL67" s="10"/>
       <c r="AM67" s="10"/>
       <c r="AN67" s="10"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
       <c r="AQ67" s="11"/>
       <c r="AR67" s="11"/>
-      <c r="AS67" s="5"/>
-    </row>
-    <row r="68" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="5"/>
+    </row>
+    <row r="68" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5920,21 +6114,23 @@
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
       <c r="AF68" s="10"/>
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
       <c r="AI68" s="11"/>
-      <c r="AJ68" s="10"/>
-      <c r="AK68" s="10"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
       <c r="AL68" s="10"/>
       <c r="AM68" s="10"/>
       <c r="AN68" s="10"/>
-      <c r="AO68" s="11"/>
-      <c r="AP68" s="11"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="10"/>
       <c r="AQ68" s="11"/>
       <c r="AR68" s="11"/>
-      <c r="AS68" s="5"/>
-    </row>
-    <row r="69" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="5"/>
+    </row>
+    <row r="69" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5967,21 +6163,23 @@
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
       <c r="AF69" s="10"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
       <c r="AI69" s="11"/>
-      <c r="AJ69" s="10"/>
-      <c r="AK69" s="10"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
       <c r="AL69" s="10"/>
       <c r="AM69" s="10"/>
       <c r="AN69" s="10"/>
-      <c r="AO69" s="11"/>
-      <c r="AP69" s="11"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
       <c r="AQ69" s="11"/>
       <c r="AR69" s="11"/>
-      <c r="AS69" s="5"/>
-    </row>
-    <row r="70" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS69" s="11"/>
+      <c r="AT69" s="11"/>
+      <c r="AU69" s="5"/>
+    </row>
+    <row r="70" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -6014,21 +6212,23 @@
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
       <c r="AF70" s="10"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
       <c r="AI70" s="11"/>
-      <c r="AJ70" s="10"/>
-      <c r="AK70" s="10"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
       <c r="AL70" s="10"/>
       <c r="AM70" s="10"/>
       <c r="AN70" s="10"/>
-      <c r="AO70" s="11"/>
-      <c r="AP70" s="11"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
       <c r="AQ70" s="11"/>
       <c r="AR70" s="11"/>
-      <c r="AS70" s="5"/>
-    </row>
-    <row r="71" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS70" s="11"/>
+      <c r="AT70" s="11"/>
+      <c r="AU70" s="5"/>
+    </row>
+    <row r="71" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -6061,21 +6261,23 @@
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
       <c r="AF71" s="10"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
       <c r="AI71" s="11"/>
-      <c r="AJ71" s="10"/>
-      <c r="AK71" s="10"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
       <c r="AL71" s="10"/>
       <c r="AM71" s="10"/>
       <c r="AN71" s="10"/>
-      <c r="AO71" s="11"/>
-      <c r="AP71" s="11"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
       <c r="AQ71" s="11"/>
       <c r="AR71" s="11"/>
-      <c r="AS71" s="5"/>
-    </row>
-    <row r="72" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="5"/>
+    </row>
+    <row r="72" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -6108,21 +6310,23 @@
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
       <c r="AF72" s="10"/>
-      <c r="AG72" s="11"/>
-      <c r="AH72" s="11"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
       <c r="AI72" s="11"/>
-      <c r="AJ72" s="10"/>
-      <c r="AK72" s="10"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
       <c r="AL72" s="10"/>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
-      <c r="AO72" s="11"/>
-      <c r="AP72" s="11"/>
+      <c r="AO72" s="10"/>
+      <c r="AP72" s="10"/>
       <c r="AQ72" s="11"/>
       <c r="AR72" s="11"/>
-      <c r="AS72" s="5"/>
-    </row>
-    <row r="73" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS72" s="11"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="5"/>
+    </row>
+    <row r="73" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -6155,21 +6359,23 @@
       <c r="AD73" s="10"/>
       <c r="AE73" s="10"/>
       <c r="AF73" s="10"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
       <c r="AI73" s="11"/>
-      <c r="AJ73" s="10"/>
-      <c r="AK73" s="10"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
       <c r="AL73" s="10"/>
       <c r="AM73" s="10"/>
       <c r="AN73" s="10"/>
-      <c r="AO73" s="11"/>
-      <c r="AP73" s="11"/>
+      <c r="AO73" s="10"/>
+      <c r="AP73" s="10"/>
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
-      <c r="AS73" s="5"/>
-    </row>
-    <row r="74" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="5"/>
+    </row>
+    <row r="74" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -6202,21 +6408,23 @@
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
       <c r="AF74" s="10"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
       <c r="AI74" s="11"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
       <c r="AL74" s="10"/>
       <c r="AM74" s="10"/>
       <c r="AN74" s="10"/>
-      <c r="AO74" s="11"/>
-      <c r="AP74" s="11"/>
+      <c r="AO74" s="10"/>
+      <c r="AP74" s="10"/>
       <c r="AQ74" s="11"/>
       <c r="AR74" s="11"/>
-      <c r="AS74" s="5"/>
-    </row>
-    <row r="75" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="5"/>
+    </row>
+    <row r="75" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -6249,21 +6457,23 @@
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
       <c r="AF75" s="10"/>
-      <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
+      <c r="AG75" s="10"/>
+      <c r="AH75" s="10"/>
       <c r="AI75" s="11"/>
-      <c r="AJ75" s="10"/>
-      <c r="AK75" s="10"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
       <c r="AL75" s="10"/>
       <c r="AM75" s="10"/>
       <c r="AN75" s="10"/>
-      <c r="AO75" s="11"/>
-      <c r="AP75" s="11"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="10"/>
       <c r="AQ75" s="11"/>
       <c r="AR75" s="11"/>
-      <c r="AS75" s="5"/>
-    </row>
-    <row r="76" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS75" s="11"/>
+      <c r="AT75" s="11"/>
+      <c r="AU75" s="5"/>
+    </row>
+    <row r="76" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -6296,21 +6506,23 @@
       <c r="AD76" s="10"/>
       <c r="AE76" s="10"/>
       <c r="AF76" s="10"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
       <c r="AI76" s="11"/>
-      <c r="AJ76" s="10"/>
-      <c r="AK76" s="10"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
       <c r="AL76" s="10"/>
       <c r="AM76" s="10"/>
       <c r="AN76" s="10"/>
-      <c r="AO76" s="11"/>
-      <c r="AP76" s="11"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
       <c r="AQ76" s="11"/>
       <c r="AR76" s="11"/>
-      <c r="AS76" s="5"/>
-    </row>
-    <row r="77" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS76" s="11"/>
+      <c r="AT76" s="11"/>
+      <c r="AU76" s="5"/>
+    </row>
+    <row r="77" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -6343,21 +6555,23 @@
       <c r="AD77" s="10"/>
       <c r="AE77" s="10"/>
       <c r="AF77" s="10"/>
-      <c r="AG77" s="11"/>
-      <c r="AH77" s="11"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
       <c r="AI77" s="11"/>
-      <c r="AJ77" s="10"/>
-      <c r="AK77" s="10"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
       <c r="AL77" s="10"/>
       <c r="AM77" s="10"/>
       <c r="AN77" s="10"/>
-      <c r="AO77" s="11"/>
-      <c r="AP77" s="11"/>
+      <c r="AO77" s="10"/>
+      <c r="AP77" s="10"/>
       <c r="AQ77" s="11"/>
       <c r="AR77" s="11"/>
-      <c r="AS77" s="5"/>
-    </row>
-    <row r="78" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS77" s="11"/>
+      <c r="AT77" s="11"/>
+      <c r="AU77" s="5"/>
+    </row>
+    <row r="78" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -6390,21 +6604,23 @@
       <c r="AD78" s="10"/>
       <c r="AE78" s="10"/>
       <c r="AF78" s="10"/>
-      <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
+      <c r="AG78" s="10"/>
+      <c r="AH78" s="10"/>
       <c r="AI78" s="11"/>
-      <c r="AJ78" s="10"/>
-      <c r="AK78" s="10"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11"/>
       <c r="AL78" s="10"/>
       <c r="AM78" s="10"/>
       <c r="AN78" s="10"/>
-      <c r="AO78" s="11"/>
-      <c r="AP78" s="11"/>
+      <c r="AO78" s="10"/>
+      <c r="AP78" s="10"/>
       <c r="AQ78" s="11"/>
       <c r="AR78" s="11"/>
-      <c r="AS78" s="5"/>
-    </row>
-    <row r="79" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS78" s="11"/>
+      <c r="AT78" s="11"/>
+      <c r="AU78" s="5"/>
+    </row>
+    <row r="79" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6437,21 +6653,23 @@
       <c r="AD79" s="10"/>
       <c r="AE79" s="10"/>
       <c r="AF79" s="10"/>
-      <c r="AG79" s="11"/>
-      <c r="AH79" s="11"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
       <c r="AI79" s="11"/>
-      <c r="AJ79" s="10"/>
-      <c r="AK79" s="10"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
       <c r="AL79" s="10"/>
       <c r="AM79" s="10"/>
       <c r="AN79" s="10"/>
-      <c r="AO79" s="11"/>
-      <c r="AP79" s="11"/>
+      <c r="AO79" s="10"/>
+      <c r="AP79" s="10"/>
       <c r="AQ79" s="11"/>
       <c r="AR79" s="11"/>
-      <c r="AS79" s="5"/>
-    </row>
-    <row r="80" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS79" s="11"/>
+      <c r="AT79" s="11"/>
+      <c r="AU79" s="5"/>
+    </row>
+    <row r="80" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -6484,21 +6702,23 @@
       <c r="AD80" s="10"/>
       <c r="AE80" s="10"/>
       <c r="AF80" s="10"/>
-      <c r="AG80" s="11"/>
-      <c r="AH80" s="11"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
       <c r="AI80" s="11"/>
-      <c r="AJ80" s="10"/>
-      <c r="AK80" s="10"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
       <c r="AL80" s="10"/>
       <c r="AM80" s="10"/>
       <c r="AN80" s="10"/>
-      <c r="AO80" s="11"/>
-      <c r="AP80" s="11"/>
+      <c r="AO80" s="10"/>
+      <c r="AP80" s="10"/>
       <c r="AQ80" s="11"/>
       <c r="AR80" s="11"/>
-      <c r="AS80" s="5"/>
-    </row>
-    <row r="81" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS80" s="11"/>
+      <c r="AT80" s="11"/>
+      <c r="AU80" s="5"/>
+    </row>
+    <row r="81" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -6531,21 +6751,23 @@
       <c r="AD81" s="10"/>
       <c r="AE81" s="10"/>
       <c r="AF81" s="10"/>
-      <c r="AG81" s="11"/>
-      <c r="AH81" s="11"/>
+      <c r="AG81" s="10"/>
+      <c r="AH81" s="10"/>
       <c r="AI81" s="11"/>
-      <c r="AJ81" s="10"/>
-      <c r="AK81" s="10"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
       <c r="AL81" s="10"/>
       <c r="AM81" s="10"/>
       <c r="AN81" s="10"/>
-      <c r="AO81" s="11"/>
-      <c r="AP81" s="11"/>
+      <c r="AO81" s="10"/>
+      <c r="AP81" s="10"/>
       <c r="AQ81" s="11"/>
       <c r="AR81" s="11"/>
-      <c r="AS81" s="5"/>
-    </row>
-    <row r="82" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS81" s="11"/>
+      <c r="AT81" s="11"/>
+      <c r="AU81" s="5"/>
+    </row>
+    <row r="82" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -6578,21 +6800,23 @@
       <c r="AD82" s="10"/>
       <c r="AE82" s="10"/>
       <c r="AF82" s="10"/>
-      <c r="AG82" s="11"/>
-      <c r="AH82" s="11"/>
+      <c r="AG82" s="10"/>
+      <c r="AH82" s="10"/>
       <c r="AI82" s="11"/>
-      <c r="AJ82" s="10"/>
-      <c r="AK82" s="10"/>
+      <c r="AJ82" s="11"/>
+      <c r="AK82" s="11"/>
       <c r="AL82" s="10"/>
       <c r="AM82" s="10"/>
       <c r="AN82" s="10"/>
-      <c r="AO82" s="11"/>
-      <c r="AP82" s="11"/>
+      <c r="AO82" s="10"/>
+      <c r="AP82" s="10"/>
       <c r="AQ82" s="11"/>
       <c r="AR82" s="11"/>
-      <c r="AS82" s="5"/>
-    </row>
-    <row r="83" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS82" s="11"/>
+      <c r="AT82" s="11"/>
+      <c r="AU82" s="5"/>
+    </row>
+    <row r="83" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -6625,21 +6849,23 @@
       <c r="AD83" s="10"/>
       <c r="AE83" s="10"/>
       <c r="AF83" s="10"/>
-      <c r="AG83" s="11"/>
-      <c r="AH83" s="11"/>
+      <c r="AG83" s="10"/>
+      <c r="AH83" s="10"/>
       <c r="AI83" s="11"/>
-      <c r="AJ83" s="10"/>
-      <c r="AK83" s="10"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
       <c r="AL83" s="10"/>
       <c r="AM83" s="10"/>
       <c r="AN83" s="10"/>
-      <c r="AO83" s="11"/>
-      <c r="AP83" s="11"/>
+      <c r="AO83" s="10"/>
+      <c r="AP83" s="10"/>
       <c r="AQ83" s="11"/>
       <c r="AR83" s="11"/>
-      <c r="AS83" s="5"/>
-    </row>
-    <row r="84" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS83" s="11"/>
+      <c r="AT83" s="11"/>
+      <c r="AU83" s="5"/>
+    </row>
+    <row r="84" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -6672,21 +6898,23 @@
       <c r="AD84" s="10"/>
       <c r="AE84" s="10"/>
       <c r="AF84" s="10"/>
-      <c r="AG84" s="11"/>
-      <c r="AH84" s="11"/>
+      <c r="AG84" s="10"/>
+      <c r="AH84" s="10"/>
       <c r="AI84" s="11"/>
-      <c r="AJ84" s="10"/>
-      <c r="AK84" s="10"/>
+      <c r="AJ84" s="11"/>
+      <c r="AK84" s="11"/>
       <c r="AL84" s="10"/>
       <c r="AM84" s="10"/>
       <c r="AN84" s="10"/>
-      <c r="AO84" s="11"/>
-      <c r="AP84" s="11"/>
+      <c r="AO84" s="10"/>
+      <c r="AP84" s="10"/>
       <c r="AQ84" s="11"/>
       <c r="AR84" s="11"/>
-      <c r="AS84" s="5"/>
-    </row>
-    <row r="85" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS84" s="11"/>
+      <c r="AT84" s="11"/>
+      <c r="AU84" s="5"/>
+    </row>
+    <row r="85" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -6719,21 +6947,23 @@
       <c r="AD85" s="10"/>
       <c r="AE85" s="10"/>
       <c r="AF85" s="10"/>
-      <c r="AG85" s="11"/>
-      <c r="AH85" s="11"/>
+      <c r="AG85" s="10"/>
+      <c r="AH85" s="10"/>
       <c r="AI85" s="11"/>
-      <c r="AJ85" s="10"/>
-      <c r="AK85" s="10"/>
+      <c r="AJ85" s="11"/>
+      <c r="AK85" s="11"/>
       <c r="AL85" s="10"/>
       <c r="AM85" s="10"/>
       <c r="AN85" s="10"/>
-      <c r="AO85" s="11"/>
-      <c r="AP85" s="11"/>
+      <c r="AO85" s="10"/>
+      <c r="AP85" s="10"/>
       <c r="AQ85" s="11"/>
       <c r="AR85" s="11"/>
-      <c r="AS85" s="5"/>
-    </row>
-    <row r="86" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS85" s="11"/>
+      <c r="AT85" s="11"/>
+      <c r="AU85" s="5"/>
+    </row>
+    <row r="86" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -6766,21 +6996,23 @@
       <c r="AD86" s="10"/>
       <c r="AE86" s="10"/>
       <c r="AF86" s="10"/>
-      <c r="AG86" s="11"/>
-      <c r="AH86" s="11"/>
+      <c r="AG86" s="10"/>
+      <c r="AH86" s="10"/>
       <c r="AI86" s="11"/>
-      <c r="AJ86" s="10"/>
-      <c r="AK86" s="10"/>
+      <c r="AJ86" s="11"/>
+      <c r="AK86" s="11"/>
       <c r="AL86" s="10"/>
       <c r="AM86" s="10"/>
       <c r="AN86" s="10"/>
-      <c r="AO86" s="11"/>
-      <c r="AP86" s="11"/>
+      <c r="AO86" s="10"/>
+      <c r="AP86" s="10"/>
       <c r="AQ86" s="11"/>
       <c r="AR86" s="11"/>
-      <c r="AS86" s="5"/>
-    </row>
-    <row r="87" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS86" s="11"/>
+      <c r="AT86" s="11"/>
+      <c r="AU86" s="5"/>
+    </row>
+    <row r="87" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -6813,21 +7045,23 @@
       <c r="AD87" s="10"/>
       <c r="AE87" s="10"/>
       <c r="AF87" s="10"/>
-      <c r="AG87" s="11"/>
-      <c r="AH87" s="11"/>
+      <c r="AG87" s="10"/>
+      <c r="AH87" s="10"/>
       <c r="AI87" s="11"/>
-      <c r="AJ87" s="10"/>
-      <c r="AK87" s="10"/>
+      <c r="AJ87" s="11"/>
+      <c r="AK87" s="11"/>
       <c r="AL87" s="10"/>
       <c r="AM87" s="10"/>
       <c r="AN87" s="10"/>
-      <c r="AO87" s="11"/>
-      <c r="AP87" s="11"/>
+      <c r="AO87" s="10"/>
+      <c r="AP87" s="10"/>
       <c r="AQ87" s="11"/>
       <c r="AR87" s="11"/>
-      <c r="AS87" s="5"/>
-    </row>
-    <row r="88" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="11"/>
+      <c r="AU87" s="5"/>
+    </row>
+    <row r="88" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -6860,21 +7094,23 @@
       <c r="AD88" s="10"/>
       <c r="AE88" s="10"/>
       <c r="AF88" s="10"/>
-      <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
+      <c r="AG88" s="10"/>
+      <c r="AH88" s="10"/>
       <c r="AI88" s="11"/>
-      <c r="AJ88" s="10"/>
-      <c r="AK88" s="10"/>
+      <c r="AJ88" s="11"/>
+      <c r="AK88" s="11"/>
       <c r="AL88" s="10"/>
       <c r="AM88" s="10"/>
       <c r="AN88" s="10"/>
-      <c r="AO88" s="11"/>
-      <c r="AP88" s="11"/>
+      <c r="AO88" s="10"/>
+      <c r="AP88" s="10"/>
       <c r="AQ88" s="11"/>
       <c r="AR88" s="11"/>
-      <c r="AS88" s="5"/>
-    </row>
-    <row r="89" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS88" s="11"/>
+      <c r="AT88" s="11"/>
+      <c r="AU88" s="5"/>
+    </row>
+    <row r="89" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -6907,21 +7143,23 @@
       <c r="AD89" s="10"/>
       <c r="AE89" s="10"/>
       <c r="AF89" s="10"/>
-      <c r="AG89" s="11"/>
-      <c r="AH89" s="11"/>
+      <c r="AG89" s="10"/>
+      <c r="AH89" s="10"/>
       <c r="AI89" s="11"/>
-      <c r="AJ89" s="10"/>
-      <c r="AK89" s="10"/>
+      <c r="AJ89" s="11"/>
+      <c r="AK89" s="11"/>
       <c r="AL89" s="10"/>
       <c r="AM89" s="10"/>
       <c r="AN89" s="10"/>
-      <c r="AO89" s="11"/>
-      <c r="AP89" s="11"/>
+      <c r="AO89" s="10"/>
+      <c r="AP89" s="10"/>
       <c r="AQ89" s="11"/>
       <c r="AR89" s="11"/>
-      <c r="AS89" s="5"/>
-    </row>
-    <row r="90" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS89" s="11"/>
+      <c r="AT89" s="11"/>
+      <c r="AU89" s="5"/>
+    </row>
+    <row r="90" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -6954,21 +7192,23 @@
       <c r="AD90" s="10"/>
       <c r="AE90" s="10"/>
       <c r="AF90" s="10"/>
-      <c r="AG90" s="11"/>
-      <c r="AH90" s="11"/>
+      <c r="AG90" s="10"/>
+      <c r="AH90" s="10"/>
       <c r="AI90" s="11"/>
-      <c r="AJ90" s="10"/>
-      <c r="AK90" s="10"/>
+      <c r="AJ90" s="11"/>
+      <c r="AK90" s="11"/>
       <c r="AL90" s="10"/>
       <c r="AM90" s="10"/>
       <c r="AN90" s="10"/>
-      <c r="AO90" s="11"/>
-      <c r="AP90" s="11"/>
+      <c r="AO90" s="10"/>
+      <c r="AP90" s="10"/>
       <c r="AQ90" s="11"/>
       <c r="AR90" s="11"/>
-      <c r="AS90" s="5"/>
-    </row>
-    <row r="91" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS90" s="11"/>
+      <c r="AT90" s="11"/>
+      <c r="AU90" s="5"/>
+    </row>
+    <row r="91" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -7001,21 +7241,23 @@
       <c r="AD91" s="10"/>
       <c r="AE91" s="10"/>
       <c r="AF91" s="10"/>
-      <c r="AG91" s="11"/>
-      <c r="AH91" s="11"/>
+      <c r="AG91" s="10"/>
+      <c r="AH91" s="10"/>
       <c r="AI91" s="11"/>
-      <c r="AJ91" s="10"/>
-      <c r="AK91" s="10"/>
+      <c r="AJ91" s="11"/>
+      <c r="AK91" s="11"/>
       <c r="AL91" s="10"/>
       <c r="AM91" s="10"/>
       <c r="AN91" s="10"/>
-      <c r="AO91" s="11"/>
-      <c r="AP91" s="11"/>
+      <c r="AO91" s="10"/>
+      <c r="AP91" s="10"/>
       <c r="AQ91" s="11"/>
       <c r="AR91" s="11"/>
-      <c r="AS91" s="5"/>
-    </row>
-    <row r="92" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS91" s="11"/>
+      <c r="AT91" s="11"/>
+      <c r="AU91" s="5"/>
+    </row>
+    <row r="92" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -7048,21 +7290,23 @@
       <c r="AD92" s="10"/>
       <c r="AE92" s="10"/>
       <c r="AF92" s="10"/>
-      <c r="AG92" s="11"/>
-      <c r="AH92" s="11"/>
+      <c r="AG92" s="10"/>
+      <c r="AH92" s="10"/>
       <c r="AI92" s="11"/>
-      <c r="AJ92" s="10"/>
-      <c r="AK92" s="10"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
       <c r="AL92" s="10"/>
       <c r="AM92" s="10"/>
       <c r="AN92" s="10"/>
-      <c r="AO92" s="11"/>
-      <c r="AP92" s="11"/>
+      <c r="AO92" s="10"/>
+      <c r="AP92" s="10"/>
       <c r="AQ92" s="11"/>
       <c r="AR92" s="11"/>
-      <c r="AS92" s="5"/>
-    </row>
-    <row r="93" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS92" s="11"/>
+      <c r="AT92" s="11"/>
+      <c r="AU92" s="5"/>
+    </row>
+    <row r="93" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -7095,21 +7339,23 @@
       <c r="AD93" s="10"/>
       <c r="AE93" s="10"/>
       <c r="AF93" s="10"/>
-      <c r="AG93" s="11"/>
-      <c r="AH93" s="11"/>
+      <c r="AG93" s="10"/>
+      <c r="AH93" s="10"/>
       <c r="AI93" s="11"/>
-      <c r="AJ93" s="10"/>
-      <c r="AK93" s="10"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
       <c r="AL93" s="10"/>
       <c r="AM93" s="10"/>
       <c r="AN93" s="10"/>
-      <c r="AO93" s="11"/>
-      <c r="AP93" s="11"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
       <c r="AQ93" s="11"/>
       <c r="AR93" s="11"/>
-      <c r="AS93" s="5"/>
-    </row>
-    <row r="94" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS93" s="11"/>
+      <c r="AT93" s="11"/>
+      <c r="AU93" s="5"/>
+    </row>
+    <row r="94" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -7142,21 +7388,23 @@
       <c r="AD94" s="10"/>
       <c r="AE94" s="10"/>
       <c r="AF94" s="10"/>
-      <c r="AG94" s="11"/>
-      <c r="AH94" s="11"/>
+      <c r="AG94" s="10"/>
+      <c r="AH94" s="10"/>
       <c r="AI94" s="11"/>
-      <c r="AJ94" s="10"/>
-      <c r="AK94" s="10"/>
+      <c r="AJ94" s="11"/>
+      <c r="AK94" s="11"/>
       <c r="AL94" s="10"/>
       <c r="AM94" s="10"/>
       <c r="AN94" s="10"/>
-      <c r="AO94" s="11"/>
-      <c r="AP94" s="11"/>
+      <c r="AO94" s="10"/>
+      <c r="AP94" s="10"/>
       <c r="AQ94" s="11"/>
       <c r="AR94" s="11"/>
-      <c r="AS94" s="5"/>
-    </row>
-    <row r="95" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="11"/>
+      <c r="AU94" s="5"/>
+    </row>
+    <row r="95" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -7189,21 +7437,23 @@
       <c r="AD95" s="10"/>
       <c r="AE95" s="10"/>
       <c r="AF95" s="10"/>
-      <c r="AG95" s="11"/>
-      <c r="AH95" s="11"/>
+      <c r="AG95" s="10"/>
+      <c r="AH95" s="10"/>
       <c r="AI95" s="11"/>
-      <c r="AJ95" s="10"/>
-      <c r="AK95" s="10"/>
+      <c r="AJ95" s="11"/>
+      <c r="AK95" s="11"/>
       <c r="AL95" s="10"/>
       <c r="AM95" s="10"/>
       <c r="AN95" s="10"/>
-      <c r="AO95" s="11"/>
-      <c r="AP95" s="11"/>
+      <c r="AO95" s="10"/>
+      <c r="AP95" s="10"/>
       <c r="AQ95" s="11"/>
       <c r="AR95" s="11"/>
-      <c r="AS95" s="5"/>
-    </row>
-    <row r="96" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="11"/>
+      <c r="AU95" s="5"/>
+    </row>
+    <row r="96" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -7236,21 +7486,23 @@
       <c r="AD96" s="10"/>
       <c r="AE96" s="10"/>
       <c r="AF96" s="10"/>
-      <c r="AG96" s="11"/>
-      <c r="AH96" s="11"/>
+      <c r="AG96" s="10"/>
+      <c r="AH96" s="10"/>
       <c r="AI96" s="11"/>
-      <c r="AJ96" s="10"/>
-      <c r="AK96" s="10"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="11"/>
       <c r="AL96" s="10"/>
       <c r="AM96" s="10"/>
       <c r="AN96" s="10"/>
-      <c r="AO96" s="11"/>
-      <c r="AP96" s="11"/>
+      <c r="AO96" s="10"/>
+      <c r="AP96" s="10"/>
       <c r="AQ96" s="11"/>
       <c r="AR96" s="11"/>
-      <c r="AS96" s="5"/>
-    </row>
-    <row r="97" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS96" s="11"/>
+      <c r="AT96" s="11"/>
+      <c r="AU96" s="5"/>
+    </row>
+    <row r="97" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -7283,21 +7535,23 @@
       <c r="AD97" s="10"/>
       <c r="AE97" s="10"/>
       <c r="AF97" s="10"/>
-      <c r="AG97" s="11"/>
-      <c r="AH97" s="11"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="10"/>
       <c r="AI97" s="11"/>
-      <c r="AJ97" s="10"/>
-      <c r="AK97" s="10"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="11"/>
       <c r="AL97" s="10"/>
       <c r="AM97" s="10"/>
       <c r="AN97" s="10"/>
-      <c r="AO97" s="11"/>
-      <c r="AP97" s="11"/>
+      <c r="AO97" s="10"/>
+      <c r="AP97" s="10"/>
       <c r="AQ97" s="11"/>
       <c r="AR97" s="11"/>
-      <c r="AS97" s="5"/>
-    </row>
-    <row r="98" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS97" s="11"/>
+      <c r="AT97" s="11"/>
+      <c r="AU97" s="5"/>
+    </row>
+    <row r="98" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7330,21 +7584,23 @@
       <c r="AD98" s="10"/>
       <c r="AE98" s="10"/>
       <c r="AF98" s="10"/>
-      <c r="AG98" s="11"/>
-      <c r="AH98" s="11"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
       <c r="AI98" s="11"/>
-      <c r="AJ98" s="10"/>
-      <c r="AK98" s="10"/>
+      <c r="AJ98" s="11"/>
+      <c r="AK98" s="11"/>
       <c r="AL98" s="10"/>
       <c r="AM98" s="10"/>
       <c r="AN98" s="10"/>
-      <c r="AO98" s="11"/>
-      <c r="AP98" s="11"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
       <c r="AQ98" s="11"/>
       <c r="AR98" s="11"/>
-      <c r="AS98" s="5"/>
-    </row>
-    <row r="99" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS98" s="11"/>
+      <c r="AT98" s="11"/>
+      <c r="AU98" s="5"/>
+    </row>
+    <row r="99" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -7377,21 +7633,23 @@
       <c r="AD99" s="10"/>
       <c r="AE99" s="10"/>
       <c r="AF99" s="10"/>
-      <c r="AG99" s="11"/>
-      <c r="AH99" s="11"/>
+      <c r="AG99" s="10"/>
+      <c r="AH99" s="10"/>
       <c r="AI99" s="11"/>
-      <c r="AJ99" s="10"/>
-      <c r="AK99" s="10"/>
+      <c r="AJ99" s="11"/>
+      <c r="AK99" s="11"/>
       <c r="AL99" s="10"/>
       <c r="AM99" s="10"/>
       <c r="AN99" s="10"/>
-      <c r="AO99" s="11"/>
-      <c r="AP99" s="11"/>
+      <c r="AO99" s="10"/>
+      <c r="AP99" s="10"/>
       <c r="AQ99" s="11"/>
       <c r="AR99" s="11"/>
-      <c r="AS99" s="5"/>
-    </row>
-    <row r="100" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS99" s="11"/>
+      <c r="AT99" s="11"/>
+      <c r="AU99" s="5"/>
+    </row>
+    <row r="100" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -7424,21 +7682,23 @@
       <c r="AD100" s="10"/>
       <c r="AE100" s="10"/>
       <c r="AF100" s="10"/>
-      <c r="AG100" s="11"/>
-      <c r="AH100" s="11"/>
+      <c r="AG100" s="10"/>
+      <c r="AH100" s="10"/>
       <c r="AI100" s="11"/>
-      <c r="AJ100" s="10"/>
-      <c r="AK100" s="10"/>
+      <c r="AJ100" s="11"/>
+      <c r="AK100" s="11"/>
       <c r="AL100" s="10"/>
       <c r="AM100" s="10"/>
       <c r="AN100" s="10"/>
-      <c r="AO100" s="11"/>
-      <c r="AP100" s="11"/>
+      <c r="AO100" s="10"/>
+      <c r="AP100" s="10"/>
       <c r="AQ100" s="11"/>
       <c r="AR100" s="11"/>
-      <c r="AS100" s="5"/>
-    </row>
-    <row r="101" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS100" s="11"/>
+      <c r="AT100" s="11"/>
+      <c r="AU100" s="5"/>
+    </row>
+    <row r="101" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -7471,21 +7731,23 @@
       <c r="AD101" s="10"/>
       <c r="AE101" s="10"/>
       <c r="AF101" s="10"/>
-      <c r="AG101" s="11"/>
-      <c r="AH101" s="11"/>
+      <c r="AG101" s="10"/>
+      <c r="AH101" s="10"/>
       <c r="AI101" s="11"/>
-      <c r="AJ101" s="10"/>
-      <c r="AK101" s="10"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
       <c r="AL101" s="10"/>
       <c r="AM101" s="10"/>
       <c r="AN101" s="10"/>
-      <c r="AO101" s="11"/>
-      <c r="AP101" s="11"/>
+      <c r="AO101" s="10"/>
+      <c r="AP101" s="10"/>
       <c r="AQ101" s="11"/>
       <c r="AR101" s="11"/>
-      <c r="AS101" s="5"/>
-    </row>
-    <row r="102" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS101" s="11"/>
+      <c r="AT101" s="11"/>
+      <c r="AU101" s="5"/>
+    </row>
+    <row r="102" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7518,21 +7780,23 @@
       <c r="AD102" s="10"/>
       <c r="AE102" s="10"/>
       <c r="AF102" s="10"/>
-      <c r="AG102" s="11"/>
-      <c r="AH102" s="11"/>
+      <c r="AG102" s="10"/>
+      <c r="AH102" s="10"/>
       <c r="AI102" s="11"/>
-      <c r="AJ102" s="10"/>
-      <c r="AK102" s="10"/>
+      <c r="AJ102" s="11"/>
+      <c r="AK102" s="11"/>
       <c r="AL102" s="10"/>
       <c r="AM102" s="10"/>
       <c r="AN102" s="10"/>
-      <c r="AO102" s="11"/>
-      <c r="AP102" s="11"/>
+      <c r="AO102" s="10"/>
+      <c r="AP102" s="10"/>
       <c r="AQ102" s="11"/>
       <c r="AR102" s="11"/>
-      <c r="AS102" s="5"/>
-    </row>
-    <row r="103" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS102" s="11"/>
+      <c r="AT102" s="11"/>
+      <c r="AU102" s="5"/>
+    </row>
+    <row r="103" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -7565,21 +7829,23 @@
       <c r="AD103" s="10"/>
       <c r="AE103" s="10"/>
       <c r="AF103" s="10"/>
-      <c r="AG103" s="11"/>
-      <c r="AH103" s="11"/>
+      <c r="AG103" s="10"/>
+      <c r="AH103" s="10"/>
       <c r="AI103" s="11"/>
-      <c r="AJ103" s="10"/>
-      <c r="AK103" s="10"/>
+      <c r="AJ103" s="11"/>
+      <c r="AK103" s="11"/>
       <c r="AL103" s="10"/>
       <c r="AM103" s="10"/>
       <c r="AN103" s="10"/>
-      <c r="AO103" s="11"/>
-      <c r="AP103" s="11"/>
+      <c r="AO103" s="10"/>
+      <c r="AP103" s="10"/>
       <c r="AQ103" s="11"/>
       <c r="AR103" s="11"/>
-      <c r="AS103" s="5"/>
-    </row>
-    <row r="104" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS103" s="11"/>
+      <c r="AT103" s="11"/>
+      <c r="AU103" s="5"/>
+    </row>
+    <row r="104" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -7612,21 +7878,23 @@
       <c r="AD104" s="10"/>
       <c r="AE104" s="10"/>
       <c r="AF104" s="10"/>
-      <c r="AG104" s="11"/>
-      <c r="AH104" s="11"/>
+      <c r="AG104" s="10"/>
+      <c r="AH104" s="10"/>
       <c r="AI104" s="11"/>
-      <c r="AJ104" s="10"/>
-      <c r="AK104" s="10"/>
+      <c r="AJ104" s="11"/>
+      <c r="AK104" s="11"/>
       <c r="AL104" s="10"/>
       <c r="AM104" s="10"/>
       <c r="AN104" s="10"/>
-      <c r="AO104" s="11"/>
-      <c r="AP104" s="11"/>
+      <c r="AO104" s="10"/>
+      <c r="AP104" s="10"/>
       <c r="AQ104" s="11"/>
       <c r="AR104" s="11"/>
-      <c r="AS104" s="5"/>
-    </row>
-    <row r="105" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS104" s="11"/>
+      <c r="AT104" s="11"/>
+      <c r="AU104" s="5"/>
+    </row>
+    <row r="105" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -7659,21 +7927,23 @@
       <c r="AD105" s="10"/>
       <c r="AE105" s="10"/>
       <c r="AF105" s="10"/>
-      <c r="AG105" s="11"/>
-      <c r="AH105" s="11"/>
+      <c r="AG105" s="10"/>
+      <c r="AH105" s="10"/>
       <c r="AI105" s="11"/>
-      <c r="AJ105" s="10"/>
-      <c r="AK105" s="10"/>
+      <c r="AJ105" s="11"/>
+      <c r="AK105" s="11"/>
       <c r="AL105" s="10"/>
       <c r="AM105" s="10"/>
       <c r="AN105" s="10"/>
-      <c r="AO105" s="11"/>
-      <c r="AP105" s="11"/>
+      <c r="AO105" s="10"/>
+      <c r="AP105" s="10"/>
       <c r="AQ105" s="11"/>
       <c r="AR105" s="11"/>
-      <c r="AS105" s="5"/>
-    </row>
-    <row r="106" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS105" s="11"/>
+      <c r="AT105" s="11"/>
+      <c r="AU105" s="5"/>
+    </row>
+    <row r="106" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -7706,21 +7976,23 @@
       <c r="AD106" s="10"/>
       <c r="AE106" s="10"/>
       <c r="AF106" s="10"/>
-      <c r="AG106" s="11"/>
-      <c r="AH106" s="11"/>
+      <c r="AG106" s="10"/>
+      <c r="AH106" s="10"/>
       <c r="AI106" s="11"/>
-      <c r="AJ106" s="10"/>
-      <c r="AK106" s="10"/>
+      <c r="AJ106" s="11"/>
+      <c r="AK106" s="11"/>
       <c r="AL106" s="10"/>
       <c r="AM106" s="10"/>
       <c r="AN106" s="10"/>
-      <c r="AO106" s="11"/>
-      <c r="AP106" s="11"/>
+      <c r="AO106" s="10"/>
+      <c r="AP106" s="10"/>
       <c r="AQ106" s="11"/>
       <c r="AR106" s="11"/>
-      <c r="AS106" s="5"/>
-    </row>
-    <row r="107" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS106" s="11"/>
+      <c r="AT106" s="11"/>
+      <c r="AU106" s="5"/>
+    </row>
+    <row r="107" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -7753,21 +8025,23 @@
       <c r="AD107" s="10"/>
       <c r="AE107" s="10"/>
       <c r="AF107" s="10"/>
-      <c r="AG107" s="11"/>
-      <c r="AH107" s="11"/>
+      <c r="AG107" s="10"/>
+      <c r="AH107" s="10"/>
       <c r="AI107" s="11"/>
-      <c r="AJ107" s="10"/>
-      <c r="AK107" s="10"/>
+      <c r="AJ107" s="11"/>
+      <c r="AK107" s="11"/>
       <c r="AL107" s="10"/>
       <c r="AM107" s="10"/>
       <c r="AN107" s="10"/>
-      <c r="AO107" s="11"/>
-      <c r="AP107" s="11"/>
+      <c r="AO107" s="10"/>
+      <c r="AP107" s="10"/>
       <c r="AQ107" s="11"/>
       <c r="AR107" s="11"/>
-      <c r="AS107" s="5"/>
-    </row>
-    <row r="108" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS107" s="11"/>
+      <c r="AT107" s="11"/>
+      <c r="AU107" s="5"/>
+    </row>
+    <row r="108" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -7800,21 +8074,23 @@
       <c r="AD108" s="10"/>
       <c r="AE108" s="10"/>
       <c r="AF108" s="10"/>
-      <c r="AG108" s="11"/>
-      <c r="AH108" s="11"/>
+      <c r="AG108" s="10"/>
+      <c r="AH108" s="10"/>
       <c r="AI108" s="11"/>
-      <c r="AJ108" s="10"/>
-      <c r="AK108" s="10"/>
+      <c r="AJ108" s="11"/>
+      <c r="AK108" s="11"/>
       <c r="AL108" s="10"/>
       <c r="AM108" s="10"/>
       <c r="AN108" s="10"/>
-      <c r="AO108" s="11"/>
-      <c r="AP108" s="11"/>
+      <c r="AO108" s="10"/>
+      <c r="AP108" s="10"/>
       <c r="AQ108" s="11"/>
       <c r="AR108" s="11"/>
-      <c r="AS108" s="5"/>
-    </row>
-    <row r="109" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS108" s="11"/>
+      <c r="AT108" s="11"/>
+      <c r="AU108" s="5"/>
+    </row>
+    <row r="109" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -7847,21 +8123,23 @@
       <c r="AD109" s="10"/>
       <c r="AE109" s="10"/>
       <c r="AF109" s="10"/>
-      <c r="AG109" s="11"/>
-      <c r="AH109" s="11"/>
+      <c r="AG109" s="10"/>
+      <c r="AH109" s="10"/>
       <c r="AI109" s="11"/>
-      <c r="AJ109" s="10"/>
-      <c r="AK109" s="10"/>
+      <c r="AJ109" s="11"/>
+      <c r="AK109" s="11"/>
       <c r="AL109" s="10"/>
       <c r="AM109" s="10"/>
       <c r="AN109" s="10"/>
-      <c r="AO109" s="11"/>
-      <c r="AP109" s="11"/>
+      <c r="AO109" s="10"/>
+      <c r="AP109" s="10"/>
       <c r="AQ109" s="11"/>
       <c r="AR109" s="11"/>
-      <c r="AS109" s="5"/>
-    </row>
-    <row r="110" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS109" s="11"/>
+      <c r="AT109" s="11"/>
+      <c r="AU109" s="5"/>
+    </row>
+    <row r="110" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -7894,21 +8172,23 @@
       <c r="AD110" s="10"/>
       <c r="AE110" s="10"/>
       <c r="AF110" s="10"/>
-      <c r="AG110" s="11"/>
-      <c r="AH110" s="11"/>
+      <c r="AG110" s="10"/>
+      <c r="AH110" s="10"/>
       <c r="AI110" s="11"/>
-      <c r="AJ110" s="10"/>
-      <c r="AK110" s="10"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
       <c r="AL110" s="10"/>
       <c r="AM110" s="10"/>
       <c r="AN110" s="10"/>
-      <c r="AO110" s="11"/>
-      <c r="AP110" s="11"/>
+      <c r="AO110" s="10"/>
+      <c r="AP110" s="10"/>
       <c r="AQ110" s="11"/>
       <c r="AR110" s="11"/>
-      <c r="AS110" s="5"/>
-    </row>
-    <row r="111" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="11"/>
+      <c r="AU110" s="5"/>
+    </row>
+    <row r="111" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -7941,21 +8221,23 @@
       <c r="AD111" s="10"/>
       <c r="AE111" s="10"/>
       <c r="AF111" s="10"/>
-      <c r="AG111" s="11"/>
-      <c r="AH111" s="11"/>
+      <c r="AG111" s="10"/>
+      <c r="AH111" s="10"/>
       <c r="AI111" s="11"/>
-      <c r="AJ111" s="10"/>
-      <c r="AK111" s="10"/>
+      <c r="AJ111" s="11"/>
+      <c r="AK111" s="11"/>
       <c r="AL111" s="10"/>
       <c r="AM111" s="10"/>
       <c r="AN111" s="10"/>
-      <c r="AO111" s="11"/>
-      <c r="AP111" s="11"/>
+      <c r="AO111" s="10"/>
+      <c r="AP111" s="10"/>
       <c r="AQ111" s="11"/>
       <c r="AR111" s="11"/>
-      <c r="AS111" s="5"/>
-    </row>
-    <row r="112" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS111" s="11"/>
+      <c r="AT111" s="11"/>
+      <c r="AU111" s="5"/>
+    </row>
+    <row r="112" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -7988,21 +8270,23 @@
       <c r="AD112" s="10"/>
       <c r="AE112" s="10"/>
       <c r="AF112" s="10"/>
-      <c r="AG112" s="11"/>
-      <c r="AH112" s="11"/>
+      <c r="AG112" s="10"/>
+      <c r="AH112" s="10"/>
       <c r="AI112" s="11"/>
-      <c r="AJ112" s="10"/>
-      <c r="AK112" s="10"/>
+      <c r="AJ112" s="11"/>
+      <c r="AK112" s="11"/>
       <c r="AL112" s="10"/>
       <c r="AM112" s="10"/>
       <c r="AN112" s="10"/>
-      <c r="AO112" s="11"/>
-      <c r="AP112" s="11"/>
+      <c r="AO112" s="10"/>
+      <c r="AP112" s="10"/>
       <c r="AQ112" s="11"/>
       <c r="AR112" s="11"/>
-      <c r="AS112" s="5"/>
-    </row>
-    <row r="113" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS112" s="11"/>
+      <c r="AT112" s="11"/>
+      <c r="AU112" s="5"/>
+    </row>
+    <row r="113" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -8035,21 +8319,23 @@
       <c r="AD113" s="10"/>
       <c r="AE113" s="10"/>
       <c r="AF113" s="10"/>
-      <c r="AG113" s="11"/>
-      <c r="AH113" s="11"/>
+      <c r="AG113" s="10"/>
+      <c r="AH113" s="10"/>
       <c r="AI113" s="11"/>
-      <c r="AJ113" s="10"/>
-      <c r="AK113" s="10"/>
+      <c r="AJ113" s="11"/>
+      <c r="AK113" s="11"/>
       <c r="AL113" s="10"/>
       <c r="AM113" s="10"/>
       <c r="AN113" s="10"/>
-      <c r="AO113" s="11"/>
-      <c r="AP113" s="11"/>
+      <c r="AO113" s="10"/>
+      <c r="AP113" s="10"/>
       <c r="AQ113" s="11"/>
       <c r="AR113" s="11"/>
-      <c r="AS113" s="5"/>
-    </row>
-    <row r="114" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS113" s="11"/>
+      <c r="AT113" s="11"/>
+      <c r="AU113" s="5"/>
+    </row>
+    <row r="114" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -8082,21 +8368,23 @@
       <c r="AD114" s="10"/>
       <c r="AE114" s="10"/>
       <c r="AF114" s="10"/>
-      <c r="AG114" s="11"/>
-      <c r="AH114" s="11"/>
+      <c r="AG114" s="10"/>
+      <c r="AH114" s="10"/>
       <c r="AI114" s="11"/>
-      <c r="AJ114" s="10"/>
-      <c r="AK114" s="10"/>
+      <c r="AJ114" s="11"/>
+      <c r="AK114" s="11"/>
       <c r="AL114" s="10"/>
       <c r="AM114" s="10"/>
       <c r="AN114" s="10"/>
-      <c r="AO114" s="11"/>
-      <c r="AP114" s="11"/>
+      <c r="AO114" s="10"/>
+      <c r="AP114" s="10"/>
       <c r="AQ114" s="11"/>
       <c r="AR114" s="11"/>
-      <c r="AS114" s="5"/>
-    </row>
-    <row r="115" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS114" s="11"/>
+      <c r="AT114" s="11"/>
+      <c r="AU114" s="5"/>
+    </row>
+    <row r="115" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -8129,21 +8417,23 @@
       <c r="AD115" s="10"/>
       <c r="AE115" s="10"/>
       <c r="AF115" s="10"/>
-      <c r="AG115" s="11"/>
-      <c r="AH115" s="11"/>
+      <c r="AG115" s="10"/>
+      <c r="AH115" s="10"/>
       <c r="AI115" s="11"/>
-      <c r="AJ115" s="10"/>
-      <c r="AK115" s="10"/>
+      <c r="AJ115" s="11"/>
+      <c r="AK115" s="11"/>
       <c r="AL115" s="10"/>
       <c r="AM115" s="10"/>
       <c r="AN115" s="10"/>
-      <c r="AO115" s="11"/>
-      <c r="AP115" s="11"/>
+      <c r="AO115" s="10"/>
+      <c r="AP115" s="10"/>
       <c r="AQ115" s="11"/>
       <c r="AR115" s="11"/>
-      <c r="AS115" s="5"/>
-    </row>
-    <row r="116" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS115" s="11"/>
+      <c r="AT115" s="11"/>
+      <c r="AU115" s="5"/>
+    </row>
+    <row r="116" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -8176,21 +8466,23 @@
       <c r="AD116" s="10"/>
       <c r="AE116" s="10"/>
       <c r="AF116" s="10"/>
-      <c r="AG116" s="11"/>
-      <c r="AH116" s="11"/>
+      <c r="AG116" s="10"/>
+      <c r="AH116" s="10"/>
       <c r="AI116" s="11"/>
-      <c r="AJ116" s="10"/>
-      <c r="AK116" s="10"/>
+      <c r="AJ116" s="11"/>
+      <c r="AK116" s="11"/>
       <c r="AL116" s="10"/>
       <c r="AM116" s="10"/>
       <c r="AN116" s="10"/>
-      <c r="AO116" s="11"/>
-      <c r="AP116" s="11"/>
+      <c r="AO116" s="10"/>
+      <c r="AP116" s="10"/>
       <c r="AQ116" s="11"/>
       <c r="AR116" s="11"/>
-      <c r="AS116" s="5"/>
-    </row>
-    <row r="117" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS116" s="11"/>
+      <c r="AT116" s="11"/>
+      <c r="AU116" s="5"/>
+    </row>
+    <row r="117" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -8223,21 +8515,23 @@
       <c r="AD117" s="10"/>
       <c r="AE117" s="10"/>
       <c r="AF117" s="10"/>
-      <c r="AG117" s="11"/>
-      <c r="AH117" s="11"/>
+      <c r="AG117" s="10"/>
+      <c r="AH117" s="10"/>
       <c r="AI117" s="11"/>
-      <c r="AJ117" s="10"/>
-      <c r="AK117" s="10"/>
+      <c r="AJ117" s="11"/>
+      <c r="AK117" s="11"/>
       <c r="AL117" s="10"/>
       <c r="AM117" s="10"/>
       <c r="AN117" s="10"/>
-      <c r="AO117" s="11"/>
-      <c r="AP117" s="11"/>
+      <c r="AO117" s="10"/>
+      <c r="AP117" s="10"/>
       <c r="AQ117" s="11"/>
       <c r="AR117" s="11"/>
-      <c r="AS117" s="5"/>
-    </row>
-    <row r="118" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS117" s="11"/>
+      <c r="AT117" s="11"/>
+      <c r="AU117" s="5"/>
+    </row>
+    <row r="118" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -8270,21 +8564,23 @@
       <c r="AD118" s="10"/>
       <c r="AE118" s="10"/>
       <c r="AF118" s="10"/>
-      <c r="AG118" s="11"/>
-      <c r="AH118" s="11"/>
+      <c r="AG118" s="10"/>
+      <c r="AH118" s="10"/>
       <c r="AI118" s="11"/>
-      <c r="AJ118" s="10"/>
-      <c r="AK118" s="10"/>
+      <c r="AJ118" s="11"/>
+      <c r="AK118" s="11"/>
       <c r="AL118" s="10"/>
       <c r="AM118" s="10"/>
       <c r="AN118" s="10"/>
-      <c r="AO118" s="11"/>
-      <c r="AP118" s="11"/>
+      <c r="AO118" s="10"/>
+      <c r="AP118" s="10"/>
       <c r="AQ118" s="11"/>
       <c r="AR118" s="11"/>
-      <c r="AS118" s="5"/>
-    </row>
-    <row r="119" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS118" s="11"/>
+      <c r="AT118" s="11"/>
+      <c r="AU118" s="5"/>
+    </row>
+    <row r="119" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -8317,21 +8613,23 @@
       <c r="AD119" s="10"/>
       <c r="AE119" s="10"/>
       <c r="AF119" s="10"/>
-      <c r="AG119" s="11"/>
-      <c r="AH119" s="11"/>
+      <c r="AG119" s="10"/>
+      <c r="AH119" s="10"/>
       <c r="AI119" s="11"/>
-      <c r="AJ119" s="10"/>
-      <c r="AK119" s="10"/>
+      <c r="AJ119" s="11"/>
+      <c r="AK119" s="11"/>
       <c r="AL119" s="10"/>
       <c r="AM119" s="10"/>
       <c r="AN119" s="10"/>
-      <c r="AO119" s="11"/>
-      <c r="AP119" s="11"/>
+      <c r="AO119" s="10"/>
+      <c r="AP119" s="10"/>
       <c r="AQ119" s="11"/>
       <c r="AR119" s="11"/>
-      <c r="AS119" s="5"/>
-    </row>
-    <row r="120" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS119" s="11"/>
+      <c r="AT119" s="11"/>
+      <c r="AU119" s="5"/>
+    </row>
+    <row r="120" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8364,21 +8662,23 @@
       <c r="AD120" s="10"/>
       <c r="AE120" s="10"/>
       <c r="AF120" s="10"/>
-      <c r="AG120" s="11"/>
-      <c r="AH120" s="11"/>
+      <c r="AG120" s="10"/>
+      <c r="AH120" s="10"/>
       <c r="AI120" s="11"/>
-      <c r="AJ120" s="10"/>
-      <c r="AK120" s="10"/>
+      <c r="AJ120" s="11"/>
+      <c r="AK120" s="11"/>
       <c r="AL120" s="10"/>
       <c r="AM120" s="10"/>
       <c r="AN120" s="10"/>
-      <c r="AO120" s="11"/>
-      <c r="AP120" s="11"/>
+      <c r="AO120" s="10"/>
+      <c r="AP120" s="10"/>
       <c r="AQ120" s="11"/>
       <c r="AR120" s="11"/>
-      <c r="AS120" s="5"/>
-    </row>
-    <row r="121" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS120" s="11"/>
+      <c r="AT120" s="11"/>
+      <c r="AU120" s="5"/>
+    </row>
+    <row r="121" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8411,21 +8711,23 @@
       <c r="AD121" s="10"/>
       <c r="AE121" s="10"/>
       <c r="AF121" s="10"/>
-      <c r="AG121" s="11"/>
-      <c r="AH121" s="11"/>
+      <c r="AG121" s="10"/>
+      <c r="AH121" s="10"/>
       <c r="AI121" s="11"/>
-      <c r="AJ121" s="10"/>
-      <c r="AK121" s="10"/>
+      <c r="AJ121" s="11"/>
+      <c r="AK121" s="11"/>
       <c r="AL121" s="10"/>
       <c r="AM121" s="10"/>
       <c r="AN121" s="10"/>
-      <c r="AO121" s="11"/>
-      <c r="AP121" s="11"/>
+      <c r="AO121" s="10"/>
+      <c r="AP121" s="10"/>
       <c r="AQ121" s="11"/>
       <c r="AR121" s="11"/>
-      <c r="AS121" s="5"/>
-    </row>
-    <row r="122" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS121" s="11"/>
+      <c r="AT121" s="11"/>
+      <c r="AU121" s="5"/>
+    </row>
+    <row r="122" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -8458,21 +8760,23 @@
       <c r="AD122" s="10"/>
       <c r="AE122" s="10"/>
       <c r="AF122" s="10"/>
-      <c r="AG122" s="11"/>
-      <c r="AH122" s="11"/>
+      <c r="AG122" s="10"/>
+      <c r="AH122" s="10"/>
       <c r="AI122" s="11"/>
-      <c r="AJ122" s="10"/>
-      <c r="AK122" s="10"/>
+      <c r="AJ122" s="11"/>
+      <c r="AK122" s="11"/>
       <c r="AL122" s="10"/>
       <c r="AM122" s="10"/>
       <c r="AN122" s="10"/>
-      <c r="AO122" s="11"/>
-      <c r="AP122" s="11"/>
+      <c r="AO122" s="10"/>
+      <c r="AP122" s="10"/>
       <c r="AQ122" s="11"/>
       <c r="AR122" s="11"/>
-      <c r="AS122" s="5"/>
-    </row>
-    <row r="123" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS122" s="11"/>
+      <c r="AT122" s="11"/>
+      <c r="AU122" s="5"/>
+    </row>
+    <row r="123" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -8505,21 +8809,23 @@
       <c r="AD123" s="10"/>
       <c r="AE123" s="10"/>
       <c r="AF123" s="10"/>
-      <c r="AG123" s="11"/>
-      <c r="AH123" s="11"/>
+      <c r="AG123" s="10"/>
+      <c r="AH123" s="10"/>
       <c r="AI123" s="11"/>
-      <c r="AJ123" s="10"/>
-      <c r="AK123" s="10"/>
+      <c r="AJ123" s="11"/>
+      <c r="AK123" s="11"/>
       <c r="AL123" s="10"/>
       <c r="AM123" s="10"/>
       <c r="AN123" s="10"/>
-      <c r="AO123" s="11"/>
-      <c r="AP123" s="11"/>
+      <c r="AO123" s="10"/>
+      <c r="AP123" s="10"/>
       <c r="AQ123" s="11"/>
       <c r="AR123" s="11"/>
-      <c r="AS123" s="5"/>
-    </row>
-    <row r="124" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS123" s="11"/>
+      <c r="AT123" s="11"/>
+      <c r="AU123" s="5"/>
+    </row>
+    <row r="124" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -8552,21 +8858,23 @@
       <c r="AD124" s="10"/>
       <c r="AE124" s="10"/>
       <c r="AF124" s="10"/>
-      <c r="AG124" s="11"/>
-      <c r="AH124" s="11"/>
+      <c r="AG124" s="10"/>
+      <c r="AH124" s="10"/>
       <c r="AI124" s="11"/>
-      <c r="AJ124" s="10"/>
-      <c r="AK124" s="10"/>
+      <c r="AJ124" s="11"/>
+      <c r="AK124" s="11"/>
       <c r="AL124" s="10"/>
       <c r="AM124" s="10"/>
       <c r="AN124" s="10"/>
-      <c r="AO124" s="11"/>
-      <c r="AP124" s="11"/>
+      <c r="AO124" s="10"/>
+      <c r="AP124" s="10"/>
       <c r="AQ124" s="11"/>
       <c r="AR124" s="11"/>
-      <c r="AS124" s="5"/>
-    </row>
-    <row r="125" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS124" s="11"/>
+      <c r="AT124" s="11"/>
+      <c r="AU124" s="5"/>
+    </row>
+    <row r="125" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8599,21 +8907,23 @@
       <c r="AD125" s="10"/>
       <c r="AE125" s="10"/>
       <c r="AF125" s="10"/>
-      <c r="AG125" s="11"/>
-      <c r="AH125" s="11"/>
+      <c r="AG125" s="10"/>
+      <c r="AH125" s="10"/>
       <c r="AI125" s="11"/>
-      <c r="AJ125" s="10"/>
-      <c r="AK125" s="10"/>
+      <c r="AJ125" s="11"/>
+      <c r="AK125" s="11"/>
       <c r="AL125" s="10"/>
       <c r="AM125" s="10"/>
       <c r="AN125" s="10"/>
-      <c r="AO125" s="11"/>
-      <c r="AP125" s="11"/>
+      <c r="AO125" s="10"/>
+      <c r="AP125" s="10"/>
       <c r="AQ125" s="11"/>
       <c r="AR125" s="11"/>
-      <c r="AS125" s="5"/>
-    </row>
-    <row r="126" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS125" s="11"/>
+      <c r="AT125" s="11"/>
+      <c r="AU125" s="5"/>
+    </row>
+    <row r="126" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -8646,21 +8956,23 @@
       <c r="AD126" s="10"/>
       <c r="AE126" s="10"/>
       <c r="AF126" s="10"/>
-      <c r="AG126" s="11"/>
-      <c r="AH126" s="11"/>
+      <c r="AG126" s="10"/>
+      <c r="AH126" s="10"/>
       <c r="AI126" s="11"/>
-      <c r="AJ126" s="10"/>
-      <c r="AK126" s="10"/>
+      <c r="AJ126" s="11"/>
+      <c r="AK126" s="11"/>
       <c r="AL126" s="10"/>
       <c r="AM126" s="10"/>
       <c r="AN126" s="10"/>
-      <c r="AO126" s="11"/>
-      <c r="AP126" s="11"/>
+      <c r="AO126" s="10"/>
+      <c r="AP126" s="10"/>
       <c r="AQ126" s="11"/>
       <c r="AR126" s="11"/>
-      <c r="AS126" s="5"/>
-    </row>
-    <row r="127" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS126" s="11"/>
+      <c r="AT126" s="11"/>
+      <c r="AU126" s="5"/>
+    </row>
+    <row r="127" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -8693,21 +9005,23 @@
       <c r="AD127" s="10"/>
       <c r="AE127" s="10"/>
       <c r="AF127" s="10"/>
-      <c r="AG127" s="11"/>
-      <c r="AH127" s="11"/>
+      <c r="AG127" s="10"/>
+      <c r="AH127" s="10"/>
       <c r="AI127" s="11"/>
-      <c r="AJ127" s="10"/>
-      <c r="AK127" s="10"/>
+      <c r="AJ127" s="11"/>
+      <c r="AK127" s="11"/>
       <c r="AL127" s="10"/>
       <c r="AM127" s="10"/>
       <c r="AN127" s="10"/>
-      <c r="AO127" s="11"/>
-      <c r="AP127" s="11"/>
+      <c r="AO127" s="10"/>
+      <c r="AP127" s="10"/>
       <c r="AQ127" s="11"/>
       <c r="AR127" s="11"/>
-      <c r="AS127" s="5"/>
-    </row>
-    <row r="128" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS127" s="11"/>
+      <c r="AT127" s="11"/>
+      <c r="AU127" s="5"/>
+    </row>
+    <row r="128" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8740,21 +9054,23 @@
       <c r="AD128" s="10"/>
       <c r="AE128" s="10"/>
       <c r="AF128" s="10"/>
-      <c r="AG128" s="11"/>
-      <c r="AH128" s="11"/>
+      <c r="AG128" s="10"/>
+      <c r="AH128" s="10"/>
       <c r="AI128" s="11"/>
-      <c r="AJ128" s="10"/>
-      <c r="AK128" s="10"/>
+      <c r="AJ128" s="11"/>
+      <c r="AK128" s="11"/>
       <c r="AL128" s="10"/>
       <c r="AM128" s="10"/>
       <c r="AN128" s="10"/>
-      <c r="AO128" s="11"/>
-      <c r="AP128" s="11"/>
+      <c r="AO128" s="10"/>
+      <c r="AP128" s="10"/>
       <c r="AQ128" s="11"/>
       <c r="AR128" s="11"/>
-      <c r="AS128" s="5"/>
-    </row>
-    <row r="129" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS128" s="11"/>
+      <c r="AT128" s="11"/>
+      <c r="AU128" s="5"/>
+    </row>
+    <row r="129" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -8787,21 +9103,23 @@
       <c r="AD129" s="10"/>
       <c r="AE129" s="10"/>
       <c r="AF129" s="10"/>
-      <c r="AG129" s="11"/>
-      <c r="AH129" s="11"/>
+      <c r="AG129" s="10"/>
+      <c r="AH129" s="10"/>
       <c r="AI129" s="11"/>
-      <c r="AJ129" s="10"/>
-      <c r="AK129" s="10"/>
+      <c r="AJ129" s="11"/>
+      <c r="AK129" s="11"/>
       <c r="AL129" s="10"/>
       <c r="AM129" s="10"/>
       <c r="AN129" s="10"/>
-      <c r="AO129" s="11"/>
-      <c r="AP129" s="11"/>
+      <c r="AO129" s="10"/>
+      <c r="AP129" s="10"/>
       <c r="AQ129" s="11"/>
       <c r="AR129" s="11"/>
-      <c r="AS129" s="5"/>
-    </row>
-    <row r="130" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS129" s="11"/>
+      <c r="AT129" s="11"/>
+      <c r="AU129" s="5"/>
+    </row>
+    <row r="130" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -8834,21 +9152,23 @@
       <c r="AD130" s="10"/>
       <c r="AE130" s="10"/>
       <c r="AF130" s="10"/>
-      <c r="AG130" s="11"/>
-      <c r="AH130" s="11"/>
+      <c r="AG130" s="10"/>
+      <c r="AH130" s="10"/>
       <c r="AI130" s="11"/>
-      <c r="AJ130" s="10"/>
-      <c r="AK130" s="10"/>
+      <c r="AJ130" s="11"/>
+      <c r="AK130" s="11"/>
       <c r="AL130" s="10"/>
       <c r="AM130" s="10"/>
       <c r="AN130" s="10"/>
-      <c r="AO130" s="11"/>
-      <c r="AP130" s="11"/>
+      <c r="AO130" s="10"/>
+      <c r="AP130" s="10"/>
       <c r="AQ130" s="11"/>
       <c r="AR130" s="11"/>
-      <c r="AS130" s="5"/>
-    </row>
-    <row r="131" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS130" s="11"/>
+      <c r="AT130" s="11"/>
+      <c r="AU130" s="5"/>
+    </row>
+    <row r="131" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -8881,21 +9201,23 @@
       <c r="AD131" s="10"/>
       <c r="AE131" s="10"/>
       <c r="AF131" s="10"/>
-      <c r="AG131" s="11"/>
-      <c r="AH131" s="11"/>
+      <c r="AG131" s="10"/>
+      <c r="AH131" s="10"/>
       <c r="AI131" s="11"/>
-      <c r="AJ131" s="10"/>
-      <c r="AK131" s="10"/>
+      <c r="AJ131" s="11"/>
+      <c r="AK131" s="11"/>
       <c r="AL131" s="10"/>
       <c r="AM131" s="10"/>
       <c r="AN131" s="10"/>
-      <c r="AO131" s="11"/>
-      <c r="AP131" s="11"/>
+      <c r="AO131" s="10"/>
+      <c r="AP131" s="10"/>
       <c r="AQ131" s="11"/>
       <c r="AR131" s="11"/>
-      <c r="AS131" s="5"/>
-    </row>
-    <row r="132" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS131" s="11"/>
+      <c r="AT131" s="11"/>
+      <c r="AU131" s="5"/>
+    </row>
+    <row r="132" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -8928,21 +9250,23 @@
       <c r="AD132" s="10"/>
       <c r="AE132" s="10"/>
       <c r="AF132" s="10"/>
-      <c r="AG132" s="11"/>
-      <c r="AH132" s="11"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
       <c r="AI132" s="11"/>
-      <c r="AJ132" s="10"/>
-      <c r="AK132" s="10"/>
+      <c r="AJ132" s="11"/>
+      <c r="AK132" s="11"/>
       <c r="AL132" s="10"/>
       <c r="AM132" s="10"/>
       <c r="AN132" s="10"/>
-      <c r="AO132" s="11"/>
-      <c r="AP132" s="11"/>
+      <c r="AO132" s="10"/>
+      <c r="AP132" s="10"/>
       <c r="AQ132" s="11"/>
       <c r="AR132" s="11"/>
-      <c r="AS132" s="5"/>
-    </row>
-    <row r="133" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS132" s="11"/>
+      <c r="AT132" s="11"/>
+      <c r="AU132" s="5"/>
+    </row>
+    <row r="133" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -8975,21 +9299,23 @@
       <c r="AD133" s="10"/>
       <c r="AE133" s="10"/>
       <c r="AF133" s="10"/>
-      <c r="AG133" s="11"/>
-      <c r="AH133" s="11"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
       <c r="AI133" s="11"/>
-      <c r="AJ133" s="10"/>
-      <c r="AK133" s="10"/>
+      <c r="AJ133" s="11"/>
+      <c r="AK133" s="11"/>
       <c r="AL133" s="10"/>
       <c r="AM133" s="10"/>
       <c r="AN133" s="10"/>
-      <c r="AO133" s="11"/>
-      <c r="AP133" s="11"/>
+      <c r="AO133" s="10"/>
+      <c r="AP133" s="10"/>
       <c r="AQ133" s="11"/>
       <c r="AR133" s="11"/>
-      <c r="AS133" s="5"/>
-    </row>
-    <row r="134" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS133" s="11"/>
+      <c r="AT133" s="11"/>
+      <c r="AU133" s="5"/>
+    </row>
+    <row r="134" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -9022,21 +9348,23 @@
       <c r="AD134" s="10"/>
       <c r="AE134" s="10"/>
       <c r="AF134" s="10"/>
-      <c r="AG134" s="11"/>
-      <c r="AH134" s="11"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
       <c r="AI134" s="11"/>
-      <c r="AJ134" s="10"/>
-      <c r="AK134" s="10"/>
+      <c r="AJ134" s="11"/>
+      <c r="AK134" s="11"/>
       <c r="AL134" s="10"/>
       <c r="AM134" s="10"/>
       <c r="AN134" s="10"/>
-      <c r="AO134" s="11"/>
-      <c r="AP134" s="11"/>
+      <c r="AO134" s="10"/>
+      <c r="AP134" s="10"/>
       <c r="AQ134" s="11"/>
       <c r="AR134" s="11"/>
-      <c r="AS134" s="5"/>
-    </row>
-    <row r="135" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS134" s="11"/>
+      <c r="AT134" s="11"/>
+      <c r="AU134" s="5"/>
+    </row>
+    <row r="135" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -9069,21 +9397,23 @@
       <c r="AD135" s="10"/>
       <c r="AE135" s="10"/>
       <c r="AF135" s="10"/>
-      <c r="AG135" s="11"/>
-      <c r="AH135" s="11"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="10"/>
       <c r="AI135" s="11"/>
-      <c r="AJ135" s="10"/>
-      <c r="AK135" s="10"/>
+      <c r="AJ135" s="11"/>
+      <c r="AK135" s="11"/>
       <c r="AL135" s="10"/>
       <c r="AM135" s="10"/>
       <c r="AN135" s="10"/>
-      <c r="AO135" s="11"/>
-      <c r="AP135" s="11"/>
+      <c r="AO135" s="10"/>
+      <c r="AP135" s="10"/>
       <c r="AQ135" s="11"/>
       <c r="AR135" s="11"/>
-      <c r="AS135" s="5"/>
-    </row>
-    <row r="136" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS135" s="11"/>
+      <c r="AT135" s="11"/>
+      <c r="AU135" s="5"/>
+    </row>
+    <row r="136" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -9116,21 +9446,23 @@
       <c r="AD136" s="10"/>
       <c r="AE136" s="10"/>
       <c r="AF136" s="10"/>
-      <c r="AG136" s="11"/>
-      <c r="AH136" s="11"/>
+      <c r="AG136" s="10"/>
+      <c r="AH136" s="10"/>
       <c r="AI136" s="11"/>
-      <c r="AJ136" s="10"/>
-      <c r="AK136" s="10"/>
+      <c r="AJ136" s="11"/>
+      <c r="AK136" s="11"/>
       <c r="AL136" s="10"/>
       <c r="AM136" s="10"/>
       <c r="AN136" s="10"/>
-      <c r="AO136" s="11"/>
-      <c r="AP136" s="11"/>
+      <c r="AO136" s="10"/>
+      <c r="AP136" s="10"/>
       <c r="AQ136" s="11"/>
       <c r="AR136" s="11"/>
-      <c r="AS136" s="5"/>
-    </row>
-    <row r="137" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS136" s="11"/>
+      <c r="AT136" s="11"/>
+      <c r="AU136" s="5"/>
+    </row>
+    <row r="137" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -9163,21 +9495,23 @@
       <c r="AD137" s="10"/>
       <c r="AE137" s="10"/>
       <c r="AF137" s="10"/>
-      <c r="AG137" s="11"/>
-      <c r="AH137" s="11"/>
+      <c r="AG137" s="10"/>
+      <c r="AH137" s="10"/>
       <c r="AI137" s="11"/>
-      <c r="AJ137" s="10"/>
-      <c r="AK137" s="10"/>
+      <c r="AJ137" s="11"/>
+      <c r="AK137" s="11"/>
       <c r="AL137" s="10"/>
       <c r="AM137" s="10"/>
       <c r="AN137" s="10"/>
-      <c r="AO137" s="11"/>
-      <c r="AP137" s="11"/>
+      <c r="AO137" s="10"/>
+      <c r="AP137" s="10"/>
       <c r="AQ137" s="11"/>
       <c r="AR137" s="11"/>
-      <c r="AS137" s="5"/>
-    </row>
-    <row r="138" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS137" s="11"/>
+      <c r="AT137" s="11"/>
+      <c r="AU137" s="5"/>
+    </row>
+    <row r="138" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -9210,21 +9544,23 @@
       <c r="AD138" s="10"/>
       <c r="AE138" s="10"/>
       <c r="AF138" s="10"/>
-      <c r="AG138" s="11"/>
-      <c r="AH138" s="11"/>
+      <c r="AG138" s="10"/>
+      <c r="AH138" s="10"/>
       <c r="AI138" s="11"/>
-      <c r="AJ138" s="10"/>
-      <c r="AK138" s="10"/>
+      <c r="AJ138" s="11"/>
+      <c r="AK138" s="11"/>
       <c r="AL138" s="10"/>
       <c r="AM138" s="10"/>
       <c r="AN138" s="10"/>
-      <c r="AO138" s="11"/>
-      <c r="AP138" s="11"/>
+      <c r="AO138" s="10"/>
+      <c r="AP138" s="10"/>
       <c r="AQ138" s="11"/>
       <c r="AR138" s="11"/>
-      <c r="AS138" s="5"/>
-    </row>
-    <row r="139" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS138" s="11"/>
+      <c r="AT138" s="11"/>
+      <c r="AU138" s="5"/>
+    </row>
+    <row r="139" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -9257,21 +9593,23 @@
       <c r="AD139" s="10"/>
       <c r="AE139" s="10"/>
       <c r="AF139" s="10"/>
-      <c r="AG139" s="11"/>
-      <c r="AH139" s="11"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
       <c r="AI139" s="11"/>
-      <c r="AJ139" s="10"/>
-      <c r="AK139" s="10"/>
+      <c r="AJ139" s="11"/>
+      <c r="AK139" s="11"/>
       <c r="AL139" s="10"/>
       <c r="AM139" s="10"/>
       <c r="AN139" s="10"/>
-      <c r="AO139" s="11"/>
-      <c r="AP139" s="11"/>
+      <c r="AO139" s="10"/>
+      <c r="AP139" s="10"/>
       <c r="AQ139" s="11"/>
       <c r="AR139" s="11"/>
-      <c r="AS139" s="5"/>
-    </row>
-    <row r="140" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS139" s="11"/>
+      <c r="AT139" s="11"/>
+      <c r="AU139" s="5"/>
+    </row>
+    <row r="140" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -9304,21 +9642,23 @@
       <c r="AD140" s="10"/>
       <c r="AE140" s="10"/>
       <c r="AF140" s="10"/>
-      <c r="AG140" s="11"/>
-      <c r="AH140" s="11"/>
+      <c r="AG140" s="10"/>
+      <c r="AH140" s="10"/>
       <c r="AI140" s="11"/>
-      <c r="AJ140" s="10"/>
-      <c r="AK140" s="10"/>
+      <c r="AJ140" s="11"/>
+      <c r="AK140" s="11"/>
       <c r="AL140" s="10"/>
       <c r="AM140" s="10"/>
       <c r="AN140" s="10"/>
-      <c r="AO140" s="11"/>
-      <c r="AP140" s="11"/>
+      <c r="AO140" s="10"/>
+      <c r="AP140" s="10"/>
       <c r="AQ140" s="11"/>
       <c r="AR140" s="11"/>
-      <c r="AS140" s="5"/>
-    </row>
-    <row r="141" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS140" s="11"/>
+      <c r="AT140" s="11"/>
+      <c r="AU140" s="5"/>
+    </row>
+    <row r="141" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -9351,21 +9691,23 @@
       <c r="AD141" s="10"/>
       <c r="AE141" s="10"/>
       <c r="AF141" s="10"/>
-      <c r="AG141" s="11"/>
-      <c r="AH141" s="11"/>
+      <c r="AG141" s="10"/>
+      <c r="AH141" s="10"/>
       <c r="AI141" s="11"/>
-      <c r="AJ141" s="10"/>
-      <c r="AK141" s="10"/>
+      <c r="AJ141" s="11"/>
+      <c r="AK141" s="11"/>
       <c r="AL141" s="10"/>
       <c r="AM141" s="10"/>
       <c r="AN141" s="10"/>
-      <c r="AO141" s="11"/>
-      <c r="AP141" s="11"/>
+      <c r="AO141" s="10"/>
+      <c r="AP141" s="10"/>
       <c r="AQ141" s="11"/>
       <c r="AR141" s="11"/>
-      <c r="AS141" s="5"/>
-    </row>
-    <row r="142" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS141" s="11"/>
+      <c r="AT141" s="11"/>
+      <c r="AU141" s="5"/>
+    </row>
+    <row r="142" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -9398,21 +9740,23 @@
       <c r="AD142" s="10"/>
       <c r="AE142" s="10"/>
       <c r="AF142" s="10"/>
-      <c r="AG142" s="11"/>
-      <c r="AH142" s="11"/>
+      <c r="AG142" s="10"/>
+      <c r="AH142" s="10"/>
       <c r="AI142" s="11"/>
-      <c r="AJ142" s="10"/>
-      <c r="AK142" s="10"/>
+      <c r="AJ142" s="11"/>
+      <c r="AK142" s="11"/>
       <c r="AL142" s="10"/>
       <c r="AM142" s="10"/>
       <c r="AN142" s="10"/>
-      <c r="AO142" s="11"/>
-      <c r="AP142" s="11"/>
+      <c r="AO142" s="10"/>
+      <c r="AP142" s="10"/>
       <c r="AQ142" s="11"/>
       <c r="AR142" s="11"/>
-      <c r="AS142" s="5"/>
-    </row>
-    <row r="143" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS142" s="11"/>
+      <c r="AT142" s="11"/>
+      <c r="AU142" s="5"/>
+    </row>
+    <row r="143" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -9445,21 +9789,23 @@
       <c r="AD143" s="10"/>
       <c r="AE143" s="10"/>
       <c r="AF143" s="10"/>
-      <c r="AG143" s="11"/>
-      <c r="AH143" s="11"/>
+      <c r="AG143" s="10"/>
+      <c r="AH143" s="10"/>
       <c r="AI143" s="11"/>
-      <c r="AJ143" s="10"/>
-      <c r="AK143" s="10"/>
+      <c r="AJ143" s="11"/>
+      <c r="AK143" s="11"/>
       <c r="AL143" s="10"/>
       <c r="AM143" s="10"/>
       <c r="AN143" s="10"/>
-      <c r="AO143" s="11"/>
-      <c r="AP143" s="11"/>
+      <c r="AO143" s="10"/>
+      <c r="AP143" s="10"/>
       <c r="AQ143" s="11"/>
       <c r="AR143" s="11"/>
-      <c r="AS143" s="5"/>
-    </row>
-    <row r="144" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS143" s="11"/>
+      <c r="AT143" s="11"/>
+      <c r="AU143" s="5"/>
+    </row>
+    <row r="144" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -9492,21 +9838,23 @@
       <c r="AD144" s="10"/>
       <c r="AE144" s="10"/>
       <c r="AF144" s="10"/>
-      <c r="AG144" s="11"/>
-      <c r="AH144" s="11"/>
+      <c r="AG144" s="10"/>
+      <c r="AH144" s="10"/>
       <c r="AI144" s="11"/>
-      <c r="AJ144" s="10"/>
-      <c r="AK144" s="10"/>
+      <c r="AJ144" s="11"/>
+      <c r="AK144" s="11"/>
       <c r="AL144" s="10"/>
       <c r="AM144" s="10"/>
       <c r="AN144" s="10"/>
-      <c r="AO144" s="11"/>
-      <c r="AP144" s="11"/>
+      <c r="AO144" s="10"/>
+      <c r="AP144" s="10"/>
       <c r="AQ144" s="11"/>
       <c r="AR144" s="11"/>
-      <c r="AS144" s="5"/>
-    </row>
-    <row r="145" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS144" s="11"/>
+      <c r="AT144" s="11"/>
+      <c r="AU144" s="5"/>
+    </row>
+    <row r="145" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -9539,21 +9887,23 @@
       <c r="AD145" s="10"/>
       <c r="AE145" s="10"/>
       <c r="AF145" s="10"/>
-      <c r="AG145" s="11"/>
-      <c r="AH145" s="11"/>
+      <c r="AG145" s="10"/>
+      <c r="AH145" s="10"/>
       <c r="AI145" s="11"/>
-      <c r="AJ145" s="10"/>
-      <c r="AK145" s="10"/>
+      <c r="AJ145" s="11"/>
+      <c r="AK145" s="11"/>
       <c r="AL145" s="10"/>
       <c r="AM145" s="10"/>
       <c r="AN145" s="10"/>
-      <c r="AO145" s="11"/>
-      <c r="AP145" s="11"/>
+      <c r="AO145" s="10"/>
+      <c r="AP145" s="10"/>
       <c r="AQ145" s="11"/>
       <c r="AR145" s="11"/>
-      <c r="AS145" s="5"/>
-    </row>
-    <row r="146" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS145" s="11"/>
+      <c r="AT145" s="11"/>
+      <c r="AU145" s="5"/>
+    </row>
+    <row r="146" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -9586,21 +9936,23 @@
       <c r="AD146" s="10"/>
       <c r="AE146" s="10"/>
       <c r="AF146" s="10"/>
-      <c r="AG146" s="11"/>
-      <c r="AH146" s="11"/>
+      <c r="AG146" s="10"/>
+      <c r="AH146" s="10"/>
       <c r="AI146" s="11"/>
-      <c r="AJ146" s="10"/>
-      <c r="AK146" s="10"/>
+      <c r="AJ146" s="11"/>
+      <c r="AK146" s="11"/>
       <c r="AL146" s="10"/>
       <c r="AM146" s="10"/>
       <c r="AN146" s="10"/>
-      <c r="AO146" s="11"/>
-      <c r="AP146" s="11"/>
+      <c r="AO146" s="10"/>
+      <c r="AP146" s="10"/>
       <c r="AQ146" s="11"/>
       <c r="AR146" s="11"/>
-      <c r="AS146" s="5"/>
-    </row>
-    <row r="147" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS146" s="11"/>
+      <c r="AT146" s="11"/>
+      <c r="AU146" s="5"/>
+    </row>
+    <row r="147" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -9633,21 +9985,23 @@
       <c r="AD147" s="10"/>
       <c r="AE147" s="10"/>
       <c r="AF147" s="10"/>
-      <c r="AG147" s="11"/>
-      <c r="AH147" s="11"/>
+      <c r="AG147" s="10"/>
+      <c r="AH147" s="10"/>
       <c r="AI147" s="11"/>
-      <c r="AJ147" s="10"/>
-      <c r="AK147" s="10"/>
+      <c r="AJ147" s="11"/>
+      <c r="AK147" s="11"/>
       <c r="AL147" s="10"/>
       <c r="AM147" s="10"/>
       <c r="AN147" s="10"/>
-      <c r="AO147" s="11"/>
-      <c r="AP147" s="11"/>
+      <c r="AO147" s="10"/>
+      <c r="AP147" s="10"/>
       <c r="AQ147" s="11"/>
       <c r="AR147" s="11"/>
-      <c r="AS147" s="5"/>
-    </row>
-    <row r="148" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS147" s="11"/>
+      <c r="AT147" s="11"/>
+      <c r="AU147" s="5"/>
+    </row>
+    <row r="148" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -9680,21 +10034,23 @@
       <c r="AD148" s="10"/>
       <c r="AE148" s="10"/>
       <c r="AF148" s="10"/>
-      <c r="AG148" s="11"/>
-      <c r="AH148" s="11"/>
+      <c r="AG148" s="10"/>
+      <c r="AH148" s="10"/>
       <c r="AI148" s="11"/>
-      <c r="AJ148" s="10"/>
-      <c r="AK148" s="10"/>
+      <c r="AJ148" s="11"/>
+      <c r="AK148" s="11"/>
       <c r="AL148" s="10"/>
       <c r="AM148" s="10"/>
       <c r="AN148" s="10"/>
-      <c r="AO148" s="11"/>
-      <c r="AP148" s="11"/>
+      <c r="AO148" s="10"/>
+      <c r="AP148" s="10"/>
       <c r="AQ148" s="11"/>
       <c r="AR148" s="11"/>
-      <c r="AS148" s="5"/>
-    </row>
-    <row r="149" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS148" s="11"/>
+      <c r="AT148" s="11"/>
+      <c r="AU148" s="5"/>
+    </row>
+    <row r="149" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -9727,21 +10083,23 @@
       <c r="AD149" s="10"/>
       <c r="AE149" s="10"/>
       <c r="AF149" s="10"/>
-      <c r="AG149" s="11"/>
-      <c r="AH149" s="11"/>
+      <c r="AG149" s="10"/>
+      <c r="AH149" s="10"/>
       <c r="AI149" s="11"/>
-      <c r="AJ149" s="10"/>
-      <c r="AK149" s="10"/>
+      <c r="AJ149" s="11"/>
+      <c r="AK149" s="11"/>
       <c r="AL149" s="10"/>
       <c r="AM149" s="10"/>
       <c r="AN149" s="10"/>
-      <c r="AO149" s="11"/>
-      <c r="AP149" s="11"/>
+      <c r="AO149" s="10"/>
+      <c r="AP149" s="10"/>
       <c r="AQ149" s="11"/>
       <c r="AR149" s="11"/>
-      <c r="AS149" s="5"/>
-    </row>
-    <row r="150" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS149" s="11"/>
+      <c r="AT149" s="11"/>
+      <c r="AU149" s="5"/>
+    </row>
+    <row r="150" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -9774,21 +10132,23 @@
       <c r="AD150" s="10"/>
       <c r="AE150" s="10"/>
       <c r="AF150" s="10"/>
-      <c r="AG150" s="11"/>
-      <c r="AH150" s="11"/>
+      <c r="AG150" s="10"/>
+      <c r="AH150" s="10"/>
       <c r="AI150" s="11"/>
-      <c r="AJ150" s="10"/>
-      <c r="AK150" s="10"/>
+      <c r="AJ150" s="11"/>
+      <c r="AK150" s="11"/>
       <c r="AL150" s="10"/>
       <c r="AM150" s="10"/>
       <c r="AN150" s="10"/>
-      <c r="AO150" s="11"/>
-      <c r="AP150" s="11"/>
+      <c r="AO150" s="10"/>
+      <c r="AP150" s="10"/>
       <c r="AQ150" s="11"/>
       <c r="AR150" s="11"/>
-      <c r="AS150" s="5"/>
-    </row>
-    <row r="151" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS150" s="11"/>
+      <c r="AT150" s="11"/>
+      <c r="AU150" s="5"/>
+    </row>
+    <row r="151" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -9821,21 +10181,23 @@
       <c r="AD151" s="10"/>
       <c r="AE151" s="10"/>
       <c r="AF151" s="10"/>
-      <c r="AG151" s="11"/>
-      <c r="AH151" s="11"/>
+      <c r="AG151" s="10"/>
+      <c r="AH151" s="10"/>
       <c r="AI151" s="11"/>
-      <c r="AJ151" s="10"/>
-      <c r="AK151" s="10"/>
+      <c r="AJ151" s="11"/>
+      <c r="AK151" s="11"/>
       <c r="AL151" s="10"/>
       <c r="AM151" s="10"/>
       <c r="AN151" s="10"/>
-      <c r="AO151" s="11"/>
-      <c r="AP151" s="11"/>
+      <c r="AO151" s="10"/>
+      <c r="AP151" s="10"/>
       <c r="AQ151" s="11"/>
       <c r="AR151" s="11"/>
-      <c r="AS151" s="5"/>
-    </row>
-    <row r="152" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS151" s="11"/>
+      <c r="AT151" s="11"/>
+      <c r="AU151" s="5"/>
+    </row>
+    <row r="152" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -9868,21 +10230,23 @@
       <c r="AD152" s="10"/>
       <c r="AE152" s="10"/>
       <c r="AF152" s="10"/>
-      <c r="AG152" s="11"/>
-      <c r="AH152" s="11"/>
+      <c r="AG152" s="10"/>
+      <c r="AH152" s="10"/>
       <c r="AI152" s="11"/>
-      <c r="AJ152" s="10"/>
-      <c r="AK152" s="10"/>
+      <c r="AJ152" s="11"/>
+      <c r="AK152" s="11"/>
       <c r="AL152" s="10"/>
       <c r="AM152" s="10"/>
       <c r="AN152" s="10"/>
-      <c r="AO152" s="11"/>
-      <c r="AP152" s="11"/>
+      <c r="AO152" s="10"/>
+      <c r="AP152" s="10"/>
       <c r="AQ152" s="11"/>
       <c r="AR152" s="11"/>
-      <c r="AS152" s="5"/>
-    </row>
-    <row r="153" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS152" s="11"/>
+      <c r="AT152" s="11"/>
+      <c r="AU152" s="5"/>
+    </row>
+    <row r="153" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -9915,21 +10279,23 @@
       <c r="AD153" s="10"/>
       <c r="AE153" s="10"/>
       <c r="AF153" s="10"/>
-      <c r="AG153" s="11"/>
-      <c r="AH153" s="11"/>
+      <c r="AG153" s="10"/>
+      <c r="AH153" s="10"/>
       <c r="AI153" s="11"/>
-      <c r="AJ153" s="10"/>
-      <c r="AK153" s="10"/>
+      <c r="AJ153" s="11"/>
+      <c r="AK153" s="11"/>
       <c r="AL153" s="10"/>
       <c r="AM153" s="10"/>
       <c r="AN153" s="10"/>
-      <c r="AO153" s="11"/>
-      <c r="AP153" s="11"/>
+      <c r="AO153" s="10"/>
+      <c r="AP153" s="10"/>
       <c r="AQ153" s="11"/>
       <c r="AR153" s="11"/>
-      <c r="AS153" s="5"/>
-    </row>
-    <row r="154" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS153" s="11"/>
+      <c r="AT153" s="11"/>
+      <c r="AU153" s="5"/>
+    </row>
+    <row r="154" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -9962,21 +10328,23 @@
       <c r="AD154" s="10"/>
       <c r="AE154" s="10"/>
       <c r="AF154" s="10"/>
-      <c r="AG154" s="11"/>
-      <c r="AH154" s="11"/>
+      <c r="AG154" s="10"/>
+      <c r="AH154" s="10"/>
       <c r="AI154" s="11"/>
-      <c r="AJ154" s="10"/>
-      <c r="AK154" s="10"/>
+      <c r="AJ154" s="11"/>
+      <c r="AK154" s="11"/>
       <c r="AL154" s="10"/>
       <c r="AM154" s="10"/>
       <c r="AN154" s="10"/>
-      <c r="AO154" s="11"/>
-      <c r="AP154" s="11"/>
+      <c r="AO154" s="10"/>
+      <c r="AP154" s="10"/>
       <c r="AQ154" s="11"/>
       <c r="AR154" s="11"/>
-      <c r="AS154" s="5"/>
-    </row>
-    <row r="155" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS154" s="11"/>
+      <c r="AT154" s="11"/>
+      <c r="AU154" s="5"/>
+    </row>
+    <row r="155" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -10009,21 +10377,23 @@
       <c r="AD155" s="10"/>
       <c r="AE155" s="10"/>
       <c r="AF155" s="10"/>
-      <c r="AG155" s="11"/>
-      <c r="AH155" s="11"/>
+      <c r="AG155" s="10"/>
+      <c r="AH155" s="10"/>
       <c r="AI155" s="11"/>
-      <c r="AJ155" s="10"/>
-      <c r="AK155" s="10"/>
+      <c r="AJ155" s="11"/>
+      <c r="AK155" s="11"/>
       <c r="AL155" s="10"/>
       <c r="AM155" s="10"/>
       <c r="AN155" s="10"/>
-      <c r="AO155" s="11"/>
-      <c r="AP155" s="11"/>
+      <c r="AO155" s="10"/>
+      <c r="AP155" s="10"/>
       <c r="AQ155" s="11"/>
       <c r="AR155" s="11"/>
-      <c r="AS155" s="5"/>
-    </row>
-    <row r="156" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS155" s="11"/>
+      <c r="AT155" s="11"/>
+      <c r="AU155" s="5"/>
+    </row>
+    <row r="156" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -10056,21 +10426,23 @@
       <c r="AD156" s="10"/>
       <c r="AE156" s="10"/>
       <c r="AF156" s="10"/>
-      <c r="AG156" s="11"/>
-      <c r="AH156" s="11"/>
+      <c r="AG156" s="10"/>
+      <c r="AH156" s="10"/>
       <c r="AI156" s="11"/>
-      <c r="AJ156" s="10"/>
-      <c r="AK156" s="10"/>
+      <c r="AJ156" s="11"/>
+      <c r="AK156" s="11"/>
       <c r="AL156" s="10"/>
       <c r="AM156" s="10"/>
       <c r="AN156" s="10"/>
-      <c r="AO156" s="11"/>
-      <c r="AP156" s="11"/>
+      <c r="AO156" s="10"/>
+      <c r="AP156" s="10"/>
       <c r="AQ156" s="11"/>
       <c r="AR156" s="11"/>
-      <c r="AS156" s="5"/>
-    </row>
-    <row r="157" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS156" s="11"/>
+      <c r="AT156" s="11"/>
+      <c r="AU156" s="5"/>
+    </row>
+    <row r="157" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -10103,21 +10475,23 @@
       <c r="AD157" s="10"/>
       <c r="AE157" s="10"/>
       <c r="AF157" s="10"/>
-      <c r="AG157" s="11"/>
-      <c r="AH157" s="11"/>
+      <c r="AG157" s="10"/>
+      <c r="AH157" s="10"/>
       <c r="AI157" s="11"/>
-      <c r="AJ157" s="10"/>
-      <c r="AK157" s="10"/>
+      <c r="AJ157" s="11"/>
+      <c r="AK157" s="11"/>
       <c r="AL157" s="10"/>
       <c r="AM157" s="10"/>
       <c r="AN157" s="10"/>
-      <c r="AO157" s="11"/>
-      <c r="AP157" s="11"/>
+      <c r="AO157" s="10"/>
+      <c r="AP157" s="10"/>
       <c r="AQ157" s="11"/>
       <c r="AR157" s="11"/>
-      <c r="AS157" s="5"/>
-    </row>
-    <row r="158" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS157" s="11"/>
+      <c r="AT157" s="11"/>
+      <c r="AU157" s="5"/>
+    </row>
+    <row r="158" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -10150,21 +10524,23 @@
       <c r="AD158" s="10"/>
       <c r="AE158" s="10"/>
       <c r="AF158" s="10"/>
-      <c r="AG158" s="11"/>
-      <c r="AH158" s="11"/>
+      <c r="AG158" s="10"/>
+      <c r="AH158" s="10"/>
       <c r="AI158" s="11"/>
-      <c r="AJ158" s="10"/>
-      <c r="AK158" s="10"/>
+      <c r="AJ158" s="11"/>
+      <c r="AK158" s="11"/>
       <c r="AL158" s="10"/>
       <c r="AM158" s="10"/>
       <c r="AN158" s="10"/>
-      <c r="AO158" s="11"/>
-      <c r="AP158" s="11"/>
+      <c r="AO158" s="10"/>
+      <c r="AP158" s="10"/>
       <c r="AQ158" s="11"/>
       <c r="AR158" s="11"/>
-      <c r="AS158" s="5"/>
-    </row>
-    <row r="159" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS158" s="11"/>
+      <c r="AT158" s="11"/>
+      <c r="AU158" s="5"/>
+    </row>
+    <row r="159" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -10197,21 +10573,23 @@
       <c r="AD159" s="10"/>
       <c r="AE159" s="10"/>
       <c r="AF159" s="10"/>
-      <c r="AG159" s="11"/>
-      <c r="AH159" s="11"/>
+      <c r="AG159" s="10"/>
+      <c r="AH159" s="10"/>
       <c r="AI159" s="11"/>
-      <c r="AJ159" s="10"/>
-      <c r="AK159" s="10"/>
+      <c r="AJ159" s="11"/>
+      <c r="AK159" s="11"/>
       <c r="AL159" s="10"/>
       <c r="AM159" s="10"/>
       <c r="AN159" s="10"/>
-      <c r="AO159" s="11"/>
-      <c r="AP159" s="11"/>
+      <c r="AO159" s="10"/>
+      <c r="AP159" s="10"/>
       <c r="AQ159" s="11"/>
       <c r="AR159" s="11"/>
-      <c r="AS159" s="5"/>
-    </row>
-    <row r="160" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS159" s="11"/>
+      <c r="AT159" s="11"/>
+      <c r="AU159" s="5"/>
+    </row>
+    <row r="160" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -10244,21 +10622,23 @@
       <c r="AD160" s="10"/>
       <c r="AE160" s="10"/>
       <c r="AF160" s="10"/>
-      <c r="AG160" s="11"/>
-      <c r="AH160" s="11"/>
+      <c r="AG160" s="10"/>
+      <c r="AH160" s="10"/>
       <c r="AI160" s="11"/>
-      <c r="AJ160" s="10"/>
-      <c r="AK160" s="10"/>
+      <c r="AJ160" s="11"/>
+      <c r="AK160" s="11"/>
       <c r="AL160" s="10"/>
       <c r="AM160" s="10"/>
       <c r="AN160" s="10"/>
-      <c r="AO160" s="11"/>
-      <c r="AP160" s="11"/>
+      <c r="AO160" s="10"/>
+      <c r="AP160" s="10"/>
       <c r="AQ160" s="11"/>
       <c r="AR160" s="11"/>
-      <c r="AS160" s="5"/>
-    </row>
-    <row r="161" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS160" s="11"/>
+      <c r="AT160" s="11"/>
+      <c r="AU160" s="5"/>
+    </row>
+    <row r="161" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -10291,21 +10671,23 @@
       <c r="AD161" s="10"/>
       <c r="AE161" s="10"/>
       <c r="AF161" s="10"/>
-      <c r="AG161" s="11"/>
-      <c r="AH161" s="11"/>
+      <c r="AG161" s="10"/>
+      <c r="AH161" s="10"/>
       <c r="AI161" s="11"/>
-      <c r="AJ161" s="10"/>
-      <c r="AK161" s="10"/>
+      <c r="AJ161" s="11"/>
+      <c r="AK161" s="11"/>
       <c r="AL161" s="10"/>
       <c r="AM161" s="10"/>
       <c r="AN161" s="10"/>
-      <c r="AO161" s="11"/>
-      <c r="AP161" s="11"/>
+      <c r="AO161" s="10"/>
+      <c r="AP161" s="10"/>
       <c r="AQ161" s="11"/>
       <c r="AR161" s="11"/>
-      <c r="AS161" s="5"/>
-    </row>
-    <row r="162" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS161" s="11"/>
+      <c r="AT161" s="11"/>
+      <c r="AU161" s="5"/>
+    </row>
+    <row r="162" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -10338,21 +10720,23 @@
       <c r="AD162" s="10"/>
       <c r="AE162" s="10"/>
       <c r="AF162" s="10"/>
-      <c r="AG162" s="11"/>
-      <c r="AH162" s="11"/>
+      <c r="AG162" s="10"/>
+      <c r="AH162" s="10"/>
       <c r="AI162" s="11"/>
-      <c r="AJ162" s="10"/>
-      <c r="AK162" s="10"/>
+      <c r="AJ162" s="11"/>
+      <c r="AK162" s="11"/>
       <c r="AL162" s="10"/>
       <c r="AM162" s="10"/>
       <c r="AN162" s="10"/>
-      <c r="AO162" s="11"/>
-      <c r="AP162" s="11"/>
+      <c r="AO162" s="10"/>
+      <c r="AP162" s="10"/>
       <c r="AQ162" s="11"/>
       <c r="AR162" s="11"/>
-      <c r="AS162" s="5"/>
-    </row>
-    <row r="163" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS162" s="11"/>
+      <c r="AT162" s="11"/>
+      <c r="AU162" s="5"/>
+    </row>
+    <row r="163" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -10385,21 +10769,23 @@
       <c r="AD163" s="10"/>
       <c r="AE163" s="10"/>
       <c r="AF163" s="10"/>
-      <c r="AG163" s="11"/>
-      <c r="AH163" s="11"/>
+      <c r="AG163" s="10"/>
+      <c r="AH163" s="10"/>
       <c r="AI163" s="11"/>
-      <c r="AJ163" s="10"/>
-      <c r="AK163" s="10"/>
+      <c r="AJ163" s="11"/>
+      <c r="AK163" s="11"/>
       <c r="AL163" s="10"/>
       <c r="AM163" s="10"/>
       <c r="AN163" s="10"/>
-      <c r="AO163" s="11"/>
-      <c r="AP163" s="11"/>
+      <c r="AO163" s="10"/>
+      <c r="AP163" s="10"/>
       <c r="AQ163" s="11"/>
       <c r="AR163" s="11"/>
-      <c r="AS163" s="5"/>
-    </row>
-    <row r="164" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS163" s="11"/>
+      <c r="AT163" s="11"/>
+      <c r="AU163" s="5"/>
+    </row>
+    <row r="164" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -10432,21 +10818,23 @@
       <c r="AD164" s="10"/>
       <c r="AE164" s="10"/>
       <c r="AF164" s="10"/>
-      <c r="AG164" s="11"/>
-      <c r="AH164" s="11"/>
+      <c r="AG164" s="10"/>
+      <c r="AH164" s="10"/>
       <c r="AI164" s="11"/>
-      <c r="AJ164" s="10"/>
-      <c r="AK164" s="10"/>
+      <c r="AJ164" s="11"/>
+      <c r="AK164" s="11"/>
       <c r="AL164" s="10"/>
       <c r="AM164" s="10"/>
       <c r="AN164" s="10"/>
-      <c r="AO164" s="11"/>
-      <c r="AP164" s="11"/>
+      <c r="AO164" s="10"/>
+      <c r="AP164" s="10"/>
       <c r="AQ164" s="11"/>
       <c r="AR164" s="11"/>
-      <c r="AS164" s="5"/>
-    </row>
-    <row r="165" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS164" s="11"/>
+      <c r="AT164" s="11"/>
+      <c r="AU164" s="5"/>
+    </row>
+    <row r="165" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -10479,21 +10867,23 @@
       <c r="AD165" s="10"/>
       <c r="AE165" s="10"/>
       <c r="AF165" s="10"/>
-      <c r="AG165" s="11"/>
-      <c r="AH165" s="11"/>
+      <c r="AG165" s="10"/>
+      <c r="AH165" s="10"/>
       <c r="AI165" s="11"/>
-      <c r="AJ165" s="10"/>
-      <c r="AK165" s="10"/>
+      <c r="AJ165" s="11"/>
+      <c r="AK165" s="11"/>
       <c r="AL165" s="10"/>
       <c r="AM165" s="10"/>
       <c r="AN165" s="10"/>
-      <c r="AO165" s="11"/>
-      <c r="AP165" s="11"/>
+      <c r="AO165" s="10"/>
+      <c r="AP165" s="10"/>
       <c r="AQ165" s="11"/>
       <c r="AR165" s="11"/>
-      <c r="AS165" s="5"/>
-    </row>
-    <row r="166" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS165" s="11"/>
+      <c r="AT165" s="11"/>
+      <c r="AU165" s="5"/>
+    </row>
+    <row r="166" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -10526,21 +10916,23 @@
       <c r="AD166" s="10"/>
       <c r="AE166" s="10"/>
       <c r="AF166" s="10"/>
-      <c r="AG166" s="11"/>
-      <c r="AH166" s="11"/>
+      <c r="AG166" s="10"/>
+      <c r="AH166" s="10"/>
       <c r="AI166" s="11"/>
-      <c r="AJ166" s="10"/>
-      <c r="AK166" s="10"/>
+      <c r="AJ166" s="11"/>
+      <c r="AK166" s="11"/>
       <c r="AL166" s="10"/>
       <c r="AM166" s="10"/>
       <c r="AN166" s="10"/>
-      <c r="AO166" s="11"/>
-      <c r="AP166" s="11"/>
+      <c r="AO166" s="10"/>
+      <c r="AP166" s="10"/>
       <c r="AQ166" s="11"/>
       <c r="AR166" s="11"/>
-      <c r="AS166" s="5"/>
-    </row>
-    <row r="167" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS166" s="11"/>
+      <c r="AT166" s="11"/>
+      <c r="AU166" s="5"/>
+    </row>
+    <row r="167" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -10573,21 +10965,23 @@
       <c r="AD167" s="10"/>
       <c r="AE167" s="10"/>
       <c r="AF167" s="10"/>
-      <c r="AG167" s="11"/>
-      <c r="AH167" s="11"/>
+      <c r="AG167" s="10"/>
+      <c r="AH167" s="10"/>
       <c r="AI167" s="11"/>
-      <c r="AJ167" s="10"/>
-      <c r="AK167" s="10"/>
+      <c r="AJ167" s="11"/>
+      <c r="AK167" s="11"/>
       <c r="AL167" s="10"/>
       <c r="AM167" s="10"/>
       <c r="AN167" s="10"/>
-      <c r="AO167" s="11"/>
-      <c r="AP167" s="11"/>
+      <c r="AO167" s="10"/>
+      <c r="AP167" s="10"/>
       <c r="AQ167" s="11"/>
       <c r="AR167" s="11"/>
-      <c r="AS167" s="5"/>
-    </row>
-    <row r="168" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS167" s="11"/>
+      <c r="AT167" s="11"/>
+      <c r="AU167" s="5"/>
+    </row>
+    <row r="168" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -10620,21 +11014,23 @@
       <c r="AD168" s="10"/>
       <c r="AE168" s="10"/>
       <c r="AF168" s="10"/>
-      <c r="AG168" s="11"/>
-      <c r="AH168" s="11"/>
+      <c r="AG168" s="10"/>
+      <c r="AH168" s="10"/>
       <c r="AI168" s="11"/>
-      <c r="AJ168" s="10"/>
-      <c r="AK168" s="10"/>
+      <c r="AJ168" s="11"/>
+      <c r="AK168" s="11"/>
       <c r="AL168" s="10"/>
       <c r="AM168" s="10"/>
       <c r="AN168" s="10"/>
-      <c r="AO168" s="11"/>
-      <c r="AP168" s="11"/>
+      <c r="AO168" s="10"/>
+      <c r="AP168" s="10"/>
       <c r="AQ168" s="11"/>
       <c r="AR168" s="11"/>
-      <c r="AS168" s="5"/>
-    </row>
-    <row r="169" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS168" s="11"/>
+      <c r="AT168" s="11"/>
+      <c r="AU168" s="5"/>
+    </row>
+    <row r="169" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -10667,21 +11063,23 @@
       <c r="AD169" s="10"/>
       <c r="AE169" s="10"/>
       <c r="AF169" s="10"/>
-      <c r="AG169" s="11"/>
-      <c r="AH169" s="11"/>
+      <c r="AG169" s="10"/>
+      <c r="AH169" s="10"/>
       <c r="AI169" s="11"/>
-      <c r="AJ169" s="10"/>
-      <c r="AK169" s="10"/>
+      <c r="AJ169" s="11"/>
+      <c r="AK169" s="11"/>
       <c r="AL169" s="10"/>
       <c r="AM169" s="10"/>
       <c r="AN169" s="10"/>
-      <c r="AO169" s="11"/>
-      <c r="AP169" s="11"/>
+      <c r="AO169" s="10"/>
+      <c r="AP169" s="10"/>
       <c r="AQ169" s="11"/>
       <c r="AR169" s="11"/>
-      <c r="AS169" s="5"/>
-    </row>
-    <row r="170" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS169" s="11"/>
+      <c r="AT169" s="11"/>
+      <c r="AU169" s="5"/>
+    </row>
+    <row r="170" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -10714,21 +11112,23 @@
       <c r="AD170" s="10"/>
       <c r="AE170" s="10"/>
       <c r="AF170" s="10"/>
-      <c r="AG170" s="11"/>
-      <c r="AH170" s="11"/>
+      <c r="AG170" s="10"/>
+      <c r="AH170" s="10"/>
       <c r="AI170" s="11"/>
-      <c r="AJ170" s="10"/>
-      <c r="AK170" s="10"/>
+      <c r="AJ170" s="11"/>
+      <c r="AK170" s="11"/>
       <c r="AL170" s="10"/>
       <c r="AM170" s="10"/>
       <c r="AN170" s="10"/>
-      <c r="AO170" s="11"/>
-      <c r="AP170" s="11"/>
+      <c r="AO170" s="10"/>
+      <c r="AP170" s="10"/>
       <c r="AQ170" s="11"/>
       <c r="AR170" s="11"/>
-      <c r="AS170" s="5"/>
-    </row>
-    <row r="171" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS170" s="11"/>
+      <c r="AT170" s="11"/>
+      <c r="AU170" s="5"/>
+    </row>
+    <row r="171" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -10761,21 +11161,23 @@
       <c r="AD171" s="10"/>
       <c r="AE171" s="10"/>
       <c r="AF171" s="10"/>
-      <c r="AG171" s="11"/>
-      <c r="AH171" s="11"/>
+      <c r="AG171" s="10"/>
+      <c r="AH171" s="10"/>
       <c r="AI171" s="11"/>
-      <c r="AJ171" s="10"/>
-      <c r="AK171" s="10"/>
+      <c r="AJ171" s="11"/>
+      <c r="AK171" s="11"/>
       <c r="AL171" s="10"/>
       <c r="AM171" s="10"/>
       <c r="AN171" s="10"/>
-      <c r="AO171" s="11"/>
-      <c r="AP171" s="11"/>
+      <c r="AO171" s="10"/>
+      <c r="AP171" s="10"/>
       <c r="AQ171" s="11"/>
       <c r="AR171" s="11"/>
-      <c r="AS171" s="5"/>
-    </row>
-    <row r="172" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS171" s="11"/>
+      <c r="AT171" s="11"/>
+      <c r="AU171" s="5"/>
+    </row>
+    <row r="172" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -10808,21 +11210,23 @@
       <c r="AD172" s="10"/>
       <c r="AE172" s="10"/>
       <c r="AF172" s="10"/>
-      <c r="AG172" s="11"/>
-      <c r="AH172" s="11"/>
+      <c r="AG172" s="10"/>
+      <c r="AH172" s="10"/>
       <c r="AI172" s="11"/>
-      <c r="AJ172" s="10"/>
-      <c r="AK172" s="10"/>
+      <c r="AJ172" s="11"/>
+      <c r="AK172" s="11"/>
       <c r="AL172" s="10"/>
       <c r="AM172" s="10"/>
       <c r="AN172" s="10"/>
-      <c r="AO172" s="11"/>
-      <c r="AP172" s="11"/>
+      <c r="AO172" s="10"/>
+      <c r="AP172" s="10"/>
       <c r="AQ172" s="11"/>
       <c r="AR172" s="11"/>
-      <c r="AS172" s="5"/>
-    </row>
-    <row r="173" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS172" s="11"/>
+      <c r="AT172" s="11"/>
+      <c r="AU172" s="5"/>
+    </row>
+    <row r="173" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -10855,21 +11259,23 @@
       <c r="AD173" s="10"/>
       <c r="AE173" s="10"/>
       <c r="AF173" s="10"/>
-      <c r="AG173" s="11"/>
-      <c r="AH173" s="11"/>
+      <c r="AG173" s="10"/>
+      <c r="AH173" s="10"/>
       <c r="AI173" s="11"/>
-      <c r="AJ173" s="10"/>
-      <c r="AK173" s="10"/>
+      <c r="AJ173" s="11"/>
+      <c r="AK173" s="11"/>
       <c r="AL173" s="10"/>
       <c r="AM173" s="10"/>
       <c r="AN173" s="10"/>
-      <c r="AO173" s="11"/>
-      <c r="AP173" s="11"/>
+      <c r="AO173" s="10"/>
+      <c r="AP173" s="10"/>
       <c r="AQ173" s="11"/>
       <c r="AR173" s="11"/>
-      <c r="AS173" s="5"/>
-    </row>
-    <row r="174" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS173" s="11"/>
+      <c r="AT173" s="11"/>
+      <c r="AU173" s="5"/>
+    </row>
+    <row r="174" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -10902,21 +11308,23 @@
       <c r="AD174" s="10"/>
       <c r="AE174" s="10"/>
       <c r="AF174" s="10"/>
-      <c r="AG174" s="11"/>
-      <c r="AH174" s="11"/>
+      <c r="AG174" s="10"/>
+      <c r="AH174" s="10"/>
       <c r="AI174" s="11"/>
-      <c r="AJ174" s="10"/>
-      <c r="AK174" s="10"/>
+      <c r="AJ174" s="11"/>
+      <c r="AK174" s="11"/>
       <c r="AL174" s="10"/>
       <c r="AM174" s="10"/>
       <c r="AN174" s="10"/>
-      <c r="AO174" s="11"/>
-      <c r="AP174" s="11"/>
+      <c r="AO174" s="10"/>
+      <c r="AP174" s="10"/>
       <c r="AQ174" s="11"/>
       <c r="AR174" s="11"/>
-      <c r="AS174" s="5"/>
-    </row>
-    <row r="175" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS174" s="11"/>
+      <c r="AT174" s="11"/>
+      <c r="AU174" s="5"/>
+    </row>
+    <row r="175" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -10949,21 +11357,23 @@
       <c r="AD175" s="10"/>
       <c r="AE175" s="10"/>
       <c r="AF175" s="10"/>
-      <c r="AG175" s="11"/>
-      <c r="AH175" s="11"/>
+      <c r="AG175" s="10"/>
+      <c r="AH175" s="10"/>
       <c r="AI175" s="11"/>
-      <c r="AJ175" s="10"/>
-      <c r="AK175" s="10"/>
+      <c r="AJ175" s="11"/>
+      <c r="AK175" s="11"/>
       <c r="AL175" s="10"/>
       <c r="AM175" s="10"/>
       <c r="AN175" s="10"/>
-      <c r="AO175" s="11"/>
-      <c r="AP175" s="11"/>
+      <c r="AO175" s="10"/>
+      <c r="AP175" s="10"/>
       <c r="AQ175" s="11"/>
       <c r="AR175" s="11"/>
-      <c r="AS175" s="5"/>
-    </row>
-    <row r="176" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS175" s="11"/>
+      <c r="AT175" s="11"/>
+      <c r="AU175" s="5"/>
+    </row>
+    <row r="176" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -10996,21 +11406,23 @@
       <c r="AD176" s="10"/>
       <c r="AE176" s="10"/>
       <c r="AF176" s="10"/>
-      <c r="AG176" s="11"/>
-      <c r="AH176" s="11"/>
+      <c r="AG176" s="10"/>
+      <c r="AH176" s="10"/>
       <c r="AI176" s="11"/>
-      <c r="AJ176" s="10"/>
-      <c r="AK176" s="10"/>
+      <c r="AJ176" s="11"/>
+      <c r="AK176" s="11"/>
       <c r="AL176" s="10"/>
       <c r="AM176" s="10"/>
       <c r="AN176" s="10"/>
-      <c r="AO176" s="11"/>
-      <c r="AP176" s="11"/>
+      <c r="AO176" s="10"/>
+      <c r="AP176" s="10"/>
       <c r="AQ176" s="11"/>
       <c r="AR176" s="11"/>
-      <c r="AS176" s="5"/>
-    </row>
-    <row r="177" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS176" s="11"/>
+      <c r="AT176" s="11"/>
+      <c r="AU176" s="5"/>
+    </row>
+    <row r="177" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -11043,21 +11455,23 @@
       <c r="AD177" s="10"/>
       <c r="AE177" s="10"/>
       <c r="AF177" s="10"/>
-      <c r="AG177" s="11"/>
-      <c r="AH177" s="11"/>
+      <c r="AG177" s="10"/>
+      <c r="AH177" s="10"/>
       <c r="AI177" s="11"/>
-      <c r="AJ177" s="10"/>
-      <c r="AK177" s="10"/>
+      <c r="AJ177" s="11"/>
+      <c r="AK177" s="11"/>
       <c r="AL177" s="10"/>
       <c r="AM177" s="10"/>
       <c r="AN177" s="10"/>
-      <c r="AO177" s="11"/>
-      <c r="AP177" s="11"/>
+      <c r="AO177" s="10"/>
+      <c r="AP177" s="10"/>
       <c r="AQ177" s="11"/>
       <c r="AR177" s="11"/>
-      <c r="AS177" s="5"/>
-    </row>
-    <row r="178" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS177" s="11"/>
+      <c r="AT177" s="11"/>
+      <c r="AU177" s="5"/>
+    </row>
+    <row r="178" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -11090,21 +11504,23 @@
       <c r="AD178" s="10"/>
       <c r="AE178" s="10"/>
       <c r="AF178" s="10"/>
-      <c r="AG178" s="11"/>
-      <c r="AH178" s="11"/>
+      <c r="AG178" s="10"/>
+      <c r="AH178" s="10"/>
       <c r="AI178" s="11"/>
-      <c r="AJ178" s="10"/>
-      <c r="AK178" s="10"/>
+      <c r="AJ178" s="11"/>
+      <c r="AK178" s="11"/>
       <c r="AL178" s="10"/>
       <c r="AM178" s="10"/>
       <c r="AN178" s="10"/>
-      <c r="AO178" s="11"/>
-      <c r="AP178" s="11"/>
+      <c r="AO178" s="10"/>
+      <c r="AP178" s="10"/>
       <c r="AQ178" s="11"/>
       <c r="AR178" s="11"/>
-      <c r="AS178" s="5"/>
-    </row>
-    <row r="179" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS178" s="11"/>
+      <c r="AT178" s="11"/>
+      <c r="AU178" s="5"/>
+    </row>
+    <row r="179" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -11137,21 +11553,23 @@
       <c r="AD179" s="10"/>
       <c r="AE179" s="10"/>
       <c r="AF179" s="10"/>
-      <c r="AG179" s="11"/>
-      <c r="AH179" s="11"/>
+      <c r="AG179" s="10"/>
+      <c r="AH179" s="10"/>
       <c r="AI179" s="11"/>
-      <c r="AJ179" s="10"/>
-      <c r="AK179" s="10"/>
+      <c r="AJ179" s="11"/>
+      <c r="AK179" s="11"/>
       <c r="AL179" s="10"/>
       <c r="AM179" s="10"/>
       <c r="AN179" s="10"/>
-      <c r="AO179" s="11"/>
-      <c r="AP179" s="11"/>
+      <c r="AO179" s="10"/>
+      <c r="AP179" s="10"/>
       <c r="AQ179" s="11"/>
       <c r="AR179" s="11"/>
-      <c r="AS179" s="5"/>
-    </row>
-    <row r="180" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS179" s="11"/>
+      <c r="AT179" s="11"/>
+      <c r="AU179" s="5"/>
+    </row>
+    <row r="180" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -11184,21 +11602,23 @@
       <c r="AD180" s="10"/>
       <c r="AE180" s="10"/>
       <c r="AF180" s="10"/>
-      <c r="AG180" s="11"/>
-      <c r="AH180" s="11"/>
+      <c r="AG180" s="10"/>
+      <c r="AH180" s="10"/>
       <c r="AI180" s="11"/>
-      <c r="AJ180" s="10"/>
-      <c r="AK180" s="10"/>
+      <c r="AJ180" s="11"/>
+      <c r="AK180" s="11"/>
       <c r="AL180" s="10"/>
       <c r="AM180" s="10"/>
       <c r="AN180" s="10"/>
-      <c r="AO180" s="11"/>
-      <c r="AP180" s="11"/>
+      <c r="AO180" s="10"/>
+      <c r="AP180" s="10"/>
       <c r="AQ180" s="11"/>
       <c r="AR180" s="11"/>
-      <c r="AS180" s="5"/>
-    </row>
-    <row r="181" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS180" s="11"/>
+      <c r="AT180" s="11"/>
+      <c r="AU180" s="5"/>
+    </row>
+    <row r="181" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -11231,21 +11651,23 @@
       <c r="AD181" s="10"/>
       <c r="AE181" s="10"/>
       <c r="AF181" s="10"/>
-      <c r="AG181" s="11"/>
-      <c r="AH181" s="11"/>
+      <c r="AG181" s="10"/>
+      <c r="AH181" s="10"/>
       <c r="AI181" s="11"/>
-      <c r="AJ181" s="10"/>
-      <c r="AK181" s="10"/>
+      <c r="AJ181" s="11"/>
+      <c r="AK181" s="11"/>
       <c r="AL181" s="10"/>
       <c r="AM181" s="10"/>
       <c r="AN181" s="10"/>
-      <c r="AO181" s="11"/>
-      <c r="AP181" s="11"/>
+      <c r="AO181" s="10"/>
+      <c r="AP181" s="10"/>
       <c r="AQ181" s="11"/>
       <c r="AR181" s="11"/>
-      <c r="AS181" s="5"/>
-    </row>
-    <row r="182" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS181" s="11"/>
+      <c r="AT181" s="11"/>
+      <c r="AU181" s="5"/>
+    </row>
+    <row r="182" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -11278,21 +11700,23 @@
       <c r="AD182" s="10"/>
       <c r="AE182" s="10"/>
       <c r="AF182" s="10"/>
-      <c r="AG182" s="11"/>
-      <c r="AH182" s="11"/>
+      <c r="AG182" s="10"/>
+      <c r="AH182" s="10"/>
       <c r="AI182" s="11"/>
-      <c r="AJ182" s="10"/>
-      <c r="AK182" s="10"/>
+      <c r="AJ182" s="11"/>
+      <c r="AK182" s="11"/>
       <c r="AL182" s="10"/>
       <c r="AM182" s="10"/>
       <c r="AN182" s="10"/>
-      <c r="AO182" s="11"/>
-      <c r="AP182" s="11"/>
+      <c r="AO182" s="10"/>
+      <c r="AP182" s="10"/>
       <c r="AQ182" s="11"/>
       <c r="AR182" s="11"/>
-      <c r="AS182" s="5"/>
-    </row>
-    <row r="183" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS182" s="11"/>
+      <c r="AT182" s="11"/>
+      <c r="AU182" s="5"/>
+    </row>
+    <row r="183" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -11325,21 +11749,23 @@
       <c r="AD183" s="10"/>
       <c r="AE183" s="10"/>
       <c r="AF183" s="10"/>
-      <c r="AG183" s="11"/>
-      <c r="AH183" s="11"/>
+      <c r="AG183" s="10"/>
+      <c r="AH183" s="10"/>
       <c r="AI183" s="11"/>
-      <c r="AJ183" s="10"/>
-      <c r="AK183" s="10"/>
+      <c r="AJ183" s="11"/>
+      <c r="AK183" s="11"/>
       <c r="AL183" s="10"/>
       <c r="AM183" s="10"/>
       <c r="AN183" s="10"/>
-      <c r="AO183" s="11"/>
-      <c r="AP183" s="11"/>
+      <c r="AO183" s="10"/>
+      <c r="AP183" s="10"/>
       <c r="AQ183" s="11"/>
       <c r="AR183" s="11"/>
-      <c r="AS183" s="5"/>
-    </row>
-    <row r="184" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS183" s="11"/>
+      <c r="AT183" s="11"/>
+      <c r="AU183" s="5"/>
+    </row>
+    <row r="184" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -11372,21 +11798,23 @@
       <c r="AD184" s="10"/>
       <c r="AE184" s="10"/>
       <c r="AF184" s="10"/>
-      <c r="AG184" s="11"/>
-      <c r="AH184" s="11"/>
+      <c r="AG184" s="10"/>
+      <c r="AH184" s="10"/>
       <c r="AI184" s="11"/>
-      <c r="AJ184" s="10"/>
-      <c r="AK184" s="10"/>
+      <c r="AJ184" s="11"/>
+      <c r="AK184" s="11"/>
       <c r="AL184" s="10"/>
       <c r="AM184" s="10"/>
       <c r="AN184" s="10"/>
-      <c r="AO184" s="11"/>
-      <c r="AP184" s="11"/>
+      <c r="AO184" s="10"/>
+      <c r="AP184" s="10"/>
       <c r="AQ184" s="11"/>
       <c r="AR184" s="11"/>
-      <c r="AS184" s="5"/>
-    </row>
-    <row r="185" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS184" s="11"/>
+      <c r="AT184" s="11"/>
+      <c r="AU184" s="5"/>
+    </row>
+    <row r="185" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -11419,21 +11847,23 @@
       <c r="AD185" s="10"/>
       <c r="AE185" s="10"/>
       <c r="AF185" s="10"/>
-      <c r="AG185" s="11"/>
-      <c r="AH185" s="11"/>
+      <c r="AG185" s="10"/>
+      <c r="AH185" s="10"/>
       <c r="AI185" s="11"/>
-      <c r="AJ185" s="10"/>
-      <c r="AK185" s="10"/>
+      <c r="AJ185" s="11"/>
+      <c r="AK185" s="11"/>
       <c r="AL185" s="10"/>
       <c r="AM185" s="10"/>
       <c r="AN185" s="10"/>
-      <c r="AO185" s="11"/>
-      <c r="AP185" s="11"/>
+      <c r="AO185" s="10"/>
+      <c r="AP185" s="10"/>
       <c r="AQ185" s="11"/>
       <c r="AR185" s="11"/>
-      <c r="AS185" s="5"/>
-    </row>
-    <row r="186" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS185" s="11"/>
+      <c r="AT185" s="11"/>
+      <c r="AU185" s="5"/>
+    </row>
+    <row r="186" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -11466,21 +11896,23 @@
       <c r="AD186" s="10"/>
       <c r="AE186" s="10"/>
       <c r="AF186" s="10"/>
-      <c r="AG186" s="11"/>
-      <c r="AH186" s="11"/>
+      <c r="AG186" s="10"/>
+      <c r="AH186" s="10"/>
       <c r="AI186" s="11"/>
-      <c r="AJ186" s="10"/>
-      <c r="AK186" s="10"/>
+      <c r="AJ186" s="11"/>
+      <c r="AK186" s="11"/>
       <c r="AL186" s="10"/>
       <c r="AM186" s="10"/>
       <c r="AN186" s="10"/>
-      <c r="AO186" s="11"/>
-      <c r="AP186" s="11"/>
+      <c r="AO186" s="10"/>
+      <c r="AP186" s="10"/>
       <c r="AQ186" s="11"/>
       <c r="AR186" s="11"/>
-      <c r="AS186" s="5"/>
-    </row>
-    <row r="187" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS186" s="11"/>
+      <c r="AT186" s="11"/>
+      <c r="AU186" s="5"/>
+    </row>
+    <row r="187" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -11513,21 +11945,23 @@
       <c r="AD187" s="10"/>
       <c r="AE187" s="10"/>
       <c r="AF187" s="10"/>
-      <c r="AG187" s="11"/>
-      <c r="AH187" s="11"/>
+      <c r="AG187" s="10"/>
+      <c r="AH187" s="10"/>
       <c r="AI187" s="11"/>
-      <c r="AJ187" s="10"/>
-      <c r="AK187" s="10"/>
+      <c r="AJ187" s="11"/>
+      <c r="AK187" s="11"/>
       <c r="AL187" s="10"/>
       <c r="AM187" s="10"/>
       <c r="AN187" s="10"/>
-      <c r="AO187" s="11"/>
-      <c r="AP187" s="11"/>
+      <c r="AO187" s="10"/>
+      <c r="AP187" s="10"/>
       <c r="AQ187" s="11"/>
       <c r="AR187" s="11"/>
-      <c r="AS187" s="5"/>
-    </row>
-    <row r="188" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS187" s="11"/>
+      <c r="AT187" s="11"/>
+      <c r="AU187" s="5"/>
+    </row>
+    <row r="188" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -11560,21 +11994,23 @@
       <c r="AD188" s="10"/>
       <c r="AE188" s="10"/>
       <c r="AF188" s="10"/>
-      <c r="AG188" s="11"/>
-      <c r="AH188" s="11"/>
+      <c r="AG188" s="10"/>
+      <c r="AH188" s="10"/>
       <c r="AI188" s="11"/>
-      <c r="AJ188" s="10"/>
-      <c r="AK188" s="10"/>
+      <c r="AJ188" s="11"/>
+      <c r="AK188" s="11"/>
       <c r="AL188" s="10"/>
       <c r="AM188" s="10"/>
       <c r="AN188" s="10"/>
-      <c r="AO188" s="11"/>
-      <c r="AP188" s="11"/>
+      <c r="AO188" s="10"/>
+      <c r="AP188" s="10"/>
       <c r="AQ188" s="11"/>
       <c r="AR188" s="11"/>
-      <c r="AS188" s="5"/>
-    </row>
-    <row r="189" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS188" s="11"/>
+      <c r="AT188" s="11"/>
+      <c r="AU188" s="5"/>
+    </row>
+    <row r="189" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -11607,21 +12043,23 @@
       <c r="AD189" s="10"/>
       <c r="AE189" s="10"/>
       <c r="AF189" s="10"/>
-      <c r="AG189" s="11"/>
-      <c r="AH189" s="11"/>
+      <c r="AG189" s="10"/>
+      <c r="AH189" s="10"/>
       <c r="AI189" s="11"/>
-      <c r="AJ189" s="10"/>
-      <c r="AK189" s="10"/>
+      <c r="AJ189" s="11"/>
+      <c r="AK189" s="11"/>
       <c r="AL189" s="10"/>
       <c r="AM189" s="10"/>
       <c r="AN189" s="10"/>
-      <c r="AO189" s="11"/>
-      <c r="AP189" s="11"/>
+      <c r="AO189" s="10"/>
+      <c r="AP189" s="10"/>
       <c r="AQ189" s="11"/>
       <c r="AR189" s="11"/>
-      <c r="AS189" s="5"/>
-    </row>
-    <row r="190" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS189" s="11"/>
+      <c r="AT189" s="11"/>
+      <c r="AU189" s="5"/>
+    </row>
+    <row r="190" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -11654,21 +12092,23 @@
       <c r="AD190" s="10"/>
       <c r="AE190" s="10"/>
       <c r="AF190" s="10"/>
-      <c r="AG190" s="11"/>
-      <c r="AH190" s="11"/>
+      <c r="AG190" s="10"/>
+      <c r="AH190" s="10"/>
       <c r="AI190" s="11"/>
-      <c r="AJ190" s="10"/>
-      <c r="AK190" s="10"/>
+      <c r="AJ190" s="11"/>
+      <c r="AK190" s="11"/>
       <c r="AL190" s="10"/>
       <c r="AM190" s="10"/>
       <c r="AN190" s="10"/>
-      <c r="AO190" s="11"/>
-      <c r="AP190" s="11"/>
+      <c r="AO190" s="10"/>
+      <c r="AP190" s="10"/>
       <c r="AQ190" s="11"/>
       <c r="AR190" s="11"/>
-      <c r="AS190" s="5"/>
-    </row>
-    <row r="191" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS190" s="11"/>
+      <c r="AT190" s="11"/>
+      <c r="AU190" s="5"/>
+    </row>
+    <row r="191" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -11701,21 +12141,23 @@
       <c r="AD191" s="10"/>
       <c r="AE191" s="10"/>
       <c r="AF191" s="10"/>
-      <c r="AG191" s="11"/>
-      <c r="AH191" s="11"/>
+      <c r="AG191" s="10"/>
+      <c r="AH191" s="10"/>
       <c r="AI191" s="11"/>
-      <c r="AJ191" s="10"/>
-      <c r="AK191" s="10"/>
+      <c r="AJ191" s="11"/>
+      <c r="AK191" s="11"/>
       <c r="AL191" s="10"/>
       <c r="AM191" s="10"/>
       <c r="AN191" s="10"/>
-      <c r="AO191" s="11"/>
-      <c r="AP191" s="11"/>
+      <c r="AO191" s="10"/>
+      <c r="AP191" s="10"/>
       <c r="AQ191" s="11"/>
       <c r="AR191" s="11"/>
-      <c r="AS191" s="5"/>
-    </row>
-    <row r="192" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS191" s="11"/>
+      <c r="AT191" s="11"/>
+      <c r="AU191" s="5"/>
+    </row>
+    <row r="192" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -11748,21 +12190,23 @@
       <c r="AD192" s="10"/>
       <c r="AE192" s="10"/>
       <c r="AF192" s="10"/>
-      <c r="AG192" s="11"/>
-      <c r="AH192" s="11"/>
+      <c r="AG192" s="10"/>
+      <c r="AH192" s="10"/>
       <c r="AI192" s="11"/>
-      <c r="AJ192" s="10"/>
-      <c r="AK192" s="10"/>
+      <c r="AJ192" s="11"/>
+      <c r="AK192" s="11"/>
       <c r="AL192" s="10"/>
       <c r="AM192" s="10"/>
       <c r="AN192" s="10"/>
-      <c r="AO192" s="11"/>
-      <c r="AP192" s="11"/>
+      <c r="AO192" s="10"/>
+      <c r="AP192" s="10"/>
       <c r="AQ192" s="11"/>
       <c r="AR192" s="11"/>
-      <c r="AS192" s="5"/>
-    </row>
-    <row r="193" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS192" s="11"/>
+      <c r="AT192" s="11"/>
+      <c r="AU192" s="5"/>
+    </row>
+    <row r="193" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -11795,21 +12239,23 @@
       <c r="AD193" s="10"/>
       <c r="AE193" s="10"/>
       <c r="AF193" s="10"/>
-      <c r="AG193" s="11"/>
-      <c r="AH193" s="11"/>
+      <c r="AG193" s="10"/>
+      <c r="AH193" s="10"/>
       <c r="AI193" s="11"/>
-      <c r="AJ193" s="10"/>
-      <c r="AK193" s="10"/>
+      <c r="AJ193" s="11"/>
+      <c r="AK193" s="11"/>
       <c r="AL193" s="10"/>
       <c r="AM193" s="10"/>
       <c r="AN193" s="10"/>
-      <c r="AO193" s="11"/>
-      <c r="AP193" s="11"/>
+      <c r="AO193" s="10"/>
+      <c r="AP193" s="10"/>
       <c r="AQ193" s="11"/>
       <c r="AR193" s="11"/>
-      <c r="AS193" s="5"/>
-    </row>
-    <row r="194" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS193" s="11"/>
+      <c r="AT193" s="11"/>
+      <c r="AU193" s="5"/>
+    </row>
+    <row r="194" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -11842,21 +12288,23 @@
       <c r="AD194" s="10"/>
       <c r="AE194" s="10"/>
       <c r="AF194" s="10"/>
-      <c r="AG194" s="11"/>
-      <c r="AH194" s="11"/>
+      <c r="AG194" s="10"/>
+      <c r="AH194" s="10"/>
       <c r="AI194" s="11"/>
-      <c r="AJ194" s="10"/>
-      <c r="AK194" s="10"/>
+      <c r="AJ194" s="11"/>
+      <c r="AK194" s="11"/>
       <c r="AL194" s="10"/>
       <c r="AM194" s="10"/>
       <c r="AN194" s="10"/>
-      <c r="AO194" s="11"/>
-      <c r="AP194" s="11"/>
+      <c r="AO194" s="10"/>
+      <c r="AP194" s="10"/>
       <c r="AQ194" s="11"/>
       <c r="AR194" s="11"/>
-      <c r="AS194" s="5"/>
-    </row>
-    <row r="195" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS194" s="11"/>
+      <c r="AT194" s="11"/>
+      <c r="AU194" s="5"/>
+    </row>
+    <row r="195" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -11889,21 +12337,23 @@
       <c r="AD195" s="10"/>
       <c r="AE195" s="10"/>
       <c r="AF195" s="10"/>
-      <c r="AG195" s="11"/>
-      <c r="AH195" s="11"/>
+      <c r="AG195" s="10"/>
+      <c r="AH195" s="10"/>
       <c r="AI195" s="11"/>
-      <c r="AJ195" s="10"/>
-      <c r="AK195" s="10"/>
+      <c r="AJ195" s="11"/>
+      <c r="AK195" s="11"/>
       <c r="AL195" s="10"/>
       <c r="AM195" s="10"/>
       <c r="AN195" s="10"/>
-      <c r="AO195" s="11"/>
-      <c r="AP195" s="11"/>
+      <c r="AO195" s="10"/>
+      <c r="AP195" s="10"/>
       <c r="AQ195" s="11"/>
       <c r="AR195" s="11"/>
-      <c r="AS195" s="5"/>
-    </row>
-    <row r="196" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS195" s="11"/>
+      <c r="AT195" s="11"/>
+      <c r="AU195" s="5"/>
+    </row>
+    <row r="196" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -11936,21 +12386,23 @@
       <c r="AD196" s="10"/>
       <c r="AE196" s="10"/>
       <c r="AF196" s="10"/>
-      <c r="AG196" s="11"/>
-      <c r="AH196" s="11"/>
+      <c r="AG196" s="10"/>
+      <c r="AH196" s="10"/>
       <c r="AI196" s="11"/>
-      <c r="AJ196" s="10"/>
-      <c r="AK196" s="10"/>
+      <c r="AJ196" s="11"/>
+      <c r="AK196" s="11"/>
       <c r="AL196" s="10"/>
       <c r="AM196" s="10"/>
       <c r="AN196" s="10"/>
-      <c r="AO196" s="11"/>
-      <c r="AP196" s="11"/>
+      <c r="AO196" s="10"/>
+      <c r="AP196" s="10"/>
       <c r="AQ196" s="11"/>
       <c r="AR196" s="11"/>
-      <c r="AS196" s="5"/>
-    </row>
-    <row r="197" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS196" s="11"/>
+      <c r="AT196" s="11"/>
+      <c r="AU196" s="5"/>
+    </row>
+    <row r="197" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -11983,21 +12435,23 @@
       <c r="AD197" s="10"/>
       <c r="AE197" s="10"/>
       <c r="AF197" s="10"/>
-      <c r="AG197" s="11"/>
-      <c r="AH197" s="11"/>
+      <c r="AG197" s="10"/>
+      <c r="AH197" s="10"/>
       <c r="AI197" s="11"/>
-      <c r="AJ197" s="10"/>
-      <c r="AK197" s="10"/>
+      <c r="AJ197" s="11"/>
+      <c r="AK197" s="11"/>
       <c r="AL197" s="10"/>
       <c r="AM197" s="10"/>
       <c r="AN197" s="10"/>
-      <c r="AO197" s="11"/>
-      <c r="AP197" s="11"/>
+      <c r="AO197" s="10"/>
+      <c r="AP197" s="10"/>
       <c r="AQ197" s="11"/>
       <c r="AR197" s="11"/>
-      <c r="AS197" s="5"/>
-    </row>
-    <row r="198" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS197" s="11"/>
+      <c r="AT197" s="11"/>
+      <c r="AU197" s="5"/>
+    </row>
+    <row r="198" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -12030,21 +12484,23 @@
       <c r="AD198" s="10"/>
       <c r="AE198" s="10"/>
       <c r="AF198" s="10"/>
-      <c r="AG198" s="11"/>
-      <c r="AH198" s="11"/>
+      <c r="AG198" s="10"/>
+      <c r="AH198" s="10"/>
       <c r="AI198" s="11"/>
-      <c r="AJ198" s="10"/>
-      <c r="AK198" s="10"/>
+      <c r="AJ198" s="11"/>
+      <c r="AK198" s="11"/>
       <c r="AL198" s="10"/>
       <c r="AM198" s="10"/>
       <c r="AN198" s="10"/>
-      <c r="AO198" s="11"/>
-      <c r="AP198" s="11"/>
+      <c r="AO198" s="10"/>
+      <c r="AP198" s="10"/>
       <c r="AQ198" s="11"/>
       <c r="AR198" s="11"/>
-      <c r="AS198" s="5"/>
-    </row>
-    <row r="199" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS198" s="11"/>
+      <c r="AT198" s="11"/>
+      <c r="AU198" s="5"/>
+    </row>
+    <row r="199" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -12077,21 +12533,23 @@
       <c r="AD199" s="10"/>
       <c r="AE199" s="10"/>
       <c r="AF199" s="10"/>
-      <c r="AG199" s="11"/>
-      <c r="AH199" s="11"/>
+      <c r="AG199" s="10"/>
+      <c r="AH199" s="10"/>
       <c r="AI199" s="11"/>
-      <c r="AJ199" s="10"/>
-      <c r="AK199" s="10"/>
+      <c r="AJ199" s="11"/>
+      <c r="AK199" s="11"/>
       <c r="AL199" s="10"/>
       <c r="AM199" s="10"/>
       <c r="AN199" s="10"/>
-      <c r="AO199" s="11"/>
-      <c r="AP199" s="11"/>
+      <c r="AO199" s="10"/>
+      <c r="AP199" s="10"/>
       <c r="AQ199" s="11"/>
       <c r="AR199" s="11"/>
-      <c r="AS199" s="5"/>
-    </row>
-    <row r="200" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS199" s="11"/>
+      <c r="AT199" s="11"/>
+      <c r="AU199" s="5"/>
+    </row>
+    <row r="200" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -12124,21 +12582,23 @@
       <c r="AD200" s="10"/>
       <c r="AE200" s="10"/>
       <c r="AF200" s="10"/>
-      <c r="AG200" s="11"/>
-      <c r="AH200" s="11"/>
+      <c r="AG200" s="10"/>
+      <c r="AH200" s="10"/>
       <c r="AI200" s="11"/>
-      <c r="AJ200" s="10"/>
-      <c r="AK200" s="10"/>
+      <c r="AJ200" s="11"/>
+      <c r="AK200" s="11"/>
       <c r="AL200" s="10"/>
       <c r="AM200" s="10"/>
       <c r="AN200" s="10"/>
-      <c r="AO200" s="11"/>
-      <c r="AP200" s="11"/>
+      <c r="AO200" s="10"/>
+      <c r="AP200" s="10"/>
       <c r="AQ200" s="11"/>
       <c r="AR200" s="11"/>
-      <c r="AS200" s="5"/>
-    </row>
-    <row r="201" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS200" s="11"/>
+      <c r="AT200" s="11"/>
+      <c r="AU200" s="5"/>
+    </row>
+    <row r="201" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -12171,21 +12631,23 @@
       <c r="AD201" s="10"/>
       <c r="AE201" s="10"/>
       <c r="AF201" s="10"/>
-      <c r="AG201" s="11"/>
-      <c r="AH201" s="11"/>
+      <c r="AG201" s="10"/>
+      <c r="AH201" s="10"/>
       <c r="AI201" s="11"/>
-      <c r="AJ201" s="10"/>
-      <c r="AK201" s="10"/>
+      <c r="AJ201" s="11"/>
+      <c r="AK201" s="11"/>
       <c r="AL201" s="10"/>
       <c r="AM201" s="10"/>
       <c r="AN201" s="10"/>
-      <c r="AO201" s="11"/>
-      <c r="AP201" s="11"/>
+      <c r="AO201" s="10"/>
+      <c r="AP201" s="10"/>
       <c r="AQ201" s="11"/>
       <c r="AR201" s="11"/>
-      <c r="AS201" s="5"/>
-    </row>
-    <row r="202" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS201" s="11"/>
+      <c r="AT201" s="11"/>
+      <c r="AU201" s="5"/>
+    </row>
+    <row r="202" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -12218,21 +12680,23 @@
       <c r="AD202" s="10"/>
       <c r="AE202" s="10"/>
       <c r="AF202" s="10"/>
-      <c r="AG202" s="11"/>
-      <c r="AH202" s="11"/>
+      <c r="AG202" s="10"/>
+      <c r="AH202" s="10"/>
       <c r="AI202" s="11"/>
-      <c r="AJ202" s="10"/>
-      <c r="AK202" s="10"/>
+      <c r="AJ202" s="11"/>
+      <c r="AK202" s="11"/>
       <c r="AL202" s="10"/>
       <c r="AM202" s="10"/>
       <c r="AN202" s="10"/>
-      <c r="AO202" s="11"/>
-      <c r="AP202" s="11"/>
+      <c r="AO202" s="10"/>
+      <c r="AP202" s="10"/>
       <c r="AQ202" s="11"/>
       <c r="AR202" s="11"/>
-      <c r="AS202" s="5"/>
-    </row>
-    <row r="203" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS202" s="11"/>
+      <c r="AT202" s="11"/>
+      <c r="AU202" s="5"/>
+    </row>
+    <row r="203" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -12265,21 +12729,23 @@
       <c r="AD203" s="10"/>
       <c r="AE203" s="10"/>
       <c r="AF203" s="10"/>
-      <c r="AG203" s="11"/>
-      <c r="AH203" s="11"/>
+      <c r="AG203" s="10"/>
+      <c r="AH203" s="10"/>
       <c r="AI203" s="11"/>
-      <c r="AJ203" s="10"/>
-      <c r="AK203" s="10"/>
+      <c r="AJ203" s="11"/>
+      <c r="AK203" s="11"/>
       <c r="AL203" s="10"/>
       <c r="AM203" s="10"/>
       <c r="AN203" s="10"/>
-      <c r="AO203" s="11"/>
-      <c r="AP203" s="11"/>
+      <c r="AO203" s="10"/>
+      <c r="AP203" s="10"/>
       <c r="AQ203" s="11"/>
       <c r="AR203" s="11"/>
-      <c r="AS203" s="5"/>
-    </row>
-    <row r="204" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS203" s="11"/>
+      <c r="AT203" s="11"/>
+      <c r="AU203" s="5"/>
+    </row>
+    <row r="204" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -12312,21 +12778,23 @@
       <c r="AD204" s="10"/>
       <c r="AE204" s="10"/>
       <c r="AF204" s="10"/>
-      <c r="AG204" s="11"/>
-      <c r="AH204" s="11"/>
+      <c r="AG204" s="10"/>
+      <c r="AH204" s="10"/>
       <c r="AI204" s="11"/>
-      <c r="AJ204" s="10"/>
-      <c r="AK204" s="10"/>
+      <c r="AJ204" s="11"/>
+      <c r="AK204" s="11"/>
       <c r="AL204" s="10"/>
       <c r="AM204" s="10"/>
       <c r="AN204" s="10"/>
-      <c r="AO204" s="11"/>
-      <c r="AP204" s="11"/>
+      <c r="AO204" s="10"/>
+      <c r="AP204" s="10"/>
       <c r="AQ204" s="11"/>
       <c r="AR204" s="11"/>
-      <c r="AS204" s="5"/>
-    </row>
-    <row r="205" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS204" s="11"/>
+      <c r="AT204" s="11"/>
+      <c r="AU204" s="5"/>
+    </row>
+    <row r="205" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -12359,21 +12827,23 @@
       <c r="AD205" s="10"/>
       <c r="AE205" s="10"/>
       <c r="AF205" s="10"/>
-      <c r="AG205" s="11"/>
-      <c r="AH205" s="11"/>
+      <c r="AG205" s="10"/>
+      <c r="AH205" s="10"/>
       <c r="AI205" s="11"/>
-      <c r="AJ205" s="10"/>
-      <c r="AK205" s="10"/>
+      <c r="AJ205" s="11"/>
+      <c r="AK205" s="11"/>
       <c r="AL205" s="10"/>
       <c r="AM205" s="10"/>
       <c r="AN205" s="10"/>
-      <c r="AO205" s="11"/>
-      <c r="AP205" s="11"/>
+      <c r="AO205" s="10"/>
+      <c r="AP205" s="10"/>
       <c r="AQ205" s="11"/>
       <c r="AR205" s="11"/>
-      <c r="AS205" s="5"/>
-    </row>
-    <row r="206" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS205" s="11"/>
+      <c r="AT205" s="11"/>
+      <c r="AU205" s="5"/>
+    </row>
+    <row r="206" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -12406,21 +12876,23 @@
       <c r="AD206" s="10"/>
       <c r="AE206" s="10"/>
       <c r="AF206" s="10"/>
-      <c r="AG206" s="11"/>
-      <c r="AH206" s="11"/>
+      <c r="AG206" s="10"/>
+      <c r="AH206" s="10"/>
       <c r="AI206" s="11"/>
-      <c r="AJ206" s="10"/>
-      <c r="AK206" s="10"/>
+      <c r="AJ206" s="11"/>
+      <c r="AK206" s="11"/>
       <c r="AL206" s="10"/>
       <c r="AM206" s="10"/>
       <c r="AN206" s="10"/>
-      <c r="AO206" s="11"/>
-      <c r="AP206" s="11"/>
+      <c r="AO206" s="10"/>
+      <c r="AP206" s="10"/>
       <c r="AQ206" s="11"/>
       <c r="AR206" s="11"/>
-      <c r="AS206" s="5"/>
-    </row>
-    <row r="207" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS206" s="11"/>
+      <c r="AT206" s="11"/>
+      <c r="AU206" s="5"/>
+    </row>
+    <row r="207" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -12453,21 +12925,23 @@
       <c r="AD207" s="10"/>
       <c r="AE207" s="10"/>
       <c r="AF207" s="10"/>
-      <c r="AG207" s="11"/>
-      <c r="AH207" s="11"/>
+      <c r="AG207" s="10"/>
+      <c r="AH207" s="10"/>
       <c r="AI207" s="11"/>
-      <c r="AJ207" s="10"/>
-      <c r="AK207" s="10"/>
+      <c r="AJ207" s="11"/>
+      <c r="AK207" s="11"/>
       <c r="AL207" s="10"/>
       <c r="AM207" s="10"/>
       <c r="AN207" s="10"/>
-      <c r="AO207" s="11"/>
-      <c r="AP207" s="11"/>
+      <c r="AO207" s="10"/>
+      <c r="AP207" s="10"/>
       <c r="AQ207" s="11"/>
       <c r="AR207" s="11"/>
-      <c r="AS207" s="5"/>
-    </row>
-    <row r="208" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS207" s="11"/>
+      <c r="AT207" s="11"/>
+      <c r="AU207" s="5"/>
+    </row>
+    <row r="208" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -12500,21 +12974,23 @@
       <c r="AD208" s="10"/>
       <c r="AE208" s="10"/>
       <c r="AF208" s="10"/>
-      <c r="AG208" s="11"/>
-      <c r="AH208" s="11"/>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
       <c r="AI208" s="11"/>
-      <c r="AJ208" s="10"/>
-      <c r="AK208" s="10"/>
+      <c r="AJ208" s="11"/>
+      <c r="AK208" s="11"/>
       <c r="AL208" s="10"/>
       <c r="AM208" s="10"/>
       <c r="AN208" s="10"/>
-      <c r="AO208" s="11"/>
-      <c r="AP208" s="11"/>
+      <c r="AO208" s="10"/>
+      <c r="AP208" s="10"/>
       <c r="AQ208" s="11"/>
       <c r="AR208" s="11"/>
-      <c r="AS208" s="5"/>
-    </row>
-    <row r="209" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS208" s="11"/>
+      <c r="AT208" s="11"/>
+      <c r="AU208" s="5"/>
+    </row>
+    <row r="209" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -12547,21 +13023,23 @@
       <c r="AD209" s="10"/>
       <c r="AE209" s="10"/>
       <c r="AF209" s="10"/>
-      <c r="AG209" s="11"/>
-      <c r="AH209" s="11"/>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10"/>
       <c r="AI209" s="11"/>
-      <c r="AJ209" s="10"/>
-      <c r="AK209" s="10"/>
+      <c r="AJ209" s="11"/>
+      <c r="AK209" s="11"/>
       <c r="AL209" s="10"/>
       <c r="AM209" s="10"/>
       <c r="AN209" s="10"/>
-      <c r="AO209" s="11"/>
-      <c r="AP209" s="11"/>
+      <c r="AO209" s="10"/>
+      <c r="AP209" s="10"/>
       <c r="AQ209" s="11"/>
       <c r="AR209" s="11"/>
-      <c r="AS209" s="5"/>
-    </row>
-    <row r="210" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS209" s="11"/>
+      <c r="AT209" s="11"/>
+      <c r="AU209" s="5"/>
+    </row>
+    <row r="210" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -12594,21 +13072,23 @@
       <c r="AD210" s="10"/>
       <c r="AE210" s="10"/>
       <c r="AF210" s="10"/>
-      <c r="AG210" s="11"/>
-      <c r="AH210" s="11"/>
+      <c r="AG210" s="10"/>
+      <c r="AH210" s="10"/>
       <c r="AI210" s="11"/>
-      <c r="AJ210" s="10"/>
-      <c r="AK210" s="10"/>
+      <c r="AJ210" s="11"/>
+      <c r="AK210" s="11"/>
       <c r="AL210" s="10"/>
       <c r="AM210" s="10"/>
       <c r="AN210" s="10"/>
-      <c r="AO210" s="11"/>
-      <c r="AP210" s="11"/>
+      <c r="AO210" s="10"/>
+      <c r="AP210" s="10"/>
       <c r="AQ210" s="11"/>
       <c r="AR210" s="11"/>
-      <c r="AS210" s="5"/>
-    </row>
-    <row r="211" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS210" s="11"/>
+      <c r="AT210" s="11"/>
+      <c r="AU210" s="5"/>
+    </row>
+    <row r="211" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -12641,21 +13121,23 @@
       <c r="AD211" s="10"/>
       <c r="AE211" s="10"/>
       <c r="AF211" s="10"/>
-      <c r="AG211" s="11"/>
-      <c r="AH211" s="11"/>
+      <c r="AG211" s="10"/>
+      <c r="AH211" s="10"/>
       <c r="AI211" s="11"/>
-      <c r="AJ211" s="10"/>
-      <c r="AK211" s="10"/>
+      <c r="AJ211" s="11"/>
+      <c r="AK211" s="11"/>
       <c r="AL211" s="10"/>
       <c r="AM211" s="10"/>
       <c r="AN211" s="10"/>
-      <c r="AO211" s="11"/>
-      <c r="AP211" s="11"/>
+      <c r="AO211" s="10"/>
+      <c r="AP211" s="10"/>
       <c r="AQ211" s="11"/>
       <c r="AR211" s="11"/>
-      <c r="AS211" s="5"/>
-    </row>
-    <row r="212" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS211" s="11"/>
+      <c r="AT211" s="11"/>
+      <c r="AU211" s="5"/>
+    </row>
+    <row r="212" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -12688,21 +13170,23 @@
       <c r="AD212" s="10"/>
       <c r="AE212" s="10"/>
       <c r="AF212" s="10"/>
-      <c r="AG212" s="11"/>
-      <c r="AH212" s="11"/>
+      <c r="AG212" s="10"/>
+      <c r="AH212" s="10"/>
       <c r="AI212" s="11"/>
-      <c r="AJ212" s="10"/>
-      <c r="AK212" s="10"/>
+      <c r="AJ212" s="11"/>
+      <c r="AK212" s="11"/>
       <c r="AL212" s="10"/>
       <c r="AM212" s="10"/>
       <c r="AN212" s="10"/>
-      <c r="AO212" s="11"/>
-      <c r="AP212" s="11"/>
+      <c r="AO212" s="10"/>
+      <c r="AP212" s="10"/>
       <c r="AQ212" s="11"/>
       <c r="AR212" s="11"/>
-      <c r="AS212" s="5"/>
-    </row>
-    <row r="213" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS212" s="11"/>
+      <c r="AT212" s="11"/>
+      <c r="AU212" s="5"/>
+    </row>
+    <row r="213" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -12735,21 +13219,23 @@
       <c r="AD213" s="10"/>
       <c r="AE213" s="10"/>
       <c r="AF213" s="10"/>
-      <c r="AG213" s="11"/>
-      <c r="AH213" s="11"/>
+      <c r="AG213" s="10"/>
+      <c r="AH213" s="10"/>
       <c r="AI213" s="11"/>
-      <c r="AJ213" s="10"/>
-      <c r="AK213" s="10"/>
+      <c r="AJ213" s="11"/>
+      <c r="AK213" s="11"/>
       <c r="AL213" s="10"/>
       <c r="AM213" s="10"/>
       <c r="AN213" s="10"/>
-      <c r="AO213" s="11"/>
-      <c r="AP213" s="11"/>
+      <c r="AO213" s="10"/>
+      <c r="AP213" s="10"/>
       <c r="AQ213" s="11"/>
       <c r="AR213" s="11"/>
-      <c r="AS213" s="5"/>
-    </row>
-    <row r="214" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS213" s="11"/>
+      <c r="AT213" s="11"/>
+      <c r="AU213" s="5"/>
+    </row>
+    <row r="214" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -12782,21 +13268,23 @@
       <c r="AD214" s="10"/>
       <c r="AE214" s="10"/>
       <c r="AF214" s="10"/>
-      <c r="AG214" s="11"/>
-      <c r="AH214" s="11"/>
+      <c r="AG214" s="10"/>
+      <c r="AH214" s="10"/>
       <c r="AI214" s="11"/>
-      <c r="AJ214" s="10"/>
-      <c r="AK214" s="10"/>
+      <c r="AJ214" s="11"/>
+      <c r="AK214" s="11"/>
       <c r="AL214" s="10"/>
       <c r="AM214" s="10"/>
       <c r="AN214" s="10"/>
-      <c r="AO214" s="11"/>
-      <c r="AP214" s="11"/>
+      <c r="AO214" s="10"/>
+      <c r="AP214" s="10"/>
       <c r="AQ214" s="11"/>
       <c r="AR214" s="11"/>
-      <c r="AS214" s="5"/>
-    </row>
-    <row r="215" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS214" s="11"/>
+      <c r="AT214" s="11"/>
+      <c r="AU214" s="5"/>
+    </row>
+    <row r="215" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -12829,21 +13317,23 @@
       <c r="AD215" s="10"/>
       <c r="AE215" s="10"/>
       <c r="AF215" s="10"/>
-      <c r="AG215" s="11"/>
-      <c r="AH215" s="11"/>
+      <c r="AG215" s="10"/>
+      <c r="AH215" s="10"/>
       <c r="AI215" s="11"/>
-      <c r="AJ215" s="10"/>
-      <c r="AK215" s="10"/>
+      <c r="AJ215" s="11"/>
+      <c r="AK215" s="11"/>
       <c r="AL215" s="10"/>
       <c r="AM215" s="10"/>
       <c r="AN215" s="10"/>
-      <c r="AO215" s="11"/>
-      <c r="AP215" s="11"/>
+      <c r="AO215" s="10"/>
+      <c r="AP215" s="10"/>
       <c r="AQ215" s="11"/>
       <c r="AR215" s="11"/>
-      <c r="AS215" s="5"/>
-    </row>
-    <row r="216" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS215" s="11"/>
+      <c r="AT215" s="11"/>
+      <c r="AU215" s="5"/>
+    </row>
+    <row r="216" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -12876,21 +13366,23 @@
       <c r="AD216" s="10"/>
       <c r="AE216" s="10"/>
       <c r="AF216" s="10"/>
-      <c r="AG216" s="11"/>
-      <c r="AH216" s="11"/>
+      <c r="AG216" s="10"/>
+      <c r="AH216" s="10"/>
       <c r="AI216" s="11"/>
-      <c r="AJ216" s="10"/>
-      <c r="AK216" s="10"/>
+      <c r="AJ216" s="11"/>
+      <c r="AK216" s="11"/>
       <c r="AL216" s="10"/>
       <c r="AM216" s="10"/>
       <c r="AN216" s="10"/>
-      <c r="AO216" s="11"/>
-      <c r="AP216" s="11"/>
+      <c r="AO216" s="10"/>
+      <c r="AP216" s="10"/>
       <c r="AQ216" s="11"/>
       <c r="AR216" s="11"/>
-      <c r="AS216" s="5"/>
-    </row>
-    <row r="217" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS216" s="11"/>
+      <c r="AT216" s="11"/>
+      <c r="AU216" s="5"/>
+    </row>
+    <row r="217" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -12923,21 +13415,23 @@
       <c r="AD217" s="10"/>
       <c r="AE217" s="10"/>
       <c r="AF217" s="10"/>
-      <c r="AG217" s="11"/>
-      <c r="AH217" s="11"/>
+      <c r="AG217" s="10"/>
+      <c r="AH217" s="10"/>
       <c r="AI217" s="11"/>
-      <c r="AJ217" s="10"/>
-      <c r="AK217" s="10"/>
+      <c r="AJ217" s="11"/>
+      <c r="AK217" s="11"/>
       <c r="AL217" s="10"/>
       <c r="AM217" s="10"/>
       <c r="AN217" s="10"/>
-      <c r="AO217" s="11"/>
-      <c r="AP217" s="11"/>
+      <c r="AO217" s="10"/>
+      <c r="AP217" s="10"/>
       <c r="AQ217" s="11"/>
       <c r="AR217" s="11"/>
-      <c r="AS217" s="5"/>
-    </row>
-    <row r="218" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS217" s="11"/>
+      <c r="AT217" s="11"/>
+      <c r="AU217" s="5"/>
+    </row>
+    <row r="218" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -12970,21 +13464,23 @@
       <c r="AD218" s="10"/>
       <c r="AE218" s="10"/>
       <c r="AF218" s="10"/>
-      <c r="AG218" s="11"/>
-      <c r="AH218" s="11"/>
+      <c r="AG218" s="10"/>
+      <c r="AH218" s="10"/>
       <c r="AI218" s="11"/>
-      <c r="AJ218" s="10"/>
-      <c r="AK218" s="10"/>
+      <c r="AJ218" s="11"/>
+      <c r="AK218" s="11"/>
       <c r="AL218" s="10"/>
       <c r="AM218" s="10"/>
       <c r="AN218" s="10"/>
-      <c r="AO218" s="11"/>
-      <c r="AP218" s="11"/>
+      <c r="AO218" s="10"/>
+      <c r="AP218" s="10"/>
       <c r="AQ218" s="11"/>
       <c r="AR218" s="11"/>
-      <c r="AS218" s="5"/>
-    </row>
-    <row r="219" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS218" s="11"/>
+      <c r="AT218" s="11"/>
+      <c r="AU218" s="5"/>
+    </row>
+    <row r="219" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -13017,21 +13513,23 @@
       <c r="AD219" s="10"/>
       <c r="AE219" s="10"/>
       <c r="AF219" s="10"/>
-      <c r="AG219" s="11"/>
-      <c r="AH219" s="11"/>
+      <c r="AG219" s="10"/>
+      <c r="AH219" s="10"/>
       <c r="AI219" s="11"/>
-      <c r="AJ219" s="10"/>
-      <c r="AK219" s="10"/>
+      <c r="AJ219" s="11"/>
+      <c r="AK219" s="11"/>
       <c r="AL219" s="10"/>
       <c r="AM219" s="10"/>
       <c r="AN219" s="10"/>
-      <c r="AO219" s="11"/>
-      <c r="AP219" s="11"/>
+      <c r="AO219" s="10"/>
+      <c r="AP219" s="10"/>
       <c r="AQ219" s="11"/>
       <c r="AR219" s="11"/>
-      <c r="AS219" s="5"/>
-    </row>
-    <row r="220" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS219" s="11"/>
+      <c r="AT219" s="11"/>
+      <c r="AU219" s="5"/>
+    </row>
+    <row r="220" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -13064,21 +13562,23 @@
       <c r="AD220" s="10"/>
       <c r="AE220" s="10"/>
       <c r="AF220" s="10"/>
-      <c r="AG220" s="11"/>
-      <c r="AH220" s="11"/>
+      <c r="AG220" s="10"/>
+      <c r="AH220" s="10"/>
       <c r="AI220" s="11"/>
-      <c r="AJ220" s="10"/>
-      <c r="AK220" s="10"/>
+      <c r="AJ220" s="11"/>
+      <c r="AK220" s="11"/>
       <c r="AL220" s="10"/>
       <c r="AM220" s="10"/>
       <c r="AN220" s="10"/>
-      <c r="AO220" s="11"/>
-      <c r="AP220" s="11"/>
+      <c r="AO220" s="10"/>
+      <c r="AP220" s="10"/>
       <c r="AQ220" s="11"/>
       <c r="AR220" s="11"/>
-      <c r="AS220" s="5"/>
-    </row>
-    <row r="221" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS220" s="11"/>
+      <c r="AT220" s="11"/>
+      <c r="AU220" s="5"/>
+    </row>
+    <row r="221" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -13111,21 +13611,23 @@
       <c r="AD221" s="10"/>
       <c r="AE221" s="10"/>
       <c r="AF221" s="10"/>
-      <c r="AG221" s="11"/>
-      <c r="AH221" s="11"/>
+      <c r="AG221" s="10"/>
+      <c r="AH221" s="10"/>
       <c r="AI221" s="11"/>
-      <c r="AJ221" s="10"/>
-      <c r="AK221" s="10"/>
+      <c r="AJ221" s="11"/>
+      <c r="AK221" s="11"/>
       <c r="AL221" s="10"/>
       <c r="AM221" s="10"/>
       <c r="AN221" s="10"/>
-      <c r="AO221" s="11"/>
-      <c r="AP221" s="11"/>
+      <c r="AO221" s="10"/>
+      <c r="AP221" s="10"/>
       <c r="AQ221" s="11"/>
       <c r="AR221" s="11"/>
-      <c r="AS221" s="5"/>
-    </row>
-    <row r="222" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS221" s="11"/>
+      <c r="AT221" s="11"/>
+      <c r="AU221" s="5"/>
+    </row>
+    <row r="222" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -13158,21 +13660,23 @@
       <c r="AD222" s="10"/>
       <c r="AE222" s="10"/>
       <c r="AF222" s="10"/>
-      <c r="AG222" s="11"/>
-      <c r="AH222" s="11"/>
+      <c r="AG222" s="10"/>
+      <c r="AH222" s="10"/>
       <c r="AI222" s="11"/>
-      <c r="AJ222" s="10"/>
-      <c r="AK222" s="10"/>
+      <c r="AJ222" s="11"/>
+      <c r="AK222" s="11"/>
       <c r="AL222" s="10"/>
       <c r="AM222" s="10"/>
       <c r="AN222" s="10"/>
-      <c r="AO222" s="11"/>
-      <c r="AP222" s="11"/>
+      <c r="AO222" s="10"/>
+      <c r="AP222" s="10"/>
       <c r="AQ222" s="11"/>
       <c r="AR222" s="11"/>
-      <c r="AS222" s="5"/>
-    </row>
-    <row r="223" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS222" s="11"/>
+      <c r="AT222" s="11"/>
+      <c r="AU222" s="5"/>
+    </row>
+    <row r="223" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -13205,21 +13709,23 @@
       <c r="AD223" s="10"/>
       <c r="AE223" s="10"/>
       <c r="AF223" s="10"/>
-      <c r="AG223" s="11"/>
-      <c r="AH223" s="11"/>
+      <c r="AG223" s="10"/>
+      <c r="AH223" s="10"/>
       <c r="AI223" s="11"/>
-      <c r="AJ223" s="10"/>
-      <c r="AK223" s="10"/>
+      <c r="AJ223" s="11"/>
+      <c r="AK223" s="11"/>
       <c r="AL223" s="10"/>
       <c r="AM223" s="10"/>
       <c r="AN223" s="10"/>
-      <c r="AO223" s="11"/>
-      <c r="AP223" s="11"/>
+      <c r="AO223" s="10"/>
+      <c r="AP223" s="10"/>
       <c r="AQ223" s="11"/>
       <c r="AR223" s="11"/>
-      <c r="AS223" s="5"/>
-    </row>
-    <row r="224" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS223" s="11"/>
+      <c r="AT223" s="11"/>
+      <c r="AU223" s="5"/>
+    </row>
+    <row r="224" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -13252,21 +13758,23 @@
       <c r="AD224" s="10"/>
       <c r="AE224" s="10"/>
       <c r="AF224" s="10"/>
-      <c r="AG224" s="11"/>
-      <c r="AH224" s="11"/>
+      <c r="AG224" s="10"/>
+      <c r="AH224" s="10"/>
       <c r="AI224" s="11"/>
-      <c r="AJ224" s="10"/>
-      <c r="AK224" s="10"/>
+      <c r="AJ224" s="11"/>
+      <c r="AK224" s="11"/>
       <c r="AL224" s="10"/>
       <c r="AM224" s="10"/>
       <c r="AN224" s="10"/>
-      <c r="AO224" s="11"/>
-      <c r="AP224" s="11"/>
+      <c r="AO224" s="10"/>
+      <c r="AP224" s="10"/>
       <c r="AQ224" s="11"/>
       <c r="AR224" s="11"/>
-      <c r="AS224" s="5"/>
-    </row>
-    <row r="225" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS224" s="11"/>
+      <c r="AT224" s="11"/>
+      <c r="AU224" s="5"/>
+    </row>
+    <row r="225" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -13299,21 +13807,23 @@
       <c r="AD225" s="10"/>
       <c r="AE225" s="10"/>
       <c r="AF225" s="10"/>
-      <c r="AG225" s="11"/>
-      <c r="AH225" s="11"/>
+      <c r="AG225" s="10"/>
+      <c r="AH225" s="10"/>
       <c r="AI225" s="11"/>
-      <c r="AJ225" s="10"/>
-      <c r="AK225" s="10"/>
+      <c r="AJ225" s="11"/>
+      <c r="AK225" s="11"/>
       <c r="AL225" s="10"/>
       <c r="AM225" s="10"/>
       <c r="AN225" s="10"/>
-      <c r="AO225" s="11"/>
-      <c r="AP225" s="11"/>
+      <c r="AO225" s="10"/>
+      <c r="AP225" s="10"/>
       <c r="AQ225" s="11"/>
       <c r="AR225" s="11"/>
-      <c r="AS225" s="5"/>
-    </row>
-    <row r="226" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS225" s="11"/>
+      <c r="AT225" s="11"/>
+      <c r="AU225" s="5"/>
+    </row>
+    <row r="226" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -13346,21 +13856,23 @@
       <c r="AD226" s="10"/>
       <c r="AE226" s="10"/>
       <c r="AF226" s="10"/>
-      <c r="AG226" s="11"/>
-      <c r="AH226" s="11"/>
+      <c r="AG226" s="10"/>
+      <c r="AH226" s="10"/>
       <c r="AI226" s="11"/>
-      <c r="AJ226" s="10"/>
-      <c r="AK226" s="10"/>
+      <c r="AJ226" s="11"/>
+      <c r="AK226" s="11"/>
       <c r="AL226" s="10"/>
       <c r="AM226" s="10"/>
       <c r="AN226" s="10"/>
-      <c r="AO226" s="11"/>
-      <c r="AP226" s="11"/>
+      <c r="AO226" s="10"/>
+      <c r="AP226" s="10"/>
       <c r="AQ226" s="11"/>
       <c r="AR226" s="11"/>
-      <c r="AS226" s="5"/>
-    </row>
-    <row r="227" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS226" s="11"/>
+      <c r="AT226" s="11"/>
+      <c r="AU226" s="5"/>
+    </row>
+    <row r="227" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -13393,21 +13905,23 @@
       <c r="AD227" s="10"/>
       <c r="AE227" s="10"/>
       <c r="AF227" s="10"/>
-      <c r="AG227" s="11"/>
-      <c r="AH227" s="11"/>
+      <c r="AG227" s="10"/>
+      <c r="AH227" s="10"/>
       <c r="AI227" s="11"/>
-      <c r="AJ227" s="10"/>
-      <c r="AK227" s="10"/>
+      <c r="AJ227" s="11"/>
+      <c r="AK227" s="11"/>
       <c r="AL227" s="10"/>
       <c r="AM227" s="10"/>
       <c r="AN227" s="10"/>
-      <c r="AO227" s="11"/>
-      <c r="AP227" s="11"/>
+      <c r="AO227" s="10"/>
+      <c r="AP227" s="10"/>
       <c r="AQ227" s="11"/>
       <c r="AR227" s="11"/>
-      <c r="AS227" s="5"/>
-    </row>
-    <row r="228" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS227" s="11"/>
+      <c r="AT227" s="11"/>
+      <c r="AU227" s="5"/>
+    </row>
+    <row r="228" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -13440,21 +13954,23 @@
       <c r="AD228" s="10"/>
       <c r="AE228" s="10"/>
       <c r="AF228" s="10"/>
-      <c r="AG228" s="11"/>
-      <c r="AH228" s="11"/>
+      <c r="AG228" s="10"/>
+      <c r="AH228" s="10"/>
       <c r="AI228" s="11"/>
-      <c r="AJ228" s="10"/>
-      <c r="AK228" s="10"/>
+      <c r="AJ228" s="11"/>
+      <c r="AK228" s="11"/>
       <c r="AL228" s="10"/>
       <c r="AM228" s="10"/>
       <c r="AN228" s="10"/>
-      <c r="AO228" s="11"/>
-      <c r="AP228" s="11"/>
+      <c r="AO228" s="10"/>
+      <c r="AP228" s="10"/>
       <c r="AQ228" s="11"/>
       <c r="AR228" s="11"/>
-      <c r="AS228" s="5"/>
-    </row>
-    <row r="229" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS228" s="11"/>
+      <c r="AT228" s="11"/>
+      <c r="AU228" s="5"/>
+    </row>
+    <row r="229" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -13487,21 +14003,23 @@
       <c r="AD229" s="10"/>
       <c r="AE229" s="10"/>
       <c r="AF229" s="10"/>
-      <c r="AG229" s="11"/>
-      <c r="AH229" s="11"/>
+      <c r="AG229" s="10"/>
+      <c r="AH229" s="10"/>
       <c r="AI229" s="11"/>
-      <c r="AJ229" s="10"/>
-      <c r="AK229" s="10"/>
+      <c r="AJ229" s="11"/>
+      <c r="AK229" s="11"/>
       <c r="AL229" s="10"/>
       <c r="AM229" s="10"/>
       <c r="AN229" s="10"/>
-      <c r="AO229" s="11"/>
-      <c r="AP229" s="11"/>
+      <c r="AO229" s="10"/>
+      <c r="AP229" s="10"/>
       <c r="AQ229" s="11"/>
       <c r="AR229" s="11"/>
-      <c r="AS229" s="5"/>
-    </row>
-    <row r="230" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="AS229" s="11"/>
+      <c r="AT229" s="11"/>
+      <c r="AU229" s="5"/>
+    </row>
+    <row r="230" spans="1:47" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -13534,22 +14052,24 @@
       <c r="AD230" s="10"/>
       <c r="AE230" s="10"/>
       <c r="AF230" s="10"/>
-      <c r="AG230" s="11"/>
-      <c r="AH230" s="11"/>
+      <c r="AG230" s="10"/>
+      <c r="AH230" s="10"/>
       <c r="AI230" s="11"/>
-      <c r="AJ230" s="10"/>
-      <c r="AK230" s="10"/>
+      <c r="AJ230" s="11"/>
+      <c r="AK230" s="11"/>
       <c r="AL230" s="10"/>
       <c r="AM230" s="10"/>
       <c r="AN230" s="10"/>
-      <c r="AO230" s="11"/>
-      <c r="AP230" s="11"/>
+      <c r="AO230" s="10"/>
+      <c r="AP230" s="10"/>
       <c r="AQ230" s="11"/>
       <c r="AR230" s="11"/>
-      <c r="AS230" s="5"/>
+      <c r="AS230" s="11"/>
+      <c r="AT230" s="11"/>
+      <c r="AU230" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AU34">
     <sortCondition ref="B2:B34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C353AB-F6D6-4D04-B691-922D3A27C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D276E80-F6F7-4DEB-8695-2A8A298EB9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,8 +617,8 @@
     <col min="8" max="8" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.8984375" bestFit="1" customWidth="1"/>
@@ -817,13 +817,15 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T34" si="0">SUM(C2:S2)</f>
-        <v>6.0499999999999989</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="U2" s="9">
         <v>0.1</v>
@@ -849,19 +851,19 @@
       </c>
       <c r="AH2" s="1">
         <f t="shared" ref="AH2:AH34" si="1">T2+AG2</f>
-        <v>6.3499999999999988</v>
+        <v>6.5499999999999989</v>
       </c>
       <c r="AI2" s="9">
         <f t="shared" ref="AI2:AI34" si="2">AI3</f>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ2" s="7">
         <f t="shared" ref="AJ2:AJ34" si="3">(AH2/AI2)</f>
-        <v>0.415032679738562</v>
+        <v>0.38988095238095233</v>
       </c>
       <c r="AK2" s="4">
         <f t="shared" ref="AK2:AK34" si="4">MAX(IF(AJ2*100&gt;=20,2,0),IF(AJ2*100&gt;=40,3,0),IF(AJ2*100&gt;=60,4,0),IF(AJ2*100&gt;=80,5,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL2" s="1">
         <v>0.5</v>
@@ -890,7 +892,7 @@
       </c>
       <c r="AT2" s="4">
         <f t="shared" ref="AT2:AT34" si="8">(AK2+AR2+AS2)/3</f>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AU2" s="5"/>
     </row>
@@ -958,29 +960,31 @@
       </c>
       <c r="AI3" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ3" s="7">
         <f t="shared" si="3"/>
-        <v>0.3202614379084967</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="AK3" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP3" s="1">
         <v>3</v>
       </c>
       <c r="AQ3" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="AR3" s="4">
         <f t="shared" si="7"/>
@@ -1025,13 +1029,15 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="U4" s="9">
         <v>0</v>
@@ -1057,15 +1063,15 @@
       </c>
       <c r="AH4" s="1">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="AI4" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ4" s="7">
         <f t="shared" si="3"/>
-        <v>0.31045751633986929</v>
+        <v>0.29464285714285715</v>
       </c>
       <c r="AK4" s="4">
         <f t="shared" si="4"/>
@@ -1166,11 +1172,11 @@
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ5" s="7">
         <f t="shared" si="3"/>
-        <v>0.33986928104575159</v>
+        <v>0.30952380952380948</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="4"/>
@@ -1267,11 +1273,11 @@
       </c>
       <c r="AI6" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ6" s="7">
         <f t="shared" si="3"/>
-        <v>0.26470588235294118</v>
+        <v>0.24107142857142855</v>
       </c>
       <c r="AK6" s="4">
         <f t="shared" si="4"/>
@@ -1341,16 +1347,18 @@
         <v>0.6</v>
       </c>
       <c r="N7" s="1">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>10.749999999999998</v>
       </c>
       <c r="U7" s="9">
         <v>0</v>
@@ -1376,15 +1384,15 @@
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="1"/>
-        <v>9.9</v>
+        <v>11.049999999999999</v>
       </c>
       <c r="AI7" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ7" s="7">
         <f t="shared" si="3"/>
-        <v>0.6470588235294118</v>
+        <v>0.65773809523809512</v>
       </c>
       <c r="AK7" s="4">
         <f t="shared" si="4"/>
@@ -1489,11 +1497,11 @@
       </c>
       <c r="AI8" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ8" s="7">
         <f t="shared" si="3"/>
-        <v>0.44444444444444442</v>
+        <v>0.40476190476190471</v>
       </c>
       <c r="AK8" s="4">
         <f t="shared" si="4"/>
@@ -1502,29 +1510,31 @@
       <c r="AL8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AM8" s="1"/>
+      <c r="AM8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
         <v>3</v>
       </c>
       <c r="AQ8" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AR8" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="8">
         <v>0</v>
       </c>
       <c r="AT8" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AU8" s="5"/>
     </row>
@@ -1592,11 +1602,11 @@
       </c>
       <c r="AI9" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ9" s="7">
         <f t="shared" si="3"/>
-        <v>0.34967320261437906</v>
+        <v>0.31845238095238093</v>
       </c>
       <c r="AK9" s="4">
         <f t="shared" si="4"/>
@@ -1703,11 +1713,11 @@
       </c>
       <c r="AI10" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ10" s="7">
         <f t="shared" si="3"/>
-        <v>0.71241830065359479</v>
+        <v>0.64880952380952384</v>
       </c>
       <c r="AK10" s="4">
         <f t="shared" si="4"/>
@@ -1780,13 +1790,15 @@
         <v>0.5</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>8.3999999999999986</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="U11" s="9">
         <v>0</v>
@@ -1810,15 +1822,15 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="1"/>
-        <v>8.4999999999999982</v>
+        <v>8.9999999999999982</v>
       </c>
       <c r="AI11" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ11" s="7">
         <f t="shared" si="3"/>
-        <v>0.55555555555555536</v>
+        <v>0.53571428571428559</v>
       </c>
       <c r="AK11" s="4">
         <f t="shared" si="4"/>
@@ -1921,42 +1933,44 @@
       </c>
       <c r="AI12" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ12" s="7">
         <f t="shared" si="3"/>
-        <v>0.43790849673202614</v>
+        <v>0.39880952380952378</v>
       </c>
       <c r="AK12" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL12" s="1">
         <v>0.5</v>
       </c>
-      <c r="AM12" s="1"/>
+      <c r="AM12" s="1">
+        <v>0.3</v>
+      </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP12" s="1">
         <v>3</v>
       </c>
       <c r="AQ12" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="AR12" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS12" s="8">
         <v>0</v>
       </c>
       <c r="AT12" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AU12" s="5"/>
     </row>
@@ -1997,12 +2011,14 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1">
+        <v>0.1</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>6.0999999999999988</v>
+        <v>6.1999999999999984</v>
       </c>
       <c r="U13" s="9">
         <v>0</v>
@@ -2028,19 +2044,19 @@
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="1"/>
-        <v>6.2999999999999989</v>
+        <v>6.3999999999999986</v>
       </c>
       <c r="AI13" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ13" s="7">
         <f t="shared" si="3"/>
-        <v>0.41176470588235287</v>
+        <v>0.38095238095238088</v>
       </c>
       <c r="AK13" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -2069,7 +2085,7 @@
       </c>
       <c r="AT13" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AU13" s="5"/>
     </row>
@@ -2109,13 +2125,15 @@
         <v>0.4</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>0.7</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="U14" s="9">
         <v>0.2</v>
@@ -2149,15 +2167,15 @@
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="1"/>
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="AI14" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ14" s="7">
         <f t="shared" si="3"/>
-        <v>0.6470588235294118</v>
+        <v>0.63095238095238093</v>
       </c>
       <c r="AK14" s="4">
         <f t="shared" si="4"/>
@@ -2260,11 +2278,11 @@
       </c>
       <c r="AI15" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ15" s="7">
         <f t="shared" si="3"/>
-        <v>0.37581699346405228</v>
+        <v>0.34226190476190477</v>
       </c>
       <c r="AK15" s="4">
         <f t="shared" si="4"/>
@@ -2339,13 +2357,15 @@
         <v>0.3</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>0.6</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
         <f t="shared" si="0"/>
-        <v>8.9500000000000011</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="U16" s="9">
         <v>0</v>
@@ -2369,15 +2389,15 @@
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="1"/>
-        <v>9.0500000000000007</v>
+        <v>9.65</v>
       </c>
       <c r="AI16" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ16" s="7">
         <f t="shared" si="3"/>
-        <v>0.59150326797385622</v>
+        <v>0.57440476190476186</v>
       </c>
       <c r="AK16" s="4">
         <f t="shared" si="4"/>
@@ -2446,13 +2466,15 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <v>0.3</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1">
         <f t="shared" si="0"/>
-        <v>5.85</v>
+        <v>6.1499999999999995</v>
       </c>
       <c r="U17" s="9">
         <v>0.1</v>
@@ -2478,19 +2500,19 @@
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="1"/>
-        <v>6.1499999999999995</v>
+        <v>6.4499999999999993</v>
       </c>
       <c r="AI17" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ17" s="7">
         <f t="shared" si="3"/>
-        <v>0.40196078431372545</v>
+        <v>0.3839285714285714</v>
       </c>
       <c r="AK17" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="1">
         <v>0.5</v>
@@ -2519,7 +2541,7 @@
       </c>
       <c r="AT17" s="4">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AU17" s="5"/>
     </row>
@@ -2583,11 +2605,11 @@
       </c>
       <c r="AI18" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ18" s="7">
         <f t="shared" si="3"/>
-        <v>0.3235294117647059</v>
+        <v>0.29464285714285715</v>
       </c>
       <c r="AK18" s="4">
         <f t="shared" si="4"/>
@@ -2698,11 +2720,11 @@
       </c>
       <c r="AI19" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ19" s="7">
         <f t="shared" si="3"/>
-        <v>0.50326797385620903</v>
+        <v>0.4583333333333332</v>
       </c>
       <c r="AK19" s="4">
         <f t="shared" si="4"/>
@@ -2711,29 +2733,31 @@
       <c r="AL19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AM19" s="1"/>
+      <c r="AM19" s="1">
+        <v>1</v>
+      </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP19" s="1">
         <v>3</v>
       </c>
       <c r="AQ19" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
+        <v>50</v>
       </c>
       <c r="AR19" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS19" s="8">
         <v>0</v>
       </c>
       <c r="AT19" s="4">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU19" s="5"/>
     </row>
@@ -2778,12 +2802,14 @@
       <c r="P20" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="U20" s="9">
         <v>0.1</v>
@@ -2819,15 +2845,15 @@
       </c>
       <c r="AH20" s="1">
         <f t="shared" si="1"/>
-        <v>14.8</v>
+        <v>16.3</v>
       </c>
       <c r="AI20" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ20" s="7">
         <f t="shared" si="3"/>
-        <v>0.9673202614379085</v>
+        <v>0.97023809523809523</v>
       </c>
       <c r="AK20" s="4">
         <f t="shared" si="4"/>
@@ -2896,13 +2922,15 @@
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U21" s="9">
         <v>0</v>
@@ -2924,15 +2952,15 @@
       </c>
       <c r="AH21" s="1">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI21" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ21" s="7">
         <f t="shared" si="3"/>
-        <v>0.25490196078431371</v>
+        <v>0.24404761904761901</v>
       </c>
       <c r="AK21" s="4">
         <f t="shared" si="4"/>
@@ -3043,15 +3071,15 @@
       </c>
       <c r="AI22" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ22" s="7">
         <f t="shared" si="3"/>
-        <v>0.60784313725490202</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="AK22" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" s="1">
         <v>1</v>
@@ -3080,7 +3108,7 @@
       </c>
       <c r="AT22" s="4">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="AU22" s="5"/>
     </row>
@@ -3142,11 +3170,11 @@
       </c>
       <c r="AI23" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ23" s="7">
         <f t="shared" si="3"/>
-        <v>0.29411764705882354</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="AK23" s="8">
         <f t="shared" si="4"/>
@@ -3217,13 +3245,15 @@
         <v>0.6</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="U24" s="9">
         <v>0</v>
@@ -3253,15 +3283,15 @@
       </c>
       <c r="AH24" s="1">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI24" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ24" s="7">
         <f t="shared" si="3"/>
-        <v>0.75163398692810457</v>
+        <v>0.74404761904761907</v>
       </c>
       <c r="AK24" s="4">
         <f t="shared" si="4"/>
@@ -3358,11 +3388,11 @@
       </c>
       <c r="AI25" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ25" s="7">
         <f t="shared" si="3"/>
-        <v>0.34313725490196079</v>
+        <v>0.3125</v>
       </c>
       <c r="AK25" s="4">
         <f t="shared" si="4"/>
@@ -3426,8 +3456,12 @@
       <c r="L26" s="1">
         <v>1</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3435,7 +3469,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U26" s="9">
         <v>0</v>
@@ -3461,15 +3495,15 @@
       </c>
       <c r="AH26" s="1">
         <f t="shared" si="1"/>
-        <v>10.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AI26" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ26" s="7">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="AK26" s="4">
         <f t="shared" si="4"/>
@@ -3545,12 +3579,14 @@
       <c r="P27" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q27" s="1"/>
+      <c r="Q27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="U27" s="9">
         <v>0.2</v>
@@ -3586,11 +3622,11 @@
       </c>
       <c r="AH27" s="1">
         <f t="shared" si="1"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AI27" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ27" s="7">
         <f t="shared" si="3"/>
@@ -3703,15 +3739,15 @@
       </c>
       <c r="AI28" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ28" s="7">
         <f t="shared" si="3"/>
-        <v>0.40196078431372545</v>
+        <v>0.36607142857142855</v>
       </c>
       <c r="AK28" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL28" s="1">
         <v>1</v>
@@ -3738,7 +3774,7 @@
       </c>
       <c r="AT28" s="4">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AU28" s="5"/>
     </row>
@@ -3776,13 +3812,15 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <v>0.2</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
         <f t="shared" si="0"/>
-        <v>6.5499999999999989</v>
+        <v>6.7499999999999991</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
@@ -3806,15 +3844,15 @@
       </c>
       <c r="AH29" s="1">
         <f t="shared" si="1"/>
-        <v>6.6499999999999986</v>
+        <v>6.8499999999999988</v>
       </c>
       <c r="AI29" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ29" s="7">
         <f t="shared" si="3"/>
-        <v>0.43464052287581689</v>
+        <v>0.40773809523809512</v>
       </c>
       <c r="AK29" s="4">
         <f t="shared" si="4"/>
@@ -3905,11 +3943,11 @@
       </c>
       <c r="AI30" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ30" s="7">
         <f t="shared" si="3"/>
-        <v>0.32679738562091504</v>
+        <v>0.29761904761904762</v>
       </c>
       <c r="AK30" s="4">
         <f t="shared" si="4"/>
@@ -4004,11 +4042,11 @@
       </c>
       <c r="AI31" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ31" s="7">
         <f t="shared" si="3"/>
-        <v>0.3235294117647059</v>
+        <v>0.29464285714285715</v>
       </c>
       <c r="AK31" s="4">
         <f t="shared" si="4"/>
@@ -4079,13 +4117,15 @@
         <v>0.6</v>
       </c>
       <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="P32" s="9">
+        <v>0.7</v>
+      </c>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
+        <v>10.899999999999999</v>
       </c>
       <c r="U32" s="9">
         <v>0.2</v>
@@ -4115,15 +4155,15 @@
       </c>
       <c r="AH32" s="9">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="AI32" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ32" s="7">
         <f t="shared" si="3"/>
-        <v>0.71895424836601307</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="AK32" s="8">
         <f t="shared" si="4"/>
@@ -4230,11 +4270,11 @@
       </c>
       <c r="AI33" s="9">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ33" s="7">
         <f t="shared" si="3"/>
-        <v>0.51960784313725483</v>
+        <v>0.47321428571428564</v>
       </c>
       <c r="AK33" s="8">
         <f t="shared" si="4"/>
@@ -4343,11 +4383,11 @@
       </c>
       <c r="AI34" s="1">
         <f t="shared" si="2"/>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ34" s="7">
         <f t="shared" si="3"/>
-        <v>0.75163398692810457</v>
+        <v>0.68452380952380953</v>
       </c>
       <c r="AK34" s="4">
         <f t="shared" si="4"/>
@@ -4425,12 +4465,14 @@
       <c r="P35" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q35" s="1"/>
+      <c r="Q35" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
         <f t="shared" ref="T35" si="10">SUM(C35:S35)</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="U35" s="1">
         <v>0.2</v>
@@ -4468,11 +4510,11 @@
       </c>
       <c r="AH35" s="1">
         <f t="shared" ref="AH35" si="11">T35+AG35</f>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AI35" s="4">
         <f>AH35</f>
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="AJ35" s="7">
         <f t="shared" ref="AJ35" si="12">(AH35/AI35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B54B78-5D66-4E87-AD0B-B25A2384C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347C1D7-48FE-4DD4-98C2-F678FBC4C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="МК-101" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:AW230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,8 @@
     <col min="12" max="14" width="4.8984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.09765625" customWidth="1"/>
-    <col min="17" max="19" width="4.296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.296875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4.296875" customWidth="1"/>
     <col min="22" max="22" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="4.296875" bestFit="1" customWidth="1"/>
@@ -830,14 +831,16 @@
       <c r="P2" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1">
+        <v>0.4</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1">
-        <f>SUM(C2:S2)</f>
-        <v>6.2499999999999991</v>
+        <f t="shared" ref="V2:V35" si="0">SUM(C2:S2)</f>
+        <v>6.6499999999999995</v>
       </c>
       <c r="W2" s="1">
         <v>0.1</v>
@@ -857,26 +860,28 @@
       <c r="AF2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1">
         <f>SUM(W2:AH2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ34" si="0">V2+AI2</f>
-        <v>6.6499999999999995</v>
+        <f t="shared" ref="AJ2:AJ34" si="1">V2+AI2</f>
+        <v>7.1499999999999995</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK34" si="1">AK3</f>
-        <v>17.3</v>
+        <f t="shared" ref="AK2:AK34" si="2">AK3</f>
+        <v>19.2</v>
       </c>
       <c r="AL2" s="7">
-        <f t="shared" ref="AL2:AL34" si="2">(AJ2/AK2)</f>
-        <v>0.38439306358381498</v>
+        <f t="shared" ref="AL2:AL34" si="3">(AJ2/AK2)</f>
+        <v>0.37239583333333331</v>
       </c>
       <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM34" si="3">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
+        <f t="shared" ref="AM2:AM34" si="4">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN2" s="1">
@@ -887,25 +892,25 @@
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ34" si="4">SUM(AN2:AP2)</f>
+        <f t="shared" ref="AQ2:AQ34" si="5">SUM(AN2:AP2)</f>
         <v>0.8</v>
       </c>
       <c r="AR2" s="1">
         <v>3</v>
       </c>
       <c r="AS2" s="4">
-        <f t="shared" ref="AS2:AS34" si="5">(AQ2/AR2)*100</f>
+        <f t="shared" ref="AS2:AS34" si="6">(AQ2/AR2)*100</f>
         <v>26.666666666666668</v>
       </c>
       <c r="AT2" s="4">
-        <f t="shared" ref="AT2:AT34" si="6">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
+        <f t="shared" ref="AT2:AT34" si="7">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AU2" s="4">
         <v>0</v>
       </c>
       <c r="AV2" s="4">
-        <f t="shared" ref="AV2:AV34" si="7">(AM2+AT2+AU2)/3</f>
+        <f t="shared" ref="AV2:AV34" si="8">(AM2+AT2+AU2)/3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW2" s="5"/>
@@ -941,14 +946,16 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>0.2</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <f>SUM(C3:S3)</f>
-        <v>4.8499999999999996</v>
+        <f t="shared" si="0"/>
+        <v>5.05</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -967,23 +974,23 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AI35" si="8">SUM(W3:AH3)</f>
+        <f t="shared" ref="AI3:AI35" si="9">SUM(W3:AH3)</f>
         <v>0.05</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="0"/>
-        <v>4.8999999999999995</v>
+        <f t="shared" si="1"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL3" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28323699421965315</v>
+        <f t="shared" si="3"/>
+        <v>0.265625</v>
       </c>
       <c r="AM3" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN3" s="1"/>
@@ -992,25 +999,25 @@
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AR3" s="1">
         <v>3</v>
       </c>
       <c r="AS3" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AT3" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
       </c>
       <c r="AV3" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW3" s="5"/>
@@ -1048,14 +1055,16 @@
       <c r="P4" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>0.4</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <f>SUM(C4:S4)</f>
-        <v>4.75</v>
+        <f t="shared" si="0"/>
+        <v>5.15</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1073,26 +1082,28 @@
         <v>0.1</v>
       </c>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
+        <f t="shared" si="1"/>
+        <v>5.45</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.2861271676300578</v>
+        <f t="shared" si="3"/>
+        <v>0.28385416666666669</v>
       </c>
       <c r="AM4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN4" s="1">
@@ -1103,25 +1114,25 @@
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="AR4" s="1">
         <v>3</v>
       </c>
       <c r="AS4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.666666666666668</v>
       </c>
       <c r="AT4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU4" s="4">
         <v>0</v>
       </c>
       <c r="AV4" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW4" s="5"/>
@@ -1163,7 +1174,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <f>SUM(C5:S5)</f>
+        <f t="shared" si="0"/>
         <v>4.9999999999999991</v>
       </c>
       <c r="W5" s="1">
@@ -1180,51 +1191,53 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>5.2999999999999989</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.30057803468208089</v>
+        <f t="shared" si="3"/>
+        <v>0.27604166666666663</v>
       </c>
       <c r="AM5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR5" s="1">
         <v>3</v>
       </c>
       <c r="AS5" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT5" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU5" s="4">
         <v>0</v>
       </c>
       <c r="AV5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW5" s="5"/>
@@ -1266,7 +1279,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <f>SUM(C6:S6)</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="W6" s="1">
@@ -1286,23 +1299,23 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.23410404624277453</v>
+        <f t="shared" si="3"/>
+        <v>0.2109375</v>
       </c>
       <c r="AM6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN6" s="1">
@@ -1311,25 +1324,25 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AR6" s="1">
         <v>3</v>
       </c>
       <c r="AS6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AT6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU6" s="4">
         <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW6" s="5"/>
@@ -1375,14 +1388,16 @@
       <c r="P7" s="1">
         <v>1</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <f>SUM(C7:S7)</f>
-        <v>10.749999999999998</v>
+        <f t="shared" si="0"/>
+        <v>11.749999999999998</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1402,26 +1417,28 @@
       <c r="AF7" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1">
-        <f t="shared" si="8"/>
-        <v>0.4</v>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="0"/>
-        <v>11.149999999999999</v>
+        <f t="shared" si="1"/>
+        <v>12.249999999999998</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.64450867052023109</v>
+        <f t="shared" si="3"/>
+        <v>0.63802083333333326</v>
       </c>
       <c r="AM7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN7" s="1">
@@ -1432,25 +1449,25 @@
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
       <c r="AR7" s="1">
         <v>3</v>
       </c>
       <c r="AS7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.333333333333336</v>
       </c>
       <c r="AT7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AW7" s="5"/>
@@ -1494,7 +1511,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <f>SUM(C8:S8)</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="W8" s="1">
@@ -1516,23 +1533,23 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.39306358381502887</v>
+        <f t="shared" si="3"/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="AM8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN8" s="1">
@@ -1543,25 +1560,25 @@
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AR8" s="1">
         <v>3</v>
       </c>
       <c r="AS8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
       <c r="AT8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU8" s="4">
         <v>0</v>
       </c>
       <c r="AV8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW8" s="5"/>
@@ -1603,7 +1620,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <f>SUM(C9:S9)</f>
+        <f t="shared" si="0"/>
         <v>5.05</v>
       </c>
       <c r="W9" s="1">
@@ -1623,48 +1640,48 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.35</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.30924855491329478</v>
+        <f t="shared" si="3"/>
+        <v>0.27864583333333331</v>
       </c>
       <c r="AM9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR9" s="1">
         <v>3</v>
       </c>
       <c r="AS9" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT9" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU9" s="4">
         <v>0</v>
       </c>
       <c r="AV9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW9" s="5"/>
@@ -1710,14 +1727,16 @@
       <c r="P10" s="1">
         <v>1.5</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>1.5</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <f>SUM(C10:S10)</f>
-        <v>12.1</v>
+        <f t="shared" si="0"/>
+        <v>13.6</v>
       </c>
       <c r="W10" s="1">
         <v>0.1</v>
@@ -1738,23 +1757,23 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="0"/>
-        <v>12.4</v>
+        <f t="shared" si="1"/>
+        <v>13.9</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.7167630057803468</v>
+        <f t="shared" si="3"/>
+        <v>0.72395833333333337</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN10" s="1">
@@ -1765,25 +1784,25 @@
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR10" s="1">
         <v>3</v>
       </c>
       <c r="AS10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="AT10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
       </c>
       <c r="AV10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW10" s="5"/>
@@ -1833,7 +1852,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <f>SUM(C11:S11)</f>
+        <f t="shared" si="0"/>
         <v>8.8999999999999986</v>
       </c>
       <c r="W11" s="1">
@@ -1852,26 +1871,28 @@
       <c r="AF11" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG11" s="1"/>
+      <c r="AG11" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
-        <f t="shared" si="8"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="9"/>
+        <v>0.4</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>9.2999999999999989</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.53179190751445082</v>
+        <f t="shared" si="3"/>
+        <v>0.48437499999999994</v>
       </c>
       <c r="AM11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN11" s="1">
@@ -1880,25 +1901,25 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AR11" s="1">
         <v>3</v>
       </c>
       <c r="AS11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AT11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU11" s="4">
         <v>0</v>
       </c>
       <c r="AV11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW11" s="5"/>
@@ -1936,14 +1957,16 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <f>SUM(C12:S12)</f>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>6.7</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -1964,23 +1987,23 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
+        <f t="shared" si="1"/>
+        <v>6.9</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.38728323699421963</v>
+        <f t="shared" si="3"/>
+        <v>0.35937500000000006</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN12" s="1">
@@ -1991,25 +2014,25 @@
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="AR12" s="1">
         <v>3</v>
       </c>
       <c r="AS12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.666666666666668</v>
       </c>
       <c r="AT12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW12" s="5"/>
@@ -2054,13 +2077,15 @@
       <c r="Q13" s="1">
         <v>0.1</v>
       </c>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1">
+        <v>0.1</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <f>SUM(C13:S13)</f>
-        <v>6.1999999999999984</v>
+        <f t="shared" si="0"/>
+        <v>6.299999999999998</v>
       </c>
       <c r="W13" s="1">
         <v>0</v>
@@ -2078,26 +2103,28 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3999999999999986</v>
+        <f t="shared" si="1"/>
+        <v>6.5999999999999979</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.36994219653179183</v>
+        <f t="shared" si="3"/>
+        <v>0.34374999999999989</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN13" s="1">
@@ -2108,25 +2135,25 @@
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="AR13" s="1">
         <v>3</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.333333333333336</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU13" s="4">
         <v>0</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AW13" s="5"/>
@@ -2170,14 +2197,16 @@
       <c r="P14" s="1">
         <v>0.7</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <f>SUM(C14:S14)</f>
-        <v>9.6999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>10.7</v>
       </c>
       <c r="W14" s="1">
         <v>0.2</v>
@@ -2205,26 +2234,28 @@
       <c r="AF14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="0"/>
-        <v>10.7</v>
+        <f t="shared" si="1"/>
+        <v>11.799999999999999</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.61849710982658956</v>
+        <f t="shared" si="3"/>
+        <v>0.61458333333333326</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN14" s="1">
@@ -2235,25 +2266,25 @@
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW14" s="5"/>
@@ -2297,14 +2328,16 @@
       <c r="P15" s="1">
         <v>0.15</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <v>0.6</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <f>SUM(C15:S15)</f>
-        <v>6.15</v>
+        <f t="shared" si="0"/>
+        <v>6.75</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -2323,23 +2356,23 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="0"/>
-        <v>6.25</v>
+        <f t="shared" si="1"/>
+        <v>6.85</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.36127167630057799</v>
+        <f t="shared" si="3"/>
+        <v>0.35677083333333331</v>
       </c>
       <c r="AM15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN15" s="1">
@@ -2350,25 +2383,25 @@
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.666666666666671</v>
       </c>
       <c r="AT15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW15" s="5"/>
@@ -2412,16 +2445,18 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" s="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.7</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <f>SUM(C16:S16)</f>
-        <v>9.15</v>
+        <f t="shared" si="0"/>
+        <v>10.3</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -2440,23 +2475,23 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="0"/>
-        <v>9.25</v>
+        <f t="shared" si="1"/>
+        <v>10.4</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.53468208092485547</v>
+        <f t="shared" si="3"/>
+        <v>0.54166666666666674</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN16" s="1">
@@ -2467,25 +2502,25 @@
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AR16" s="1">
         <v>3</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.666666666666671</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU16" s="4">
         <v>0</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AW16" s="5"/>
@@ -2527,16 +2562,18 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q17" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.9</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <f>SUM(C17:S17)</f>
-        <v>7.7499999999999991</v>
+        <f t="shared" si="0"/>
+        <v>8.85</v>
       </c>
       <c r="W17" s="1">
         <v>0.1</v>
@@ -2557,23 +2594,23 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0499999999999989</v>
+        <f t="shared" si="1"/>
+        <v>9.15</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.46531791907514441</v>
+        <f t="shared" si="3"/>
+        <v>0.47656250000000006</v>
       </c>
       <c r="AM17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN17" s="1">
@@ -2584,25 +2621,25 @@
       </c>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AR17" s="1">
         <v>3</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.666666666666671</v>
       </c>
       <c r="AT17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU17" s="4">
         <v>0</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AW17" s="5"/>
@@ -2642,7 +2679,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <f>SUM(C18:S18)</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="W18" s="1">
@@ -2662,23 +2699,23 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.05</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.29190751445086704</v>
+        <f t="shared" si="3"/>
+        <v>0.26302083333333331</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN18" s="1">
@@ -2687,25 +2724,25 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AR18" s="1">
         <v>3</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666664</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU18" s="4">
         <v>0</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW18" s="5"/>
@@ -2749,14 +2786,16 @@
       <c r="P19" s="1">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1">
+        <v>0.4</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <f>SUM(C19:S19)</f>
-        <v>7.3499999999999988</v>
+        <f t="shared" si="0"/>
+        <v>7.7499999999999991</v>
       </c>
       <c r="W19" s="1">
         <v>0.1</v>
@@ -2781,23 +2820,23 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9499999999999984</v>
+        <f t="shared" si="1"/>
+        <v>8.35</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL19" s="7">
-        <f t="shared" si="2"/>
-        <v>0.45953757225433517</v>
+        <f t="shared" si="3"/>
+        <v>0.43489583333333331</v>
       </c>
       <c r="AM19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN19" s="1">
@@ -2808,25 +2847,25 @@
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="AR19" s="1">
         <v>3</v>
       </c>
       <c r="AS19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="AT19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU19" s="4">
         <v>0</v>
       </c>
       <c r="AV19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AW19" s="5"/>
@@ -2882,7 +2921,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <f>SUM(C20:S20)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="W20" s="1">
@@ -2916,23 +2955,23 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0346820809248554</v>
+        <f t="shared" si="3"/>
+        <v>0.93229166666666663</v>
       </c>
       <c r="AM20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AN20" s="1">
@@ -2941,28 +2980,30 @@
       <c r="AO20" s="1">
         <v>1</v>
       </c>
-      <c r="AP20" s="1"/>
+      <c r="AP20" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="AR20" s="1">
         <v>3</v>
       </c>
       <c r="AS20" s="4">
-        <f t="shared" si="5"/>
-        <v>66.666666666666657</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="AT20" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="AU20" s="4">
         <v>0</v>
       </c>
       <c r="AV20" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AW20" s="5"/>
     </row>
@@ -3007,7 +3048,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1">
-        <f>SUM(C21:S21)</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="W21" s="1">
@@ -3025,48 +3066,48 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL21" s="7">
-        <f t="shared" si="2"/>
-        <v>0.23699421965317916</v>
+        <f t="shared" si="3"/>
+        <v>0.21354166666666666</v>
       </c>
       <c r="AM21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR21" s="1">
         <v>3</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU21" s="4">
         <v>0</v>
       </c>
       <c r="AV21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW21" s="5"/>
@@ -3116,7 +3157,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <f>SUM(C22:S22)</f>
+        <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="W22" s="1">
@@ -3142,23 +3183,23 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.53757225433526012</v>
+        <f t="shared" si="3"/>
+        <v>0.48437500000000006</v>
       </c>
       <c r="AM22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN22" s="1">
@@ -3169,25 +3210,25 @@
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3</v>
       </c>
       <c r="AR22" s="1">
         <v>3</v>
       </c>
       <c r="AS22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43.333333333333336</v>
       </c>
       <c r="AT22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU22" s="4">
         <v>0</v>
       </c>
       <c r="AV22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AW22" s="5"/>
@@ -3225,7 +3266,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
-        <f>SUM(C23:S23)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="W23" s="1">
@@ -3243,48 +3284,48 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.26011560693641617</v>
+        <f t="shared" si="3"/>
+        <v>0.234375</v>
       </c>
       <c r="AM23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR23" s="1">
         <v>3</v>
       </c>
       <c r="AS23" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT23" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT23" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU23" s="4">
         <v>0</v>
       </c>
       <c r="AV23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW23" s="5"/>
@@ -3330,14 +3371,16 @@
       <c r="P24" s="1">
         <v>1.25</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
-        <f>SUM(C24:S24)</f>
-        <v>12.35</v>
+        <f t="shared" si="0"/>
+        <v>13.35</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -3361,26 +3404,28 @@
       <c r="AF24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG24" s="1"/>
+      <c r="AG24" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0.6</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="0"/>
-        <v>12.85</v>
+        <f t="shared" si="1"/>
+        <v>13.95</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.74277456647398843</v>
+        <f t="shared" si="3"/>
+        <v>0.7265625</v>
       </c>
       <c r="AM24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN24" s="1">
@@ -3391,25 +3436,25 @@
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR24" s="1">
         <v>3</v>
       </c>
       <c r="AS24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="AT24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
       </c>
       <c r="AV24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW24" s="5"/>
@@ -3449,7 +3494,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <f>SUM(C25:S25)</f>
+        <f t="shared" si="0"/>
         <v>5.15</v>
       </c>
       <c r="W25" s="1">
@@ -3467,48 +3512,48 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.30346820809248554</v>
+        <f t="shared" si="3"/>
+        <v>0.2734375</v>
       </c>
       <c r="AM25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR25" s="1">
         <v>3</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT25" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU25" s="4">
         <v>0</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW25" s="5"/>
@@ -3558,7 +3603,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <f>SUM(C26:S26)</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="W26" s="1">
@@ -3582,23 +3627,23 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.73988439306358378</v>
+        <f t="shared" si="3"/>
+        <v>0.66666666666666674</v>
       </c>
       <c r="AM26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN26" s="1">
@@ -3609,25 +3654,25 @@
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR26" s="1">
         <v>3</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU26" s="4">
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW26" s="5"/>
@@ -3683,7 +3728,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <f>SUM(C27:S27)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="W27" s="1">
@@ -3714,26 +3759,28 @@
       <c r="AF27" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4999999999999998</v>
+        <f t="shared" si="9"/>
+        <v>1.6999999999999997</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
+        <f t="shared" si="1"/>
+        <v>18.7</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL27" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0693641618497109</v>
+        <f t="shared" si="3"/>
+        <v>0.97395833333333337</v>
       </c>
       <c r="AM27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AN27" s="1">
@@ -3742,28 +3789,30 @@
       <c r="AO27" s="1">
         <v>1</v>
       </c>
-      <c r="AP27" s="1"/>
+      <c r="AP27" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="AR27" s="1">
         <v>3</v>
       </c>
       <c r="AS27" s="4">
-        <f t="shared" si="5"/>
-        <v>66.666666666666657</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="AT27" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="AU27" s="4">
         <v>0</v>
       </c>
       <c r="AV27" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AW27" s="5"/>
     </row>
@@ -3799,15 +3848,19 @@
         <v>0.2</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="P28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.3</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1">
-        <f>SUM(C28:S28)</f>
-        <v>5.55</v>
+        <f t="shared" si="0"/>
+        <v>5.9499999999999993</v>
       </c>
       <c r="W28" s="1">
         <v>0.2</v>
@@ -3832,23 +3885,23 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1499999999999995</v>
+        <f t="shared" si="1"/>
+        <v>6.5499999999999989</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.35549132947976875</v>
+        <f t="shared" si="3"/>
+        <v>0.34114583333333331</v>
       </c>
       <c r="AM28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN28" s="1">
@@ -3857,25 +3910,25 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AR28" s="1">
         <v>3</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.333333333333329</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU28" s="4">
         <v>0</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW28" s="5"/>
@@ -3917,14 +3970,16 @@
       <c r="P29" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="1">
+        <v>0.2</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1">
-        <f>SUM(C29:S29)</f>
-        <v>6.7499999999999991</v>
+        <f t="shared" si="0"/>
+        <v>6.9499999999999993</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -3943,48 +3998,48 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8499999999999988</v>
+        <f t="shared" si="1"/>
+        <v>7.0499999999999989</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.39595375722543341</v>
+        <f t="shared" si="3"/>
+        <v>0.36718749999999994</v>
       </c>
       <c r="AM29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR29" s="1">
         <v>3</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT29" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT29" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU29" s="4">
         <v>0</v>
       </c>
       <c r="AV29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW29" s="5"/>
@@ -4022,7 +4077,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <f>SUM(C30:S30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W30" s="1">
@@ -4040,48 +4095,48 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28901734104046239</v>
+        <f t="shared" si="3"/>
+        <v>0.26041666666666669</v>
       </c>
       <c r="AM30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR30" s="1">
         <v>3</v>
       </c>
       <c r="AS30" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT30" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU30" s="4">
         <v>0</v>
       </c>
       <c r="AV30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW30" s="5"/>
@@ -4125,7 +4180,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
-        <f>SUM(C31:S31)</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="W31" s="1">
@@ -4143,48 +4198,48 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.30057803468208094</v>
+        <f t="shared" si="3"/>
+        <v>0.27083333333333337</v>
       </c>
       <c r="AM31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR31" s="1">
         <v>3</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AT31" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AT31" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="AU31" s="4">
         <v>0</v>
       </c>
       <c r="AV31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW31" s="5"/>
@@ -4230,14 +4285,16 @@
       <c r="P32" s="1">
         <v>0.7</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1">
-        <f>SUM(C32:S32)</f>
-        <v>10.899999999999999</v>
+        <f t="shared" si="0"/>
+        <v>11.899999999999999</v>
       </c>
       <c r="W32" s="1">
         <v>0.2</v>
@@ -4262,23 +4319,23 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
+        <f t="shared" si="1"/>
+        <v>12.7</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.67630057803468202</v>
+        <f t="shared" si="3"/>
+        <v>0.66145833333333337</v>
       </c>
       <c r="AM32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN32" s="1">
@@ -4289,25 +4346,25 @@
       </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AR32" s="1">
         <v>3</v>
       </c>
       <c r="AS32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.666666666666657</v>
       </c>
       <c r="AT32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU32" s="4">
         <v>0</v>
       </c>
       <c r="AV32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW32" s="5"/>
@@ -4351,14 +4408,16 @@
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="Q33" s="1">
+        <v>0.6</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1">
-        <f>SUM(C33:S33)</f>
-        <v>7.85</v>
+        <f t="shared" si="0"/>
+        <v>8.4499999999999993</v>
       </c>
       <c r="W33" s="1">
         <v>0.1</v>
@@ -4375,23 +4434,23 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9499999999999993</v>
+        <f t="shared" si="1"/>
+        <v>8.5499999999999989</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL33" s="7">
-        <f t="shared" si="2"/>
-        <v>0.45953757225433522</v>
+        <f t="shared" si="3"/>
+        <v>0.44531249999999994</v>
       </c>
       <c r="AM33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN33" s="1"/>
@@ -4400,25 +4459,25 @@
       </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="AR33" s="1">
         <v>3</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="AT33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU33" s="4">
         <v>0</v>
       </c>
       <c r="AV33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AW33" s="5"/>
@@ -4464,14 +4523,16 @@
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="1">
+        <v>1.25</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1">
-        <f>SUM(C34:S34)</f>
-        <v>12.2</v>
+        <f t="shared" si="0"/>
+        <v>13.45</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -4491,26 +4552,28 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="AG34" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1">
-        <f t="shared" si="8"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="9"/>
+        <v>0.4</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <f t="shared" si="1"/>
+        <v>13.85</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
+        <f t="shared" si="2"/>
+        <v>19.2</v>
       </c>
       <c r="AL34" s="7">
-        <f t="shared" si="2"/>
-        <v>0.72254335260115599</v>
+        <f t="shared" si="3"/>
+        <v>0.72135416666666663</v>
       </c>
       <c r="AM34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN34" s="1">
@@ -4521,25 +4584,25 @@
       </c>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
       <c r="AR34" s="1">
         <v>3</v>
       </c>
       <c r="AS34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.333333333333336</v>
       </c>
       <c r="AT34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU34" s="4">
         <v>0</v>
       </c>
       <c r="AV34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AW34" s="5"/>
@@ -4588,13 +4651,15 @@
       <c r="Q35" s="1">
         <v>1.5</v>
       </c>
-      <c r="R35" s="1"/>
+      <c r="R35" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1">
-        <f>SUM(C35:S35)</f>
-        <v>15.5</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="W35" s="1">
         <v>0.2</v>
@@ -4623,27 +4688,31 @@
       <c r="AE35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
+      <c r="AF35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1">
-        <f t="shared" si="8"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="9"/>
+        <v>2.1999999999999997</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" ref="AJ35" si="9">V35+AI35</f>
-        <v>17.3</v>
+        <f t="shared" ref="AJ35" si="10">V35+AI35</f>
+        <v>19.2</v>
       </c>
       <c r="AK35" s="4">
         <f>AJ35</f>
-        <v>17.3</v>
+        <v>19.2</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35" si="10">(AJ35/AK35)</f>
+        <f t="shared" ref="AL35" si="11">(AJ35/AK35)</f>
         <v>1</v>
       </c>
       <c r="AM35" s="4">
-        <f t="shared" ref="AM35" si="11">MAX(IF(AL35*100&gt;=20,2,0),IF(AL35*100&gt;=40,3,0),IF(AL35*100&gt;=60,4,0),IF(AL35*100&gt;=80,5,0))</f>
+        <f t="shared" ref="AM35" si="12">MAX(IF(AL35*100&gt;=20,2,0),IF(AL35*100&gt;=40,3,0),IF(AL35*100&gt;=60,4,0),IF(AL35*100&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AN35" s="1">
@@ -4652,28 +4721,30 @@
       <c r="AO35" s="1">
         <v>1</v>
       </c>
-      <c r="AP35" s="1"/>
+      <c r="AP35" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ35" s="1">
-        <f t="shared" ref="AQ35" si="12">SUM(AN35:AP35)</f>
-        <v>2</v>
+        <f t="shared" ref="AQ35" si="13">SUM(AN35:AP35)</f>
+        <v>3</v>
       </c>
       <c r="AR35" s="1">
         <v>3</v>
       </c>
       <c r="AS35" s="4">
-        <f t="shared" ref="AS35" si="13">(AQ35/AR35)*100</f>
-        <v>66.666666666666657</v>
+        <f t="shared" ref="AS35" si="14">(AQ35/AR35)*100</f>
+        <v>100</v>
       </c>
       <c r="AT35" s="4">
-        <f t="shared" ref="AT35" si="14">MAX(IF(AS35&gt;=20,2,0),IF(AS35&gt;=40,3,0),IF(AS35&gt;=60,4,0),IF(AS35&gt;=80,5,0))</f>
-        <v>4</v>
+        <f t="shared" ref="AT35" si="15">MAX(IF(AS35&gt;=20,2,0),IF(AS35&gt;=40,3,0),IF(AS35&gt;=60,4,0),IF(AS35&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU35" s="4">
         <v>0</v>
       </c>
       <c r="AV35" s="4">
-        <f t="shared" ref="AV35" si="15">(AM35+AT35+AU35)/3</f>
-        <v>3</v>
+        <f t="shared" ref="AV35" si="16">(AM35+AT35+AU35)/3</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AW35" s="5"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347C1D7-48FE-4DD4-98C2-F678FBC4C6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB52B8-8E9B-44B6-9A5C-208B9E1EA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -874,11 +874,11 @@
       </c>
       <c r="AK2" s="1">
         <f t="shared" ref="AK2:AK34" si="2">AK3</f>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL2" s="7">
         <f t="shared" ref="AL2:AL34" si="3">(AJ2/AK2)</f>
-        <v>0.37239583333333331</v>
+        <v>0.36855670103092786</v>
       </c>
       <c r="AM2" s="4">
         <f t="shared" ref="AM2:AM34" si="4">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
@@ -949,13 +949,15 @@
       <c r="Q3" s="1">
         <v>0.2</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1">
+        <v>0.3</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
         <f t="shared" si="0"/>
-        <v>5.05</v>
+        <v>5.35</v>
       </c>
       <c r="W3" s="1">
         <v>0</v>
@@ -979,15 +981,15 @@
       </c>
       <c r="AJ3" s="1">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL3" s="7">
         <f t="shared" si="3"/>
-        <v>0.265625</v>
+        <v>0.27835051546391754</v>
       </c>
       <c r="AM3" s="4">
         <f t="shared" si="4"/>
@@ -1085,22 +1087,24 @@
       <c r="AG4" s="1">
         <v>0.1</v>
       </c>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI4" s="1">
         <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AJ4" s="1">
         <f t="shared" si="1"/>
-        <v>5.45</v>
+        <v>5.5500000000000007</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL4" s="7">
         <f t="shared" si="3"/>
-        <v>0.28385416666666669</v>
+        <v>0.28608247422680416</v>
       </c>
       <c r="AM4" s="4">
         <f t="shared" si="4"/>
@@ -1205,11 +1209,11 @@
       </c>
       <c r="AK5" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL5" s="7">
         <f t="shared" si="3"/>
-        <v>0.27604166666666663</v>
+        <v>0.27319587628865977</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="4"/>
@@ -1308,11 +1312,11 @@
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL6" s="7">
         <f t="shared" si="3"/>
-        <v>0.2109375</v>
+        <v>0.20876288659793815</v>
       </c>
       <c r="AM6" s="4">
         <f t="shared" si="4"/>
@@ -1391,13 +1395,15 @@
       <c r="Q7" s="1">
         <v>1</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1">
+        <v>1.3</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
         <f t="shared" si="0"/>
-        <v>11.749999999999998</v>
+        <v>13.049999999999999</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1427,15 +1433,15 @@
       </c>
       <c r="AJ7" s="1">
         <f t="shared" si="1"/>
-        <v>12.249999999999998</v>
+        <v>13.549999999999999</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL7" s="7">
         <f t="shared" si="3"/>
-        <v>0.63802083333333326</v>
+        <v>0.69845360824742264</v>
       </c>
       <c r="AM7" s="4">
         <f t="shared" si="4"/>
@@ -1542,11 +1548,11 @@
       </c>
       <c r="AK8" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" si="3"/>
-        <v>0.35416666666666669</v>
+        <v>0.3505154639175258</v>
       </c>
       <c r="AM8" s="4">
         <f t="shared" si="4"/>
@@ -1649,11 +1655,11 @@
       </c>
       <c r="AK9" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL9" s="7">
         <f t="shared" si="3"/>
-        <v>0.27864583333333331</v>
+        <v>0.27577319587628868</v>
       </c>
       <c r="AM9" s="4">
         <f t="shared" si="4"/>
@@ -1766,11 +1772,11 @@
       </c>
       <c r="AK10" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL10" s="7">
         <f t="shared" si="3"/>
-        <v>0.72395833333333337</v>
+        <v>0.71649484536082486</v>
       </c>
       <c r="AM10" s="4">
         <f t="shared" si="4"/>
@@ -1885,11 +1891,11 @@
       </c>
       <c r="AK11" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL11" s="7">
         <f t="shared" si="3"/>
-        <v>0.48437499999999994</v>
+        <v>0.47938144329896903</v>
       </c>
       <c r="AM11" s="4">
         <f t="shared" si="4"/>
@@ -1960,13 +1966,15 @@
       <c r="Q12" s="1">
         <v>0.2</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.4</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
         <f t="shared" si="0"/>
-        <v>6.7</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -1985,22 +1993,24 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI12" s="1">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ12" s="1">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL12" s="7">
         <f t="shared" si="3"/>
-        <v>0.35937500000000006</v>
+        <v>0.3814432989690722</v>
       </c>
       <c r="AM12" s="4">
         <f t="shared" si="4"/>
@@ -2117,11 +2127,11 @@
       </c>
       <c r="AK13" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" si="3"/>
-        <v>0.34374999999999989</v>
+        <v>0.34020618556701021</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" si="4"/>
@@ -2248,11 +2258,11 @@
       </c>
       <c r="AK14" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL14" s="7">
         <f t="shared" si="3"/>
-        <v>0.61458333333333326</v>
+        <v>0.60824742268041232</v>
       </c>
       <c r="AM14" s="4">
         <f t="shared" si="4"/>
@@ -2264,28 +2274,30 @@
       <c r="AO14" s="1">
         <v>1</v>
       </c>
-      <c r="AP14" s="1"/>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ14" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="4">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="AT14" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="5"/>
     </row>
@@ -2331,13 +2343,15 @@
       <c r="Q15" s="1">
         <v>0.6</v>
       </c>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1">
+        <v>0.9</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>7.65</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -2361,15 +2375,15 @@
       </c>
       <c r="AJ15" s="1">
         <f t="shared" si="1"/>
-        <v>6.85</v>
+        <v>7.75</v>
       </c>
       <c r="AK15" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL15" s="7">
         <f t="shared" si="3"/>
-        <v>0.35677083333333331</v>
+        <v>0.39948453608247425</v>
       </c>
       <c r="AM15" s="4">
         <f t="shared" si="4"/>
@@ -2450,13 +2464,15 @@
       <c r="Q16" s="1">
         <v>0.7</v>
       </c>
-      <c r="R16" s="1"/>
+      <c r="R16" s="1">
+        <v>1.3</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>10.3</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -2480,19 +2496,19 @@
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="1"/>
-        <v>10.4</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL16" s="7">
         <f t="shared" si="3"/>
-        <v>0.54166666666666674</v>
+        <v>0.60309278350515472</v>
       </c>
       <c r="AM16" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN16" s="1">
         <v>0.5</v>
@@ -2521,7 +2537,7 @@
       </c>
       <c r="AV16" s="4">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AW16" s="5"/>
     </row>
@@ -2603,11 +2619,11 @@
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL17" s="7">
         <f t="shared" si="3"/>
-        <v>0.47656250000000006</v>
+        <v>0.47164948453608252</v>
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="4"/>
@@ -2708,11 +2724,11 @@
       </c>
       <c r="AK18" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL18" s="7">
         <f t="shared" si="3"/>
-        <v>0.26302083333333331</v>
+        <v>0.26030927835051548</v>
       </c>
       <c r="AM18" s="4">
         <f t="shared" si="4"/>
@@ -2787,15 +2803,17 @@
         <v>0.25</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R19" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.8</v>
+      </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
         <f t="shared" si="0"/>
-        <v>7.7499999999999991</v>
+        <v>8.6499999999999986</v>
       </c>
       <c r="W19" s="1">
         <v>0.1</v>
@@ -2825,15 +2843,15 @@
       </c>
       <c r="AJ19" s="1">
         <f t="shared" si="1"/>
-        <v>8.35</v>
+        <v>9.2499999999999982</v>
       </c>
       <c r="AK19" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL19" s="7">
         <f t="shared" si="3"/>
-        <v>0.43489583333333331</v>
+        <v>0.47680412371134012</v>
       </c>
       <c r="AM19" s="4">
         <f t="shared" si="4"/>
@@ -2919,7 +2937,9 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V20" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2953,22 +2973,24 @@
         <v>0.1</v>
       </c>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="AH20" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AI20" s="1">
         <f t="shared" si="9"/>
-        <v>0.89999999999999991</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="AJ20" s="1">
         <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AK20" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL20" s="7">
         <f t="shared" si="3"/>
-        <v>0.93229166666666663</v>
+        <v>0.93298969072164961</v>
       </c>
       <c r="AM20" s="4">
         <f t="shared" si="4"/>
@@ -3075,11 +3097,11 @@
       </c>
       <c r="AK21" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL21" s="7">
         <f t="shared" si="3"/>
-        <v>0.21354166666666666</v>
+        <v>0.21134020618556701</v>
       </c>
       <c r="AM21" s="4">
         <f t="shared" si="4"/>
@@ -3192,11 +3214,11 @@
       </c>
       <c r="AK22" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL22" s="7">
         <f t="shared" si="3"/>
-        <v>0.48437500000000006</v>
+        <v>0.47938144329896915</v>
       </c>
       <c r="AM22" s="4">
         <f t="shared" si="4"/>
@@ -3293,11 +3315,11 @@
       </c>
       <c r="AK23" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL23" s="7">
         <f t="shared" si="3"/>
-        <v>0.234375</v>
+        <v>0.23195876288659795</v>
       </c>
       <c r="AM23" s="4">
         <f t="shared" si="4"/>
@@ -3374,13 +3396,15 @@
       <c r="Q24" s="1">
         <v>1</v>
       </c>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
         <f t="shared" si="0"/>
-        <v>13.35</v>
+        <v>14.85</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -3407,26 +3431,28 @@
       <c r="AG24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AH24" s="1"/>
+      <c r="AH24" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI24" s="1">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AJ24" s="1">
         <f t="shared" si="1"/>
-        <v>13.95</v>
+        <v>15.549999999999999</v>
       </c>
       <c r="AK24" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL24" s="7">
         <f t="shared" si="3"/>
-        <v>0.7265625</v>
+        <v>0.80154639175257736</v>
       </c>
       <c r="AM24" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN24" s="1">
         <v>1</v>
@@ -3455,7 +3481,7 @@
       </c>
       <c r="AV24" s="4">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="5"/>
     </row>
@@ -3521,11 +3547,11 @@
       </c>
       <c r="AK25" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL25" s="7">
         <f t="shared" si="3"/>
-        <v>0.2734375</v>
+        <v>0.27061855670103097</v>
       </c>
       <c r="AM25" s="4">
         <f t="shared" si="4"/>
@@ -3636,11 +3662,11 @@
       </c>
       <c r="AK26" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL26" s="7">
         <f t="shared" si="3"/>
-        <v>0.66666666666666674</v>
+        <v>0.65979381443298979</v>
       </c>
       <c r="AM26" s="4">
         <f t="shared" si="4"/>
@@ -3762,22 +3788,24 @@
       <c r="AG27" s="1">
         <v>0.2</v>
       </c>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AI27" s="1">
         <f t="shared" si="9"/>
-        <v>1.6999999999999997</v>
+        <v>1.8999999999999997</v>
       </c>
       <c r="AJ27" s="1">
         <f t="shared" si="1"/>
-        <v>18.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AK27" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL27" s="7">
         <f t="shared" si="3"/>
-        <v>0.97395833333333337</v>
+        <v>0.97422680412371132</v>
       </c>
       <c r="AM27" s="4">
         <f t="shared" si="4"/>
@@ -3883,22 +3911,24 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI28" s="1">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AJ28" s="1">
         <f t="shared" si="1"/>
-        <v>6.5499999999999989</v>
+        <v>6.6499999999999995</v>
       </c>
       <c r="AK28" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL28" s="7">
         <f t="shared" si="3"/>
-        <v>0.34114583333333331</v>
+        <v>0.34278350515463918</v>
       </c>
       <c r="AM28" s="4">
         <f t="shared" si="4"/>
@@ -4007,11 +4037,11 @@
       </c>
       <c r="AK29" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL29" s="7">
         <f t="shared" si="3"/>
-        <v>0.36718749999999994</v>
+        <v>0.36340206185567009</v>
       </c>
       <c r="AM29" s="4">
         <f t="shared" si="4"/>
@@ -4104,11 +4134,11 @@
       </c>
       <c r="AK30" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL30" s="7">
         <f t="shared" si="3"/>
-        <v>0.26041666666666669</v>
+        <v>0.25773195876288663</v>
       </c>
       <c r="AM30" s="4">
         <f t="shared" si="4"/>
@@ -4207,11 +4237,11 @@
       </c>
       <c r="AK31" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL31" s="7">
         <f t="shared" si="3"/>
-        <v>0.27083333333333337</v>
+        <v>0.26804123711340211</v>
       </c>
       <c r="AM31" s="4">
         <f t="shared" si="4"/>
@@ -4288,13 +4318,15 @@
       <c r="Q32" s="1">
         <v>1</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1">
         <f t="shared" si="0"/>
-        <v>11.899999999999999</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="W32" s="1">
         <v>0.2</v>
@@ -4324,15 +4356,15 @@
       </c>
       <c r="AJ32" s="1">
         <f t="shared" si="1"/>
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="AK32" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL32" s="7">
         <f t="shared" si="3"/>
-        <v>0.66145833333333337</v>
+        <v>0.70618556701030932</v>
       </c>
       <c r="AM32" s="4">
         <f t="shared" si="4"/>
@@ -4443,11 +4475,11 @@
       </c>
       <c r="AK33" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL33" s="7">
         <f t="shared" si="3"/>
-        <v>0.44531249999999994</v>
+        <v>0.44072164948453607</v>
       </c>
       <c r="AM33" s="4">
         <f t="shared" si="4"/>
@@ -4526,13 +4558,15 @@
       <c r="Q34" s="1">
         <v>1.25</v>
       </c>
-      <c r="R34" s="1"/>
+      <c r="R34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1">
         <f t="shared" si="0"/>
-        <v>13.45</v>
+        <v>14.95</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -4555,22 +4589,24 @@
       <c r="AG34" s="1">
         <v>0.1</v>
       </c>
-      <c r="AH34" s="1"/>
+      <c r="AH34" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI34" s="1">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AJ34" s="1">
         <f t="shared" si="1"/>
-        <v>13.85</v>
+        <v>15.45</v>
       </c>
       <c r="AK34" s="1">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL34" s="7">
         <f t="shared" si="3"/>
-        <v>0.72135416666666663</v>
+        <v>0.79639175257731964</v>
       </c>
       <c r="AM34" s="4">
         <f t="shared" si="4"/>
@@ -4694,18 +4730,20 @@
       <c r="AG35" s="1">
         <v>0.2</v>
       </c>
-      <c r="AH35" s="1"/>
+      <c r="AH35" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AI35" s="1">
         <f t="shared" si="9"/>
-        <v>2.1999999999999997</v>
+        <v>2.4</v>
       </c>
       <c r="AJ35" s="1">
         <f t="shared" ref="AJ35" si="10">V35+AI35</f>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AK35" s="4">
         <f>AJ35</f>
-        <v>19.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AL35" s="7">
         <f t="shared" ref="AL35" si="11">(AJ35/AK35)</f>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AB52B8-8E9B-44B6-9A5C-208B9E1EA069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965AA41-04C3-4DC1-8E96-D64FEFE1B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -634,8 +634,7 @@
     <col min="37" max="37" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="3.296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="3.8984375" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.8984375" bestFit="1" customWidth="1"/>
@@ -890,28 +889,30 @@
       <c r="AO2" s="1">
         <v>0.3</v>
       </c>
-      <c r="AP2" s="1"/>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ2" s="1">
         <f t="shared" ref="AQ2:AQ34" si="5">SUM(AN2:AP2)</f>
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR2" s="1">
         <v>3</v>
       </c>
       <c r="AS2" s="4">
         <f t="shared" ref="AS2:AS34" si="6">(AQ2/AR2)*100</f>
-        <v>26.666666666666668</v>
+        <v>60</v>
       </c>
       <c r="AT2" s="4">
         <f t="shared" ref="AT2:AT34" si="7">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU2" s="4">
         <v>0</v>
       </c>
       <c r="AV2" s="4">
         <f t="shared" ref="AV2:AV34" si="8">(AM2+AT2+AU2)/3</f>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AW2" s="5"/>
     </row>
@@ -999,28 +1000,30 @@
       <c r="AO3" s="1">
         <v>0.5</v>
       </c>
-      <c r="AP3" s="1"/>
+      <c r="AP3" s="1">
+        <v>0.6</v>
+      </c>
       <c r="AQ3" s="1">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR3" s="1">
         <v>3</v>
       </c>
       <c r="AS3" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
+        <v>36.666666666666671</v>
       </c>
       <c r="AT3" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
       </c>
       <c r="AV3" s="4">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AW3" s="5"/>
     </row>
@@ -1116,28 +1119,30 @@
       <c r="AO4" s="1">
         <v>0.3</v>
       </c>
-      <c r="AP4" s="1"/>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ4" s="1">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR4" s="1">
         <v>3</v>
       </c>
       <c r="AS4" s="4">
         <f t="shared" si="6"/>
-        <v>26.666666666666668</v>
+        <v>60</v>
       </c>
       <c r="AT4" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU4" s="4">
         <v>0</v>
       </c>
       <c r="AV4" s="4">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AW4" s="5"/>
     </row>
@@ -1453,28 +1458,30 @@
       <c r="AO7" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP7" s="1"/>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ7" s="1">
         <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AR7" s="1">
         <v>3</v>
       </c>
       <c r="AS7" s="4">
         <f t="shared" si="6"/>
-        <v>53.333333333333336</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="AT7" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="5"/>
     </row>
@@ -2022,28 +2029,30 @@
       <c r="AO12" s="1">
         <v>0.3</v>
       </c>
-      <c r="AP12" s="1"/>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ12" s="1">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="AR12" s="1">
         <v>3</v>
       </c>
       <c r="AS12" s="4">
         <f t="shared" si="6"/>
-        <v>26.666666666666668</v>
+        <v>60</v>
       </c>
       <c r="AT12" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
       </c>
       <c r="AV12" s="4">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="5"/>
     </row>
@@ -2143,28 +2152,30 @@
       <c r="AO13" s="1">
         <v>0.3</v>
       </c>
-      <c r="AP13" s="1"/>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="1">
         <f t="shared" si="5"/>
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AR13" s="1">
         <v>3</v>
       </c>
       <c r="AS13" s="4">
         <f t="shared" si="6"/>
-        <v>43.333333333333336</v>
+        <v>76.666666666666657</v>
       </c>
       <c r="AT13" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU13" s="4">
         <v>0</v>
       </c>
       <c r="AV13" s="4">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="5"/>
     </row>
@@ -2395,28 +2406,30 @@
       <c r="AO15" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP15" s="1"/>
+      <c r="AP15" s="1">
+        <v>0.8</v>
+      </c>
       <c r="AQ15" s="1">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="4">
         <f t="shared" si="6"/>
-        <v>36.666666666666671</v>
+        <v>63.333333333333343</v>
       </c>
       <c r="AT15" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
       </c>
       <c r="AV15" s="4">
         <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="5"/>
     </row>
@@ -2516,28 +2529,30 @@
       <c r="AO16" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP16" s="1"/>
+      <c r="AP16" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ16" s="1">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AR16" s="1">
         <v>3</v>
       </c>
       <c r="AS16" s="4">
         <f t="shared" si="6"/>
-        <v>36.666666666666671</v>
+        <v>70</v>
       </c>
       <c r="AT16" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU16" s="4">
         <v>0</v>
       </c>
       <c r="AV16" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AW16" s="5"/>
     </row>
@@ -2635,28 +2650,30 @@
       <c r="AO17" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP17" s="1"/>
+      <c r="AP17" s="1">
+        <v>0.8</v>
+      </c>
       <c r="AQ17" s="1">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AR17" s="1">
         <v>3</v>
       </c>
       <c r="AS17" s="4">
         <f t="shared" si="6"/>
-        <v>36.666666666666671</v>
+        <v>63.333333333333343</v>
       </c>
       <c r="AT17" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU17" s="4">
         <v>0</v>
       </c>
       <c r="AV17" s="4">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AW17" s="5"/>
     </row>
@@ -2863,28 +2880,30 @@
       <c r="AO19" s="1">
         <v>1</v>
       </c>
-      <c r="AP19" s="1"/>
+      <c r="AP19" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ19" s="1">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR19" s="1">
         <v>3</v>
       </c>
       <c r="AS19" s="4">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="AT19" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU19" s="4">
         <v>0</v>
       </c>
       <c r="AV19" s="4">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AW19" s="5"/>
     </row>
@@ -3460,28 +3479,30 @@
       <c r="AO24" s="1">
         <v>1</v>
       </c>
-      <c r="AP24" s="1"/>
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ24" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR24" s="1">
         <v>3</v>
       </c>
       <c r="AS24" s="4">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="AT24" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
       </c>
       <c r="AV24" s="4">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AW24" s="5"/>
     </row>
@@ -4376,28 +4397,30 @@
       <c r="AO32" s="1">
         <v>1</v>
       </c>
-      <c r="AP32" s="1"/>
+      <c r="AP32" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ32" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR32" s="1">
         <v>3</v>
       </c>
       <c r="AS32" s="4">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="AT32" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU32" s="4">
         <v>0</v>
       </c>
       <c r="AV32" s="4">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="AW32" s="5"/>
     </row>
@@ -4618,28 +4641,30 @@
       <c r="AO34" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP34" s="1"/>
+      <c r="AP34" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ34" s="1">
         <f t="shared" si="5"/>
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AR34" s="1">
         <v>3</v>
       </c>
       <c r="AS34" s="4">
         <f t="shared" si="6"/>
-        <v>53.333333333333336</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="AT34" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU34" s="4">
         <v>0</v>
       </c>
       <c r="AV34" s="4">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="AW34" s="5"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A965AA41-04C3-4DC1-8E96-D64FEFE1B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF536F1B-5BA6-48F0-A090-68B3102FC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -838,7 +838,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1">
-        <f t="shared" ref="V2:V35" si="0">SUM(C2:S2)</f>
+        <f>SUM(C2:U2)</f>
         <v>6.6499999999999995</v>
       </c>
       <c r="W2" s="1">
@@ -868,19 +868,19 @@
         <v>0.5</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ34" si="1">V2+AI2</f>
+        <f t="shared" ref="AJ2:AJ34" si="0">V2+AI2</f>
         <v>7.1499999999999995</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK34" si="2">AK3</f>
+        <f t="shared" ref="AK2:AK34" si="1">AK3</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL2" s="7">
-        <f t="shared" ref="AL2:AL34" si="3">(AJ2/AK2)</f>
+        <f t="shared" ref="AL2:AL34" si="2">(AJ2/AK2)</f>
         <v>0.36855670103092786</v>
       </c>
       <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM34" si="4">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
+        <f t="shared" ref="AM2:AM34" si="3">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN2" s="1">
@@ -893,25 +893,25 @@
         <v>1</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ34" si="5">SUM(AN2:AP2)</f>
+        <f t="shared" ref="AQ2:AQ34" si="4">SUM(AN2:AP2)</f>
         <v>1.8</v>
       </c>
       <c r="AR2" s="1">
         <v>3</v>
       </c>
       <c r="AS2" s="4">
-        <f t="shared" ref="AS2:AS34" si="6">(AQ2/AR2)*100</f>
+        <f t="shared" ref="AS2:AS34" si="5">(AQ2/AR2)*100</f>
         <v>60</v>
       </c>
       <c r="AT2" s="4">
-        <f t="shared" ref="AT2:AT34" si="7">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
+        <f t="shared" ref="AT2:AT34" si="6">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AU2" s="4">
         <v>0</v>
       </c>
       <c r="AV2" s="4">
-        <f t="shared" ref="AV2:AV34" si="8">(AM2+AT2+AU2)/3</f>
+        <f t="shared" ref="AV2:AV34" si="7">(AM2+AT2+AU2)/3</f>
         <v>2</v>
       </c>
       <c r="AW2" s="5"/>
@@ -957,7 +957,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V3:V35" si="8">SUM(C3:U3)</f>
         <v>5.35</v>
       </c>
       <c r="W3" s="1">
@@ -981,19 +981,19 @@
         <v>0.05</v>
       </c>
       <c r="AJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="AK3" s="1">
         <f t="shared" si="1"/>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="AK3" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL3" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL3" s="7">
+        <v>0.27835051546391754</v>
+      </c>
+      <c r="AM3" s="4">
         <f t="shared" si="3"/>
-        <v>0.27835051546391754</v>
-      </c>
-      <c r="AM3" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN3" s="1"/>
@@ -1004,25 +1004,25 @@
         <v>0.6</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AR3" s="1">
         <v>3</v>
       </c>
       <c r="AS3" s="4">
+        <f t="shared" si="5"/>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="AT3" s="4">
         <f t="shared" si="6"/>
-        <v>36.666666666666671</v>
-      </c>
-      <c r="AT3" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
       </c>
       <c r="AV3" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW3" s="5"/>
@@ -1068,7 +1068,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5.15</v>
       </c>
       <c r="W4" s="1">
@@ -1098,19 +1098,19 @@
         <v>0.4</v>
       </c>
       <c r="AJ4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="AK4" s="1">
         <f t="shared" si="1"/>
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="AK4" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL4" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL4" s="7">
+        <v>0.28608247422680416</v>
+      </c>
+      <c r="AM4" s="4">
         <f t="shared" si="3"/>
-        <v>0.28608247422680416</v>
-      </c>
-      <c r="AM4" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN4" s="1">
@@ -1123,25 +1123,25 @@
         <v>1</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="AR4" s="1">
         <v>3</v>
       </c>
       <c r="AS4" s="4">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AT4" s="4">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AT4" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU4" s="4">
         <v>0</v>
       </c>
       <c r="AV4" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AW4" s="5"/>
@@ -1183,7 +1183,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.9999999999999991</v>
       </c>
       <c r="W5" s="1">
@@ -1209,45 +1209,47 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="1"/>
-        <v>5.2999999999999989</v>
-      </c>
-      <c r="AK5" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL5" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL5" s="7">
+        <v>0.27319587628865977</v>
+      </c>
+      <c r="AM5" s="4">
         <f t="shared" si="3"/>
-        <v>0.27319587628865977</v>
-      </c>
-      <c r="AM5" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
         <v>3</v>
       </c>
       <c r="AS5" s="4">
+        <f t="shared" si="5"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AT5" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="4">
         <v>0</v>
       </c>
       <c r="AV5" s="4">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AW5" s="5"/>
     </row>
@@ -1288,7 +1290,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>3.95</v>
       </c>
       <c r="W6" s="1">
@@ -1312,19 +1314,19 @@
         <v>0.1</v>
       </c>
       <c r="AJ6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="1"/>
-        <v>4.05</v>
-      </c>
-      <c r="AK6" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL6" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL6" s="7">
+        <v>0.20876288659793815</v>
+      </c>
+      <c r="AM6" s="4">
         <f t="shared" si="3"/>
-        <v>0.20876288659793815</v>
-      </c>
-      <c r="AM6" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN6" s="1">
@@ -1333,25 +1335,25 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AR6" s="1">
         <v>3</v>
       </c>
       <c r="AS6" s="4">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AT6" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AT6" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU6" s="4">
         <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW6" s="5"/>
@@ -1407,7 +1409,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>13.049999999999999</v>
       </c>
       <c r="W7" s="1">
@@ -1437,19 +1439,19 @@
         <v>0.5</v>
       </c>
       <c r="AJ7" s="1">
+        <f t="shared" si="0"/>
+        <v>13.549999999999999</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="1"/>
-        <v>13.549999999999999</v>
-      </c>
-      <c r="AK7" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL7" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL7" s="7">
+        <v>0.69845360824742264</v>
+      </c>
+      <c r="AM7" s="4">
         <f t="shared" si="3"/>
-        <v>0.69845360824742264</v>
-      </c>
-      <c r="AM7" s="4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN7" s="1">
@@ -1462,25 +1464,25 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
       <c r="AR7" s="1">
         <v>3</v>
       </c>
       <c r="AS7" s="4">
+        <f t="shared" si="5"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="AT7" s="4">
         <f t="shared" si="6"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="AT7" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AW7" s="5"/>
@@ -1524,7 +1526,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="W8" s="1">
@@ -1550,49 +1552,51 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="AK8" s="1">
         <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="AK8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL8" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL8" s="7">
+        <v>0.3505154639175258</v>
+      </c>
+      <c r="AM8" s="4">
         <f t="shared" si="3"/>
-        <v>0.3505154639175258</v>
-      </c>
-      <c r="AM8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AN8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="AR8" s="1">
         <v>3</v>
       </c>
       <c r="AS8" s="4">
+        <f t="shared" si="5"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AT8" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AT8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
         <f t="shared" si="7"/>
         <v>2</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="4">
-        <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
       </c>
       <c r="AW8" s="5"/>
     </row>
@@ -1633,7 +1637,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5.05</v>
       </c>
       <c r="W9" s="1">
@@ -1657,44 +1661,44 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.35</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="1"/>
-        <v>5.35</v>
-      </c>
-      <c r="AK9" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL9" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL9" s="7">
+        <v>0.27577319587628868</v>
+      </c>
+      <c r="AM9" s="4">
         <f t="shared" si="3"/>
-        <v>0.27577319587628868</v>
-      </c>
-      <c r="AM9" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS9" s="4">
+      <c r="AT9" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT9" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AU9" s="4">
         <v>0</v>
       </c>
       <c r="AV9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW9" s="5"/>
@@ -1748,7 +1752,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>13.6</v>
       </c>
       <c r="W10" s="1">
@@ -1774,49 +1778,51 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ10" s="1">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+      <c r="AK10" s="1">
         <f t="shared" si="1"/>
-        <v>13.9</v>
-      </c>
-      <c r="AK10" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL10" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL10" s="7">
+        <v>0.71649484536082486</v>
+      </c>
+      <c r="AM10" s="4">
         <f t="shared" si="3"/>
-        <v>0.71649484536082486</v>
-      </c>
-      <c r="AM10" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AQ10" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AR10" s="1">
         <v>3</v>
       </c>
       <c r="AS10" s="4">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="AT10" s="4">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="AT10" s="4">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
       </c>
       <c r="AV10" s="4">
-        <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="AW10" s="5"/>
     </row>
@@ -1865,7 +1871,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.8999999999999986</v>
       </c>
       <c r="W11" s="1">
@@ -1893,47 +1899,49 @@
         <v>0.4</v>
       </c>
       <c r="AJ11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="AK11" s="1">
         <f t="shared" si="1"/>
-        <v>9.2999999999999989</v>
-      </c>
-      <c r="AK11" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL11" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL11" s="7">
+        <v>0.47938144329896903</v>
+      </c>
+      <c r="AM11" s="4">
         <f t="shared" si="3"/>
-        <v>0.47938144329896903</v>
-      </c>
-      <c r="AM11" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN11" s="1">
         <v>0.5</v>
       </c>
       <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
+      <c r="AP11" s="1">
+        <v>0.4</v>
+      </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.9</v>
       </c>
       <c r="AR11" s="1">
         <v>3</v>
       </c>
       <c r="AS11" s="4">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AT11" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AT11" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU11" s="4">
         <v>0</v>
       </c>
       <c r="AV11" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AW11" s="5"/>
     </row>
@@ -1980,7 +1988,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7.1000000000000005</v>
       </c>
       <c r="W12" s="1">
@@ -2008,19 +2016,19 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="AK12" s="1">
         <f t="shared" si="1"/>
-        <v>7.4</v>
-      </c>
-      <c r="AK12" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL12" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL12" s="7">
+        <v>0.3814432989690722</v>
+      </c>
+      <c r="AM12" s="4">
         <f t="shared" si="3"/>
-        <v>0.3814432989690722</v>
-      </c>
-      <c r="AM12" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN12" s="1">
@@ -2033,25 +2041,25 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="AR12" s="1">
         <v>3</v>
       </c>
       <c r="AS12" s="4">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AT12" s="4">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AT12" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AW12" s="5"/>
@@ -2103,7 +2111,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6.299999999999998</v>
       </c>
       <c r="W13" s="1">
@@ -2131,19 +2139,19 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5999999999999979</v>
+      </c>
+      <c r="AK13" s="1">
         <f t="shared" si="1"/>
-        <v>6.5999999999999979</v>
-      </c>
-      <c r="AK13" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL13" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL13" s="7">
+        <v>0.34020618556701021</v>
+      </c>
+      <c r="AM13" s="4">
         <f t="shared" si="3"/>
-        <v>0.34020618556701021</v>
-      </c>
-      <c r="AM13" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN13" s="1">
@@ -2156,25 +2164,25 @@
         <v>1</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="AR13" s="1">
         <v>3</v>
       </c>
       <c r="AS13" s="4">
+        <f t="shared" si="5"/>
+        <v>76.666666666666657</v>
+      </c>
+      <c r="AT13" s="4">
         <f t="shared" si="6"/>
-        <v>76.666666666666657</v>
-      </c>
-      <c r="AT13" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU13" s="4">
         <v>0</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AW13" s="5"/>
@@ -2226,7 +2234,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>10.7</v>
       </c>
       <c r="W14" s="1">
@@ -2264,50 +2272,50 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AJ14" s="1">
+        <f t="shared" si="0"/>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="AK14" s="1">
         <f t="shared" si="1"/>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="AK14" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL14" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL14" s="7">
+        <v>0.60824742268041232</v>
+      </c>
+      <c r="AM14" s="4">
         <f t="shared" si="3"/>
-        <v>0.60824742268041232</v>
-      </c>
-      <c r="AM14" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AT14" s="4">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AT14" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AW14" s="5"/>
@@ -2361,7 +2369,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>7.65</v>
       </c>
       <c r="W15" s="1">
@@ -2385,19 +2393,19 @@
         <v>0.1</v>
       </c>
       <c r="AJ15" s="1">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="AK15" s="1">
         <f t="shared" si="1"/>
-        <v>7.75</v>
-      </c>
-      <c r="AK15" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL15" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL15" s="7">
+        <v>0.39948453608247425</v>
+      </c>
+      <c r="AM15" s="4">
         <f t="shared" si="3"/>
-        <v>0.39948453608247425</v>
-      </c>
-      <c r="AM15" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN15" s="1">
@@ -2410,25 +2418,25 @@
         <v>0.8</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="4">
+        <f t="shared" si="5"/>
+        <v>63.333333333333343</v>
+      </c>
+      <c r="AT15" s="4">
         <f t="shared" si="6"/>
-        <v>63.333333333333343</v>
-      </c>
-      <c r="AT15" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AW15" s="5"/>
@@ -2484,7 +2492,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>11.600000000000001</v>
       </c>
       <c r="W16" s="1">
@@ -2508,19 +2516,19 @@
         <v>0.1</v>
       </c>
       <c r="AJ16" s="1">
+        <f t="shared" si="0"/>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="AK16" s="1">
         <f t="shared" si="1"/>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="AK16" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL16" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL16" s="7">
+        <v>0.60309278350515472</v>
+      </c>
+      <c r="AM16" s="4">
         <f t="shared" si="3"/>
-        <v>0.60309278350515472</v>
-      </c>
-      <c r="AM16" s="4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN16" s="1">
@@ -2533,25 +2541,25 @@
         <v>1</v>
       </c>
       <c r="AQ16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="AR16" s="1">
         <v>3</v>
       </c>
       <c r="AS16" s="4">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="AT16" s="4">
         <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="AT16" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU16" s="4">
         <v>0</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW16" s="5"/>
@@ -2603,7 +2611,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.85</v>
       </c>
       <c r="W17" s="1">
@@ -2629,19 +2637,19 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ17" s="1">
+        <f t="shared" si="0"/>
+        <v>9.15</v>
+      </c>
+      <c r="AK17" s="1">
         <f t="shared" si="1"/>
-        <v>9.15</v>
-      </c>
-      <c r="AK17" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL17" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL17" s="7">
+        <v>0.47164948453608252</v>
+      </c>
+      <c r="AM17" s="4">
         <f t="shared" si="3"/>
-        <v>0.47164948453608252</v>
-      </c>
-      <c r="AM17" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN17" s="1">
@@ -2654,25 +2662,25 @@
         <v>0.8</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="AR17" s="1">
         <v>3</v>
       </c>
       <c r="AS17" s="4">
+        <f t="shared" si="5"/>
+        <v>63.333333333333343</v>
+      </c>
+      <c r="AT17" s="4">
         <f t="shared" si="6"/>
-        <v>63.333333333333343</v>
-      </c>
-      <c r="AT17" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU17" s="4">
         <v>0</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="AW17" s="5"/>
@@ -2712,7 +2720,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.95</v>
       </c>
       <c r="W18" s="1">
@@ -2736,19 +2744,19 @@
         <v>0.1</v>
       </c>
       <c r="AJ18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.05</v>
+      </c>
+      <c r="AK18" s="1">
         <f t="shared" si="1"/>
-        <v>5.05</v>
-      </c>
-      <c r="AK18" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL18" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL18" s="7">
+        <v>0.26030927835051548</v>
+      </c>
+      <c r="AM18" s="4">
         <f t="shared" si="3"/>
-        <v>0.26030927835051548</v>
-      </c>
-      <c r="AM18" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN18" s="1">
@@ -2757,25 +2765,25 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AR18" s="1">
         <v>3</v>
       </c>
       <c r="AS18" s="4">
+        <f t="shared" si="5"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="AT18" s="4">
         <f t="shared" si="6"/>
-        <v>16.666666666666664</v>
-      </c>
-      <c r="AT18" s="4">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU18" s="4">
         <v>0</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW18" s="5"/>
@@ -2829,7 +2837,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.6499999999999986</v>
       </c>
       <c r="W19" s="1">
@@ -2859,19 +2867,19 @@
         <v>0.6</v>
       </c>
       <c r="AJ19" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2499999999999982</v>
+      </c>
+      <c r="AK19" s="1">
         <f t="shared" si="1"/>
-        <v>9.2499999999999982</v>
-      </c>
-      <c r="AK19" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL19" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL19" s="7">
+        <v>0.47680412371134012</v>
+      </c>
+      <c r="AM19" s="4">
         <f t="shared" si="3"/>
-        <v>0.47680412371134012</v>
-      </c>
-      <c r="AM19" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN19" s="1">
@@ -2884,25 +2892,25 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="AR19" s="1">
         <v>3</v>
       </c>
       <c r="AS19" s="4">
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="AT19" s="4">
         <f t="shared" si="6"/>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="AT19" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU19" s="4">
         <v>0</v>
       </c>
       <c r="AV19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW19" s="5"/>
@@ -2912,7 +2920,9 @@
       <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
@@ -2960,8 +2970,8 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="W20" s="1">
         <v>0.1</v>
@@ -3000,50 +3010,50 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="AJ20" s="1">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AK20" s="1">
         <f t="shared" si="1"/>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AK20" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL20" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL20" s="7">
+        <v>0.98453608247422697</v>
+      </c>
+      <c r="AM20" s="4">
         <f t="shared" si="3"/>
-        <v>0.93298969072164961</v>
-      </c>
-      <c r="AM20" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR20" s="1">
         <v>3</v>
       </c>
       <c r="AS20" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AT20" s="4">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AT20" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU20" s="4">
         <v>0</v>
       </c>
       <c r="AV20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AW20" s="5"/>
@@ -3089,7 +3099,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="W21" s="1">
@@ -3111,44 +3121,46 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AK21" s="1">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AK21" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL21" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL21" s="7">
+        <v>0.21134020618556701</v>
+      </c>
+      <c r="AM21" s="4">
         <f t="shared" si="3"/>
-        <v>0.21134020618556701</v>
-      </c>
-      <c r="AM21" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
+      <c r="AP21" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.2</v>
       </c>
       <c r="AR21" s="1">
         <v>3</v>
       </c>
       <c r="AS21" s="4">
+        <f t="shared" si="5"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AT21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT21" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AU21" s="4">
         <v>0</v>
       </c>
       <c r="AV21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW21" s="5"/>
@@ -3198,7 +3210,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="W22" s="1">
@@ -3228,19 +3240,19 @@
         <v>0.5</v>
       </c>
       <c r="AJ22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AK22" s="1">
         <f t="shared" si="1"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AK22" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL22" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL22" s="7">
+        <v>0.47938144329896915</v>
+      </c>
+      <c r="AM22" s="4">
         <f t="shared" si="3"/>
-        <v>0.47938144329896915</v>
-      </c>
-      <c r="AM22" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN22" s="1">
@@ -3251,25 +3263,25 @@
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
       <c r="AR22" s="1">
         <v>3</v>
       </c>
       <c r="AS22" s="4">
+        <f t="shared" si="5"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="AT22" s="4">
         <f t="shared" si="6"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="AT22" s="4">
-        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AU22" s="4">
         <v>0</v>
       </c>
       <c r="AV22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AW22" s="5"/>
@@ -3307,7 +3319,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="W23" s="1">
@@ -3329,44 +3341,44 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AK23" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="AK23" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL23" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL23" s="7">
+        <v>0.23195876288659795</v>
+      </c>
+      <c r="AM23" s="4">
         <f t="shared" si="3"/>
-        <v>0.23195876288659795</v>
-      </c>
-      <c r="AM23" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR23" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS23" s="4">
+      <c r="AT23" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT23" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AU23" s="4">
         <v>0</v>
       </c>
       <c r="AV23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW23" s="5"/>
@@ -3422,7 +3434,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>14.85</v>
       </c>
       <c r="W24" s="1">
@@ -3458,50 +3470,50 @@
         <v>0.7</v>
       </c>
       <c r="AJ24" s="1">
+        <f t="shared" si="0"/>
+        <v>15.549999999999999</v>
+      </c>
+      <c r="AK24" s="1">
         <f t="shared" si="1"/>
-        <v>15.549999999999999</v>
-      </c>
-      <c r="AK24" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL24" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL24" s="7">
+        <v>0.80154639175257736</v>
+      </c>
+      <c r="AM24" s="4">
         <f t="shared" si="3"/>
-        <v>0.80154639175257736</v>
-      </c>
-      <c r="AM24" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR24" s="1">
         <v>3</v>
       </c>
       <c r="AS24" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AT24" s="4">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AT24" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
       </c>
       <c r="AV24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AW24" s="5"/>
@@ -3541,7 +3553,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5.15</v>
       </c>
       <c r="W25" s="1">
@@ -3563,44 +3575,44 @@
         <v>0.1</v>
       </c>
       <c r="AJ25" s="1">
+        <f t="shared" si="0"/>
+        <v>5.25</v>
+      </c>
+      <c r="AK25" s="1">
         <f t="shared" si="1"/>
-        <v>5.25</v>
-      </c>
-      <c r="AK25" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL25" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL25" s="7">
+        <v>0.27061855670103097</v>
+      </c>
+      <c r="AM25" s="4">
         <f t="shared" si="3"/>
-        <v>0.27061855670103097</v>
-      </c>
-      <c r="AM25" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR25" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS25" s="4">
+      <c r="AT25" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AU25" s="4">
         <v>0</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW25" s="5"/>
@@ -3650,7 +3662,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>12.5</v>
       </c>
       <c r="W26" s="1">
@@ -3678,19 +3690,19 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ26" s="1">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="AK26" s="1">
         <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="AK26" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL26" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL26" s="7">
+        <v>0.65979381443298979</v>
+      </c>
+      <c r="AM26" s="4">
         <f t="shared" si="3"/>
-        <v>0.65979381443298979</v>
-      </c>
-      <c r="AM26" s="4">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AN26" s="1">
@@ -3701,25 +3713,25 @@
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AR26" s="1">
         <v>3</v>
       </c>
       <c r="AS26" s="4">
+        <f t="shared" si="5"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AT26" s="4">
         <f t="shared" si="6"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="AT26" s="4">
-        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AU26" s="4">
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="AW26" s="5"/>
@@ -3775,7 +3787,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="W27" s="1">
@@ -3817,50 +3829,50 @@
         <v>1.8999999999999997</v>
       </c>
       <c r="AJ27" s="1">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AK27" s="1">
         <f t="shared" si="1"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AK27" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL27" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL27" s="7">
+        <v>0.97422680412371132</v>
+      </c>
+      <c r="AM27" s="4">
         <f t="shared" si="3"/>
-        <v>0.97422680412371132</v>
-      </c>
-      <c r="AM27" s="4">
+        <v>5</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR27" s="1">
         <v>3</v>
       </c>
       <c r="AS27" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AT27" s="4">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AT27" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU27" s="4">
         <v>0</v>
       </c>
       <c r="AV27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AW27" s="5"/>
@@ -3908,7 +3920,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5.9499999999999993</v>
       </c>
       <c r="W28" s="1">
@@ -3940,47 +3952,49 @@
         <v>0.7</v>
       </c>
       <c r="AJ28" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6499999999999995</v>
+      </c>
+      <c r="AK28" s="1">
         <f t="shared" si="1"/>
-        <v>6.6499999999999995</v>
-      </c>
-      <c r="AK28" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL28" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL28" s="7">
+        <v>0.34278350515463918</v>
+      </c>
+      <c r="AM28" s="4">
         <f t="shared" si="3"/>
-        <v>0.34278350515463918</v>
-      </c>
-      <c r="AM28" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AQ28" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" s="1">
         <v>3</v>
       </c>
       <c r="AS28" s="4">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AT28" s="4">
         <f t="shared" si="6"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AT28" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU28" s="4">
         <v>0</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" si="8"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AW28" s="5"/>
     </row>
@@ -4029,7 +4043,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>6.9499999999999993</v>
       </c>
       <c r="W29" s="1">
@@ -4053,45 +4067,47 @@
         <v>0.1</v>
       </c>
       <c r="AJ29" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0499999999999989</v>
+      </c>
+      <c r="AK29" s="1">
         <f t="shared" si="1"/>
-        <v>7.0499999999999989</v>
-      </c>
-      <c r="AK29" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL29" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL29" s="7">
+        <v>0.36340206185567009</v>
+      </c>
+      <c r="AM29" s="4">
         <f t="shared" si="3"/>
-        <v>0.36340206185567009</v>
-      </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
+      <c r="AP29" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ29" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AR29" s="1">
         <v>3</v>
       </c>
       <c r="AS29" s="4">
+        <f t="shared" si="5"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AT29" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AT29" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU29" s="4">
         <v>0</v>
       </c>
       <c r="AV29" s="4">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AW29" s="5"/>
     </row>
@@ -4128,7 +4144,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="W30" s="1">
@@ -4150,44 +4166,44 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AK30" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AK30" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL30" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL30" s="7">
+        <v>0.25773195876288663</v>
+      </c>
+      <c r="AM30" s="4">
         <f t="shared" si="3"/>
-        <v>0.25773195876288663</v>
-      </c>
-      <c r="AM30" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS30" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AR30" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS30" s="4">
+      <c r="AT30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AT30" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="AU30" s="4">
         <v>0</v>
       </c>
       <c r="AV30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW30" s="5"/>
@@ -4231,7 +4247,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>5.2</v>
       </c>
       <c r="W31" s="1">
@@ -4253,45 +4269,47 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="AK31" s="1">
         <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="AK31" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL31" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL31" s="7">
+        <v>0.26804123711340211</v>
+      </c>
+      <c r="AM31" s="4">
         <f t="shared" si="3"/>
-        <v>0.26804123711340211</v>
-      </c>
-      <c r="AM31" s="4">
-        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
+      <c r="AP31" s="1">
+        <v>0.8</v>
+      </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.8</v>
       </c>
       <c r="AR31" s="1">
         <v>3</v>
       </c>
       <c r="AS31" s="4">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AT31" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AT31" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU31" s="4">
         <v>0</v>
       </c>
       <c r="AV31" s="4">
-        <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AW31" s="5"/>
     </row>
@@ -4344,10 +4362,12 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V32" s="1">
-        <f t="shared" si="0"/>
-        <v>12.899999999999999</v>
+        <f t="shared" si="8"/>
+        <v>13.399999999999999</v>
       </c>
       <c r="W32" s="1">
         <v>0.2</v>
@@ -4376,50 +4396,50 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="AJ32" s="1">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+      <c r="AK32" s="1">
         <f t="shared" si="1"/>
-        <v>13.7</v>
-      </c>
-      <c r="AK32" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL32" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL32" s="7">
+        <v>0.731958762886598</v>
+      </c>
+      <c r="AM32" s="4">
         <f t="shared" si="3"/>
-        <v>0.70618556701030932</v>
-      </c>
-      <c r="AM32" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="1">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AR32" s="1">
         <v>3</v>
       </c>
       <c r="AS32" s="4">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="AT32" s="4">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="AT32" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU32" s="4">
         <v>0</v>
       </c>
       <c r="AV32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AW32" s="5"/>
@@ -4471,7 +4491,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>8.4499999999999993</v>
       </c>
       <c r="W33" s="1">
@@ -4493,19 +4513,19 @@
         <v>0.1</v>
       </c>
       <c r="AJ33" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="AK33" s="1">
         <f t="shared" si="1"/>
-        <v>8.5499999999999989</v>
-      </c>
-      <c r="AK33" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL33" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL33" s="7">
+        <v>0.44072164948453607</v>
+      </c>
+      <c r="AM33" s="4">
         <f t="shared" si="3"/>
-        <v>0.44072164948453607</v>
-      </c>
-      <c r="AM33" s="4">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AN33" s="1"/>
@@ -4514,25 +4534,25 @@
       </c>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AR33" s="1">
         <v>3</v>
       </c>
       <c r="AS33" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AT33" s="4">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="AT33" s="4">
-        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AU33" s="4">
         <v>0</v>
       </c>
       <c r="AV33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AW33" s="5"/>
@@ -4586,10 +4606,12 @@
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="U34" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V34" s="1">
-        <f t="shared" si="0"/>
-        <v>14.95</v>
+        <f t="shared" si="8"/>
+        <v>15.45</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -4620,20 +4642,20 @@
         <v>0.5</v>
       </c>
       <c r="AJ34" s="1">
+        <f t="shared" si="0"/>
+        <v>15.95</v>
+      </c>
+      <c r="AK34" s="1">
         <f t="shared" si="1"/>
-        <v>15.45</v>
-      </c>
-      <c r="AK34" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL34" s="7">
         <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL34" s="7">
+        <v>0.82216494845360832</v>
+      </c>
+      <c r="AM34" s="4">
         <f t="shared" si="3"/>
-        <v>0.79639175257731964</v>
-      </c>
-      <c r="AM34" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN34" s="1">
         <v>1</v>
@@ -4645,26 +4667,26 @@
         <v>1</v>
       </c>
       <c r="AQ34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
       <c r="AR34" s="1">
         <v>3</v>
       </c>
       <c r="AS34" s="4">
+        <f t="shared" si="5"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="AT34" s="4">
         <f t="shared" si="6"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="AT34" s="4">
-        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AU34" s="4">
         <v>0</v>
       </c>
       <c r="AV34" s="4">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AW34" s="5"/>
     </row>
@@ -4719,7 +4741,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="W35" s="1">

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF536F1B-5BA6-48F0-A090-68B3102FC4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F9DFD-2B56-4543-BD6D-BD26AB73FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1986,10 +1986,12 @@
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
       <c r="V12" s="1">
         <f t="shared" si="8"/>
-        <v>7.1000000000000005</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -2017,7 +2019,7 @@
       </c>
       <c r="AJ12" s="1">
         <f t="shared" si="0"/>
-        <v>7.4</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" si="1"/>
@@ -2025,11 +2027,11 @@
       </c>
       <c r="AL12" s="7">
         <f t="shared" si="2"/>
-        <v>0.3814432989690722</v>
+        <v>0.43298969072164961</v>
       </c>
       <c r="AM12" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN12" s="1">
         <v>0.5</v>
@@ -2060,7 +2062,7 @@
       </c>
       <c r="AV12" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AW12" s="5"/>
     </row>

--- a/Успеваемость.xlsx
+++ b/Успеваемость.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAIN\repositories\github\csu\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F9DFD-2B56-4543-BD6D-BD26AB73FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EBEA04-2402-41DD-B6AA-6AD8F10B1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,34 +602,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.09765625" customWidth="1"/>
-    <col min="17" max="17" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.296875" customWidth="1"/>
-    <col min="22" max="22" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="4.296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.296875" customWidth="1"/>
-    <col min="32" max="34" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.296875" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="3.8984375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.8984375" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="4.8984375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="3.296875" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="4.8984375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="4.296875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.09765625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.8984375" hidden="1" customWidth="1"/>
+    <col min="18" max="21" width="4.296875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="5.8984375" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="4.296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.8984375" hidden="1" customWidth="1"/>
+    <col min="27" max="31" width="4.296875" hidden="1" customWidth="1"/>
+    <col min="32" max="34" width="5.296875" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="4.8984375" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="5.8984375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.19921875" bestFit="1" customWidth="1"/>
@@ -794,132 +792,152 @@
     <row r="2" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F2" s="1">
         <v>1.5</v>
       </c>
       <c r="G2" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R2" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V2" s="1">
         <f>SUM(C2:U2)</f>
-        <v>6.6499999999999995</v>
+        <v>18</v>
       </c>
       <c r="W2" s="1">
         <v>0.1</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="X2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Z2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AC2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AF2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AH2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AI2" s="1">
         <f>SUM(W2:AH2)</f>
-        <v>0.5</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ34" si="0">V2+AI2</f>
-        <v>7.1499999999999995</v>
+        <f>V2+AI2</f>
+        <v>19.100000000000001</v>
       </c>
       <c r="AK2" s="1">
-        <f t="shared" ref="AK2:AK34" si="1">AK3</f>
+        <f>AK3</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL2" s="7">
-        <f t="shared" ref="AL2:AL34" si="2">(AJ2/AK2)</f>
-        <v>0.36855670103092786</v>
+        <f>(AJ2/AK2)</f>
+        <v>0.98453608247422697</v>
       </c>
       <c r="AM2" s="4">
-        <f t="shared" ref="AM2:AM34" si="3">MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
-        <v>2</v>
+        <f>MAX(IF(AL2*100&gt;=20,2,0),IF(AL2*100&gt;=40,3,0),IF(AL2*100&gt;=60,4,0),IF(AL2*100&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="1">
         <v>1</v>
       </c>
       <c r="AQ2" s="1">
-        <f t="shared" ref="AQ2:AQ34" si="4">SUM(AN2:AP2)</f>
-        <v>1.8</v>
+        <f>SUM(AN2:AP2)</f>
+        <v>3</v>
       </c>
       <c r="AR2" s="1">
         <v>3</v>
       </c>
       <c r="AS2" s="4">
-        <f t="shared" ref="AS2:AS34" si="5">(AQ2/AR2)*100</f>
-        <v>60</v>
+        <f>(AQ2/AR2)*100</f>
+        <v>100</v>
       </c>
       <c r="AT2" s="4">
-        <f t="shared" ref="AT2:AT34" si="6">MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
-        <v>4</v>
+        <f>MAX(IF(AS2&gt;=20,2,0),IF(AS2&gt;=40,3,0),IF(AS2&gt;=60,4,0),IF(AS2&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU2" s="4">
         <v>0</v>
       </c>
       <c r="AV2" s="4">
-        <f t="shared" ref="AV2:AV34" si="7">(AM2+AT2+AU2)/3</f>
-        <v>2</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <f>(AM2+AT2+AU2)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -932,144 +950,188 @@
         <v>1.5</v>
       </c>
       <c r="G3" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="I3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
       <c r="M3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q3" s="1">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="R3" s="1">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V35" si="8">SUM(C3:U3)</f>
-        <v>5.35</v>
+        <f>SUM(C3:U3)</f>
+        <v>17</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Z3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AD3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AI35" si="9">SUM(W3:AH3)</f>
-        <v>0.05</v>
+        <f>SUM(W3:AH3)</f>
+        <v>1.8999999999999997</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3999999999999995</v>
+        <f>V3+AI3</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" si="1"/>
+        <f>AK4</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL3" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27835051546391754</v>
+        <f>(AJ3/AK3)</f>
+        <v>0.97422680412371132</v>
       </c>
       <c r="AM3" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN3" s="1"/>
+        <f>MAX(IF(AL3*100&gt;=20,2,0),IF(AL3*100&gt;=40,3,0),IF(AL3*100&gt;=60,4,0),IF(AL3*100&gt;=80,5,0))</f>
+        <v>5</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
       <c r="AO3" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ3" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1000000000000001</v>
+        <f>SUM(AN3:AP3)</f>
+        <v>3</v>
       </c>
       <c r="AR3" s="1">
         <v>3</v>
       </c>
       <c r="AS3" s="4">
-        <f t="shared" si="5"/>
-        <v>36.666666666666671</v>
+        <f>(AQ3/AR3)*100</f>
+        <v>100</v>
       </c>
       <c r="AT3" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>MAX(IF(AS3&gt;=20,2,0),IF(AS3&gt;=40,3,0),IF(AS3&gt;=60,4,0),IF(AS3&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
       </c>
       <c r="AV3" s="4">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <f>(AM3+AT3+AU3)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.6</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>0.6</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="R4" s="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V4" s="1">
-        <f t="shared" si="8"/>
-        <v>5.15</v>
+        <f>SUM(C4:U4)</f>
+        <v>15.45</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -1079,13 +1141,15 @@
       <c r="Z4" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AA4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1">
         <v>0.1</v>
@@ -1094,274 +1158,334 @@
         <v>0.1</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
+        <f>SUM(W4:AH4)</f>
+        <v>0.5</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5500000000000007</v>
+        <f>V4+AI4</f>
+        <v>15.95</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="1"/>
+        <f>AK5</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28608247422680416</v>
+        <f>(AJ4/AK4)</f>
+        <v>0.82216494845360832</v>
       </c>
       <c r="AM4" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>MAX(IF(AL4*100&gt;=20,2,0),IF(AL4*100&gt;=40,3,0),IF(AL4*100&gt;=60,4,0),IF(AL4*100&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AP4" s="1">
         <v>1</v>
       </c>
       <c r="AQ4" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <f>SUM(AN4:AP4)</f>
+        <v>2.6</v>
       </c>
       <c r="AR4" s="1">
         <v>3</v>
       </c>
       <c r="AS4" s="4">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f>(AQ4/AR4)*100</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="AT4" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS4&gt;=20,2,0),IF(AS4&gt;=40,3,0),IF(AS4&gt;=60,4,0),IF(AS4&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU4" s="4">
         <v>0</v>
       </c>
       <c r="AV4" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <f>(AM4+AT4+AU4)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.5</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0.6</v>
-      </c>
       <c r="I5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.6</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.5</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9999999999999991</v>
+        <f>SUM(C5:U5)</f>
+        <v>14.85</v>
       </c>
       <c r="W5" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="Z5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AB5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AF5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AG5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI5" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <f>SUM(W5:AH5)</f>
+        <v>0.7</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2999999999999989</v>
+        <f>V5+AI5</f>
+        <v>15.549999999999999</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="1"/>
+        <f>AK6</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27319587628865977</v>
+        <f>(AJ5/AK5)</f>
+        <v>0.80154639175257736</v>
       </c>
       <c r="AM5" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
+        <f>MAX(IF(AL5*100&gt;=20,2,0),IF(AL5*100&gt;=40,3,0),IF(AL5*100&gt;=60,4,0),IF(AL5*100&gt;=80,5,0))</f>
+        <v>5</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
       <c r="AP5" s="1">
         <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>SUM(AN5:AP5)</f>
+        <v>3</v>
       </c>
       <c r="AR5" s="1">
         <v>3</v>
       </c>
       <c r="AS5" s="4">
-        <f t="shared" si="5"/>
-        <v>33.333333333333329</v>
+        <f>(AQ5/AR5)*100</f>
+        <v>100</v>
       </c>
       <c r="AT5" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>MAX(IF(AS5&gt;=20,2,0),IF(AS5&gt;=40,3,0),IF(AS5&gt;=60,4,0),IF(AS5&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU5" s="4">
         <v>0</v>
       </c>
       <c r="AV5" s="4">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <f>(AM5+AT5+AU5)/3</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.6</v>
+      </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="P6" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="V6" s="1">
-        <f t="shared" si="8"/>
-        <v>3.95</v>
+        <f>SUM(C6:U6)</f>
+        <v>13.399999999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AA6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>SUM(W6:AH6)</f>
+        <v>0.79999999999999993</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="0"/>
-        <v>4.05</v>
+        <f>V6+AI6</f>
+        <v>14.2</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="1"/>
+        <f>AK7</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.20876288659793815</v>
+        <f>(AJ6/AK6)</f>
+        <v>0.731958762886598</v>
       </c>
       <c r="AM6" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>MAX(IF(AL6*100&gt;=20,2,0),IF(AL6*100&gt;=40,3,0),IF(AL6*100&gt;=60,4,0),IF(AL6*100&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ6" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f>SUM(AN6:AP6)</f>
+        <v>3</v>
       </c>
       <c r="AR6" s="1">
         <v>3</v>
       </c>
       <c r="AS6" s="4">
-        <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
+        <f>(AQ6/AR6)*100</f>
+        <v>100</v>
       </c>
       <c r="AT6" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS6&gt;=20,2,0),IF(AS6&gt;=40,3,0),IF(AS6&gt;=60,4,0),IF(AS6&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU6" s="4">
         <v>0</v>
       </c>
       <c r="AV6" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <f>(AM6+AT6+AU6)/3</f>
+        <v>3</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -1380,7 +1504,7 @@
         <v>1.5</v>
       </c>
       <c r="I7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0.6</v>
@@ -1390,30 +1514,28 @@
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1.3</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <f t="shared" si="8"/>
-        <v>13.049999999999999</v>
+        <f>SUM(C7:U7)</f>
+        <v>13.6</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1421,76 +1543,74 @@
         <v>0.1</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f>SUM(W7:AH7)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="0"/>
-        <v>13.549999999999999</v>
+        <f>V7+AI7</f>
+        <v>13.9</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="1"/>
+        <f>AK8</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.69845360824742264</v>
+        <f>(AJ7/AK7)</f>
+        <v>0.71649484536082486</v>
       </c>
       <c r="AM7" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL7*100&gt;=20,2,0),IF(AL7*100&gt;=40,3,0),IF(AL7*100&gt;=60,4,0),IF(AL7*100&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AN7" s="1">
         <v>1</v>
       </c>
       <c r="AO7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AQ7" s="1">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
+        <f>SUM(AN7:AP7)</f>
+        <v>2.4</v>
       </c>
       <c r="AR7" s="1">
         <v>3</v>
       </c>
       <c r="AS7" s="4">
-        <f t="shared" si="5"/>
-        <v>86.666666666666671</v>
+        <f>(AQ7/AR7)*100</f>
+        <v>80</v>
       </c>
       <c r="AT7" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS7&gt;=20,2,0),IF(AS7&gt;=40,3,0),IF(AS7&gt;=60,4,0),IF(AS7&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4">
-        <f t="shared" si="7"/>
+        <f>(AM7+AT7+AU7)/3</f>
         <v>3</v>
       </c>
-      <c r="AW7" s="5"/>
+      <c r="AW7" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -1503,31 +1623,43 @@
         <v>1.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="1">
         <v>0.6</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.45</v>
+      </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1.3</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1">
-        <f t="shared" si="8"/>
-        <v>6.5</v>
+        <f>SUM(C8:U8)</f>
+        <v>13.049999999999999</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1544,66 +1676,72 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="AF8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <f>SUM(W8:AH8)</f>
+        <v>0.5</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
+        <f>V8+AI8</f>
+        <v>13.549999999999999</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="1"/>
+        <f>AK9</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.3505154639175258</v>
+        <f>(AJ8/AK8)</f>
+        <v>0.69845360824742264</v>
       </c>
       <c r="AM8" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>MAX(IF(AL8*100&gt;=20,2,0),IF(AL8*100&gt;=40,3,0),IF(AL8*100&gt;=60,4,0),IF(AL8*100&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP8" s="1">
         <v>1</v>
       </c>
       <c r="AQ8" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>SUM(AN8:AP8)</f>
+        <v>2.6</v>
       </c>
       <c r="AR8" s="1">
         <v>3</v>
       </c>
       <c r="AS8" s="4">
-        <f t="shared" si="5"/>
-        <v>66.666666666666657</v>
+        <f>(AQ8/AR8)*100</f>
+        <v>86.666666666666671</v>
       </c>
       <c r="AT8" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS8&gt;=20,2,0),IF(AS8&gt;=40,3,0),IF(AS8&gt;=60,4,0),IF(AS8&gt;=80,5,0))</f>
+        <v>5</v>
       </c>
       <c r="AU8" s="4">
         <v>0</v>
       </c>
       <c r="AV8" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AW8" s="5"/>
+        <f>(AM8+AT8+AU8)/3</f>
+        <v>3</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -1616,19 +1754,27 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.5</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1637,13 +1783,15 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1">
-        <f t="shared" si="8"/>
-        <v>5.05</v>
+        <f>SUM(C9:U9)</f>
+        <v>12.5</v>
       </c>
       <c r="W9" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="X9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.1</v>
+      </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1">
         <v>0.1</v>
@@ -1653,60 +1801,68 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AF9" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W9:AH9)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="0"/>
-        <v>5.35</v>
+        <f>V9+AI9</f>
+        <v>12.8</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="1"/>
+        <f>AK10</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27577319587628868</v>
+        <f>(AJ9/AK9)</f>
+        <v>0.65979381443298979</v>
       </c>
       <c r="AM9" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
+        <f>MAX(IF(AL9*100&gt;=20,2,0),IF(AL9*100&gt;=40,3,0),IF(AL9*100&gt;=60,4,0),IF(AL9*100&gt;=80,5,0))</f>
+        <v>4</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(AN9:AP9)</f>
+        <v>2</v>
       </c>
       <c r="AR9" s="1">
         <v>3</v>
       </c>
       <c r="AS9" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(AQ9/AR9)*100</f>
+        <v>66.666666666666657</v>
       </c>
       <c r="AT9" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS9&gt;=20,2,0),IF(AS9&gt;=40,3,0),IF(AS9&gt;=60,4,0),IF(AS9&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU9" s="4">
         <v>0</v>
       </c>
       <c r="AV9" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW9" s="5"/>
+        <f>(AM9+AT9+AU9)/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -1721,76 +1877,86 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <f t="shared" si="8"/>
-        <v>13.6</v>
+        <f>SUM(C10:U10)</f>
+        <v>10.7</v>
       </c>
       <c r="W10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="X10" s="1">
         <v>0.1</v>
       </c>
-      <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1">
         <v>0.1</v>
       </c>
       <c r="AA10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB10" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AD10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <f>SUM(W10:AH10)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="0"/>
-        <v>13.9</v>
+        <f>V10+AI10</f>
+        <v>11.799999999999999</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="1"/>
+        <f>AK11</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.71649484536082486</v>
+        <f>(AJ10/AK10)</f>
+        <v>0.60824742268041232</v>
       </c>
       <c r="AM10" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL10*100&gt;=20,2,0),IF(AL10*100&gt;=40,3,0),IF(AL10*100&gt;=60,4,0),IF(AL10*100&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AN10" s="1">
@@ -1800,36 +1966,38 @@
         <v>1</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
+        <f>SUM(AN10:AP10)</f>
+        <v>3</v>
       </c>
       <c r="AR10" s="1">
         <v>3</v>
       </c>
       <c r="AS10" s="4">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f>(AQ10/AR10)*100</f>
+        <v>100</v>
       </c>
       <c r="AT10" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS10&gt;=20,2,0),IF(AS10&gt;=40,3,0),IF(AS10&gt;=60,4,0),IF(AS10&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
       </c>
       <c r="AV10" s="4">
-        <f t="shared" si="7"/>
+        <f>(AM10+AT10+AU10)/3</f>
         <v>3</v>
       </c>
-      <c r="AW10" s="5"/>
+      <c r="AW10" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -1842,113 +2010,119 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H11" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="N11" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.3</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <f t="shared" si="8"/>
-        <v>8.8999999999999986</v>
+        <f>SUM(C11:U11)</f>
+        <v>11.600000000000001</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
+        <f>SUM(W11:AH11)</f>
+        <v>0.1</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2999999999999989</v>
+        <f>V11+AI11</f>
+        <v>11.700000000000001</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="1"/>
+        <f>AK12</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.47938144329896903</v>
+        <f>(AJ11/AK11)</f>
+        <v>0.60309278350515472</v>
       </c>
       <c r="AM11" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>MAX(IF(AL11*100&gt;=20,2,0),IF(AL11*100&gt;=40,3,0),IF(AL11*100&gt;=60,4,0),IF(AL11*100&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AN11" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO11" s="1"/>
+      <c r="AO11" s="1">
+        <v>0.6</v>
+      </c>
       <c r="AP11" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
+        <f>SUM(AN11:AP11)</f>
+        <v>2.1</v>
       </c>
       <c r="AR11" s="1">
         <v>3</v>
       </c>
       <c r="AS11" s="4">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f>(AQ11/AR11)*100</f>
+        <v>70</v>
       </c>
       <c r="AT11" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>MAX(IF(AS11&gt;=20,2,0),IF(AS11&gt;=40,3,0),IF(AS11&gt;=60,4,0),IF(AS11&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU11" s="4">
         <v>0</v>
       </c>
       <c r="AV11" s="4">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AW11" s="5"/>
+        <f>(AM11+AT11+AU11)/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -1964,37 +2138,37 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="I12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.4</v>
-      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
+      <c r="U12" s="1"/>
       <c r="V12" s="1">
-        <f t="shared" si="8"/>
-        <v>8.1000000000000014</v>
+        <f>SUM(C12:U12)</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X12" s="1">
         <v>0.1</v>
@@ -2003,73 +2177,75 @@
       <c r="Z12" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AE12" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AH12" s="1"/>
       <c r="AI12" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <f>SUM(W12:AH12)</f>
+        <v>0.5</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="0"/>
-        <v>8.4000000000000021</v>
+        <f>V12+AI12</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="1"/>
+        <f>AK13</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.43298969072164961</v>
+        <f>(AJ12/AK12)</f>
+        <v>0.47938144329896915</v>
       </c>
       <c r="AM12" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL12*100&gt;=20,2,0),IF(AL12*100&gt;=40,3,0),IF(AL12*100&gt;=60,4,0),IF(AL12*100&gt;=80,5,0))</f>
         <v>3</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="1">
         <v>0.3</v>
       </c>
-      <c r="AP12" s="1">
-        <v>1</v>
-      </c>
+      <c r="AP12" s="1"/>
       <c r="AQ12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <f>SUM(AN12:AP12)</f>
+        <v>1.3</v>
       </c>
       <c r="AR12" s="1">
         <v>3</v>
       </c>
       <c r="AS12" s="4">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f>(AQ12/AR12)*100</f>
+        <v>43.333333333333336</v>
       </c>
       <c r="AT12" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS12&gt;=20,2,0),IF(AS12&gt;=40,3,0),IF(AS12&gt;=60,4,0),IF(AS12&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
       </c>
       <c r="AV12" s="4">
-        <f t="shared" si="7"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="AW12" s="5"/>
+        <f>(AM12+AT12+AU12)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -2079,120 +2255,118 @@
         <v>1.5</v>
       </c>
       <c r="F13" s="1">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.35</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="P13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <f t="shared" si="8"/>
-        <v>6.299999999999998</v>
+        <f>SUM(C13:U13)</f>
+        <v>8.8999999999999986</v>
       </c>
       <c r="W13" s="1">
         <v>0</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AE13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AG13" s="1">
         <v>0.1</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
-        <f t="shared" si="9"/>
-        <v>0.30000000000000004</v>
+        <f>SUM(W13:AH13)</f>
+        <v>0.4</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5999999999999979</v>
+        <f>V13+AI13</f>
+        <v>9.2999999999999989</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="1"/>
+        <f>AK14</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.34020618556701021</v>
+        <f>(AJ13/AK13)</f>
+        <v>0.47938144329896903</v>
       </c>
       <c r="AM13" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>MAX(IF(AL13*100&gt;=20,2,0),IF(AL13*100&gt;=40,3,0),IF(AL13*100&gt;=60,4,0),IF(AL13*100&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AN13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>0.3</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AO13" s="1"/>
       <c r="AP13" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AQ13" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <f>SUM(AN13:AP13)</f>
+        <v>0.9</v>
       </c>
       <c r="AR13" s="1">
         <v>3</v>
       </c>
       <c r="AS13" s="4">
-        <f t="shared" si="5"/>
-        <v>76.666666666666657</v>
+        <f>(AQ13/AR13)*100</f>
+        <v>30</v>
       </c>
       <c r="AT13" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS13&gt;=20,2,0),IF(AS13&gt;=40,3,0),IF(AS13&gt;=60,4,0),IF(AS13&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AU13" s="4">
         <v>0</v>
       </c>
       <c r="AV13" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AW13" s="5"/>
+        <f>(AM13+AT13+AU13)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -2207,40 +2381,42 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.6</v>
+      </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N14" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.8</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <f t="shared" si="8"/>
-        <v>10.7</v>
+        <f>SUM(C14:U14)</f>
+        <v>8.6499999999999986</v>
       </c>
       <c r="W14" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="X14" s="1">
         <v>0.1</v>
@@ -2252,45 +2428,37 @@
       <c r="AA14" s="1">
         <v>0.2</v>
       </c>
-      <c r="AB14" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AD14" s="1"/>
       <c r="AE14" s="1">
         <v>0.1</v>
       </c>
-      <c r="AF14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1000000000000001</v>
+        <f>SUM(W14:AH14)</f>
+        <v>0.6</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="0"/>
-        <v>11.799999999999999</v>
+        <f>V14+AI14</f>
+        <v>9.2499999999999982</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="1"/>
+        <f>AK15</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.60824742268041232</v>
+        <f>(AJ14/AK14)</f>
+        <v>0.47680412371134012</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>MAX(IF(AL14*100&gt;=20,2,0),IF(AL14*100&gt;=40,3,0),IF(AL14*100&gt;=60,4,0),IF(AL14*100&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AN14" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO14" s="1">
         <v>1</v>
@@ -2299,33 +2467,35 @@
         <v>1</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>SUM(AN14:AP14)</f>
+        <v>2.5</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>(AQ14/AR14)*100</f>
+        <v>83.333333333333343</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS14&gt;=20,2,0),IF(AS14&gt;=40,3,0),IF(AS14&gt;=60,4,0),IF(AS14&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <f>(AM14+AT14+AU14)/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -2341,74 +2511,74 @@
         <v>0.65</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.6</v>
+      </c>
       <c r="J15" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <v>0.6</v>
       </c>
-      <c r="M15" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="R15" s="1">
         <v>0.9</v>
       </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1">
-        <f t="shared" si="8"/>
-        <v>7.65</v>
+        <f>SUM(C15:U15)</f>
+        <v>8.85</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="Z15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>SUM(W15:AH15)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
+        <f>V15+AI15</f>
+        <v>9.15</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="1"/>
+        <f>AK16</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.39948453608247425</v>
+        <f>(AJ15/AK15)</f>
+        <v>0.47164948453608252</v>
       </c>
       <c r="AM15" s="4">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>MAX(IF(AL15*100&gt;=20,2,0),IF(AL15*100&gt;=40,3,0),IF(AL15*100&gt;=60,4,0),IF(AL15*100&gt;=80,5,0))</f>
+        <v>3</v>
       </c>
       <c r="AN15" s="1">
         <v>0.5</v>
@@ -2420,33 +2590,35 @@
         <v>0.8</v>
       </c>
       <c r="AQ15" s="1">
-        <f t="shared" si="4"/>
+        <f>SUM(AN15:AP15)</f>
         <v>1.9000000000000001</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="4">
-        <f t="shared" si="5"/>
+        <f>(AQ15/AR15)*100</f>
         <v>63.333333333333343</v>
       </c>
       <c r="AT15" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS15&gt;=20,2,0),IF(AS15&gt;=40,3,0),IF(AS15&gt;=60,4,0),IF(AS15&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
       </c>
       <c r="AV15" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <f>(AM15+AT15+AU15)/3</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -2465,10 +2637,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J16" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
@@ -2478,33 +2650,27 @@
         <v>0.6</v>
       </c>
       <c r="N16" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="1">
-        <v>0.65</v>
-      </c>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1.3</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1">
-        <f t="shared" si="8"/>
-        <v>11.600000000000001</v>
+        <f>SUM(C16:U16)</f>
+        <v>8.4499999999999993</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -2514,190 +2680,190 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W16:AH16)</f>
         <v>0.1</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="0"/>
-        <v>11.700000000000001</v>
+        <f>V16+AI16</f>
+        <v>8.5499999999999989</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="1"/>
+        <f>AK17</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.60309278350515472</v>
+        <f>(AJ16/AK16)</f>
+        <v>0.44072164948453607</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0.5</v>
-      </c>
+        <f>MAX(IF(AL16*100&gt;=20,2,0),IF(AL16*100&gt;=40,3,0),IF(AL16*100&gt;=60,4,0),IF(AL16*100&gt;=80,5,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AN16" s="1"/>
       <c r="AO16" s="1">
         <v>0.6</v>
       </c>
-      <c r="AP16" s="1">
-        <v>1</v>
-      </c>
+      <c r="AP16" s="1"/>
       <c r="AQ16" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1</v>
+        <f>SUM(AN16:AP16)</f>
+        <v>0.6</v>
       </c>
       <c r="AR16" s="1">
         <v>3</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f>(AQ16/AR16)*100</f>
+        <v>20</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS16&gt;=20,2,0),IF(AS16&gt;=40,3,0),IF(AS16&gt;=60,4,0),IF(AS16&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AU16" s="4">
         <v>0</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <f>(AM16+AT16+AU16)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="1">
         <v>1.5</v>
       </c>
       <c r="G17" s="1">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.6</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="R17" s="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.4</v>
+      </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
       <c r="V17" s="1">
-        <f t="shared" si="8"/>
-        <v>8.85</v>
+        <f>SUM(C17:U17)</f>
+        <v>8.1000000000000014</v>
       </c>
       <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>0.1</v>
       </c>
-      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA17" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AH17" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI17" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W17:AH17)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.15</v>
+        <f>V17+AI17</f>
+        <v>8.4000000000000021</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="1"/>
+        <f>AK18</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.47164948453608252</v>
+        <f>(AJ17/AK17)</f>
+        <v>0.43298969072164961</v>
       </c>
       <c r="AM17" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL17*100&gt;=20,2,0),IF(AL17*100&gt;=40,3,0),IF(AL17*100&gt;=60,4,0),IF(AL17*100&gt;=80,5,0))</f>
         <v>3</v>
       </c>
       <c r="AN17" s="1">
         <v>0.5</v>
       </c>
       <c r="AO17" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9000000000000001</v>
+        <f>SUM(AN17:AP17)</f>
+        <v>1.8</v>
       </c>
       <c r="AR17" s="1">
         <v>3</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="5"/>
-        <v>63.333333333333343</v>
+        <f>(AQ17/AR17)*100</f>
+        <v>60</v>
       </c>
       <c r="AT17" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS17&gt;=20,2,0),IF(AS17&gt;=40,3,0),IF(AS17&gt;=60,4,0),IF(AS17&gt;=80,5,0))</f>
         <v>4</v>
       </c>
       <c r="AU17" s="4">
         <v>0</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="7"/>
+        <f>(AM17+AT17+AU17)/3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="AW17" s="5"/>
+      <c r="AW17" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>1.5</v>
@@ -2705,25 +2871,39 @@
       <c r="G18" s="1">
         <v>0.65</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0.4</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>0.3</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="1">
         <v>0.3</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0.25</v>
+      </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="P18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.9</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1">
-        <f t="shared" si="8"/>
-        <v>4.95</v>
+        <f>SUM(C18:U18)</f>
+        <v>7.65</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -2742,189 +2922,193 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W18:AH18)</f>
         <v>0.1</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="0"/>
-        <v>5.05</v>
+        <f>V18+AI18</f>
+        <v>7.75</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="1"/>
+        <f>AK19</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.26030927835051548</v>
+        <f>(AJ18/AK18)</f>
+        <v>0.39948453608247425</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL18*100&gt;=20,2,0),IF(AL18*100&gt;=40,3,0),IF(AL18*100&gt;=60,4,0),IF(AL18*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
+      <c r="AO18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0.8</v>
+      </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f>SUM(AN18:AP18)</f>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AR18" s="1">
         <v>3</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="5"/>
-        <v>16.666666666666664</v>
+        <f>(AQ18/AR18)*100</f>
+        <v>63.333333333333343</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS18&gt;=20,2,0),IF(AS18&gt;=40,3,0),IF(AS18&gt;=60,4,0),IF(AS18&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU18" s="4">
         <v>0</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <f>(AM18+AT18+AU18)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1.5</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H19" s="1">
         <v>0.6</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.6</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
         <v>0.3</v>
       </c>
       <c r="M19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.1</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.8</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
-        <f t="shared" si="8"/>
-        <v>8.6499999999999986</v>
+        <f>SUM(C19:U19)</f>
+        <v>6.6499999999999995</v>
       </c>
       <c r="W19" s="1">
         <v>0.1</v>
       </c>
-      <c r="X19" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1">
         <v>0.1</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1">
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1">
         <v>0.1</v>
       </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AG19" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f>SUM(W19:AH19)</f>
+        <v>0.5</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2499999999999982</v>
+        <f>V19+AI19</f>
+        <v>7.1499999999999995</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="1"/>
+        <f>AK20</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL19" s="7">
-        <f t="shared" si="2"/>
-        <v>0.47680412371134012</v>
+        <f>(AJ19/AK19)</f>
+        <v>0.36855670103092786</v>
       </c>
       <c r="AM19" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>MAX(IF(AL19*100&gt;=20,2,0),IF(AL19*100&gt;=40,3,0),IF(AL19*100&gt;=60,4,0),IF(AL19*100&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AN19" s="1">
         <v>0.5</v>
       </c>
       <c r="AO19" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AP19" s="1">
         <v>1</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <f>SUM(AN19:AP19)</f>
+        <v>1.8</v>
       </c>
       <c r="AR19" s="1">
         <v>3</v>
       </c>
       <c r="AS19" s="4">
-        <f t="shared" si="5"/>
-        <v>83.333333333333343</v>
+        <f>(AQ19/AR19)*100</f>
+        <v>60</v>
       </c>
       <c r="AT19" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS19&gt;=20,2,0),IF(AS19&gt;=40,3,0),IF(AS19&gt;=60,4,0),IF(AS19&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU19" s="4">
         <v>0</v>
       </c>
       <c r="AV19" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <f>(AM19+AT19+AU19)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>1</v>
       </c>
@@ -2935,182 +3119,158 @@
         <v>1.5</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f>SUM(C20:U20)</f>
+        <v>6.9499999999999993</v>
       </c>
       <c r="W20" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1">
+        <f>SUM(W20:AH20)</f>
         <v>0.1</v>
       </c>
-      <c r="Z20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AI20" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0999999999999999</v>
-      </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="0"/>
-        <v>19.100000000000001</v>
+        <f>V20+AI20</f>
+        <v>7.0499999999999989</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="1"/>
+        <f>AK21</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL20" s="7">
-        <f t="shared" si="2"/>
-        <v>0.98453608247422697</v>
+        <f>(AJ20/AK20)</f>
+        <v>0.36340206185567009</v>
       </c>
       <c r="AM20" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>1</v>
-      </c>
+        <f>MAX(IF(AL20*100&gt;=20,2,0),IF(AL20*100&gt;=40,3,0),IF(AL20*100&gt;=60,4,0),IF(AL20*100&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
       <c r="AP20" s="1">
         <v>1</v>
       </c>
       <c r="AQ20" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>SUM(AN20:AP20)</f>
+        <v>1</v>
       </c>
       <c r="AR20" s="1">
         <v>3</v>
       </c>
       <c r="AS20" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>(AQ20/AR20)*100</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="AT20" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS20&gt;=20,2,0),IF(AS20&gt;=40,3,0),IF(AS20&gt;=60,4,0),IF(AS20&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AU20" s="4">
         <v>0</v>
       </c>
       <c r="AV20" s="4">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AW20" s="5"/>
+        <f>(AM20+AT20+AU20)/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G21" s="1">
         <v>0.65</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="H21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.05</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1">
-        <f t="shared" si="8"/>
-        <v>4.0999999999999996</v>
+        <f>SUM(C21:U21)</f>
+        <v>6.5</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="Z21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -3119,58 +3279,64 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(W21:AH21)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <f>V21+AI21</f>
+        <v>6.8</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="1"/>
+        <f>AK22</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL21" s="7">
-        <f t="shared" si="2"/>
-        <v>0.21134020618556701</v>
+        <f>(AJ21/AK21)</f>
+        <v>0.3505154639175258</v>
       </c>
       <c r="AM21" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL21*100&gt;=20,2,0),IF(AL21*100&gt;=40,3,0),IF(AL21*100&gt;=60,4,0),IF(AL21*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AN21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AP21" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
+        <f>SUM(AN21:AP21)</f>
+        <v>2</v>
       </c>
       <c r="AR21" s="1">
         <v>3</v>
       </c>
       <c r="AS21" s="4">
-        <f t="shared" si="5"/>
-        <v>6.666666666666667</v>
+        <f>(AQ21/AR21)*100</f>
+        <v>66.666666666666657</v>
       </c>
       <c r="AT21" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS21&gt;=20,2,0),IF(AS21&gt;=40,3,0),IF(AS21&gt;=60,4,0),IF(AS21&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU21" s="4">
         <v>0</v>
       </c>
       <c r="AV21" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW21" s="5"/>
+        <f>(AM21+AT21+AU21)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -3182,41 +3348,39 @@
       <c r="F22" s="1">
         <v>1.5</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1">
         <v>0.6</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="M22" s="1">
         <v>0.3</v>
       </c>
       <c r="N22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
         <v>0.1</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1">
+        <v>0.3</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1">
-        <f t="shared" si="8"/>
-        <v>8.8000000000000007</v>
+        <f>SUM(C22:U22)</f>
+        <v>5.9499999999999993</v>
       </c>
       <c r="W22" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X22" s="1">
         <v>0.1</v>
@@ -3228,70 +3392,74 @@
       <c r="AA22" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB22" s="1"/>
+      <c r="AB22" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AI22" s="1">
-        <f t="shared" si="9"/>
-        <v>0.5</v>
+        <f>SUM(W22:AH22)</f>
+        <v>0.7</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <f>V22+AI22</f>
+        <v>6.6499999999999995</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="1"/>
+        <f>AK23</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.47938144329896915</v>
+        <f>(AJ22/AK22)</f>
+        <v>0.34278350515463918</v>
       </c>
       <c r="AM22" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>MAX(IF(AL22*100&gt;=20,2,0),IF(AL22*100&gt;=40,3,0),IF(AL22*100&gt;=60,4,0),IF(AL22*100&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AN22" s="1">
         <v>1</v>
       </c>
-      <c r="AO22" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AP22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AQ22" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
+        <f>SUM(AN22:AP22)</f>
+        <v>1.2</v>
       </c>
       <c r="AR22" s="1">
         <v>3</v>
       </c>
       <c r="AS22" s="4">
-        <f t="shared" si="5"/>
-        <v>43.333333333333336</v>
+        <f>(AQ22/AR22)*100</f>
+        <v>40</v>
       </c>
       <c r="AT22" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS22&gt;=20,2,0),IF(AS22&gt;=40,3,0),IF(AS22&gt;=60,4,0),IF(AS22&gt;=80,5,0))</f>
         <v>3</v>
       </c>
       <c r="AU22" s="4">
         <v>0</v>
       </c>
       <c r="AV22" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AW22" s="5"/>
+        <f>(AM22+AT22+AU22)/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -3301,143 +3469,161 @@
         <v>1.5</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.65</v>
+      </c>
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.35</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="L23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.3</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="Q23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.1</v>
+      </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1">
-        <f t="shared" si="8"/>
-        <v>4.5</v>
+        <f>SUM(C23:U23)</f>
+        <v>6.299999999999998</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
+      <c r="AB23" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
+      <c r="AG23" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(W23:AH23)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+        <f>V23+AI23</f>
+        <v>6.5999999999999979</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="1"/>
+        <f>AK24</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.23195876288659795</v>
+        <f>(AJ23/AK23)</f>
+        <v>0.34020618556701021</v>
       </c>
       <c r="AM23" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL23*100&gt;=20,2,0),IF(AL23*100&gt;=40,3,0),IF(AL23*100&gt;=60,4,0),IF(AL23*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
+      <c r="AN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>1</v>
+      </c>
       <c r="AQ23" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(AN23:AP23)</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AR23" s="1">
         <v>3</v>
       </c>
       <c r="AS23" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(AQ23/AR23)*100</f>
+        <v>76.666666666666657</v>
       </c>
       <c r="AT23" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS23&gt;=20,2,0),IF(AS23&gt;=40,3,0),IF(AS23&gt;=60,4,0),IF(AS23&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU23" s="4">
         <v>0</v>
       </c>
       <c r="AV23" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW23" s="5"/>
+        <f>(AM23+AT23+AU23)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H24" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.6</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1">
-        <f t="shared" si="8"/>
-        <v>14.85</v>
+        <f>SUM(C24:U24)</f>
+        <v>5.15</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -3447,20 +3633,14 @@
       <c r="Z24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AF24" s="1"/>
       <c r="AG24" s="1">
         <v>0.1</v>
       </c>
@@ -3468,62 +3648,64 @@
         <v>0.1</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
+        <f>SUM(W24:AH24)</f>
+        <v>0.4</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="0"/>
-        <v>15.549999999999999</v>
+        <f>V24+AI24</f>
+        <v>5.5500000000000007</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="1"/>
+        <f>AK25</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.80154639175257736</v>
+        <f>(AJ24/AK24)</f>
+        <v>0.28608247422680416</v>
       </c>
       <c r="AM24" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f>MAX(IF(AL24*100&gt;=20,2,0),IF(AL24*100&gt;=40,3,0),IF(AL24*100&gt;=60,4,0),IF(AL24*100&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AN24" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO24" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AP24" s="1">
         <v>1</v>
       </c>
       <c r="AQ24" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>SUM(AN24:AP24)</f>
+        <v>1.8</v>
       </c>
       <c r="AR24" s="1">
         <v>3</v>
       </c>
       <c r="AS24" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>(AQ24/AR24)*100</f>
+        <v>60</v>
       </c>
       <c r="AT24" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS24&gt;=20,2,0),IF(AS24&gt;=40,3,0),IF(AS24&gt;=60,4,0),IF(AS24&gt;=80,5,0))</f>
+        <v>4</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
       </c>
       <c r="AV24" s="4">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AW24" s="5"/>
+        <f>(AM24+AT24+AU24)/3</f>
+        <v>2</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -3533,37 +3715,45 @@
         <v>1.5</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G25" s="1">
         <v>0.65</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>0.1</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.3</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <f t="shared" si="8"/>
-        <v>5.15</v>
+        <f>SUM(C25:U25)</f>
+        <v>5.35</v>
       </c>
       <c r="W25" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="1">
+        <v>0.05</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -3573,56 +3763,62 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>SUM(W25:AH25)</f>
+        <v>0.05</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+        <f>V25+AI25</f>
+        <v>5.3999999999999995</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="1"/>
+        <f>AK26</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27061855670103097</v>
+        <f>(AJ25/AK25)</f>
+        <v>0.27835051546391754</v>
       </c>
       <c r="AM25" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL25*100&gt;=20,2,0),IF(AL25*100&gt;=40,3,0),IF(AL25*100&gt;=60,4,0),IF(AL25*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
+      <c r="AO25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0.6</v>
+      </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(AN25:AP25)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR25" s="1">
         <v>3</v>
       </c>
       <c r="AS25" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(AQ25/AR25)*100</f>
+        <v>36.666666666666671</v>
       </c>
       <c r="AT25" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>MAX(IF(AS25&gt;=20,2,0),IF(AS25&gt;=40,3,0),IF(AS25&gt;=60,4,0),IF(AS25&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AU25" s="4">
         <v>0</v>
       </c>
       <c r="AV25" s="4">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AW25" s="5"/>
+        <f>(AM25+AT25+AU25)/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AW25" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -3635,27 +3831,19 @@
         <v>1.5</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3664,15 +3852,13 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1">
-        <f t="shared" si="8"/>
-        <v>12.5</v>
+        <f>SUM(C26:U26)</f>
+        <v>5.05</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0.1</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1">
         <v>0.1</v>
@@ -3682,207 +3868,167 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
-      <c r="AF26" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W26:AH26)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
+        <f>V26+AI26</f>
+        <v>5.35</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="1"/>
+        <f>AK27</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.65979381443298979</v>
+        <f>(AJ26/AK26)</f>
+        <v>0.27577319587628868</v>
       </c>
       <c r="AM26" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>1</v>
-      </c>
+        <f>MAX(IF(AL26*100&gt;=20,2,0),IF(AL26*100&gt;=40,3,0),IF(AL26*100&gt;=60,4,0),IF(AL26*100&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>SUM(AN26:AP26)</f>
+        <v>0</v>
       </c>
       <c r="AR26" s="1">
         <v>3</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="5"/>
-        <v>66.666666666666657</v>
+        <f>(AQ26/AR26)*100</f>
+        <v>0</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f>MAX(IF(AS26&gt;=20,2,0),IF(AS26&gt;=40,3,0),IF(AS26&gt;=60,4,0),IF(AS26&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU26" s="4">
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="7"/>
-        <v>2.6666666666666665</v>
+        <f>(AM26+AT26+AU26)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW26" s="5"/>
     </row>
     <row r="27" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1.5</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="I27" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f>SUM(C27:U27)</f>
+        <v>4.9999999999999991</v>
       </c>
       <c r="W27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Y27" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1">
         <v>0.1</v>
       </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1">
         <v>0.1</v>
       </c>
-      <c r="AE27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="AH27" s="1"/>
       <c r="AI27" s="1">
-        <f t="shared" si="9"/>
-        <v>1.8999999999999997</v>
+        <f>SUM(W27:AH27)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
+        <f>V27+AI27</f>
+        <v>5.2999999999999989</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="1"/>
+        <f>AK28</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL27" s="7">
-        <f t="shared" si="2"/>
-        <v>0.97422680412371132</v>
+        <f>(AJ27/AK27)</f>
+        <v>0.27319587628865977</v>
       </c>
       <c r="AM27" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AN27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="1">
-        <v>1</v>
-      </c>
+        <f>MAX(IF(AL27*100&gt;=20,2,0),IF(AL27*100&gt;=40,3,0),IF(AL27*100&gt;=60,4,0),IF(AL27*100&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
       <c r="AP27" s="1">
         <v>1</v>
       </c>
       <c r="AQ27" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>SUM(AN27:AP27)</f>
+        <v>1</v>
       </c>
       <c r="AR27" s="1">
         <v>3</v>
       </c>
       <c r="AS27" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>(AQ27/AR27)*100</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="AT27" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS27&gt;=20,2,0),IF(AS27&gt;=40,3,0),IF(AS27&gt;=60,4,0),IF(AS27&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AU27" s="4">
         <v>0</v>
       </c>
       <c r="AV27" s="4">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
+        <f>(AM27+AT27+AU27)/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AW27" s="5"/>
     </row>
     <row r="28" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -3892,168 +4038,138 @@
         <v>1.5</v>
       </c>
       <c r="F28" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1">
-        <f t="shared" si="8"/>
-        <v>5.9499999999999993</v>
+        <f>SUM(C28:U28)</f>
+        <v>5.15</v>
       </c>
       <c r="W28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="X28" s="1">
         <v>0.1</v>
       </c>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1">
+        <f>SUM(W28:AH28)</f>
         <v>0.1</v>
       </c>
-      <c r="AI28" s="1">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6499999999999995</v>
+        <f>V28+AI28</f>
+        <v>5.25</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="1"/>
+        <f>AK29</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.34278350515463918</v>
+        <f>(AJ28/AK28)</f>
+        <v>0.27061855670103097</v>
       </c>
       <c r="AM28" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL28*100&gt;=20,2,0),IF(AL28*100&gt;=40,3,0),IF(AL28*100&gt;=60,4,0),IF(AL28*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
-      <c r="AN28" s="1">
-        <v>1</v>
-      </c>
+      <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="AP28" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="AP28" s="1"/>
       <c r="AQ28" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2</v>
+        <f>SUM(AN28:AP28)</f>
+        <v>0</v>
       </c>
       <c r="AR28" s="1">
         <v>3</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f>(AQ28/AR28)*100</f>
+        <v>0</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>MAX(IF(AS28&gt;=20,2,0),IF(AS28&gt;=40,3,0),IF(AS28&gt;=60,4,0),IF(AS28&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU28" s="4">
         <v>0</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f>(AM28+AT28+AU28)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW28" s="5"/>
     </row>
     <row r="29" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>1.5</v>
       </c>
       <c r="G29" s="1">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
         <v>0.6</v>
       </c>
-      <c r="J29" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.2</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1">
-        <f t="shared" si="8"/>
-        <v>6.9499999999999993</v>
+        <f>SUM(C29:U29)</f>
+        <v>5.2</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
       </c>
-      <c r="X29" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
@@ -4065,50 +4181,50 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>SUM(W29:AH29)</f>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0499999999999989</v>
+        <f>V29+AI29</f>
+        <v>5.2</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="1"/>
+        <f>AK30</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.36340206185567009</v>
+        <f>(AJ29/AK29)</f>
+        <v>0.26804123711340211</v>
       </c>
       <c r="AM29" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL29*100&gt;=20,2,0),IF(AL29*100&gt;=40,3,0),IF(AL29*100&gt;=60,4,0),IF(AL29*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ29" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>SUM(AN29:AP29)</f>
+        <v>0.8</v>
       </c>
       <c r="AR29" s="1">
         <v>3</v>
       </c>
       <c r="AS29" s="4">
-        <f t="shared" si="5"/>
-        <v>33.333333333333329</v>
+        <f>(AQ29/AR29)*100</f>
+        <v>26.666666666666668</v>
       </c>
       <c r="AT29" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS29&gt;=20,2,0),IF(AS29&gt;=40,3,0),IF(AS29&gt;=60,4,0),IF(AS29&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AU29" s="4">
         <v>0</v>
       </c>
       <c r="AV29" s="4">
-        <f t="shared" si="7"/>
+        <f>(AM29+AT29+AU29)/3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW29" s="5"/>
@@ -4116,7 +4232,7 @@
     <row r="30" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -4129,13 +4245,15 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>0.3</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4146,8 +4264,8 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f>SUM(C30:U30)</f>
+        <v>4.95</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -4160,52 +4278,56 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+      <c r="AF30" s="1">
+        <v>0.1</v>
+      </c>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(W30:AH30)</f>
+        <v>0.1</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>V30+AI30</f>
+        <v>5.05</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="1"/>
+        <f>AK31</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.25773195876288663</v>
+        <f>(AJ30/AK30)</f>
+        <v>0.26030927835051548</v>
       </c>
       <c r="AM30" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL30*100&gt;=20,2,0),IF(AL30*100&gt;=40,3,0),IF(AL30*100&gt;=60,4,0),IF(AL30*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
-      <c r="AN30" s="1"/>
+      <c r="AN30" s="1">
+        <v>0.5</v>
+      </c>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(AN30:AP30)</f>
+        <v>0.5</v>
       </c>
       <c r="AR30" s="1">
         <v>3</v>
       </c>
       <c r="AS30" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(AQ30/AR30)*100</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="AT30" s="4">
-        <f t="shared" si="6"/>
+        <f>MAX(IF(AS30&gt;=20,2,0),IF(AS30&gt;=40,3,0),IF(AS30&gt;=60,4,0),IF(AS30&gt;=80,5,0))</f>
         <v>0</v>
       </c>
       <c r="AU30" s="4">
         <v>0</v>
       </c>
       <c r="AV30" s="4">
-        <f t="shared" si="7"/>
+        <f>(AM30+AT30+AU30)/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AW30" s="5"/>
@@ -4213,44 +4335,38 @@
     <row r="31" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F31" s="1">
         <v>1.5</v>
       </c>
       <c r="G31" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
-        <f t="shared" si="8"/>
-        <v>5.2</v>
+        <f>SUM(C31:U31)</f>
+        <v>5</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -4267,58 +4383,56 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1">
-        <f t="shared" si="9"/>
+        <f>SUM(W31:AH31)</f>
         <v>0</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
+        <f>V31+AI31</f>
+        <v>5</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="1"/>
+        <f>AK32</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.26804123711340211</v>
+        <f>(AJ31/AK31)</f>
+        <v>0.25773195876288663</v>
       </c>
       <c r="AM31" s="4">
-        <f t="shared" si="3"/>
+        <f>MAX(IF(AL31*100&gt;=20,2,0),IF(AL31*100&gt;=40,3,0),IF(AL31*100&gt;=60,4,0),IF(AL31*100&gt;=80,5,0))</f>
         <v>2</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="AP31" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="AP31" s="1"/>
       <c r="AQ31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+        <f>SUM(AN31:AP31)</f>
+        <v>0</v>
       </c>
       <c r="AR31" s="1">
         <v>3</v>
       </c>
       <c r="AS31" s="4">
-        <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
+        <f>(AQ31/AR31)*100</f>
+        <v>0</v>
       </c>
       <c r="AT31" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>MAX(IF(AS31&gt;=20,2,0),IF(AS31&gt;=40,3,0),IF(AS31&gt;=60,4,0),IF(AS31&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU31" s="4">
         <v>0</v>
       </c>
       <c r="AV31" s="4">
-        <f t="shared" si="7"/>
-        <v>1.3333333333333333</v>
+        <f>(AM31+AT31+AU31)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW31" s="5"/>
     </row>
     <row r="32" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -4328,176 +4442,136 @@
         <v>1.5</v>
       </c>
       <c r="F32" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>1</v>
-      </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U32" s="1"/>
       <c r="V32" s="1">
-        <f t="shared" si="8"/>
-        <v>13.399999999999999</v>
+        <f>SUM(C32:U32)</f>
+        <v>4.5</v>
       </c>
       <c r="W32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1">
-        <f t="shared" si="9"/>
-        <v>0.79999999999999993</v>
+        <f>SUM(W32:AH32)</f>
+        <v>0</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="0"/>
-        <v>14.2</v>
+        <f>V32+AI32</f>
+        <v>4.5</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="1"/>
+        <f>AK33</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.731958762886598</v>
+        <f>(AJ32/AK32)</f>
+        <v>0.23195876288659795</v>
       </c>
       <c r="AM32" s="4">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>1</v>
-      </c>
+        <f>MAX(IF(AL32*100&gt;=20,2,0),IF(AL32*100&gt;=40,3,0),IF(AL32*100&gt;=60,4,0),IF(AL32*100&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
       <c r="AQ32" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>SUM(AN32:AP32)</f>
+        <v>0</v>
       </c>
       <c r="AR32" s="1">
         <v>3</v>
       </c>
       <c r="AS32" s="4">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>(AQ32/AR32)*100</f>
+        <v>0</v>
       </c>
       <c r="AT32" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS32&gt;=20,2,0),IF(AS32&gt;=40,3,0),IF(AS32&gt;=60,4,0),IF(AS32&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU32" s="4">
         <v>0</v>
       </c>
       <c r="AV32" s="4">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f>(AM32+AT32+AU32)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW32" s="5"/>
     </row>
     <row r="33" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>0.65</v>
       </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1">
         <v>0.1</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
         <v>0.2</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1">
-        <f t="shared" si="8"/>
-        <v>8.4499999999999993</v>
+        <f>SUM(C33:U33)</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W33" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -4511,184 +4585,156 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1">
-        <f t="shared" si="9"/>
-        <v>0.1</v>
+        <f>SUM(W33:AH33)</f>
+        <v>0</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5499999999999989</v>
+        <f>V33+AI33</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="1"/>
+        <f>AK34</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AL33" s="7">
-        <f t="shared" si="2"/>
-        <v>0.44072164948453607</v>
+        <f>(AJ33/AK33)</f>
+        <v>0.21134020618556701</v>
       </c>
       <c r="AM33" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>MAX(IF(AL33*100&gt;=20,2,0),IF(AL33*100&gt;=40,3,0),IF(AL33*100&gt;=60,4,0),IF(AL33*100&gt;=80,5,0))</f>
+        <v>2</v>
       </c>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AP33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1">
+        <v>0.2</v>
+      </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="4"/>
-        <v>0.6</v>
+        <f>SUM(AN33:AP33)</f>
+        <v>0.2</v>
       </c>
       <c r="AR33" s="1">
         <v>3</v>
       </c>
       <c r="AS33" s="4">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f>(AQ33/AR33)*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="AT33" s="4">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>MAX(IF(AS33&gt;=20,2,0),IF(AS33&gt;=40,3,0),IF(AS33&gt;=60,4,0),IF(AS33&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU33" s="4">
         <v>0</v>
       </c>
       <c r="AV33" s="4">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f>(AM33+AT33+AU33)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW33" s="5"/>
     </row>
     <row r="34" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.5</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.6</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U34" s="1"/>
       <c r="V34" s="1">
-        <f t="shared" si="8"/>
-        <v>15.45</v>
+        <f>SUM(C34:U34)</f>
+        <v>3.95</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="Z34" s="1"/>
       <c r="AA34" s="1">
         <v>0.1</v>
       </c>
-      <c r="AB34" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1">
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1">
+        <f>SUM(W34:AH34)</f>
         <v>0.1</v>
       </c>
-      <c r="AH34" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="AI34" s="1">
-        <f t="shared" si="9"/>
+      <c r="AJ34" s="1">
+        <f>V34+AI34</f>
+        <v>4.05</v>
+      </c>
+      <c r="AK34" s="1">
+        <f>AK35</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AL34" s="7">
+        <f>(AJ34/AK34)</f>
+        <v>0.20876288659793815</v>
+      </c>
+      <c r="AM34" s="4">
+        <f>MAX(IF(AL34*100&gt;=20,2,0),IF(AL34*100&gt;=40,3,0),IF(AL34*100&gt;=60,4,0),IF(AL34*100&gt;=80,5,0))</f>
+        <v>2</v>
+      </c>
+      <c r="AN34" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ34" s="1">
-        <f t="shared" si="0"/>
-        <v>15.95</v>
-      </c>
-      <c r="AK34" s="1">
-        <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AL34" s="7">
-        <f t="shared" si="2"/>
-        <v>0.82216494845360832</v>
-      </c>
-      <c r="AM34" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>1</v>
-      </c>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
       <c r="AQ34" s="1">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
+        <f>SUM(AN34:AP34)</f>
+        <v>0.5</v>
       </c>
       <c r="AR34" s="1">
         <v>3</v>
       </c>
       <c r="AS34" s="4">
-        <f t="shared" si="5"/>
-        <v>86.666666666666671</v>
+        <f>(AQ34/AR34)*100</f>
+        <v>16.666666666666664</v>
       </c>
       <c r="AT34" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>MAX(IF(AS34&gt;=20,2,0),IF(AS34&gt;=40,3,0),IF(AS34&gt;=60,4,0),IF(AS34&gt;=80,5,0))</f>
+        <v>0</v>
       </c>
       <c r="AU34" s="4">
         <v>0</v>
       </c>
       <c r="AV34" s="4">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
+        <f>(AM34+AT34+AU34)/3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW34" s="5"/>
     </row>
@@ -4743,7 +4789,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="V3:V35" si="0">SUM(C35:U35)</f>
         <v>17</v>
       </c>
       <c r="W35" s="1">
@@ -4783,11 +4829,11 @@
         <v>0.2</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AI3:AI35" si="1">SUM(W35:AH35)</f>
         <v>2.4</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" ref="AJ35" si="10">V35+AI35</f>
+        <f t="shared" ref="AJ35" si="2">V35+AI35</f>
         <v>19.399999999999999</v>
       </c>
       <c r="AK35" s="4">
@@ -4795,11 +4841,11 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" ref="AL35" si="11">(AJ35/AK35)</f>
+        <f t="shared" ref="AL35" si="3">(AJ35/AK35)</f>
         <v>1</v>
       </c>
       <c r="AM35" s="4">
-        <f t="shared" ref="AM35" si="12">MAX(IF(AL35*100&gt;=20,2,0),IF(AL35*100&gt;=40,3,0),IF(AL35*100&gt;=60,4,0),IF(AL35*100&gt;=80,5,0))</f>
+        <f t="shared" ref="AM35" si="4">MAX(IF(AL35*100&gt;=20,2,0),IF(AL35*100&gt;=40,3,0),IF(AL35*100&gt;=60,4,0),IF(AL35*100&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AN35" s="1">
@@ -4812,25 +4858,25 @@
         <v>1</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" ref="AQ35" si="13">SUM(AN35:AP35)</f>
+        <f t="shared" ref="AQ35" si="5">SUM(AN35:AP35)</f>
         <v>3</v>
       </c>
       <c r="AR35" s="1">
         <v>3</v>
       </c>
       <c r="AS35" s="4">
-        <f t="shared" ref="AS35" si="14">(AQ35/AR35)*100</f>
+        <f t="shared" ref="AS35" si="6">(AQ35/AR35)*100</f>
         <v>100</v>
       </c>
       <c r="AT35" s="4">
-        <f t="shared" ref="AT35" si="15">MAX(IF(AS35&gt;=20,2,0),IF(AS35&gt;=40,3,0),IF(AS35&gt;=60,4,0),IF(AS35&gt;=80,5,0))</f>
+        <f t="shared" ref="AT35" si="7">MAX(IF(AS35&gt;=20,2,0),IF(AS35&gt;=40,3,0),IF(AS35&gt;=60,4,0),IF(AS35&gt;=80,5,0))</f>
         <v>5</v>
       </c>
       <c r="AU35" s="4">
         <v>0</v>
       </c>
       <c r="AV35" s="4">
-        <f t="shared" ref="AV35" si="16">(AM35+AT35+AU35)/3</f>
+        <f t="shared" ref="AV35" si="8">(AM35+AT35+AU35)/3</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="AW35" s="5"/>
@@ -14782,7 +14828,8 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW34">
-    <sortCondition ref="B2:B34"/>
+    <sortCondition descending="1" ref="AJ2:AJ34"/>
+    <sortCondition descending="1" ref="AO2:AO34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
